--- a/implementation/Documentation/IMKL3_Codelists.xlsx
+++ b/implementation/Documentation/IMKL3_Codelists.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\IMKL 3\Implementatie\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\Belgif\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BDA04D52-903B-42FF-BF46-D294E7FA98CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52998FE-8173-40AA-8DEC-66C7FDA61F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" activeTab="1" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2302" uniqueCount="859">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="860">
   <si>
     <t>nilReason</t>
   </si>
@@ -2632,6 +2632,9 @@
   </si>
   <si>
     <t>E.g. cables used to convey data.</t>
+  </si>
+  <si>
+    <t>UtilityLink</t>
   </si>
 </sst>
 </file>
@@ -3094,7 +3097,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12F05A2-F84B-4BFA-ADF4-7302F1870D77}">
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
@@ -3976,10 +3979,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64294C56-C363-4325-A21C-BEAD7C56353B}">
-  <dimension ref="A1:D155"/>
+  <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="A156" sqref="A156"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -6312,6 +6315,21 @@
       <c r="D155" t="str">
         <f>VLOOKUP(C155,Overview!B:B,1,0)</f>
         <v>WaterTypeValue</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>859</v>
+      </c>
+      <c r="B156" t="s">
+        <v>593</v>
+      </c>
+      <c r="C156" t="s">
+        <v>8</v>
+      </c>
+      <c r="D156" t="str">
+        <f>VLOOKUP(C156,Overview!B:B,1,0)</f>
+        <v>ConditionOfFacilityValue</v>
       </c>
     </row>
   </sheetData>
@@ -6335,7 +6353,7 @@
   <sheetViews>
     <sheetView topLeftCell="B1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A91" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B114" sqref="B114"/>
+      <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -13809,6 +13827,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -14068,16 +14095,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC2C1C4-4794-4CDA-B113-FDC4260BCF94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{791B434E-C5B6-43DF-B218-859297235BBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14095,12 +14121,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC2C1C4-4794-4CDA-B113-FDC4260BCF94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/implementation/Documentation/IMKL3_Codelists.xlsx
+++ b/implementation/Documentation/IMKL3_Codelists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\Belgif\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E52998FE-8173-40AA-8DEC-66C7FDA61F5F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFA2361-FA15-403A-A1BD-FA99126767B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" activeTab="1" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
+    <workbookView xWindow="16332" yWindow="5688" windowWidth="34560" windowHeight="22452" activeTab="1" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Codelists" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Codelist Usage'!$A$1:$D$155</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Codelist Usage'!$A$1:$D$156</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Codelists!$A$1:$I$250</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$E$47</definedName>
   </definedNames>
@@ -1751,9 +1751,6 @@
     <t>Property</t>
   </si>
   <si>
-    <t>ElectriticyCable</t>
-  </si>
-  <si>
     <t>subtheme</t>
   </si>
   <si>
@@ -2635,6 +2632,9 @@
   </si>
   <si>
     <t>UtilityLink</t>
+  </si>
+  <si>
+    <t>ElectricityCable</t>
   </si>
 </sst>
 </file>
@@ -3145,7 +3145,7 @@
         <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -3186,7 +3186,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ActivityValue</v>
       </c>
       <c r="E2" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -3204,7 +3204,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue</v>
       </c>
       <c r="E3" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -3222,7 +3222,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue</v>
       </c>
       <c r="E4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -3237,7 +3237,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue</v>
       </c>
       <c r="E5" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -3255,7 +3255,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue</v>
       </c>
       <c r="E6" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -3273,7 +3273,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue</v>
       </c>
       <c r="E7" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -3291,7 +3291,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue</v>
       </c>
       <c r="E8" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -3309,7 +3309,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ElectricityAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E9" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -3317,7 +3317,7 @@
         <v>449</v>
       </c>
       <c r="B10" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>150</v>
@@ -3327,7 +3327,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue</v>
       </c>
       <c r="E10" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -3345,7 +3345,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue</v>
       </c>
       <c r="E11" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -3363,7 +3363,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue</v>
       </c>
       <c r="E12" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -3392,7 +3392,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E14" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -3400,7 +3400,7 @@
         <v>453</v>
       </c>
       <c r="B15" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>150</v>
@@ -3410,7 +3410,7 @@
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue</v>
       </c>
       <c r="E15" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -3428,7 +3428,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="E16" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3446,7 +3446,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue</v>
       </c>
       <c r="E17" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3464,7 +3464,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue</v>
       </c>
       <c r="E18" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3479,7 +3479,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue</v>
       </c>
       <c r="E19" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3497,7 +3497,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E20" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3505,7 +3505,7 @@
         <v>456</v>
       </c>
       <c r="B21" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>150</v>
@@ -3515,7 +3515,7 @@
         <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue</v>
       </c>
       <c r="E21" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3533,7 +3533,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue</v>
       </c>
       <c r="E22" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3541,7 +3541,7 @@
         <v>415</v>
       </c>
       <c r="B23" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>150</v>
@@ -3551,7 +3551,7 @@
         <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue</v>
       </c>
       <c r="E23" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3566,7 +3566,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue</v>
       </c>
       <c r="E24" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3577,7 +3577,7 @@
         <v>487</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3595,7 +3595,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E26" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3603,17 +3603,17 @@
         <v>407</v>
       </c>
       <c r="B27" t="s">
+        <v>650</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>651</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>652</v>
       </c>
       <c r="D27" s="4" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B27</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue</v>
       </c>
       <c r="E27" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3631,7 +3631,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsSubthemeValue</v>
       </c>
       <c r="E28" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3649,7 +3649,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E29" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3667,7 +3667,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue</v>
       </c>
       <c r="E30" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3675,10 +3675,10 @@
         <v>506</v>
       </c>
       <c r="B31" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3696,12 +3696,12 @@
         <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue</v>
       </c>
       <c r="E32" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="B33" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>531</v>
@@ -3711,7 +3711,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-UtilityDeliveryTypeIMKLValue</v>
       </c>
       <c r="E33" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3719,7 +3719,7 @@
         <v>433</v>
       </c>
       <c r="B34" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>150</v>
@@ -3729,12 +3729,12 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue</v>
       </c>
       <c r="E34" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="B35" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>531</v>
@@ -3744,7 +3744,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue</v>
       </c>
       <c r="E35" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3752,7 +3752,7 @@
         <v>492</v>
       </c>
       <c r="B36" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>150</v>
@@ -3762,7 +3762,7 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue</v>
       </c>
       <c r="E36" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3776,10 +3776,10 @@
         <v>199</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="E37" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3794,7 +3794,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue</v>
       </c>
       <c r="E38" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3812,7 +3812,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue</v>
       </c>
       <c r="E39" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3820,7 +3820,7 @@
         <v>442</v>
       </c>
       <c r="B40" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>150</v>
@@ -3830,7 +3830,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue</v>
       </c>
       <c r="E40" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3848,7 +3848,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E41" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3856,7 +3856,7 @@
         <v>466</v>
       </c>
       <c r="B42" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>150</v>
@@ -3866,7 +3866,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue</v>
       </c>
       <c r="E42" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3884,7 +3884,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue</v>
       </c>
       <c r="E43" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3892,7 +3892,7 @@
         <v>424</v>
       </c>
       <c r="B44" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>150</v>
@@ -3902,7 +3902,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterTypeValue</v>
       </c>
       <c r="E44" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3981,8 +3981,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64294C56-C363-4325-A21C-BEAD7C56353B}">
   <dimension ref="A1:D156"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="A156" sqref="A156"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A140" sqref="A140"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3995,7 +3995,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>565</v>
@@ -4004,15 +4004,15 @@
         <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>594</v>
+      </c>
+      <c r="B2" t="s">
         <v>595</v>
-      </c>
-      <c r="B2" t="s">
-        <v>596</v>
       </c>
       <c r="C2" t="s">
         <v>523</v>
@@ -4024,10 +4024,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>574</v>
+      </c>
+      <c r="B3" t="s">
         <v>575</v>
-      </c>
-      <c r="B3" t="s">
-        <v>576</v>
       </c>
       <c r="C3" t="s">
         <v>167</v>
@@ -4039,10 +4039,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4054,10 +4054,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B5" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -4069,10 +4069,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B6" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -4084,10 +4084,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B7" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4099,10 +4099,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>566</v>
+        <v>859</v>
       </c>
       <c r="B8" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -4114,10 +4114,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B9" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -4129,10 +4129,10 @@
     </row>
     <row r="10" spans="1:4">
       <c r="A10" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B10" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4144,10 +4144,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B11" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4159,10 +4159,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B12" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -4174,10 +4174,10 @@
     </row>
     <row r="13" spans="1:4">
       <c r="A13" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B13" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -4189,10 +4189,10 @@
     </row>
     <row r="14" spans="1:4">
       <c r="A14" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B14" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -4204,10 +4204,10 @@
     </row>
     <row r="15" spans="1:4">
       <c r="A15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B15" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -4219,10 +4219,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B16" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -4234,10 +4234,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>591</v>
+      </c>
+      <c r="B17" t="s">
         <v>592</v>
-      </c>
-      <c r="B17" t="s">
-        <v>593</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -4249,10 +4249,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B18" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C18" t="s">
         <v>8</v>
@@ -4264,10 +4264,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B19" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C19" t="s">
         <v>552</v>
@@ -4279,10 +4279,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>566</v>
+        <v>859</v>
       </c>
       <c r="B20" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C20" t="s">
         <v>552</v>
@@ -4294,10 +4294,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B21" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C21" t="s">
         <v>552</v>
@@ -4309,10 +4309,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B22" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C22" t="s">
         <v>552</v>
@@ -4324,10 +4324,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B23" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C23" t="s">
         <v>552</v>
@@ -4339,10 +4339,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B24" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C24" t="s">
         <v>552</v>
@@ -4354,10 +4354,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B25" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C25" t="s">
         <v>552</v>
@@ -4369,10 +4369,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B26" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="C26" t="s">
         <v>552</v>
@@ -4384,10 +4384,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B27" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C27" t="s">
         <v>192</v>
@@ -4399,10 +4399,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B28" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="C28" t="s">
         <v>192</v>
@@ -4414,10 +4414,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="B29" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C29" t="s">
         <v>182</v>
@@ -4429,10 +4429,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B30" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C30" t="s">
         <v>182</v>
@@ -4444,10 +4444,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
+        <v>576</v>
+      </c>
+      <c r="B31" t="s">
         <v>577</v>
-      </c>
-      <c r="B31" t="s">
-        <v>578</v>
       </c>
       <c r="C31" t="s">
         <v>180</v>
@@ -4459,10 +4459,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B32" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C32" t="s">
         <v>180</v>
@@ -4474,10 +4474,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
+        <v>580</v>
+      </c>
+      <c r="B33" t="s">
         <v>581</v>
-      </c>
-      <c r="B33" t="s">
-        <v>582</v>
       </c>
       <c r="C33" t="s">
         <v>276</v>
@@ -4489,10 +4489,10 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B34" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C34" t="s">
         <v>276</v>
@@ -4504,13 +4504,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
+        <v>580</v>
+      </c>
+      <c r="B35" t="s">
         <v>581</v>
       </c>
-      <c r="B35" t="s">
-        <v>582</v>
-      </c>
       <c r="C35" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D35" t="str">
         <f>VLOOKUP(C35,Overview!B:B,1,0)</f>
@@ -4519,13 +4519,13 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B36" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C36" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D36" t="str">
         <f>VLOOKUP(C36,Overview!B:B,1,0)</f>
@@ -4534,10 +4534,10 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B37" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C37" t="s">
         <v>524</v>
@@ -4549,10 +4549,10 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B38" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C38" t="s">
         <v>524</v>
@@ -4564,10 +4564,10 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
+        <v>859</v>
+      </c>
+      <c r="B39" t="s">
         <v>566</v>
-      </c>
-      <c r="B39" t="s">
-        <v>567</v>
       </c>
       <c r="C39" t="s">
         <v>524</v>
@@ -4579,10 +4579,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B40" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C40" t="s">
         <v>524</v>
@@ -4594,10 +4594,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B41" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C41" t="s">
         <v>344</v>
@@ -4609,10 +4609,10 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>566</v>
+        <v>859</v>
       </c>
       <c r="B42" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C42" t="s">
         <v>344</v>
@@ -4624,10 +4624,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B43" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C43" t="s">
         <v>344</v>
@@ -4639,10 +4639,10 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B44" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C44" t="s">
         <v>344</v>
@@ -4654,10 +4654,10 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B45" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C45" t="s">
         <v>344</v>
@@ -4669,10 +4669,10 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B46" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C46" t="s">
         <v>344</v>
@@ -4684,10 +4684,10 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B47" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C47" t="s">
         <v>344</v>
@@ -4699,10 +4699,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B48" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C48" t="s">
         <v>344</v>
@@ -4714,10 +4714,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
+        <v>580</v>
+      </c>
+      <c r="B49" t="s">
         <v>581</v>
-      </c>
-      <c r="B49" t="s">
-        <v>582</v>
       </c>
       <c r="C49" t="s">
         <v>285</v>
@@ -4729,10 +4729,10 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B50" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C50" t="s">
         <v>285</v>
@@ -4744,13 +4744,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
+        <v>580</v>
+      </c>
+      <c r="B51" t="s">
         <v>581</v>
       </c>
-      <c r="B51" t="s">
-        <v>582</v>
-      </c>
       <c r="C51" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D51" t="str">
         <f>VLOOKUP(C51,Overview!B:B,1,0)</f>
@@ -4759,13 +4759,13 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B52" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C52" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D52" t="str">
         <f>VLOOKUP(C52,Overview!B:B,1,0)</f>
@@ -4774,10 +4774,10 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B53" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="C53" t="s">
         <v>12</v>
@@ -4789,10 +4789,10 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B54" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C54" t="s">
         <v>525</v>
@@ -4804,10 +4804,10 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B55" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C55" t="s">
         <v>525</v>
@@ -4819,10 +4819,10 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B56" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C56" t="s">
         <v>525</v>
@@ -4834,10 +4834,10 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B57" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C57" t="s">
         <v>525</v>
@@ -4849,10 +4849,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B58" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="C58" t="s">
         <v>149</v>
@@ -4864,10 +4864,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B59" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="C59" t="s">
         <v>17</v>
@@ -4879,10 +4879,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
+        <v>580</v>
+      </c>
+      <c r="B60" t="s">
         <v>581</v>
-      </c>
-      <c r="B60" t="s">
-        <v>582</v>
       </c>
       <c r="C60" t="s">
         <v>320</v>
@@ -4894,10 +4894,10 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B61" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C61" t="s">
         <v>320</v>
@@ -4909,13 +4909,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
+        <v>580</v>
+      </c>
+      <c r="B62" t="s">
         <v>581</v>
       </c>
-      <c r="B62" t="s">
-        <v>582</v>
-      </c>
       <c r="C62" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D62" t="str">
         <f>VLOOKUP(C62,Overview!B:B,1,0)</f>
@@ -4924,13 +4924,13 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B63" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C63" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D63" t="str">
         <f>VLOOKUP(C63,Overview!B:B,1,0)</f>
@@ -4939,10 +4939,10 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B64" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C64" t="s">
         <v>526</v>
@@ -4954,10 +4954,10 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B65" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C65" t="s">
         <v>526</v>
@@ -4969,10 +4969,10 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B66" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C66" t="s">
         <v>526</v>
@@ -4984,10 +4984,10 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B67" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C67" t="s">
         <v>526</v>
@@ -4999,13 +4999,13 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B68" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C68" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="D68" t="str">
         <f>VLOOKUP(C68,Overview!B:B,1,0)</f>
@@ -5014,10 +5014,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B69" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
@@ -5029,10 +5029,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
+        <v>580</v>
+      </c>
+      <c r="B70" t="s">
         <v>581</v>
-      </c>
-      <c r="B70" t="s">
-        <v>582</v>
       </c>
       <c r="C70" t="s">
         <v>397</v>
@@ -5044,10 +5044,10 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B71" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C71" t="s">
         <v>397</v>
@@ -5059,13 +5059,13 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B72" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C72" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D72" t="str">
         <f>VLOOKUP(C72,Overview!B:B,1,0)</f>
@@ -5074,10 +5074,10 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B73" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C73" t="s">
         <v>527</v>
@@ -5089,10 +5089,10 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B74" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C74" t="s">
         <v>527</v>
@@ -5104,10 +5104,10 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B75" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C75" t="s">
         <v>527</v>
@@ -5119,10 +5119,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B76" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C76" t="s">
         <v>527</v>
@@ -5134,10 +5134,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
+        <v>580</v>
+      </c>
+      <c r="B77" t="s">
         <v>581</v>
-      </c>
-      <c r="B77" t="s">
-        <v>582</v>
       </c>
       <c r="C77" t="s">
         <v>337</v>
@@ -5149,10 +5149,10 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B78" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C78" t="s">
         <v>337</v>
@@ -5164,10 +5164,10 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B79" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C79" t="s">
         <v>403</v>
@@ -5179,10 +5179,10 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B80" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C80" t="s">
         <v>528</v>
@@ -5194,10 +5194,10 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B81" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C81" t="s">
         <v>528</v>
@@ -5209,10 +5209,10 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B82" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C82" t="s">
         <v>528</v>
@@ -5224,10 +5224,10 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B83" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C83" t="s">
         <v>528</v>
@@ -5239,13 +5239,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B84" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C84" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D84" t="str">
         <f>VLOOKUP(C84,Overview!B:B,1,0)</f>
@@ -5254,13 +5254,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>566</v>
+        <v>859</v>
       </c>
       <c r="B85" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C85" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D85" t="str">
         <f>VLOOKUP(C85,Overview!B:B,1,0)</f>
@@ -5269,13 +5269,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B86" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C86" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D86" t="str">
         <f>VLOOKUP(C86,Overview!B:B,1,0)</f>
@@ -5284,13 +5284,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B87" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C87" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D87" t="str">
         <f>VLOOKUP(C87,Overview!B:B,1,0)</f>
@@ -5299,13 +5299,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B88" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C88" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D88" t="str">
         <f>VLOOKUP(C88,Overview!B:B,1,0)</f>
@@ -5314,13 +5314,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B89" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C89" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D89" t="str">
         <f>VLOOKUP(C89,Overview!B:B,1,0)</f>
@@ -5329,13 +5329,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B90" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C90" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D90" t="str">
         <f>VLOOKUP(C90,Overview!B:B,1,0)</f>
@@ -5344,13 +5344,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B91" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C91" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D91" t="str">
         <f>VLOOKUP(C91,Overview!B:B,1,0)</f>
@@ -5359,13 +5359,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B92" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C92" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D92" t="str">
         <f>VLOOKUP(C92,Overview!B:B,1,0)</f>
@@ -5374,13 +5374,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>566</v>
+        <v>859</v>
       </c>
       <c r="B93" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C93" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D93" t="str">
         <f>VLOOKUP(C93,Overview!B:B,1,0)</f>
@@ -5389,13 +5389,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B94" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C94" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D94" t="str">
         <f>VLOOKUP(C94,Overview!B:B,1,0)</f>
@@ -5404,13 +5404,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B95" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C95" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D95" t="str">
         <f>VLOOKUP(C95,Overview!B:B,1,0)</f>
@@ -5419,13 +5419,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B96" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C96" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D96" t="str">
         <f>VLOOKUP(C96,Overview!B:B,1,0)</f>
@@ -5434,13 +5434,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B97" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C97" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D97" t="str">
         <f>VLOOKUP(C97,Overview!B:B,1,0)</f>
@@ -5449,13 +5449,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B98" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C98" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D98" t="str">
         <f>VLOOKUP(C98,Overview!B:B,1,0)</f>
@@ -5464,13 +5464,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B99" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="C99" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D99" t="str">
         <f>VLOOKUP(C99,Overview!B:B,1,0)</f>
@@ -5479,13 +5479,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
+        <v>589</v>
+      </c>
+      <c r="B100" t="s">
         <v>590</v>
       </c>
-      <c r="B100" t="s">
-        <v>591</v>
-      </c>
       <c r="C100" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D100" t="str">
         <f>VLOOKUP(C100,Overview!B:B,1,0)</f>
@@ -5494,13 +5494,13 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
+        <v>589</v>
+      </c>
+      <c r="B101" t="s">
         <v>590</v>
       </c>
-      <c r="B101" t="s">
-        <v>591</v>
-      </c>
       <c r="C101" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D101" t="str">
         <f>VLOOKUP(C101,Overview!B:B,1,0)</f>
@@ -5509,10 +5509,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B102" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C102" t="s">
         <v>516</v>
@@ -5524,10 +5524,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B103" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C103" t="s">
         <v>516</v>
@@ -5539,10 +5539,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B104" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C104" t="s">
         <v>516</v>
@@ -5554,10 +5554,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B105" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C105" t="s">
         <v>516</v>
@@ -5569,10 +5569,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>566</v>
+        <v>859</v>
       </c>
       <c r="B106" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C106" t="s">
         <v>516</v>
@@ -5584,10 +5584,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B107" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C107" t="s">
         <v>516</v>
@@ -5599,10 +5599,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B108" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C108" t="s">
         <v>516</v>
@@ -5614,10 +5614,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B109" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C109" t="s">
         <v>516</v>
@@ -5629,10 +5629,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B110" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C110" t="s">
         <v>516</v>
@@ -5644,10 +5644,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B111" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C111" t="s">
         <v>516</v>
@@ -5659,10 +5659,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B112" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C112" t="s">
         <v>516</v>
@@ -5674,10 +5674,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B113" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C113" t="s">
         <v>516</v>
@@ -5689,10 +5689,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B114" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C114" t="s">
         <v>516</v>
@@ -5704,10 +5704,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B115" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C115" t="s">
         <v>516</v>
@@ -5719,10 +5719,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B116" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="C116" t="s">
         <v>516</v>
@@ -5734,10 +5734,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B117" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C117" t="s">
         <v>13</v>
@@ -5749,10 +5749,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B118" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
@@ -5764,10 +5764,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B119" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
@@ -5779,10 +5779,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B120" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
@@ -5794,10 +5794,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>566</v>
+        <v>859</v>
       </c>
       <c r="B121" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
@@ -5809,10 +5809,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B122" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
@@ -5824,10 +5824,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B123" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
@@ -5839,10 +5839,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B124" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
@@ -5854,10 +5854,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B125" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C125" t="s">
         <v>13</v>
@@ -5869,10 +5869,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B126" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
@@ -5884,10 +5884,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B127" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C127" t="s">
         <v>13</v>
@@ -5899,10 +5899,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B128" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C128" t="s">
         <v>13</v>
@@ -5914,10 +5914,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B129" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C129" t="s">
         <v>13</v>
@@ -5929,10 +5929,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B130" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C130" t="s">
         <v>13</v>
@@ -5944,10 +5944,10 @@
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B131" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C131" t="s">
         <v>333</v>
@@ -5959,10 +5959,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>566</v>
+        <v>859</v>
       </c>
       <c r="B132" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C132" t="s">
         <v>333</v>
@@ -5974,10 +5974,10 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B133" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C133" t="s">
         <v>333</v>
@@ -5989,10 +5989,10 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B134" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C134" t="s">
         <v>333</v>
@@ -6004,10 +6004,10 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B135" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C135" t="s">
         <v>333</v>
@@ -6019,10 +6019,10 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B136" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C136" t="s">
         <v>333</v>
@@ -6034,10 +6034,10 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B137" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C137" t="s">
         <v>333</v>
@@ -6049,10 +6049,10 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B138" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C138" t="s">
         <v>333</v>
@@ -6064,13 +6064,13 @@
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B139" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C139" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D139" t="str">
         <f>VLOOKUP(C139,Overview!B:B,1,0)</f>
@@ -6079,13 +6079,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>566</v>
+        <v>859</v>
       </c>
       <c r="B140" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C140" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D140" t="str">
         <f>VLOOKUP(C140,Overview!B:B,1,0)</f>
@@ -6094,13 +6094,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B141" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C141" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D141" t="str">
         <f>VLOOKUP(C141,Overview!B:B,1,0)</f>
@@ -6109,13 +6109,13 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B142" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C142" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D142" t="str">
         <f>VLOOKUP(C142,Overview!B:B,1,0)</f>
@@ -6124,13 +6124,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B143" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C143" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D143" t="str">
         <f>VLOOKUP(C143,Overview!B:B,1,0)</f>
@@ -6139,13 +6139,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B144" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C144" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D144" t="str">
         <f>VLOOKUP(C144,Overview!B:B,1,0)</f>
@@ -6154,13 +6154,13 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B145" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C145" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D145" t="str">
         <f>VLOOKUP(C145,Overview!B:B,1,0)</f>
@@ -6169,13 +6169,13 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B146" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C146" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D146" t="str">
         <f>VLOOKUP(C146,Overview!B:B,1,0)</f>
@@ -6184,10 +6184,10 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
+        <v>580</v>
+      </c>
+      <c r="B147" t="s">
         <v>581</v>
-      </c>
-      <c r="B147" t="s">
-        <v>582</v>
       </c>
       <c r="C147" t="s">
         <v>327</v>
@@ -6199,10 +6199,10 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B148" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C148" t="s">
         <v>327</v>
@@ -6214,13 +6214,13 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
+        <v>580</v>
+      </c>
+      <c r="B149" t="s">
         <v>581</v>
       </c>
-      <c r="B149" t="s">
-        <v>582</v>
-      </c>
       <c r="C149" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D149" t="str">
         <f>VLOOKUP(C149,Overview!B:B,1,0)</f>
@@ -6229,13 +6229,13 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B150" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C150" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D150" t="str">
         <f>VLOOKUP(C150,Overview!B:B,1,0)</f>
@@ -6244,10 +6244,10 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B151" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C151" t="s">
         <v>529</v>
@@ -6259,10 +6259,10 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B152" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C152" t="s">
         <v>529</v>
@@ -6274,10 +6274,10 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B153" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C153" t="s">
         <v>529</v>
@@ -6289,10 +6289,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B154" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="C154" t="s">
         <v>529</v>
@@ -6304,13 +6304,13 @@
     </row>
     <row r="155" spans="1:4">
       <c r="A155" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B155" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C155" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D155" t="str">
         <f>VLOOKUP(C155,Overview!B:B,1,0)</f>
@@ -6319,10 +6319,10 @@
     </row>
     <row r="156" spans="1:4">
       <c r="A156" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B156" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C156" t="s">
         <v>8</v>
@@ -6333,7 +6333,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D155" xr:uid="{64294C56-C363-4325-A21C-BEAD7C56353B}">
+  <autoFilter ref="A1:D156" xr:uid="{64294C56-C363-4325-A21C-BEAD7C56353B}">
     <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D155">
       <sortCondition ref="C1:C155"/>
     </sortState>
@@ -6372,7 +6372,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>533</v>
@@ -6384,7 +6384,7 @@
         <v>534</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>536</v>
@@ -6393,7 +6393,7 @@
         <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6414,7 +6414,7 @@
         <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>559</v>
@@ -6507,7 +6507,7 @@
         <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>559</v>
@@ -6538,7 +6538,7 @@
         <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>559</v>
@@ -6569,7 +6569,7 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>559</v>
@@ -6662,7 +6662,7 @@
         <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>559</v>
@@ -6693,7 +6693,7 @@
         <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>559</v>
@@ -6724,7 +6724,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>559</v>
@@ -6755,7 +6755,7 @@
         <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>559</v>
@@ -6765,7 +6765,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/naturalGasDistributionLowPressure</v>
       </c>
       <c r="I13" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6786,7 +6786,7 @@
         <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>559</v>
@@ -6796,7 +6796,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/naturalGasDistributionMediumPressure</v>
       </c>
       <c r="I14" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6817,7 +6817,7 @@
         <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>559</v>
@@ -6827,7 +6827,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/naturalGasTransport</v>
       </c>
       <c r="I15" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6848,7 +6848,7 @@
         <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>559</v>
@@ -6858,7 +6858,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/oilGasChemicalsTransport</v>
       </c>
       <c r="I16" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="43.2">
@@ -6879,7 +6879,7 @@
         <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>559</v>
@@ -6910,7 +6910,7 @@
         <v>94</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>559</v>
@@ -6941,7 +6941,7 @@
         <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>559</v>
@@ -6972,7 +6972,7 @@
         <v>101</v>
       </c>
       <c r="F20" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>559</v>
@@ -7003,7 +7003,7 @@
         <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>559</v>
@@ -7034,7 +7034,7 @@
         <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>559</v>
@@ -7065,7 +7065,7 @@
         <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>559</v>
@@ -7096,7 +7096,7 @@
         <v>107</v>
       </c>
       <c r="F24" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>559</v>
@@ -7127,7 +7127,7 @@
         <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>559</v>
@@ -7158,7 +7158,7 @@
         <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>559</v>
@@ -7189,7 +7189,7 @@
         <v>129</v>
       </c>
       <c r="F27" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>559</v>
@@ -7220,7 +7220,7 @@
         <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>559</v>
@@ -7251,7 +7251,7 @@
         <v>139</v>
       </c>
       <c r="F29" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>559</v>
@@ -7261,7 +7261,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/drinkingWaterExtractionArea</v>
       </c>
       <c r="I29" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -7282,7 +7282,7 @@
         <v>142</v>
       </c>
       <c r="F30" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>559</v>
@@ -7310,7 +7310,7 @@
         <v>555</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>531</v>
@@ -7320,7 +7320,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/infiltrationArea</v>
       </c>
       <c r="I31" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -7341,7 +7341,7 @@
         <v>145</v>
       </c>
       <c r="F32" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>559</v>
@@ -7351,7 +7351,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/otherProtectedArea</v>
       </c>
       <c r="I32" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -7372,7 +7372,7 @@
         <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>559</v>
@@ -7382,7 +7382,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/undergroundGasStorage</v>
       </c>
       <c r="I33" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -7403,7 +7403,7 @@
         <v>166</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>559</v>
@@ -7413,7 +7413,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/annotationLabel</v>
       </c>
       <c r="I34" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -7434,7 +7434,7 @@
         <v>163</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>559</v>
@@ -7444,7 +7444,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/annotationLine</v>
       </c>
       <c r="I35" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -7465,7 +7465,7 @@
         <v>160</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>559</v>
@@ -7475,7 +7475,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/arrow</v>
       </c>
       <c r="I36" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -7493,10 +7493,10 @@
         <v>153</v>
       </c>
       <c r="E37" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>559</v>
@@ -7506,7 +7506,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningGuideline</v>
       </c>
       <c r="I37" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -7524,10 +7524,10 @@
         <v>157</v>
       </c>
       <c r="E38" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>559</v>
@@ -7537,7 +7537,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningLabel</v>
       </c>
       <c r="I38" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -7555,10 +7555,10 @@
         <v>155</v>
       </c>
       <c r="E39" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>559</v>
@@ -7568,7 +7568,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningLine</v>
       </c>
       <c r="I39" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -7589,7 +7589,7 @@
         <v>20</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>559</v>
@@ -7599,7 +7599,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/crossSection</v>
       </c>
       <c r="I40" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -7620,7 +7620,7 @@
         <v>171</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>559</v>
@@ -7630,7 +7630,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/detailedPlan</v>
       </c>
       <c r="I41" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -7651,7 +7651,7 @@
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>559</v>
@@ -7661,7 +7661,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/directionalDrilling</v>
       </c>
       <c r="I42" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -7682,7 +7682,7 @@
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>559</v>
@@ -7692,7 +7692,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/longitudinalSection</v>
       </c>
       <c r="I43" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -7713,7 +7713,7 @@
         <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>559</v>
@@ -7723,7 +7723,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/other</v>
       </c>
       <c r="I44" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -7741,7 +7741,7 @@
         <v>23</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>531</v>
@@ -7751,7 +7751,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/precaution</v>
       </c>
       <c r="I45" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -7772,7 +7772,7 @@
         <v>187</v>
       </c>
       <c r="F46" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>199</v>
@@ -7782,7 +7782,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/JPEG</v>
       </c>
       <c r="I46" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -7803,7 +7803,7 @@
         <v>185</v>
       </c>
       <c r="F47" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>199</v>
@@ -7813,7 +7813,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/PDF</v>
       </c>
       <c r="I47" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -7834,7 +7834,7 @@
         <v>183</v>
       </c>
       <c r="F48" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>199</v>
@@ -7844,7 +7844,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/PNG</v>
       </c>
       <c r="I48" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -7865,7 +7865,7 @@
         <v>189</v>
       </c>
       <c r="F49" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>199</v>
@@ -7875,7 +7875,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/TIFF</v>
       </c>
       <c r="I49" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -7896,7 +7896,7 @@
         <v>198</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>559</v>
@@ -7906,7 +7906,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue/cableAndPipeGutter</v>
       </c>
       <c r="I50" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -7927,7 +7927,7 @@
         <v>195</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>559</v>
@@ -7937,7 +7937,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue/jacketPipe</v>
       </c>
       <c r="I51" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -7958,7 +7958,7 @@
         <v>206</v>
       </c>
       <c r="F52" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>199</v>
@@ -7968,7 +7968,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/accetone</v>
       </c>
       <c r="I52" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -7989,7 +7989,7 @@
         <v>208</v>
       </c>
       <c r="F53" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>199</v>
@@ -7999,7 +7999,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/air</v>
       </c>
       <c r="I53" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -8020,7 +8020,7 @@
         <v>210</v>
       </c>
       <c r="F54" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>199</v>
@@ -8030,7 +8030,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/argon</v>
       </c>
       <c r="I54" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -8051,7 +8051,7 @@
         <v>204</v>
       </c>
       <c r="F55" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>199</v>
@@ -8061,7 +8061,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/bioGas</v>
       </c>
       <c r="I55" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -8082,7 +8082,7 @@
         <v>562</v>
       </c>
       <c r="F56" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>563</v>
@@ -8092,7 +8092,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1,2</v>
       </c>
       <c r="I56" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -8113,7 +8113,7 @@
         <v>214</v>
       </c>
       <c r="F57" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>199</v>
@@ -8123,7 +8123,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1,3</v>
       </c>
       <c r="I57" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -8141,10 +8141,10 @@
         <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F58" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>199</v>
@@ -8154,7 +8154,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butane</v>
       </c>
       <c r="I58" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -8172,7 +8172,7 @@
         <v>201</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>531</v>
@@ -8182,7 +8182,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/carbonDioxide</v>
       </c>
       <c r="I59" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -8200,10 +8200,10 @@
         <v>219</v>
       </c>
       <c r="E60" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F60" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>199</v>
@@ -8213,7 +8213,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/carbonMonoxide</v>
       </c>
       <c r="I60" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -8231,10 +8231,10 @@
         <v>221</v>
       </c>
       <c r="E61" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F61" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>199</v>
@@ -8244,7 +8244,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/chlorine</v>
       </c>
       <c r="I61" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -8265,7 +8265,7 @@
         <v>389</v>
       </c>
       <c r="F62" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>563</v>
@@ -8275,7 +8275,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/concrete</v>
       </c>
       <c r="I62" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -8296,7 +8296,7 @@
         <v>560</v>
       </c>
       <c r="F63" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>563</v>
@@ -8306,7 +8306,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/crude</v>
       </c>
       <c r="I63" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -8324,10 +8324,10 @@
         <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F64" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>199</v>
@@ -8337,7 +8337,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/dichloroethane</v>
       </c>
       <c r="I64" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -8358,7 +8358,7 @@
         <v>561</v>
       </c>
       <c r="F65" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>563</v>
@@ -8368,7 +8368,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/diesel</v>
       </c>
       <c r="I65" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -8389,7 +8389,7 @@
         <v>274</v>
       </c>
       <c r="F66" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>199</v>
@@ -8399,7 +8399,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/empty</v>
       </c>
       <c r="I66" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -8417,10 +8417,10 @@
         <v>230</v>
       </c>
       <c r="E67" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F67" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>199</v>
@@ -8430,7 +8430,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/ethylene</v>
       </c>
       <c r="I67" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -8451,7 +8451,7 @@
         <v>231</v>
       </c>
       <c r="F68" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>199</v>
@@ -8461,7 +8461,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/gasFabricationOfCocs</v>
       </c>
       <c r="I68" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -8482,7 +8482,7 @@
         <v>233</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>199</v>
@@ -8492,7 +8492,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/gasHFx</v>
       </c>
       <c r="I69" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -8513,7 +8513,7 @@
         <v>235</v>
       </c>
       <c r="F70" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>199</v>
@@ -8523,7 +8523,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/gasoil</v>
       </c>
       <c r="I70" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -8544,7 +8544,7 @@
         <v>237</v>
       </c>
       <c r="F71" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>199</v>
@@ -8554,7 +8554,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/hydrogen</v>
       </c>
       <c r="I71" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -8572,10 +8572,10 @@
         <v>240</v>
       </c>
       <c r="E72" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="F72" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>199</v>
@@ -8585,7 +8585,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/isobutane</v>
       </c>
       <c r="I72" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -8606,7 +8606,7 @@
         <v>241</v>
       </c>
       <c r="F73" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>199</v>
@@ -8616,7 +8616,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/JET-A1</v>
       </c>
       <c r="I73" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -8637,7 +8637,7 @@
         <v>243</v>
       </c>
       <c r="F74" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>199</v>
@@ -8647,7 +8647,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/kerosene</v>
       </c>
       <c r="I74" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -8668,7 +8668,7 @@
         <v>245</v>
       </c>
       <c r="F75" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>199</v>
@@ -8678,7 +8678,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/liquidAmmonia</v>
       </c>
       <c r="I75" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -8696,10 +8696,10 @@
         <v>248</v>
       </c>
       <c r="E76" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>199</v>
@@ -8709,7 +8709,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/liquidHydrocarbon</v>
       </c>
       <c r="I76" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -8730,7 +8730,7 @@
         <v>249</v>
       </c>
       <c r="F77" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>199</v>
@@ -8740,7 +8740,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/multiProduct</v>
       </c>
       <c r="I77" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -8761,7 +8761,7 @@
         <v>251</v>
       </c>
       <c r="F78" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>199</v>
@@ -8771,7 +8771,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/MVC</v>
       </c>
       <c r="I78" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -8792,7 +8792,7 @@
         <v>202</v>
       </c>
       <c r="F79" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>199</v>
@@ -8802,7 +8802,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/naturalGas</v>
       </c>
       <c r="I79" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -8823,7 +8823,7 @@
         <v>253</v>
       </c>
       <c r="F80" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>199</v>
@@ -8833,7 +8833,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/nitrogen</v>
       </c>
       <c r="I80" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -8854,7 +8854,7 @@
         <v>255</v>
       </c>
       <c r="F81" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>199</v>
@@ -8864,7 +8864,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/oxygen</v>
       </c>
       <c r="I81" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -8885,7 +8885,7 @@
         <v>257</v>
       </c>
       <c r="F82" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>199</v>
@@ -8895,7 +8895,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/phenol</v>
       </c>
       <c r="I82" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -8916,7 +8916,7 @@
         <v>259</v>
       </c>
       <c r="F83" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>199</v>
@@ -8926,7 +8926,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/propane</v>
       </c>
       <c r="I83" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -8947,7 +8947,7 @@
         <v>261</v>
       </c>
       <c r="F84" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>199</v>
@@ -8957,7 +8957,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/propylene</v>
       </c>
       <c r="I84" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -8978,7 +8978,7 @@
         <v>263</v>
       </c>
       <c r="F85" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>199</v>
@@ -8988,7 +8988,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/saltWater</v>
       </c>
       <c r="I85" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -9009,7 +9009,7 @@
         <v>267</v>
       </c>
       <c r="F86" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>199</v>
@@ -9019,7 +9019,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/sand</v>
       </c>
       <c r="I86" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -9040,7 +9040,7 @@
         <v>265</v>
       </c>
       <c r="F87" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>199</v>
@@ -9050,7 +9050,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/saumur</v>
       </c>
       <c r="I87" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -9071,7 +9071,7 @@
         <v>269</v>
       </c>
       <c r="F88" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>199</v>
@@ -9081,7 +9081,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/tetrachloroide</v>
       </c>
       <c r="I88" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -9102,7 +9102,7 @@
         <v>3</v>
       </c>
       <c r="F89" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>199</v>
@@ -9112,7 +9112,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/unknown</v>
       </c>
       <c r="I89" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -9133,7 +9133,7 @@
         <v>272</v>
       </c>
       <c r="F90" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>199</v>
@@ -9143,7 +9143,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/water</v>
       </c>
       <c r="I90" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -9164,7 +9164,7 @@
         <v>279</v>
       </c>
       <c r="F91" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>559</v>
@@ -9195,7 +9195,7 @@
         <v>283</v>
       </c>
       <c r="F92" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>199</v>
@@ -9226,7 +9226,7 @@
         <v>282</v>
       </c>
       <c r="F93" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>559</v>
@@ -9257,7 +9257,7 @@
         <v>294</v>
       </c>
       <c r="F94" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>559</v>
@@ -9267,7 +9267,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/adapter</v>
       </c>
       <c r="I94" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -9288,7 +9288,7 @@
         <v>288</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>559</v>
@@ -9298,7 +9298,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/airBeacon</v>
       </c>
       <c r="I95" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -9319,7 +9319,7 @@
         <v>311</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>559</v>
@@ -9329,7 +9329,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/blowHole</v>
       </c>
       <c r="I96" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -9347,10 +9347,10 @@
         <v>316</v>
       </c>
       <c r="E97" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F97" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>559</v>
@@ -9360,7 +9360,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
       <c r="I97" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -9381,7 +9381,7 @@
         <v>314</v>
       </c>
       <c r="F98" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>559</v>
@@ -9391,7 +9391,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
       <c r="I98" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -9412,7 +9412,7 @@
         <v>291</v>
       </c>
       <c r="F99" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>559</v>
@@ -9422,7 +9422,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/endCap</v>
       </c>
       <c r="I99" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -9443,7 +9443,7 @@
         <v>306</v>
       </c>
       <c r="F100" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>559</v>
@@ -9453,7 +9453,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/flange</v>
       </c>
       <c r="I100" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -9474,7 +9474,7 @@
         <v>300</v>
       </c>
       <c r="F101" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>559</v>
@@ -9484,7 +9484,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
       <c r="I101" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -9502,10 +9502,10 @@
         <v>308</v>
       </c>
       <c r="E102" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F102" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>199</v>
@@ -9515,7 +9515,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/siphon</v>
       </c>
       <c r="I102" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -9536,7 +9536,7 @@
         <v>282</v>
       </c>
       <c r="F103" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>559</v>
@@ -9546,7 +9546,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/sleeve</v>
       </c>
       <c r="I103" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -9567,7 +9567,7 @@
         <v>319</v>
       </c>
       <c r="F104" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>559</v>
@@ -9577,7 +9577,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/sluice</v>
       </c>
       <c r="I104" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -9598,7 +9598,7 @@
         <v>303</v>
       </c>
       <c r="F105" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>564</v>
@@ -9608,7 +9608,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/stoppleFitting</v>
       </c>
       <c r="I105" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -9629,7 +9629,7 @@
         <v>297</v>
       </c>
       <c r="F106" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>559</v>
@@ -9639,7 +9639,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/valve</v>
       </c>
       <c r="I106" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -9657,10 +9657,10 @@
         <v>316</v>
       </c>
       <c r="E107" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F107" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>559</v>
@@ -9691,7 +9691,7 @@
         <v>314</v>
       </c>
       <c r="F108" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>559</v>
@@ -9722,7 +9722,7 @@
         <v>326</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G109" s="8" t="s">
         <v>559</v>
@@ -9753,7 +9753,7 @@
         <v>34</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>531</v>
@@ -9781,7 +9781,7 @@
         <v>32</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G111" s="9" t="s">
         <v>531</v>
@@ -9809,7 +9809,7 @@
         <v>36</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>531</v>
@@ -9837,7 +9837,7 @@
         <v>300</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G113" s="9" t="s">
         <v>531</v>
@@ -9868,10 +9868,10 @@
         <v>21</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H114" s="4" t="str">
         <f>VLOOKUP(A114,Overview!B:D,3,0)&amp; "/" &amp; E114</f>
@@ -9899,7 +9899,7 @@
         <v>324</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>559</v>
@@ -9927,10 +9927,10 @@
         <v>316</v>
       </c>
       <c r="E116" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F116" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>559</v>
@@ -9961,7 +9961,7 @@
         <v>314</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G117" s="8" t="s">
         <v>559</v>
@@ -9992,7 +9992,7 @@
         <v>330</v>
       </c>
       <c r="F118" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>559</v>
@@ -10023,7 +10023,7 @@
         <v>326</v>
       </c>
       <c r="F119" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>559</v>
@@ -10045,13 +10045,13 @@
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C120" t="s">
+        <v>616</v>
+      </c>
+      <c r="E120" s="9" t="s">
         <v>617</v>
       </c>
-      <c r="E120" s="9" t="s">
-        <v>618</v>
-      </c>
       <c r="F120" s="9" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G120" s="9" t="s">
         <v>531</v>
@@ -10079,7 +10079,7 @@
         <v>300</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G121" s="9" t="s">
         <v>531</v>
@@ -10094,7 +10094,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B122" t="str">
         <f>VLOOKUP(A122,Overview!B:B,1,0)</f>
@@ -10117,7 +10117,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
       </c>
       <c r="I122" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -10135,7 +10135,7 @@
         <v>556</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G123" s="9" t="s">
         <v>531</v>
@@ -10145,7 +10145,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue/geotextile</v>
       </c>
       <c r="I123" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -10166,7 +10166,7 @@
         <v>294</v>
       </c>
       <c r="F124" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G124" s="8" t="s">
         <v>559</v>
@@ -10197,7 +10197,7 @@
         <v>341</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>559</v>
@@ -10228,7 +10228,7 @@
         <v>288</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G126" s="8" t="s">
         <v>559</v>
@@ -10256,10 +10256,10 @@
         <v>316</v>
       </c>
       <c r="E127" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G127" s="8" t="s">
         <v>559</v>
@@ -10290,7 +10290,7 @@
         <v>314</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G128" s="8" t="s">
         <v>559</v>
@@ -10321,7 +10321,7 @@
         <v>343</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G129" s="8" t="s">
         <v>559</v>
@@ -10352,7 +10352,7 @@
         <v>326</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G130" s="8" t="s">
         <v>559</v>
@@ -10383,7 +10383,7 @@
         <v>339</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G131" s="8" t="s">
         <v>559</v>
@@ -10414,7 +10414,7 @@
         <v>306</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G132" s="8" t="s">
         <v>559</v>
@@ -10436,10 +10436,10 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G133" s="9" t="s">
         <v>531</v>
@@ -10461,10 +10461,10 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G134" s="9" t="s">
         <v>531</v>
@@ -10495,7 +10495,7 @@
         <v>300</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G135" s="8" t="s">
         <v>559</v>
@@ -10523,10 +10523,10 @@
         <v>307</v>
       </c>
       <c r="E136" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G136" s="8" t="s">
         <v>559</v>
@@ -10557,7 +10557,7 @@
         <v>282</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>559</v>
@@ -10588,7 +10588,7 @@
         <v>319</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G138" s="8" t="s">
         <v>559</v>
@@ -10619,7 +10619,7 @@
         <v>297</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G139" s="8" t="s">
         <v>559</v>
@@ -10650,7 +10650,7 @@
         <v>396</v>
       </c>
       <c r="F140" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G140" s="8" t="s">
         <v>559</v>
@@ -10660,7 +10660,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/brickwork</v>
       </c>
       <c r="I140" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -10681,7 +10681,7 @@
         <v>389</v>
       </c>
       <c r="F141" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G141" s="8" t="s">
         <v>559</v>
@@ -10691,7 +10691,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/concrete</v>
       </c>
       <c r="I141" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -10712,7 +10712,7 @@
         <v>394</v>
       </c>
       <c r="F142" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>559</v>
@@ -10722,7 +10722,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/crossLinkPolyethylene</v>
       </c>
       <c r="I142" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -10743,7 +10743,7 @@
         <v>347</v>
       </c>
       <c r="F143" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G143" s="8" t="s">
         <v>559</v>
@@ -10753,7 +10753,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/ductileCastIron</v>
       </c>
       <c r="I143" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -10774,7 +10774,7 @@
         <v>350</v>
       </c>
       <c r="F144" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G144" s="8" t="s">
         <v>559</v>
@@ -10784,7 +10784,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/ductileCastIronBlutop</v>
       </c>
       <c r="I144" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -10805,7 +10805,7 @@
         <v>381</v>
       </c>
       <c r="F145" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G145" s="8" t="s">
         <v>559</v>
@@ -10815,7 +10815,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/fiberCement</v>
       </c>
       <c r="I145" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -10836,7 +10836,7 @@
         <v>387</v>
       </c>
       <c r="F146" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G146" s="8" t="s">
         <v>559</v>
@@ -10846,7 +10846,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/galvanisedSteel</v>
       </c>
       <c r="I146" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -10867,7 +10867,7 @@
         <v>353</v>
       </c>
       <c r="F147" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G147" s="8" t="s">
         <v>559</v>
@@ -10877,7 +10877,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/glassFiberReinforcedPolyester</v>
       </c>
       <c r="I147" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -10898,7 +10898,7 @@
         <v>356</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G148" s="8" t="s">
         <v>559</v>
@@ -10908,7 +10908,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/grayCastIron</v>
       </c>
       <c r="I148" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -10929,7 +10929,7 @@
         <v>392</v>
       </c>
       <c r="F149" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>199</v>
@@ -10939,7 +10939,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/jute</v>
       </c>
       <c r="I149" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -10960,7 +10960,7 @@
         <v>359</v>
       </c>
       <c r="F150" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G150" s="8" t="s">
         <v>559</v>
@@ -10970,7 +10970,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/lead</v>
       </c>
       <c r="I150" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -10991,7 +10991,7 @@
         <v>21</v>
       </c>
       <c r="F151" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G151" s="8" t="s">
         <v>559</v>
@@ -11001,7 +11001,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/other</v>
       </c>
       <c r="I151" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -11022,7 +11022,7 @@
         <v>361</v>
       </c>
       <c r="F152" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>559</v>
@@ -11032,7 +11032,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethylene</v>
       </c>
       <c r="I152" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -11053,7 +11053,7 @@
         <v>366</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G153" s="8" t="s">
         <v>559</v>
@@ -11063,7 +11063,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethyleneHighDensity</v>
       </c>
       <c r="I153" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -11084,7 +11084,7 @@
         <v>363</v>
       </c>
       <c r="F154" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G154" s="8" t="s">
         <v>559</v>
@@ -11094,7 +11094,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethyleneSafetyLine</v>
       </c>
       <c r="I154" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -11115,7 +11115,7 @@
         <v>369</v>
       </c>
       <c r="F155" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G155" s="8" t="s">
         <v>559</v>
@@ -11125,7 +11125,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polypropylene</v>
       </c>
       <c r="I155" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -11146,7 +11146,7 @@
         <v>372</v>
       </c>
       <c r="F156" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G156" s="8" t="s">
         <v>559</v>
@@ -11156,7 +11156,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polypropyleneSLA</v>
       </c>
       <c r="I156" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -11177,7 +11177,7 @@
         <v>384</v>
       </c>
       <c r="F157" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G157" s="8" t="s">
         <v>559</v>
@@ -11187,7 +11187,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/prestressedConcrete</v>
       </c>
       <c r="I157" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -11208,7 +11208,7 @@
         <v>373</v>
       </c>
       <c r="F158" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>199</v>
@@ -11218,7 +11218,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/pvc</v>
       </c>
       <c r="I158" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -11239,7 +11239,7 @@
         <v>376</v>
       </c>
       <c r="F159" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>199</v>
@@ -11249,7 +11249,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/sideroCement</v>
       </c>
       <c r="I159" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -11270,7 +11270,7 @@
         <v>375</v>
       </c>
       <c r="F160" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G160" s="8" t="s">
         <v>559</v>
@@ -11280,7 +11280,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/stainlessSteel</v>
       </c>
       <c r="I160" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -11301,7 +11301,7 @@
         <v>378</v>
       </c>
       <c r="F161" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G161" s="8" t="s">
         <v>559</v>
@@ -11311,7 +11311,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/steel</v>
       </c>
       <c r="I161" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -11332,7 +11332,7 @@
         <v>391</v>
       </c>
       <c r="F162" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G162" s="8" t="s">
         <v>559</v>
@@ -11342,7 +11342,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/stoneware</v>
       </c>
       <c r="I162" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -11363,7 +11363,7 @@
         <v>558</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G163" s="9" t="s">
         <v>531</v>
@@ -11373,7 +11373,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/sulfurConcrete</v>
       </c>
       <c r="I163" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -11394,7 +11394,7 @@
         <v>3</v>
       </c>
       <c r="F164" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G164" s="8" t="s">
         <v>559</v>
@@ -11404,7 +11404,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/unknown</v>
       </c>
       <c r="I164" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -11425,10 +11425,10 @@
         <v>402</v>
       </c>
       <c r="F165" s="13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H165" s="4" t="str">
         <f>VLOOKUP(A165,Overview!B:D,3,0)&amp; "/" &amp; E165</f>
@@ -11456,10 +11456,10 @@
         <v>488</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H166" s="4" t="str">
         <f>VLOOKUP(A166,Overview!B:D,3,0)&amp; "/" &amp; E166</f>
@@ -11487,7 +11487,7 @@
         <v>406</v>
       </c>
       <c r="F167" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G167" s="8" t="s">
         <v>559</v>
@@ -11502,7 +11502,7 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B168" t="str">
         <f>VLOOKUP(A168,Overview!B:B,1,0)</f>
@@ -11518,10 +11518,10 @@
         <v>408</v>
       </c>
       <c r="F168" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H168" s="4" t="str">
         <f>VLOOKUP(A168,Overview!B:D,3,0)&amp; "/" &amp; E168</f>
@@ -11533,7 +11533,7 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B169" t="str">
         <f>VLOOKUP(A169,Overview!B:B,1,0)</f>
@@ -11549,10 +11549,10 @@
         <v>410</v>
       </c>
       <c r="F169" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H169" s="4" t="str">
         <f>VLOOKUP(A169,Overview!B:D,3,0)&amp; "/" &amp; E169</f>
@@ -11564,7 +11564,7 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B170" t="str">
         <f>VLOOKUP(A170,Overview!B:B,1,0)</f>
@@ -11580,10 +11580,10 @@
         <v>21</v>
       </c>
       <c r="F170" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H170" s="4" t="str">
         <f>VLOOKUP(A170,Overview!B:D,3,0)&amp; "/" &amp; E170</f>
@@ -11595,7 +11595,7 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B171" t="str">
         <f>VLOOKUP(A171,Overview!B:B,1,0)</f>
@@ -11611,10 +11611,10 @@
         <v>412</v>
       </c>
       <c r="F171" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H171" s="4" t="str">
         <f>VLOOKUP(A171,Overview!B:D,3,0)&amp; "/" &amp; E171</f>
@@ -11626,7 +11626,7 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B172" t="str">
         <f>VLOOKUP(A172,Overview!B:B,1,0)</f>
@@ -11654,7 +11654,7 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B173" t="str">
         <f>VLOOKUP(A173,Overview!B:B,1,0)</f>
@@ -11682,7 +11682,7 @@
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B174" t="str">
         <f>VLOOKUP(A174,Overview!B:B,1,0)</f>
@@ -11710,7 +11710,7 @@
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="B175" t="str">
         <f>VLOOKUP(A175,Overview!B:B,1,0)</f>
@@ -11738,7 +11738,7 @@
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B176" t="str">
         <f>VLOOKUP(A176,Overview!B:B,1,0)</f>
@@ -11766,7 +11766,7 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B177" t="str">
         <f>VLOOKUP(A177,Overview!B:B,1,0)</f>
@@ -11794,7 +11794,7 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B178" t="str">
         <f>VLOOKUP(A178,Overview!B:B,1,0)</f>
@@ -11822,7 +11822,7 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B179" t="str">
         <f>VLOOKUP(A179,Overview!B:B,1,0)</f>
@@ -11850,7 +11850,7 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B180" t="str">
         <f>VLOOKUP(A180,Overview!B:B,1,0)</f>
@@ -11873,12 +11873,12 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/collection</v>
       </c>
       <c r="I180" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B181" t="str">
         <f>VLOOKUP(A181,Overview!B:B,1,0)</f>
@@ -11901,12 +11901,12 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/distribution</v>
       </c>
       <c r="I181" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B182" t="str">
         <f>VLOOKUP(A182,Overview!B:B,1,0)</f>
@@ -11929,12 +11929,12 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/private</v>
       </c>
       <c r="I182" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B183" t="str">
         <f>VLOOKUP(A183,Overview!B:B,1,0)</f>
@@ -11957,28 +11957,28 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/transport</v>
       </c>
       <c r="I183" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="B184" t="str">
         <f>VLOOKUP(A184,Overview!B:B,1,0)</f>
         <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
       <c r="C184" t="s">
+        <v>654</v>
+      </c>
+      <c r="D184" t="s">
         <v>655</v>
       </c>
-      <c r="D184" t="s">
-        <v>656</v>
-      </c>
       <c r="E184" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F184" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G184" s="9" t="s">
         <v>531</v>
@@ -11988,12 +11988,12 @@
         <v>https://vocab.belgif.be/auth/IMKL-UtilityDeliveryTypeIMKLValue/connection</v>
       </c>
       <c r="I184" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="28.8">
       <c r="A185" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B185" t="str">
         <f>VLOOKUP(A185,Overview!B:B,1,0)</f>
@@ -12016,7 +12016,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
       </c>
       <c r="I185" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -12037,7 +12037,7 @@
         <v>336</v>
       </c>
       <c r="F186" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G186" s="8" t="s">
         <v>559</v>
@@ -12047,12 +12047,12 @@
         <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue/protectivePlate</v>
       </c>
       <c r="I186" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="43.2">
       <c r="A187" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B187" t="str">
         <f>VLOOKUP(A187,Overview!B:B,1,0)</f>
@@ -12075,12 +12075,12 @@
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
       </c>
       <c r="I187" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B188" t="str">
         <f>VLOOKUP(A188,Overview!B:B,1,0)</f>
@@ -12108,7 +12108,7 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B189" t="str">
         <f>VLOOKUP(A189,Overview!B:B,1,0)</f>
@@ -12136,7 +12136,7 @@
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B190" t="str">
         <f>VLOOKUP(A190,Overview!B:B,1,0)</f>
@@ -12159,12 +12159,12 @@
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
       </c>
       <c r="I190" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B191" t="str">
         <f>VLOOKUP(A191,Overview!B:B,1,0)</f>
@@ -12187,12 +12187,12 @@
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
       </c>
       <c r="I191" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B192" t="str">
         <f>VLOOKUP(A192,Overview!B:B,1,0)</f>
@@ -12205,7 +12205,7 @@
         <v>455</v>
       </c>
       <c r="E192" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G192" s="8" t="s">
         <v>150</v>
@@ -12215,12 +12215,12 @@
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
       </c>
       <c r="I192" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B193" t="str">
         <f>VLOOKUP(A193,Overview!B:B,1,0)</f>
@@ -12248,7 +12248,7 @@
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B194" t="str">
         <f>VLOOKUP(A194,Overview!B:B,1,0)</f>
@@ -12292,7 +12292,7 @@
         <v>322</v>
       </c>
       <c r="F195" s="13" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G195" s="8" t="s">
         <v>559</v>
@@ -12307,7 +12307,7 @@
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B196" t="str">
         <f>VLOOKUP(A196,Overview!B:B,1,0)</f>
@@ -12335,7 +12335,7 @@
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B197" t="str">
         <f>VLOOKUP(A197,Overview!B:B,1,0)</f>
@@ -12348,7 +12348,7 @@
         <v>465</v>
       </c>
       <c r="E197" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="G197" s="8" t="s">
         <v>150</v>
@@ -12363,7 +12363,7 @@
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B198" t="str">
         <f>VLOOKUP(A198,Overview!B:B,1,0)</f>
@@ -12391,7 +12391,7 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B199" t="str">
         <f>VLOOKUP(A199,Overview!B:B,1,0)</f>
@@ -12419,7 +12419,7 @@
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B200" t="str">
         <f>VLOOKUP(A200,Overview!B:B,1,0)</f>
@@ -12447,7 +12447,7 @@
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B201" t="str">
         <f>VLOOKUP(A201,Overview!B:B,1,0)</f>
@@ -12475,7 +12475,7 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B202" t="str">
         <f>VLOOKUP(A202,Overview!B:B,1,0)</f>
@@ -12503,7 +12503,7 @@
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B203" t="str">
         <f>VLOOKUP(A203,Overview!B:B,1,0)</f>
@@ -12531,7 +12531,7 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B204" t="str">
         <f>VLOOKUP(A204,Overview!B:B,1,0)</f>
@@ -12559,7 +12559,7 @@
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B205" t="str">
         <f>VLOOKUP(A205,Overview!B:B,1,0)</f>
@@ -12587,7 +12587,7 @@
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B206" t="str">
         <f>VLOOKUP(A206,Overview!B:B,1,0)</f>
@@ -12615,7 +12615,7 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B207" t="str">
         <f>VLOOKUP(A207,Overview!B:B,1,0)</f>
@@ -12643,7 +12643,7 @@
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B208" t="str">
         <f>VLOOKUP(A208,Overview!B:B,1,0)</f>
@@ -12671,7 +12671,7 @@
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B209" t="str">
         <f>VLOOKUP(A209,Overview!B:B,1,0)</f>
@@ -12715,10 +12715,10 @@
         <v>398</v>
       </c>
       <c r="F210" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H210" s="4" t="str">
         <f>VLOOKUP(A210,Overview!B:D,3,0)&amp; "/" &amp; E210</f>
@@ -12746,10 +12746,10 @@
         <v>490</v>
       </c>
       <c r="F211" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G211" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H211" s="4" t="str">
         <f>VLOOKUP(A211,Overview!B:D,3,0)&amp; "/" &amp; E211</f>
@@ -12761,7 +12761,7 @@
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B212" t="str">
         <f>VLOOKUP(A212,Overview!B:B,1,0)</f>
@@ -12789,7 +12789,7 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B213" t="str">
         <f>VLOOKUP(A213,Overview!B:B,1,0)</f>
@@ -12812,12 +12812,12 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</v>
       </c>
       <c r="I213" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B214" t="str">
         <f>VLOOKUP(A214,Overview!B:B,1,0)</f>
@@ -12845,7 +12845,7 @@
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B215" t="str">
         <f>VLOOKUP(A215,Overview!B:B,1,0)</f>
@@ -12873,7 +12873,7 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B216" t="str">
         <f>VLOOKUP(A216,Overview!B:B,1,0)</f>
@@ -12901,7 +12901,7 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B217" t="str">
         <f>VLOOKUP(A217,Overview!B:B,1,0)</f>
@@ -12929,7 +12929,7 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B218" t="str">
         <f>VLOOKUP(A218,Overview!B:B,1,0)</f>
@@ -12945,17 +12945,17 @@
         <v>504</v>
       </c>
       <c r="F218" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H218" s="4" t="str">
         <f>VLOOKUP(A218,Overview!B:D,3,0)&amp; "/" &amp; E218</f>
         <v>https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue/crossTheme</v>
       </c>
       <c r="I218" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -12976,10 +12976,10 @@
         <v>511</v>
       </c>
       <c r="F219" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G219" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H219" s="4" t="str">
         <f>VLOOKUP(A219,Overview!B:D,3,0)&amp; "/" &amp; E219</f>
@@ -13007,10 +13007,10 @@
         <v>507</v>
       </c>
       <c r="F220" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G220" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H220" s="4" t="str">
         <f>VLOOKUP(A220,Overview!B:D,3,0)&amp; "/" &amp; E220</f>
@@ -13038,10 +13038,10 @@
         <v>509</v>
       </c>
       <c r="F221" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G221" s="8" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="H221" s="4" t="str">
         <f>VLOOKUP(A221,Overview!B:D,3,0)&amp; "/" &amp; E221</f>
@@ -13076,7 +13076,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
       </c>
       <c r="I222" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -13104,7 +13104,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
       </c>
       <c r="I223" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -13132,7 +13132,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
       </c>
       <c r="I224" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -13151,7 +13151,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/underConstruction</v>
       </c>
       <c r="I225" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -13179,7 +13179,7 @@
         <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/onGroundSurface</v>
       </c>
       <c r="I226" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -13207,7 +13207,7 @@
         <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/suspendedOrElevated</v>
       </c>
       <c r="I227" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -13235,7 +13235,7 @@
         <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/underground</v>
       </c>
       <c r="I228" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -13256,7 +13256,7 @@
         <v>530</v>
       </c>
       <c r="I229" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -13277,7 +13277,7 @@
         <v>530</v>
       </c>
       <c r="I230" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -13298,7 +13298,7 @@
         <v>530</v>
       </c>
       <c r="I231" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -13319,7 +13319,7 @@
         <v>530</v>
       </c>
       <c r="I232" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -13340,7 +13340,7 @@
         <v>530</v>
       </c>
       <c r="I233" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -13358,7 +13358,7 @@
         <v>539</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G234" s="9" t="s">
         <v>531</v>
@@ -13368,7 +13368,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/digitizedPlan</v>
       </c>
       <c r="I234" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -13386,7 +13386,7 @@
         <v>29</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G235" s="9" t="s">
         <v>531</v>
@@ -13396,7 +13396,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/gnss</v>
       </c>
       <c r="I235" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -13414,7 +13414,7 @@
         <v>31</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G236" s="9" t="s">
         <v>531</v>
@@ -13424,7 +13424,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/lidar</v>
       </c>
       <c r="I236" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -13442,7 +13442,7 @@
         <v>541</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G237" s="9" t="s">
         <v>531</v>
@@ -13452,7 +13452,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringTape</v>
       </c>
       <c r="I237" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -13470,7 +13470,7 @@
         <v>538</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G238" s="9" t="s">
         <v>531</v>
@@ -13480,7 +13480,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringWheel</v>
       </c>
       <c r="I238" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -13498,7 +13498,7 @@
         <v>26</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G239" s="9" t="s">
         <v>531</v>
@@ -13508,7 +13508,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/photogrammetry</v>
       </c>
       <c r="I239" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -13526,7 +13526,7 @@
         <v>537</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G240" s="9" t="s">
         <v>531</v>
@@ -13536,7 +13536,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/sketch</v>
       </c>
       <c r="I240" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -13554,7 +13554,7 @@
         <v>28</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G241" s="9" t="s">
         <v>531</v>
@@ -13564,7 +13564,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/terrestrial</v>
       </c>
       <c r="I241" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -13582,7 +13582,7 @@
         <v>540</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G242" s="9" t="s">
         <v>531</v>
@@ -13592,7 +13592,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/totalStation</v>
       </c>
       <c r="I242" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -13610,7 +13610,7 @@
         <v>27</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G243" s="9" t="s">
         <v>531</v>
@@ -13620,7 +13620,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/triangulation</v>
       </c>
       <c r="I243" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -13638,7 +13638,7 @@
         <v>15</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G244" s="9" t="s">
         <v>531</v>
@@ -13648,7 +13648,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/notVisibleAboveGround</v>
       </c>
       <c r="I244" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -13666,7 +13666,7 @@
         <v>14</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G245" s="9" t="s">
         <v>531</v>
@@ -13676,7 +13676,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/visibleAboveGround</v>
       </c>
       <c r="I245" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -13694,7 +13694,7 @@
         <v>16</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G246" s="9" t="s">
         <v>531</v>
@@ -13704,7 +13704,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue/surfaceLevel</v>
       </c>
       <c r="I246" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -13722,7 +13722,7 @@
         <v>25</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G247" s="9" t="s">
         <v>531</v>
@@ -13732,7 +13732,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/culvert</v>
       </c>
       <c r="I247" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -13750,7 +13750,7 @@
         <v>22</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G248" s="9" t="s">
         <v>531</v>
@@ -13760,7 +13760,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/directionalDrilling</v>
       </c>
       <c r="I248" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -13778,7 +13778,7 @@
         <v>30</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G249" s="9" t="s">
         <v>531</v>
@@ -13788,7 +13788,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/openTrench</v>
       </c>
       <c r="I249" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -13806,7 +13806,7 @@
         <v>21</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G250" s="9" t="s">
         <v>531</v>
@@ -13816,7 +13816,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/other</v>
       </c>
       <c r="I250" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
     </row>
   </sheetData>
@@ -13827,15 +13827,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -14095,15 +14086,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC2C1C4-4794-4CDA-B113-FDC4260BCF94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{791B434E-C5B6-43DF-B218-859297235BBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14121,4 +14113,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC2C1C4-4794-4CDA-B113-FDC4260BCF94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/implementation/Documentation/IMKL3_Codelists.xlsx
+++ b/implementation/Documentation/IMKL3_Codelists.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\Belgif\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6FFA2361-FA15-403A-A1BD-FA99126767B7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38EFE85-2487-46B2-AC94-499FC00615DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16332" yWindow="5688" windowWidth="34560" windowHeight="22452" activeTab="1" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
   </bookViews>
@@ -3982,7 +3982,7 @@
   <dimension ref="A1:D156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A140" sqref="A140"/>
+      <selection activeCell="B29" sqref="B29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>

--- a/implementation/Documentation/IMKL3_Codelists.xlsx
+++ b/implementation/Documentation/IMKL3_Codelists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\Belgif\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A38EFE85-2487-46B2-AC94-499FC00615DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9C4BF0-4658-465E-B4A7-C7100257837E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="16332" yWindow="5688" windowWidth="34560" windowHeight="22452" activeTab="1" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
+    <workbookView xWindow="23040" yWindow="0" windowWidth="23040" windowHeight="30264" activeTab="1" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -18,7 +18,7 @@
     <sheet name="Codelists" sheetId="2" r:id="rId3"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Codelist Usage'!$A$1:$D$156</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Codelist Usage'!$A$1:$D$154</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">Codelists!$A$1:$I$250</definedName>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">Overview!$A$1:$E$47</definedName>
   </definedNames>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2305" uniqueCount="860">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2299" uniqueCount="859">
   <si>
     <t>nilReason</t>
   </si>
@@ -1824,9 +1824,6 @@
   </si>
   <si>
     <t>utilityNetworkType</t>
-  </si>
-  <si>
-    <t>UtilityNetworkElement</t>
   </si>
   <si>
     <t>currentStatus</t>
@@ -3145,7 +3142,7 @@
         <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -3186,7 +3183,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ActivityValue</v>
       </c>
       <c r="E2" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -3204,7 +3201,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue</v>
       </c>
       <c r="E3" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -3222,7 +3219,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue</v>
       </c>
       <c r="E4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -3237,7 +3234,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue</v>
       </c>
       <c r="E5" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -3255,7 +3252,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue</v>
       </c>
       <c r="E6" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -3273,7 +3270,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue</v>
       </c>
       <c r="E7" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -3291,7 +3288,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue</v>
       </c>
       <c r="E8" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -3309,7 +3306,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ElectricityAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E9" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -3317,7 +3314,7 @@
         <v>449</v>
       </c>
       <c r="B10" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>150</v>
@@ -3327,7 +3324,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue</v>
       </c>
       <c r="E10" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -3345,7 +3342,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue</v>
       </c>
       <c r="E11" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -3363,7 +3360,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue</v>
       </c>
       <c r="E12" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -3392,7 +3389,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E14" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -3400,7 +3397,7 @@
         <v>453</v>
       </c>
       <c r="B15" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>150</v>
@@ -3410,7 +3407,7 @@
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue</v>
       </c>
       <c r="E15" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -3428,7 +3425,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="E16" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3446,7 +3443,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue</v>
       </c>
       <c r="E17" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3464,7 +3461,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue</v>
       </c>
       <c r="E18" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3479,7 +3476,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue</v>
       </c>
       <c r="E19" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3497,7 +3494,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E20" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3505,7 +3502,7 @@
         <v>456</v>
       </c>
       <c r="B21" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>150</v>
@@ -3515,7 +3512,7 @@
         <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue</v>
       </c>
       <c r="E21" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3533,7 +3530,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue</v>
       </c>
       <c r="E22" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3541,7 +3538,7 @@
         <v>415</v>
       </c>
       <c r="B23" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>150</v>
@@ -3551,7 +3548,7 @@
         <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue</v>
       </c>
       <c r="E23" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3566,7 +3563,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue</v>
       </c>
       <c r="E24" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3577,7 +3574,7 @@
         <v>487</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3595,7 +3592,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E26" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3603,17 +3600,17 @@
         <v>407</v>
       </c>
       <c r="B27" t="s">
+        <v>649</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>650</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>651</v>
       </c>
       <c r="D27" s="4" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B27</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue</v>
       </c>
       <c r="E27" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3631,7 +3628,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsSubthemeValue</v>
       </c>
       <c r="E28" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3649,7 +3646,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E29" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3667,7 +3664,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue</v>
       </c>
       <c r="E30" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3675,10 +3672,10 @@
         <v>506</v>
       </c>
       <c r="B31" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3696,12 +3693,12 @@
         <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue</v>
       </c>
       <c r="E32" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="B33" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>531</v>
@@ -3711,7 +3708,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-UtilityDeliveryTypeIMKLValue</v>
       </c>
       <c r="E33" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3719,7 +3716,7 @@
         <v>433</v>
       </c>
       <c r="B34" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>150</v>
@@ -3729,12 +3726,12 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue</v>
       </c>
       <c r="E34" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="B35" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>531</v>
@@ -3744,7 +3741,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue</v>
       </c>
       <c r="E35" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3752,7 +3749,7 @@
         <v>492</v>
       </c>
       <c r="B36" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>150</v>
@@ -3762,7 +3759,7 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue</v>
       </c>
       <c r="E36" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3776,10 +3773,10 @@
         <v>199</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="E37" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3794,7 +3791,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue</v>
       </c>
       <c r="E38" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3812,7 +3809,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue</v>
       </c>
       <c r="E39" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3820,7 +3817,7 @@
         <v>442</v>
       </c>
       <c r="B40" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>150</v>
@@ -3830,7 +3827,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue</v>
       </c>
       <c r="E40" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3848,7 +3845,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E41" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3856,7 +3853,7 @@
         <v>466</v>
       </c>
       <c r="B42" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>150</v>
@@ -3866,7 +3863,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue</v>
       </c>
       <c r="E42" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3884,7 +3881,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue</v>
       </c>
       <c r="E43" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3892,7 +3889,7 @@
         <v>424</v>
       </c>
       <c r="B44" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>150</v>
@@ -3902,7 +3899,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterTypeValue</v>
       </c>
       <c r="E44" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3979,10 +3976,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64294C56-C363-4325-A21C-BEAD7C56353B}">
-  <dimension ref="A1:D156"/>
+  <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B29" sqref="B29"/>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="A114" sqref="A114:XFD114"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -3995,7 +3992,7 @@
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>565</v>
@@ -4004,15 +4001,15 @@
         <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>593</v>
+      </c>
+      <c r="B2" t="s">
         <v>594</v>
-      </c>
-      <c r="B2" t="s">
-        <v>595</v>
       </c>
       <c r="C2" t="s">
         <v>523</v>
@@ -4042,7 +4039,7 @@
         <v>580</v>
       </c>
       <c r="B4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4054,10 +4051,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B5" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -4069,10 +4066,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B6" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -4084,10 +4081,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B7" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4099,10 +4096,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>859</v>
+        <v>858</v>
       </c>
       <c r="B8" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -4114,10 +4111,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B9" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -4132,7 +4129,7 @@
         <v>568</v>
       </c>
       <c r="B10" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4144,10 +4141,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B11" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4159,10 +4156,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B12" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -4177,7 +4174,7 @@
         <v>570</v>
       </c>
       <c r="B13" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -4192,7 +4189,7 @@
         <v>567</v>
       </c>
       <c r="B14" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -4207,7 +4204,7 @@
         <v>571</v>
       </c>
       <c r="B15" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -4219,10 +4216,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B16" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -4234,10 +4231,10 @@
     </row>
     <row r="17" spans="1:4">
       <c r="A17" t="s">
+        <v>569</v>
+      </c>
+      <c r="B17" t="s">
         <v>591</v>
-      </c>
-      <c r="B17" t="s">
-        <v>592</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -4249,25 +4246,25 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>569</v>
+        <v>603</v>
       </c>
       <c r="B18" t="s">
-        <v>592</v>
+        <v>608</v>
       </c>
       <c r="C18" t="s">
-        <v>8</v>
+        <v>552</v>
       </c>
       <c r="D18" t="str">
         <f>VLOOKUP(C18,Overview!B:B,1,0)</f>
-        <v>ConditionOfFacilityValue</v>
+        <v>ConstructionTechniqueValue</v>
       </c>
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>604</v>
+        <v>858</v>
       </c>
       <c r="B19" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C19" t="s">
         <v>552</v>
@@ -4279,10 +4276,10 @@
     </row>
     <row r="20" spans="1:4">
       <c r="A20" t="s">
-        <v>859</v>
+        <v>568</v>
       </c>
       <c r="B20" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C20" t="s">
         <v>552</v>
@@ -4294,10 +4291,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="B21" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C21" t="s">
         <v>552</v>
@@ -4309,10 +4306,10 @@
     </row>
     <row r="22" spans="1:4">
       <c r="A22" t="s">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="B22" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C22" t="s">
         <v>552</v>
@@ -4324,10 +4321,10 @@
     </row>
     <row r="23" spans="1:4">
       <c r="A23" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B23" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C23" t="s">
         <v>552</v>
@@ -4339,10 +4336,10 @@
     </row>
     <row r="24" spans="1:4">
       <c r="A24" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B24" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C24" t="s">
         <v>552</v>
@@ -4354,10 +4351,10 @@
     </row>
     <row r="25" spans="1:4">
       <c r="A25" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B25" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="C25" t="s">
         <v>552</v>
@@ -4369,25 +4366,25 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>569</v>
+        <v>603</v>
       </c>
       <c r="B26" t="s">
-        <v>609</v>
+        <v>620</v>
       </c>
       <c r="C26" t="s">
-        <v>552</v>
+        <v>192</v>
       </c>
       <c r="D26" t="str">
         <f>VLOOKUP(C26,Overview!B:B,1,0)</f>
-        <v>ConstructionTechniqueValue</v>
+        <v>ContainerTypeValue</v>
       </c>
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>604</v>
+        <v>602</v>
       </c>
       <c r="B27" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="C27" t="s">
         <v>192</v>
@@ -4399,22 +4396,22 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>603</v>
+        <v>576</v>
       </c>
       <c r="B28" t="s">
-        <v>621</v>
+        <v>578</v>
       </c>
       <c r="C28" t="s">
-        <v>192</v>
+        <v>182</v>
       </c>
       <c r="D28" t="str">
         <f>VLOOKUP(C28,Overview!B:B,1,0)</f>
-        <v>ContainerTypeValue</v>
+        <v>DocumentMediaTypeValue</v>
       </c>
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="B29" t="s">
         <v>578</v>
@@ -4429,22 +4426,22 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
-        <v>611</v>
+        <v>576</v>
       </c>
       <c r="B30" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C30" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
       <c r="D30" t="str">
         <f>VLOOKUP(C30,Overview!B:B,1,0)</f>
-        <v>DocumentMediaTypeValue</v>
+        <v>DocumentTypeValue</v>
       </c>
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>576</v>
+        <v>610</v>
       </c>
       <c r="B31" t="s">
         <v>577</v>
@@ -4459,22 +4456,22 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
-        <v>611</v>
+        <v>580</v>
       </c>
       <c r="B32" t="s">
-        <v>577</v>
+        <v>581</v>
       </c>
       <c r="C32" t="s">
-        <v>180</v>
+        <v>276</v>
       </c>
       <c r="D32" t="str">
         <f>VLOOKUP(C32,Overview!B:B,1,0)</f>
-        <v>DocumentTypeValue</v>
+        <v>ElectricityAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B33" t="s">
         <v>581</v>
@@ -4489,28 +4486,28 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="B34" t="s">
         <v>581</v>
       </c>
       <c r="C34" t="s">
-        <v>276</v>
+        <v>623</v>
       </c>
       <c r="D34" t="str">
         <f>VLOOKUP(C34,Overview!B:B,1,0)</f>
-        <v>ElectricityAppurtenanceTypeIMKLValue</v>
+        <v>ElectricityAppurtenanceTypeValue</v>
       </c>
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B35" t="s">
         <v>581</v>
       </c>
       <c r="C35" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D35" t="str">
         <f>VLOOKUP(C35,Overview!B:B,1,0)</f>
@@ -4519,22 +4516,22 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="B36" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="C36" t="s">
-        <v>624</v>
+        <v>524</v>
       </c>
       <c r="D36" t="str">
         <f>VLOOKUP(C36,Overview!B:B,1,0)</f>
-        <v>ElectricityAppurtenanceTypeValue</v>
+        <v>ElectricitySubthemeValue</v>
       </c>
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B37" t="s">
         <v>566</v>
@@ -4549,7 +4546,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>597</v>
+        <v>858</v>
       </c>
       <c r="B38" t="s">
         <v>566</v>
@@ -4564,7 +4561,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>859</v>
+        <v>611</v>
       </c>
       <c r="B39" t="s">
         <v>566</v>
@@ -4579,22 +4576,22 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>612</v>
+        <v>603</v>
       </c>
       <c r="B40" t="s">
-        <v>566</v>
+        <v>583</v>
       </c>
       <c r="C40" t="s">
-        <v>524</v>
+        <v>344</v>
       </c>
       <c r="D40" t="str">
         <f>VLOOKUP(C40,Overview!B:B,1,0)</f>
-        <v>ElectricitySubthemeValue</v>
+        <v>MaterialTypeValue</v>
       </c>
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>604</v>
+        <v>858</v>
       </c>
       <c r="B41" t="s">
         <v>583</v>
@@ -4609,7 +4606,7 @@
     </row>
     <row r="42" spans="1:4">
       <c r="A42" t="s">
-        <v>859</v>
+        <v>568</v>
       </c>
       <c r="B42" t="s">
         <v>583</v>
@@ -4624,7 +4621,7 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="B43" t="s">
         <v>583</v>
@@ -4639,7 +4636,7 @@
     </row>
     <row r="44" spans="1:4">
       <c r="A44" t="s">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="B44" t="s">
         <v>583</v>
@@ -4654,7 +4651,7 @@
     </row>
     <row r="45" spans="1:4">
       <c r="A45" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B45" t="s">
         <v>583</v>
@@ -4669,7 +4666,7 @@
     </row>
     <row r="46" spans="1:4">
       <c r="A46" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B46" t="s">
         <v>583</v>
@@ -4684,7 +4681,7 @@
     </row>
     <row r="47" spans="1:4">
       <c r="A47" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B47" t="s">
         <v>583</v>
@@ -4699,22 +4696,22 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
-        <v>569</v>
+        <v>580</v>
       </c>
       <c r="B48" t="s">
-        <v>583</v>
+        <v>581</v>
       </c>
       <c r="C48" t="s">
-        <v>344</v>
+        <v>285</v>
       </c>
       <c r="D48" t="str">
         <f>VLOOKUP(C48,Overview!B:B,1,0)</f>
-        <v>MaterialTypeValue</v>
+        <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B49" t="s">
         <v>581</v>
@@ -4729,28 +4726,28 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="B50" t="s">
         <v>581</v>
       </c>
       <c r="C50" t="s">
-        <v>285</v>
+        <v>624</v>
       </c>
       <c r="D50" t="str">
         <f>VLOOKUP(C50,Overview!B:B,1,0)</f>
-        <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
+        <v>OilGasChemicalsAppurtenanceTypeValue</v>
       </c>
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B51" t="s">
         <v>581</v>
       </c>
       <c r="C51" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="D51" t="str">
         <f>VLOOKUP(C51,Overview!B:B,1,0)</f>
@@ -4759,37 +4756,37 @@
     </row>
     <row r="52" spans="1:4">
       <c r="A52" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="B52" t="s">
-        <v>581</v>
+        <v>579</v>
       </c>
       <c r="C52" t="s">
-        <v>625</v>
+        <v>12</v>
       </c>
       <c r="D52" t="str">
         <f>VLOOKUP(C52,Overview!B:B,1,0)</f>
-        <v>OilGasChemicalsAppurtenanceTypeValue</v>
+        <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>568</v>
+        <v>580</v>
       </c>
       <c r="B53" t="s">
-        <v>579</v>
+        <v>566</v>
       </c>
       <c r="C53" t="s">
-        <v>12</v>
+        <v>525</v>
       </c>
       <c r="D53" t="str">
         <f>VLOOKUP(C53,Overview!B:B,1,0)</f>
-        <v>OilGasChemicalsProductTypeIMKLValue</v>
+        <v>OilGasChemicalsSubthemeValue</v>
       </c>
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B54" t="s">
         <v>566</v>
@@ -4804,7 +4801,7 @@
     </row>
     <row r="55" spans="1:4">
       <c r="A55" t="s">
-        <v>597</v>
+        <v>568</v>
       </c>
       <c r="B55" t="s">
         <v>566</v>
@@ -4819,7 +4816,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>568</v>
+        <v>611</v>
       </c>
       <c r="B56" t="s">
         <v>566</v>
@@ -4834,52 +4831,52 @@
     </row>
     <row r="57" spans="1:4">
       <c r="A57" t="s">
-        <v>612</v>
+        <v>572</v>
       </c>
       <c r="B57" t="s">
-        <v>566</v>
+        <v>601</v>
       </c>
       <c r="C57" t="s">
-        <v>525</v>
+        <v>149</v>
       </c>
       <c r="D57" t="str">
         <f>VLOOKUP(C57,Overview!B:B,1,0)</f>
-        <v>OilGasChemicalsSubthemeValue</v>
+        <v>ProtectedAreaTypeValue</v>
       </c>
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>572</v>
+        <v>598</v>
       </c>
       <c r="B58" t="s">
-        <v>602</v>
+        <v>573</v>
       </c>
       <c r="C58" t="s">
-        <v>149</v>
+        <v>17</v>
       </c>
       <c r="D58" t="str">
         <f>VLOOKUP(C58,Overview!B:B,1,0)</f>
-        <v>ProtectedAreaTypeValue</v>
+        <v>ReferenceSurfaceTypeValue</v>
       </c>
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
-        <v>599</v>
+        <v>580</v>
       </c>
       <c r="B59" t="s">
-        <v>573</v>
+        <v>581</v>
       </c>
       <c r="C59" t="s">
-        <v>17</v>
+        <v>320</v>
       </c>
       <c r="D59" t="str">
         <f>VLOOKUP(C59,Overview!B:B,1,0)</f>
-        <v>ReferenceSurfaceTypeValue</v>
+        <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B60" t="s">
         <v>581</v>
@@ -4894,28 +4891,28 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="B61" t="s">
         <v>581</v>
       </c>
       <c r="C61" t="s">
-        <v>320</v>
+        <v>626</v>
       </c>
       <c r="D61" t="str">
         <f>VLOOKUP(C61,Overview!B:B,1,0)</f>
-        <v>SewerAppurtenanceTypeIMKLValue</v>
+        <v>SewerAppurtenanceTypeValue</v>
       </c>
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B62" t="s">
         <v>581</v>
       </c>
       <c r="C62" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="D62" t="str">
         <f>VLOOKUP(C62,Overview!B:B,1,0)</f>
@@ -4924,22 +4921,22 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>597</v>
+        <v>580</v>
       </c>
       <c r="B63" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="C63" t="s">
-        <v>627</v>
+        <v>526</v>
       </c>
       <c r="D63" t="str">
         <f>VLOOKUP(C63,Overview!B:B,1,0)</f>
-        <v>SewerAppurtenanceTypeValue</v>
+        <v>SewerSubthemeValue</v>
       </c>
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B64" t="s">
         <v>566</v>
@@ -4954,7 +4951,7 @@
     </row>
     <row r="65" spans="1:4">
       <c r="A65" t="s">
-        <v>597</v>
+        <v>570</v>
       </c>
       <c r="B65" t="s">
         <v>566</v>
@@ -4969,7 +4966,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>570</v>
+        <v>611</v>
       </c>
       <c r="B66" t="s">
         <v>566</v>
@@ -4984,52 +4981,52 @@
     </row>
     <row r="67" spans="1:4">
       <c r="A67" t="s">
-        <v>612</v>
+        <v>570</v>
       </c>
       <c r="B67" t="s">
-        <v>566</v>
+        <v>586</v>
       </c>
       <c r="C67" t="s">
-        <v>526</v>
+        <v>637</v>
       </c>
       <c r="D67" t="str">
         <f>VLOOKUP(C67,Overview!B:B,1,0)</f>
-        <v>SewerSubthemeValue</v>
+        <v>SewerWaterTypeValue</v>
       </c>
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>570</v>
+        <v>609</v>
       </c>
       <c r="B68" t="s">
-        <v>586</v>
+        <v>597</v>
       </c>
       <c r="C68" t="s">
-        <v>638</v>
+        <v>18</v>
       </c>
       <c r="D68" t="str">
         <f>VLOOKUP(C68,Overview!B:B,1,0)</f>
-        <v>SewerWaterTypeValue</v>
+        <v>SurveyMethodValue</v>
       </c>
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
-        <v>610</v>
+        <v>580</v>
       </c>
       <c r="B69" t="s">
-        <v>598</v>
+        <v>581</v>
       </c>
       <c r="C69" t="s">
-        <v>18</v>
+        <v>397</v>
       </c>
       <c r="D69" t="str">
         <f>VLOOKUP(C69,Overview!B:B,1,0)</f>
-        <v>SurveyMethodValue</v>
+        <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B70" t="s">
         <v>581</v>
@@ -5044,37 +5041,37 @@
     </row>
     <row r="71" spans="1:4">
       <c r="A71" t="s">
-        <v>597</v>
+        <v>567</v>
       </c>
       <c r="B71" t="s">
-        <v>581</v>
+        <v>585</v>
       </c>
       <c r="C71" t="s">
-        <v>397</v>
+        <v>649</v>
       </c>
       <c r="D71" t="str">
         <f>VLOOKUP(C71,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
+        <v>TelecommunicationsCableMaterialTypeIMKLValue</v>
       </c>
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="B72" t="s">
-        <v>585</v>
+        <v>566</v>
       </c>
       <c r="C72" t="s">
-        <v>650</v>
+        <v>527</v>
       </c>
       <c r="D72" t="str">
         <f>VLOOKUP(C72,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsCableMaterialTypeIMKLValue</v>
+        <v>TelecommunicationsSubthemeValue</v>
       </c>
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B73" t="s">
         <v>566</v>
@@ -5089,7 +5086,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="B74" t="s">
         <v>566</v>
@@ -5104,7 +5101,7 @@
     </row>
     <row r="75" spans="1:4">
       <c r="A75" t="s">
-        <v>612</v>
+        <v>567</v>
       </c>
       <c r="B75" t="s">
         <v>566</v>
@@ -5119,22 +5116,22 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
-        <v>567</v>
+        <v>580</v>
       </c>
       <c r="B76" t="s">
-        <v>566</v>
+        <v>581</v>
       </c>
       <c r="C76" t="s">
-        <v>527</v>
+        <v>337</v>
       </c>
       <c r="D76" t="str">
         <f>VLOOKUP(C76,Overview!B:B,1,0)</f>
-        <v>TelecommunicationsSubthemeValue</v>
+        <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B77" t="s">
         <v>581</v>
@@ -5149,37 +5146,37 @@
     </row>
     <row r="78" spans="1:4">
       <c r="A78" t="s">
-        <v>597</v>
+        <v>571</v>
       </c>
       <c r="B78" t="s">
-        <v>581</v>
+        <v>584</v>
       </c>
       <c r="C78" t="s">
-        <v>337</v>
+        <v>403</v>
       </c>
       <c r="D78" t="str">
         <f>VLOOKUP(C78,Overview!B:B,1,0)</f>
-        <v>ThermalAppurtenanceTypeIMKLValue</v>
+        <v>ThermalProductTypeIMKLValue</v>
       </c>
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="B79" t="s">
-        <v>584</v>
+        <v>566</v>
       </c>
       <c r="C79" t="s">
-        <v>403</v>
+        <v>528</v>
       </c>
       <c r="D79" t="str">
         <f>VLOOKUP(C79,Overview!B:B,1,0)</f>
-        <v>ThermalProductTypeIMKLValue</v>
+        <v>ThermalSubthemeValue</v>
       </c>
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B80" t="s">
         <v>566</v>
@@ -5194,7 +5191,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>597</v>
+        <v>611</v>
       </c>
       <c r="B81" t="s">
         <v>566</v>
@@ -5209,7 +5206,7 @@
     </row>
     <row r="82" spans="1:4">
       <c r="A82" t="s">
-        <v>612</v>
+        <v>571</v>
       </c>
       <c r="B82" t="s">
         <v>566</v>
@@ -5224,28 +5221,28 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="B83" t="s">
-        <v>566</v>
+        <v>588</v>
       </c>
       <c r="C83" t="s">
-        <v>528</v>
+        <v>652</v>
       </c>
       <c r="D83" t="str">
         <f>VLOOKUP(C83,Overview!B:B,1,0)</f>
-        <v>ThermalSubthemeValue</v>
+        <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>604</v>
+        <v>858</v>
       </c>
       <c r="B84" t="s">
         <v>588</v>
       </c>
       <c r="C84" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D84" t="str">
         <f>VLOOKUP(C84,Overview!B:B,1,0)</f>
@@ -5254,13 +5251,13 @@
     </row>
     <row r="85" spans="1:4">
       <c r="A85" t="s">
-        <v>859</v>
+        <v>568</v>
       </c>
       <c r="B85" t="s">
         <v>588</v>
       </c>
       <c r="C85" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D85" t="str">
         <f>VLOOKUP(C85,Overview!B:B,1,0)</f>
@@ -5269,13 +5266,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="B86" t="s">
         <v>588</v>
       </c>
       <c r="C86" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D86" t="str">
         <f>VLOOKUP(C86,Overview!B:B,1,0)</f>
@@ -5284,13 +5281,13 @@
     </row>
     <row r="87" spans="1:4">
       <c r="A87" t="s">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="B87" t="s">
         <v>588</v>
       </c>
       <c r="C87" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D87" t="str">
         <f>VLOOKUP(C87,Overview!B:B,1,0)</f>
@@ -5299,13 +5296,13 @@
     </row>
     <row r="88" spans="1:4">
       <c r="A88" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B88" t="s">
         <v>588</v>
       </c>
       <c r="C88" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D88" t="str">
         <f>VLOOKUP(C88,Overview!B:B,1,0)</f>
@@ -5314,13 +5311,13 @@
     </row>
     <row r="89" spans="1:4">
       <c r="A89" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B89" t="s">
         <v>588</v>
       </c>
       <c r="C89" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D89" t="str">
         <f>VLOOKUP(C89,Overview!B:B,1,0)</f>
@@ -5329,13 +5326,13 @@
     </row>
     <row r="90" spans="1:4">
       <c r="A90" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B90" t="s">
         <v>588</v>
       </c>
       <c r="C90" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="D90" t="str">
         <f>VLOOKUP(C90,Overview!B:B,1,0)</f>
@@ -5344,28 +5341,28 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>569</v>
+        <v>603</v>
       </c>
       <c r="B91" t="s">
         <v>588</v>
       </c>
       <c r="C91" t="s">
-        <v>653</v>
+        <v>630</v>
       </c>
       <c r="D91" t="str">
         <f>VLOOKUP(C91,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeIMKLValue</v>
+        <v>UtilityDeliveryTypeValue</v>
       </c>
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>604</v>
+        <v>858</v>
       </c>
       <c r="B92" t="s">
         <v>588</v>
       </c>
       <c r="C92" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D92" t="str">
         <f>VLOOKUP(C92,Overview!B:B,1,0)</f>
@@ -5374,13 +5371,13 @@
     </row>
     <row r="93" spans="1:4">
       <c r="A93" t="s">
-        <v>859</v>
+        <v>568</v>
       </c>
       <c r="B93" t="s">
         <v>588</v>
       </c>
       <c r="C93" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D93" t="str">
         <f>VLOOKUP(C93,Overview!B:B,1,0)</f>
@@ -5389,13 +5386,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="B94" t="s">
         <v>588</v>
       </c>
       <c r="C94" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D94" t="str">
         <f>VLOOKUP(C94,Overview!B:B,1,0)</f>
@@ -5404,13 +5401,13 @@
     </row>
     <row r="95" spans="1:4">
       <c r="A95" t="s">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="B95" t="s">
         <v>588</v>
       </c>
       <c r="C95" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D95" t="str">
         <f>VLOOKUP(C95,Overview!B:B,1,0)</f>
@@ -5419,13 +5416,13 @@
     </row>
     <row r="96" spans="1:4">
       <c r="A96" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B96" t="s">
         <v>588</v>
       </c>
       <c r="C96" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D96" t="str">
         <f>VLOOKUP(C96,Overview!B:B,1,0)</f>
@@ -5434,13 +5431,13 @@
     </row>
     <row r="97" spans="1:4">
       <c r="A97" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B97" t="s">
         <v>588</v>
       </c>
       <c r="C97" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D97" t="str">
         <f>VLOOKUP(C97,Overview!B:B,1,0)</f>
@@ -5449,13 +5446,13 @@
     </row>
     <row r="98" spans="1:4">
       <c r="A98" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B98" t="s">
         <v>588</v>
       </c>
       <c r="C98" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="D98" t="str">
         <f>VLOOKUP(C98,Overview!B:B,1,0)</f>
@@ -5464,17 +5461,17 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
-        <v>569</v>
+        <v>589</v>
       </c>
       <c r="B99" t="s">
-        <v>588</v>
+        <v>590</v>
       </c>
       <c r="C99" t="s">
-        <v>631</v>
+        <v>651</v>
       </c>
       <c r="D99" t="str">
         <f>VLOOKUP(C99,Overview!B:B,1,0)</f>
-        <v>UtilityDeliveryTypeValue</v>
+        <v>UtilityNetworkTypeIMKLValue</v>
       </c>
     </row>
     <row r="100" spans="1:4">
@@ -5485,34 +5482,34 @@
         <v>590</v>
       </c>
       <c r="C100" t="s">
-        <v>652</v>
+        <v>632</v>
       </c>
       <c r="D100" t="str">
         <f>VLOOKUP(C100,Overview!B:B,1,0)</f>
-        <v>UtilityNetworkTypeIMKLValue</v>
+        <v>UtilityNetworkTypeValue</v>
       </c>
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>589</v>
+        <v>580</v>
       </c>
       <c r="B101" t="s">
-        <v>590</v>
+        <v>592</v>
       </c>
       <c r="C101" t="s">
-        <v>633</v>
+        <v>516</v>
       </c>
       <c r="D101" t="str">
         <f>VLOOKUP(C101,Overview!B:B,1,0)</f>
-        <v>UtilityNetworkTypeValue</v>
+        <v>VerticalPositionValue</v>
       </c>
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>580</v>
+        <v>607</v>
       </c>
       <c r="B102" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C102" t="s">
         <v>516</v>
@@ -5524,10 +5521,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>608</v>
+        <v>596</v>
       </c>
       <c r="B103" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C103" t="s">
         <v>516</v>
@@ -5539,10 +5536,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>597</v>
+        <v>603</v>
       </c>
       <c r="B104" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C104" t="s">
         <v>516</v>
@@ -5554,10 +5551,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>604</v>
+        <v>858</v>
       </c>
       <c r="B105" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C105" t="s">
         <v>516</v>
@@ -5569,10 +5566,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>859</v>
+        <v>606</v>
       </c>
       <c r="B106" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C106" t="s">
         <v>516</v>
@@ -5584,10 +5581,10 @@
     </row>
     <row r="107" spans="1:4">
       <c r="A107" t="s">
-        <v>607</v>
+        <v>568</v>
       </c>
       <c r="B107" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C107" t="s">
         <v>516</v>
@@ -5599,10 +5596,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>568</v>
+        <v>602</v>
       </c>
       <c r="B108" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C108" t="s">
         <v>516</v>
@@ -5614,10 +5611,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>603</v>
+        <v>605</v>
       </c>
       <c r="B109" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C109" t="s">
         <v>516</v>
@@ -5629,10 +5626,10 @@
     </row>
     <row r="110" spans="1:4">
       <c r="A110" t="s">
-        <v>606</v>
+        <v>570</v>
       </c>
       <c r="B110" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C110" t="s">
         <v>516</v>
@@ -5644,10 +5641,10 @@
     </row>
     <row r="111" spans="1:4">
       <c r="A111" t="s">
-        <v>570</v>
+        <v>567</v>
       </c>
       <c r="B111" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C111" t="s">
         <v>516</v>
@@ -5659,10 +5656,10 @@
     </row>
     <row r="112" spans="1:4">
       <c r="A112" t="s">
-        <v>567</v>
+        <v>571</v>
       </c>
       <c r="B112" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C112" t="s">
         <v>516</v>
@@ -5674,10 +5671,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>571</v>
+        <v>604</v>
       </c>
       <c r="B113" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C113" t="s">
         <v>516</v>
@@ -5689,10 +5686,10 @@
     </row>
     <row r="114" spans="1:4">
       <c r="A114" t="s">
-        <v>605</v>
+        <v>569</v>
       </c>
       <c r="B114" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="C114" t="s">
         <v>516</v>
@@ -5704,40 +5701,40 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>591</v>
+        <v>580</v>
       </c>
       <c r="B115" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C115" t="s">
-        <v>516</v>
+        <v>13</v>
       </c>
       <c r="D115" t="str">
         <f>VLOOKUP(C115,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>569</v>
+        <v>607</v>
       </c>
       <c r="B116" t="s">
-        <v>593</v>
+        <v>595</v>
       </c>
       <c r="C116" t="s">
-        <v>516</v>
+        <v>13</v>
       </c>
       <c r="D116" t="str">
         <f>VLOOKUP(C116,Overview!B:B,1,0)</f>
-        <v>VerticalPositionValue</v>
+        <v>VisibilityTypeValue</v>
       </c>
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>580</v>
+        <v>596</v>
       </c>
       <c r="B117" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C117" t="s">
         <v>13</v>
@@ -5749,10 +5746,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>608</v>
+        <v>603</v>
       </c>
       <c r="B118" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
@@ -5764,10 +5761,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>597</v>
+        <v>858</v>
       </c>
       <c r="B119" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
@@ -5779,10 +5776,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>604</v>
+        <v>606</v>
       </c>
       <c r="B120" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
@@ -5794,10 +5791,10 @@
     </row>
     <row r="121" spans="1:4">
       <c r="A121" t="s">
-        <v>859</v>
+        <v>568</v>
       </c>
       <c r="B121" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
@@ -5809,10 +5806,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>607</v>
+        <v>602</v>
       </c>
       <c r="B122" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
@@ -5824,10 +5821,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>568</v>
+        <v>605</v>
       </c>
       <c r="B123" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
@@ -5839,10 +5836,10 @@
     </row>
     <row r="124" spans="1:4">
       <c r="A124" t="s">
-        <v>603</v>
+        <v>570</v>
       </c>
       <c r="B124" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
@@ -5854,10 +5851,10 @@
     </row>
     <row r="125" spans="1:4">
       <c r="A125" t="s">
-        <v>606</v>
+        <v>567</v>
       </c>
       <c r="B125" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C125" t="s">
         <v>13</v>
@@ -5869,10 +5866,10 @@
     </row>
     <row r="126" spans="1:4">
       <c r="A126" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B126" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
@@ -5884,10 +5881,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>567</v>
+        <v>604</v>
       </c>
       <c r="B127" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C127" t="s">
         <v>13</v>
@@ -5899,10 +5896,10 @@
     </row>
     <row r="128" spans="1:4">
       <c r="A128" t="s">
-        <v>571</v>
+        <v>569</v>
       </c>
       <c r="B128" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="C128" t="s">
         <v>13</v>
@@ -5914,37 +5911,37 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>605</v>
+        <v>603</v>
       </c>
       <c r="B129" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="C129" t="s">
-        <v>13</v>
+        <v>333</v>
       </c>
       <c r="D129" t="str">
         <f>VLOOKUP(C129,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>WarningTypeIMKLValue</v>
       </c>
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>569</v>
+        <v>858</v>
       </c>
       <c r="B130" t="s">
-        <v>596</v>
+        <v>582</v>
       </c>
       <c r="C130" t="s">
-        <v>13</v>
+        <v>333</v>
       </c>
       <c r="D130" t="str">
         <f>VLOOKUP(C130,Overview!B:B,1,0)</f>
-        <v>VisibilityTypeValue</v>
+        <v>WarningTypeIMKLValue</v>
       </c>
     </row>
     <row r="131" spans="1:4">
       <c r="A131" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="B131" t="s">
         <v>582</v>
@@ -5959,7 +5956,7 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>859</v>
+        <v>602</v>
       </c>
       <c r="B132" t="s">
         <v>582</v>
@@ -5974,7 +5971,7 @@
     </row>
     <row r="133" spans="1:4">
       <c r="A133" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B133" t="s">
         <v>582</v>
@@ -5989,7 +5986,7 @@
     </row>
     <row r="134" spans="1:4">
       <c r="A134" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="B134" t="s">
         <v>582</v>
@@ -6004,7 +6001,7 @@
     </row>
     <row r="135" spans="1:4">
       <c r="A135" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B135" t="s">
         <v>582</v>
@@ -6019,7 +6016,7 @@
     </row>
     <row r="136" spans="1:4">
       <c r="A136" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B136" t="s">
         <v>582</v>
@@ -6034,43 +6031,43 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>571</v>
+        <v>603</v>
       </c>
       <c r="B137" t="s">
         <v>582</v>
       </c>
       <c r="C137" t="s">
-        <v>333</v>
+        <v>633</v>
       </c>
       <c r="D137" t="str">
         <f>VLOOKUP(C137,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
+        <v>WarningTypeValue</v>
       </c>
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>569</v>
+        <v>858</v>
       </c>
       <c r="B138" t="s">
         <v>582</v>
       </c>
       <c r="C138" t="s">
-        <v>333</v>
+        <v>633</v>
       </c>
       <c r="D138" t="str">
         <f>VLOOKUP(C138,Overview!B:B,1,0)</f>
-        <v>WarningTypeIMKLValue</v>
+        <v>WarningTypeValue</v>
       </c>
     </row>
     <row r="139" spans="1:4">
       <c r="A139" t="s">
-        <v>604</v>
+        <v>568</v>
       </c>
       <c r="B139" t="s">
         <v>582</v>
       </c>
       <c r="C139" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D139" t="str">
         <f>VLOOKUP(C139,Overview!B:B,1,0)</f>
@@ -6079,13 +6076,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>859</v>
+        <v>602</v>
       </c>
       <c r="B140" t="s">
         <v>582</v>
       </c>
       <c r="C140" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D140" t="str">
         <f>VLOOKUP(C140,Overview!B:B,1,0)</f>
@@ -6094,13 +6091,13 @@
     </row>
     <row r="141" spans="1:4">
       <c r="A141" t="s">
-        <v>568</v>
+        <v>570</v>
       </c>
       <c r="B141" t="s">
         <v>582</v>
       </c>
       <c r="C141" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D141" t="str">
         <f>VLOOKUP(C141,Overview!B:B,1,0)</f>
@@ -6109,13 +6106,13 @@
     </row>
     <row r="142" spans="1:4">
       <c r="A142" t="s">
-        <v>603</v>
+        <v>567</v>
       </c>
       <c r="B142" t="s">
         <v>582</v>
       </c>
       <c r="C142" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D142" t="str">
         <f>VLOOKUP(C142,Overview!B:B,1,0)</f>
@@ -6124,13 +6121,13 @@
     </row>
     <row r="143" spans="1:4">
       <c r="A143" t="s">
-        <v>570</v>
+        <v>571</v>
       </c>
       <c r="B143" t="s">
         <v>582</v>
       </c>
       <c r="C143" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D143" t="str">
         <f>VLOOKUP(C143,Overview!B:B,1,0)</f>
@@ -6139,13 +6136,13 @@
     </row>
     <row r="144" spans="1:4">
       <c r="A144" t="s">
-        <v>567</v>
+        <v>569</v>
       </c>
       <c r="B144" t="s">
         <v>582</v>
       </c>
       <c r="C144" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="D144" t="str">
         <f>VLOOKUP(C144,Overview!B:B,1,0)</f>
@@ -6154,32 +6151,32 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
-        <v>571</v>
+        <v>580</v>
       </c>
       <c r="B145" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C145" t="s">
-        <v>634</v>
+        <v>327</v>
       </c>
       <c r="D145" t="str">
         <f>VLOOKUP(C145,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>569</v>
+        <v>596</v>
       </c>
       <c r="B146" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C146" t="s">
-        <v>634</v>
+        <v>327</v>
       </c>
       <c r="D146" t="str">
         <f>VLOOKUP(C146,Overview!B:B,1,0)</f>
-        <v>WarningTypeValue</v>
+        <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
     </row>
     <row r="147" spans="1:4">
@@ -6190,26 +6187,26 @@
         <v>581</v>
       </c>
       <c r="C147" t="s">
-        <v>327</v>
+        <v>628</v>
       </c>
       <c r="D147" t="str">
         <f>VLOOKUP(C147,Overview!B:B,1,0)</f>
-        <v>WaterAppurtenanceTypeIMKLValue</v>
+        <v>WaterAppurtenanceTypeValue</v>
       </c>
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B148" t="s">
         <v>581</v>
       </c>
       <c r="C148" t="s">
-        <v>327</v>
+        <v>628</v>
       </c>
       <c r="D148" t="str">
         <f>VLOOKUP(C148,Overview!B:B,1,0)</f>
-        <v>WaterAppurtenanceTypeIMKLValue</v>
+        <v>WaterAppurtenanceTypeValue</v>
       </c>
     </row>
     <row r="149" spans="1:4">
@@ -6217,34 +6214,34 @@
         <v>580</v>
       </c>
       <c r="B149" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="C149" t="s">
-        <v>629</v>
+        <v>529</v>
       </c>
       <c r="D149" t="str">
         <f>VLOOKUP(C149,Overview!B:B,1,0)</f>
-        <v>WaterAppurtenanceTypeValue</v>
+        <v>WaterSubthemeValue</v>
       </c>
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B150" t="s">
-        <v>581</v>
+        <v>566</v>
       </c>
       <c r="C150" t="s">
-        <v>629</v>
+        <v>529</v>
       </c>
       <c r="D150" t="str">
         <f>VLOOKUP(C150,Overview!B:B,1,0)</f>
-        <v>WaterAppurtenanceTypeValue</v>
+        <v>WaterSubthemeValue</v>
       </c>
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>580</v>
+        <v>611</v>
       </c>
       <c r="B151" t="s">
         <v>566</v>
@@ -6259,7 +6256,7 @@
     </row>
     <row r="152" spans="1:4">
       <c r="A152" t="s">
-        <v>597</v>
+        <v>569</v>
       </c>
       <c r="B152" t="s">
         <v>566</v>
@@ -6274,74 +6271,44 @@
     </row>
     <row r="153" spans="1:4">
       <c r="A153" t="s">
-        <v>612</v>
+        <v>569</v>
       </c>
       <c r="B153" t="s">
-        <v>566</v>
+        <v>587</v>
       </c>
       <c r="C153" t="s">
-        <v>529</v>
+        <v>635</v>
       </c>
       <c r="D153" t="str">
         <f>VLOOKUP(C153,Overview!B:B,1,0)</f>
-        <v>WaterSubthemeValue</v>
+        <v>WaterTypeValue</v>
       </c>
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>569</v>
+        <v>857</v>
       </c>
       <c r="B154" t="s">
-        <v>566</v>
+        <v>591</v>
       </c>
       <c r="C154" t="s">
-        <v>529</v>
+        <v>8</v>
       </c>
       <c r="D154" t="str">
         <f>VLOOKUP(C154,Overview!B:B,1,0)</f>
-        <v>WaterSubthemeValue</v>
-      </c>
-    </row>
-    <row r="155" spans="1:4">
-      <c r="A155" t="s">
-        <v>569</v>
-      </c>
-      <c r="B155" t="s">
-        <v>587</v>
-      </c>
-      <c r="C155" t="s">
-        <v>636</v>
-      </c>
-      <c r="D155" t="str">
-        <f>VLOOKUP(C155,Overview!B:B,1,0)</f>
-        <v>WaterTypeValue</v>
-      </c>
-    </row>
-    <row r="156" spans="1:4">
-      <c r="A156" t="s">
-        <v>858</v>
-      </c>
-      <c r="B156" t="s">
-        <v>592</v>
-      </c>
-      <c r="C156" t="s">
-        <v>8</v>
-      </c>
-      <c r="D156" t="str">
-        <f>VLOOKUP(C156,Overview!B:B,1,0)</f>
         <v>ConditionOfFacilityValue</v>
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:D156" xr:uid="{64294C56-C363-4325-A21C-BEAD7C56353B}">
-    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D155">
-      <sortCondition ref="C1:C155"/>
+  <autoFilter ref="A1:D154" xr:uid="{64294C56-C363-4325-A21C-BEAD7C56353B}">
+    <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D153">
+      <sortCondition ref="C1:C153"/>
     </sortState>
   </autoFilter>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D155">
-    <sortCondition ref="A2:A155"/>
-    <sortCondition ref="B2:B155"/>
-    <sortCondition ref="C2:C155"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:D153">
+    <sortCondition ref="A2:A153"/>
+    <sortCondition ref="B2:B153"/>
+    <sortCondition ref="C2:C153"/>
   </sortState>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -6372,7 +6339,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>533</v>
@@ -6384,7 +6351,7 @@
         <v>534</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>536</v>
@@ -6393,7 +6360,7 @@
         <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6414,7 +6381,7 @@
         <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>559</v>
@@ -6507,7 +6474,7 @@
         <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>559</v>
@@ -6538,7 +6505,7 @@
         <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>559</v>
@@ -6569,7 +6536,7 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>559</v>
@@ -6662,7 +6629,7 @@
         <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>559</v>
@@ -6693,7 +6660,7 @@
         <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>559</v>
@@ -6724,7 +6691,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>559</v>
@@ -6755,7 +6722,7 @@
         <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>559</v>
@@ -6765,7 +6732,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/naturalGasDistributionLowPressure</v>
       </c>
       <c r="I13" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6786,7 +6753,7 @@
         <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>559</v>
@@ -6796,7 +6763,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/naturalGasDistributionMediumPressure</v>
       </c>
       <c r="I14" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6817,7 +6784,7 @@
         <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>559</v>
@@ -6827,7 +6794,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/naturalGasTransport</v>
       </c>
       <c r="I15" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6848,7 +6815,7 @@
         <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>559</v>
@@ -6858,7 +6825,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/oilGasChemicalsTransport</v>
       </c>
       <c r="I16" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="43.2">
@@ -6879,7 +6846,7 @@
         <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>559</v>
@@ -6910,7 +6877,7 @@
         <v>94</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>559</v>
@@ -6941,7 +6908,7 @@
         <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>559</v>
@@ -6972,7 +6939,7 @@
         <v>101</v>
       </c>
       <c r="F20" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>559</v>
@@ -7003,7 +6970,7 @@
         <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>559</v>
@@ -7034,7 +7001,7 @@
         <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>559</v>
@@ -7065,7 +7032,7 @@
         <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>559</v>
@@ -7096,7 +7063,7 @@
         <v>107</v>
       </c>
       <c r="F24" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>559</v>
@@ -7127,7 +7094,7 @@
         <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>559</v>
@@ -7158,7 +7125,7 @@
         <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>559</v>
@@ -7189,7 +7156,7 @@
         <v>129</v>
       </c>
       <c r="F27" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>559</v>
@@ -7220,7 +7187,7 @@
         <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>559</v>
@@ -7251,7 +7218,7 @@
         <v>139</v>
       </c>
       <c r="F29" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>559</v>
@@ -7261,7 +7228,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/drinkingWaterExtractionArea</v>
       </c>
       <c r="I29" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -7282,7 +7249,7 @@
         <v>142</v>
       </c>
       <c r="F30" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>559</v>
@@ -7310,7 +7277,7 @@
         <v>555</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>531</v>
@@ -7320,7 +7287,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/infiltrationArea</v>
       </c>
       <c r="I31" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -7341,7 +7308,7 @@
         <v>145</v>
       </c>
       <c r="F32" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>559</v>
@@ -7351,7 +7318,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/otherProtectedArea</v>
       </c>
       <c r="I32" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -7372,7 +7339,7 @@
         <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>559</v>
@@ -7382,7 +7349,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/undergroundGasStorage</v>
       </c>
       <c r="I33" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -7403,7 +7370,7 @@
         <v>166</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>559</v>
@@ -7413,7 +7380,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/annotationLabel</v>
       </c>
       <c r="I34" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -7434,7 +7401,7 @@
         <v>163</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>559</v>
@@ -7444,7 +7411,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/annotationLine</v>
       </c>
       <c r="I35" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -7465,7 +7432,7 @@
         <v>160</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>559</v>
@@ -7475,7 +7442,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/arrow</v>
       </c>
       <c r="I36" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -7493,10 +7460,10 @@
         <v>153</v>
       </c>
       <c r="E37" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>559</v>
@@ -7506,7 +7473,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningGuideline</v>
       </c>
       <c r="I37" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -7524,10 +7491,10 @@
         <v>157</v>
       </c>
       <c r="E38" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>559</v>
@@ -7537,7 +7504,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningLabel</v>
       </c>
       <c r="I38" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -7555,10 +7522,10 @@
         <v>155</v>
       </c>
       <c r="E39" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>559</v>
@@ -7568,7 +7535,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningLine</v>
       </c>
       <c r="I39" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -7589,7 +7556,7 @@
         <v>20</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>559</v>
@@ -7599,7 +7566,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/crossSection</v>
       </c>
       <c r="I40" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -7620,7 +7587,7 @@
         <v>171</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>559</v>
@@ -7630,7 +7597,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/detailedPlan</v>
       </c>
       <c r="I41" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -7651,7 +7618,7 @@
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>559</v>
@@ -7661,7 +7628,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/directionalDrilling</v>
       </c>
       <c r="I42" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -7682,7 +7649,7 @@
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>559</v>
@@ -7692,7 +7659,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/longitudinalSection</v>
       </c>
       <c r="I43" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -7713,7 +7680,7 @@
         <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>559</v>
@@ -7723,7 +7690,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/other</v>
       </c>
       <c r="I44" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -7741,7 +7708,7 @@
         <v>23</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>531</v>
@@ -7751,7 +7718,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/precaution</v>
       </c>
       <c r="I45" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -7772,7 +7739,7 @@
         <v>187</v>
       </c>
       <c r="F46" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>199</v>
@@ -7782,7 +7749,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/JPEG</v>
       </c>
       <c r="I46" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -7803,7 +7770,7 @@
         <v>185</v>
       </c>
       <c r="F47" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>199</v>
@@ -7813,7 +7780,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/PDF</v>
       </c>
       <c r="I47" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -7834,7 +7801,7 @@
         <v>183</v>
       </c>
       <c r="F48" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>199</v>
@@ -7844,7 +7811,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/PNG</v>
       </c>
       <c r="I48" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -7865,7 +7832,7 @@
         <v>189</v>
       </c>
       <c r="F49" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>199</v>
@@ -7875,7 +7842,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/TIFF</v>
       </c>
       <c r="I49" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -7896,7 +7863,7 @@
         <v>198</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>559</v>
@@ -7906,7 +7873,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue/cableAndPipeGutter</v>
       </c>
       <c r="I50" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -7927,7 +7894,7 @@
         <v>195</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>559</v>
@@ -7937,7 +7904,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue/jacketPipe</v>
       </c>
       <c r="I51" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -7958,7 +7925,7 @@
         <v>206</v>
       </c>
       <c r="F52" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>199</v>
@@ -7968,7 +7935,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/accetone</v>
       </c>
       <c r="I52" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -7989,7 +7956,7 @@
         <v>208</v>
       </c>
       <c r="F53" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>199</v>
@@ -7999,7 +7966,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/air</v>
       </c>
       <c r="I53" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -8020,7 +7987,7 @@
         <v>210</v>
       </c>
       <c r="F54" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>199</v>
@@ -8030,7 +7997,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/argon</v>
       </c>
       <c r="I54" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -8051,7 +8018,7 @@
         <v>204</v>
       </c>
       <c r="F55" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>199</v>
@@ -8061,7 +8028,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/bioGas</v>
       </c>
       <c r="I55" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -8082,7 +8049,7 @@
         <v>562</v>
       </c>
       <c r="F56" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>563</v>
@@ -8092,7 +8059,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1,2</v>
       </c>
       <c r="I56" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -8113,7 +8080,7 @@
         <v>214</v>
       </c>
       <c r="F57" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>199</v>
@@ -8123,7 +8090,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1,3</v>
       </c>
       <c r="I57" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -8141,10 +8108,10 @@
         <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F58" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>199</v>
@@ -8154,7 +8121,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butane</v>
       </c>
       <c r="I58" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -8172,7 +8139,7 @@
         <v>201</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>531</v>
@@ -8182,7 +8149,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/carbonDioxide</v>
       </c>
       <c r="I59" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -8200,10 +8167,10 @@
         <v>219</v>
       </c>
       <c r="E60" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F60" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>199</v>
@@ -8213,7 +8180,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/carbonMonoxide</v>
       </c>
       <c r="I60" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -8231,10 +8198,10 @@
         <v>221</v>
       </c>
       <c r="E61" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F61" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>199</v>
@@ -8244,7 +8211,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/chlorine</v>
       </c>
       <c r="I61" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -8265,7 +8232,7 @@
         <v>389</v>
       </c>
       <c r="F62" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>563</v>
@@ -8275,7 +8242,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/concrete</v>
       </c>
       <c r="I62" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -8296,7 +8263,7 @@
         <v>560</v>
       </c>
       <c r="F63" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>563</v>
@@ -8306,7 +8273,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/crude</v>
       </c>
       <c r="I63" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -8324,10 +8291,10 @@
         <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F64" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>199</v>
@@ -8337,7 +8304,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/dichloroethane</v>
       </c>
       <c r="I64" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -8358,7 +8325,7 @@
         <v>561</v>
       </c>
       <c r="F65" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>563</v>
@@ -8368,7 +8335,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/diesel</v>
       </c>
       <c r="I65" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -8389,7 +8356,7 @@
         <v>274</v>
       </c>
       <c r="F66" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>199</v>
@@ -8399,7 +8366,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/empty</v>
       </c>
       <c r="I66" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -8417,10 +8384,10 @@
         <v>230</v>
       </c>
       <c r="E67" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F67" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>199</v>
@@ -8430,7 +8397,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/ethylene</v>
       </c>
       <c r="I67" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -8451,7 +8418,7 @@
         <v>231</v>
       </c>
       <c r="F68" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>199</v>
@@ -8461,7 +8428,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/gasFabricationOfCocs</v>
       </c>
       <c r="I68" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -8482,7 +8449,7 @@
         <v>233</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>199</v>
@@ -8492,7 +8459,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/gasHFx</v>
       </c>
       <c r="I69" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -8513,7 +8480,7 @@
         <v>235</v>
       </c>
       <c r="F70" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>199</v>
@@ -8523,7 +8490,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/gasoil</v>
       </c>
       <c r="I70" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -8544,7 +8511,7 @@
         <v>237</v>
       </c>
       <c r="F71" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>199</v>
@@ -8554,7 +8521,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/hydrogen</v>
       </c>
       <c r="I71" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -8572,10 +8539,10 @@
         <v>240</v>
       </c>
       <c r="E72" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="F72" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>199</v>
@@ -8585,7 +8552,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/isobutane</v>
       </c>
       <c r="I72" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -8606,7 +8573,7 @@
         <v>241</v>
       </c>
       <c r="F73" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>199</v>
@@ -8616,7 +8583,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/JET-A1</v>
       </c>
       <c r="I73" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -8637,7 +8604,7 @@
         <v>243</v>
       </c>
       <c r="F74" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>199</v>
@@ -8647,7 +8614,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/kerosene</v>
       </c>
       <c r="I74" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -8668,7 +8635,7 @@
         <v>245</v>
       </c>
       <c r="F75" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>199</v>
@@ -8678,7 +8645,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/liquidAmmonia</v>
       </c>
       <c r="I75" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -8696,10 +8663,10 @@
         <v>248</v>
       </c>
       <c r="E76" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>199</v>
@@ -8709,7 +8676,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/liquidHydrocarbon</v>
       </c>
       <c r="I76" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -8730,7 +8697,7 @@
         <v>249</v>
       </c>
       <c r="F77" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>199</v>
@@ -8740,7 +8707,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/multiProduct</v>
       </c>
       <c r="I77" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -8761,7 +8728,7 @@
         <v>251</v>
       </c>
       <c r="F78" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>199</v>
@@ -8771,7 +8738,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/MVC</v>
       </c>
       <c r="I78" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -8792,7 +8759,7 @@
         <v>202</v>
       </c>
       <c r="F79" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>199</v>
@@ -8802,7 +8769,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/naturalGas</v>
       </c>
       <c r="I79" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -8823,7 +8790,7 @@
         <v>253</v>
       </c>
       <c r="F80" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>199</v>
@@ -8833,7 +8800,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/nitrogen</v>
       </c>
       <c r="I80" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -8854,7 +8821,7 @@
         <v>255</v>
       </c>
       <c r="F81" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>199</v>
@@ -8864,7 +8831,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/oxygen</v>
       </c>
       <c r="I81" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -8885,7 +8852,7 @@
         <v>257</v>
       </c>
       <c r="F82" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>199</v>
@@ -8895,7 +8862,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/phenol</v>
       </c>
       <c r="I82" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -8916,7 +8883,7 @@
         <v>259</v>
       </c>
       <c r="F83" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>199</v>
@@ -8926,7 +8893,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/propane</v>
       </c>
       <c r="I83" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -8947,7 +8914,7 @@
         <v>261</v>
       </c>
       <c r="F84" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>199</v>
@@ -8957,7 +8924,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/propylene</v>
       </c>
       <c r="I84" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -8978,7 +8945,7 @@
         <v>263</v>
       </c>
       <c r="F85" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>199</v>
@@ -8988,7 +8955,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/saltWater</v>
       </c>
       <c r="I85" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -9009,7 +8976,7 @@
         <v>267</v>
       </c>
       <c r="F86" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>199</v>
@@ -9019,7 +8986,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/sand</v>
       </c>
       <c r="I86" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -9040,7 +9007,7 @@
         <v>265</v>
       </c>
       <c r="F87" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>199</v>
@@ -9050,7 +9017,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/saumur</v>
       </c>
       <c r="I87" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -9071,7 +9038,7 @@
         <v>269</v>
       </c>
       <c r="F88" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>199</v>
@@ -9081,7 +9048,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/tetrachloroide</v>
       </c>
       <c r="I88" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -9102,7 +9069,7 @@
         <v>3</v>
       </c>
       <c r="F89" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>199</v>
@@ -9112,7 +9079,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/unknown</v>
       </c>
       <c r="I89" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -9133,7 +9100,7 @@
         <v>272</v>
       </c>
       <c r="F90" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>199</v>
@@ -9143,7 +9110,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/water</v>
       </c>
       <c r="I90" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -9164,7 +9131,7 @@
         <v>279</v>
       </c>
       <c r="F91" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>559</v>
@@ -9195,7 +9162,7 @@
         <v>283</v>
       </c>
       <c r="F92" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>199</v>
@@ -9226,7 +9193,7 @@
         <v>282</v>
       </c>
       <c r="F93" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>559</v>
@@ -9257,7 +9224,7 @@
         <v>294</v>
       </c>
       <c r="F94" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>559</v>
@@ -9267,7 +9234,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/adapter</v>
       </c>
       <c r="I94" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -9288,7 +9255,7 @@
         <v>288</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>559</v>
@@ -9298,7 +9265,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/airBeacon</v>
       </c>
       <c r="I95" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -9319,7 +9286,7 @@
         <v>311</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>559</v>
@@ -9329,7 +9296,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/blowHole</v>
       </c>
       <c r="I96" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -9347,10 +9314,10 @@
         <v>316</v>
       </c>
       <c r="E97" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F97" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>559</v>
@@ -9360,7 +9327,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
       <c r="I97" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -9381,7 +9348,7 @@
         <v>314</v>
       </c>
       <c r="F98" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>559</v>
@@ -9391,7 +9358,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
       <c r="I98" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -9412,7 +9379,7 @@
         <v>291</v>
       </c>
       <c r="F99" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>559</v>
@@ -9422,7 +9389,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/endCap</v>
       </c>
       <c r="I99" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -9443,7 +9410,7 @@
         <v>306</v>
       </c>
       <c r="F100" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>559</v>
@@ -9453,7 +9420,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/flange</v>
       </c>
       <c r="I100" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -9474,7 +9441,7 @@
         <v>300</v>
       </c>
       <c r="F101" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>559</v>
@@ -9484,7 +9451,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
       <c r="I101" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -9502,10 +9469,10 @@
         <v>308</v>
       </c>
       <c r="E102" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F102" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>199</v>
@@ -9515,7 +9482,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/siphon</v>
       </c>
       <c r="I102" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -9536,7 +9503,7 @@
         <v>282</v>
       </c>
       <c r="F103" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>559</v>
@@ -9546,7 +9513,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/sleeve</v>
       </c>
       <c r="I103" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -9567,7 +9534,7 @@
         <v>319</v>
       </c>
       <c r="F104" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>559</v>
@@ -9577,7 +9544,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/sluice</v>
       </c>
       <c r="I104" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -9598,7 +9565,7 @@
         <v>303</v>
       </c>
       <c r="F105" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>564</v>
@@ -9608,7 +9575,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/stoppleFitting</v>
       </c>
       <c r="I105" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -9629,7 +9596,7 @@
         <v>297</v>
       </c>
       <c r="F106" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>559</v>
@@ -9639,7 +9606,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/valve</v>
       </c>
       <c r="I106" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -9657,10 +9624,10 @@
         <v>316</v>
       </c>
       <c r="E107" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F107" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>559</v>
@@ -9691,7 +9658,7 @@
         <v>314</v>
       </c>
       <c r="F108" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>559</v>
@@ -9722,7 +9689,7 @@
         <v>326</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G109" s="8" t="s">
         <v>559</v>
@@ -9753,7 +9720,7 @@
         <v>34</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>531</v>
@@ -9781,7 +9748,7 @@
         <v>32</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G111" s="9" t="s">
         <v>531</v>
@@ -9809,7 +9776,7 @@
         <v>36</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>531</v>
@@ -9837,7 +9804,7 @@
         <v>300</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G113" s="9" t="s">
         <v>531</v>
@@ -9868,10 +9835,10 @@
         <v>21</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H114" s="4" t="str">
         <f>VLOOKUP(A114,Overview!B:D,3,0)&amp; "/" &amp; E114</f>
@@ -9899,7 +9866,7 @@
         <v>324</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>559</v>
@@ -9927,10 +9894,10 @@
         <v>316</v>
       </c>
       <c r="E116" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F116" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>559</v>
@@ -9961,7 +9928,7 @@
         <v>314</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G117" s="8" t="s">
         <v>559</v>
@@ -9992,7 +9959,7 @@
         <v>330</v>
       </c>
       <c r="F118" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>559</v>
@@ -10023,7 +9990,7 @@
         <v>326</v>
       </c>
       <c r="F119" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>559</v>
@@ -10045,13 +10012,13 @@
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C120" t="s">
+        <v>615</v>
+      </c>
+      <c r="E120" s="9" t="s">
         <v>616</v>
       </c>
-      <c r="E120" s="9" t="s">
-        <v>617</v>
-      </c>
       <c r="F120" s="9" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G120" s="9" t="s">
         <v>531</v>
@@ -10079,7 +10046,7 @@
         <v>300</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G121" s="9" t="s">
         <v>531</v>
@@ -10094,7 +10061,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B122" t="str">
         <f>VLOOKUP(A122,Overview!B:B,1,0)</f>
@@ -10117,7 +10084,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
       </c>
       <c r="I122" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -10135,7 +10102,7 @@
         <v>556</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G123" s="9" t="s">
         <v>531</v>
@@ -10145,7 +10112,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue/geotextile</v>
       </c>
       <c r="I123" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -10166,7 +10133,7 @@
         <v>294</v>
       </c>
       <c r="F124" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G124" s="8" t="s">
         <v>559</v>
@@ -10197,7 +10164,7 @@
         <v>341</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>559</v>
@@ -10228,7 +10195,7 @@
         <v>288</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G126" s="8" t="s">
         <v>559</v>
@@ -10256,10 +10223,10 @@
         <v>316</v>
       </c>
       <c r="E127" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G127" s="8" t="s">
         <v>559</v>
@@ -10290,7 +10257,7 @@
         <v>314</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G128" s="8" t="s">
         <v>559</v>
@@ -10321,7 +10288,7 @@
         <v>343</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G129" s="8" t="s">
         <v>559</v>
@@ -10352,7 +10319,7 @@
         <v>326</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G130" s="8" t="s">
         <v>559</v>
@@ -10383,7 +10350,7 @@
         <v>339</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G131" s="8" t="s">
         <v>559</v>
@@ -10414,7 +10381,7 @@
         <v>306</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G132" s="8" t="s">
         <v>559</v>
@@ -10436,10 +10403,10 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G133" s="9" t="s">
         <v>531</v>
@@ -10461,10 +10428,10 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G134" s="9" t="s">
         <v>531</v>
@@ -10495,7 +10462,7 @@
         <v>300</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G135" s="8" t="s">
         <v>559</v>
@@ -10523,10 +10490,10 @@
         <v>307</v>
       </c>
       <c r="E136" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G136" s="8" t="s">
         <v>559</v>
@@ -10557,7 +10524,7 @@
         <v>282</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>559</v>
@@ -10588,7 +10555,7 @@
         <v>319</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G138" s="8" t="s">
         <v>559</v>
@@ -10619,7 +10586,7 @@
         <v>297</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G139" s="8" t="s">
         <v>559</v>
@@ -10650,7 +10617,7 @@
         <v>396</v>
       </c>
       <c r="F140" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G140" s="8" t="s">
         <v>559</v>
@@ -10660,7 +10627,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/brickwork</v>
       </c>
       <c r="I140" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -10681,7 +10648,7 @@
         <v>389</v>
       </c>
       <c r="F141" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G141" s="8" t="s">
         <v>559</v>
@@ -10691,7 +10658,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/concrete</v>
       </c>
       <c r="I141" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -10712,7 +10679,7 @@
         <v>394</v>
       </c>
       <c r="F142" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>559</v>
@@ -10722,7 +10689,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/crossLinkPolyethylene</v>
       </c>
       <c r="I142" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -10743,7 +10710,7 @@
         <v>347</v>
       </c>
       <c r="F143" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G143" s="8" t="s">
         <v>559</v>
@@ -10753,7 +10720,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/ductileCastIron</v>
       </c>
       <c r="I143" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -10774,7 +10741,7 @@
         <v>350</v>
       </c>
       <c r="F144" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G144" s="8" t="s">
         <v>559</v>
@@ -10784,7 +10751,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/ductileCastIronBlutop</v>
       </c>
       <c r="I144" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -10805,7 +10772,7 @@
         <v>381</v>
       </c>
       <c r="F145" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G145" s="8" t="s">
         <v>559</v>
@@ -10815,7 +10782,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/fiberCement</v>
       </c>
       <c r="I145" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -10836,7 +10803,7 @@
         <v>387</v>
       </c>
       <c r="F146" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G146" s="8" t="s">
         <v>559</v>
@@ -10846,7 +10813,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/galvanisedSteel</v>
       </c>
       <c r="I146" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -10867,7 +10834,7 @@
         <v>353</v>
       </c>
       <c r="F147" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G147" s="8" t="s">
         <v>559</v>
@@ -10877,7 +10844,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/glassFiberReinforcedPolyester</v>
       </c>
       <c r="I147" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -10898,7 +10865,7 @@
         <v>356</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G148" s="8" t="s">
         <v>559</v>
@@ -10908,7 +10875,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/grayCastIron</v>
       </c>
       <c r="I148" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -10929,7 +10896,7 @@
         <v>392</v>
       </c>
       <c r="F149" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>199</v>
@@ -10939,7 +10906,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/jute</v>
       </c>
       <c r="I149" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -10960,7 +10927,7 @@
         <v>359</v>
       </c>
       <c r="F150" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G150" s="8" t="s">
         <v>559</v>
@@ -10970,7 +10937,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/lead</v>
       </c>
       <c r="I150" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -10991,7 +10958,7 @@
         <v>21</v>
       </c>
       <c r="F151" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G151" s="8" t="s">
         <v>559</v>
@@ -11001,7 +10968,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/other</v>
       </c>
       <c r="I151" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -11022,7 +10989,7 @@
         <v>361</v>
       </c>
       <c r="F152" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>559</v>
@@ -11032,7 +10999,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethylene</v>
       </c>
       <c r="I152" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -11053,7 +11020,7 @@
         <v>366</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G153" s="8" t="s">
         <v>559</v>
@@ -11063,7 +11030,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethyleneHighDensity</v>
       </c>
       <c r="I153" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -11084,7 +11051,7 @@
         <v>363</v>
       </c>
       <c r="F154" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G154" s="8" t="s">
         <v>559</v>
@@ -11094,7 +11061,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethyleneSafetyLine</v>
       </c>
       <c r="I154" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -11115,7 +11082,7 @@
         <v>369</v>
       </c>
       <c r="F155" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G155" s="8" t="s">
         <v>559</v>
@@ -11125,7 +11092,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polypropylene</v>
       </c>
       <c r="I155" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -11146,7 +11113,7 @@
         <v>372</v>
       </c>
       <c r="F156" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G156" s="8" t="s">
         <v>559</v>
@@ -11156,7 +11123,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polypropyleneSLA</v>
       </c>
       <c r="I156" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -11177,7 +11144,7 @@
         <v>384</v>
       </c>
       <c r="F157" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G157" s="8" t="s">
         <v>559</v>
@@ -11187,7 +11154,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/prestressedConcrete</v>
       </c>
       <c r="I157" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -11208,7 +11175,7 @@
         <v>373</v>
       </c>
       <c r="F158" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>199</v>
@@ -11218,7 +11185,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/pvc</v>
       </c>
       <c r="I158" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -11239,7 +11206,7 @@
         <v>376</v>
       </c>
       <c r="F159" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>199</v>
@@ -11249,7 +11216,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/sideroCement</v>
       </c>
       <c r="I159" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -11270,7 +11237,7 @@
         <v>375</v>
       </c>
       <c r="F160" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G160" s="8" t="s">
         <v>559</v>
@@ -11280,7 +11247,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/stainlessSteel</v>
       </c>
       <c r="I160" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -11301,7 +11268,7 @@
         <v>378</v>
       </c>
       <c r="F161" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G161" s="8" t="s">
         <v>559</v>
@@ -11311,7 +11278,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/steel</v>
       </c>
       <c r="I161" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -11332,7 +11299,7 @@
         <v>391</v>
       </c>
       <c r="F162" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G162" s="8" t="s">
         <v>559</v>
@@ -11342,7 +11309,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/stoneware</v>
       </c>
       <c r="I162" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -11363,7 +11330,7 @@
         <v>558</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G163" s="9" t="s">
         <v>531</v>
@@ -11373,7 +11340,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/sulfurConcrete</v>
       </c>
       <c r="I163" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -11394,7 +11361,7 @@
         <v>3</v>
       </c>
       <c r="F164" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G164" s="8" t="s">
         <v>559</v>
@@ -11404,7 +11371,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/unknown</v>
       </c>
       <c r="I164" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -11425,10 +11392,10 @@
         <v>402</v>
       </c>
       <c r="F165" s="13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H165" s="4" t="str">
         <f>VLOOKUP(A165,Overview!B:D,3,0)&amp; "/" &amp; E165</f>
@@ -11456,10 +11423,10 @@
         <v>488</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H166" s="4" t="str">
         <f>VLOOKUP(A166,Overview!B:D,3,0)&amp; "/" &amp; E166</f>
@@ -11487,7 +11454,7 @@
         <v>406</v>
       </c>
       <c r="F167" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G167" s="8" t="s">
         <v>559</v>
@@ -11502,7 +11469,7 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B168" t="str">
         <f>VLOOKUP(A168,Overview!B:B,1,0)</f>
@@ -11518,10 +11485,10 @@
         <v>408</v>
       </c>
       <c r="F168" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H168" s="4" t="str">
         <f>VLOOKUP(A168,Overview!B:D,3,0)&amp; "/" &amp; E168</f>
@@ -11533,7 +11500,7 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B169" t="str">
         <f>VLOOKUP(A169,Overview!B:B,1,0)</f>
@@ -11549,10 +11516,10 @@
         <v>410</v>
       </c>
       <c r="F169" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H169" s="4" t="str">
         <f>VLOOKUP(A169,Overview!B:D,3,0)&amp; "/" &amp; E169</f>
@@ -11564,7 +11531,7 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B170" t="str">
         <f>VLOOKUP(A170,Overview!B:B,1,0)</f>
@@ -11580,10 +11547,10 @@
         <v>21</v>
       </c>
       <c r="F170" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H170" s="4" t="str">
         <f>VLOOKUP(A170,Overview!B:D,3,0)&amp; "/" &amp; E170</f>
@@ -11595,7 +11562,7 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B171" t="str">
         <f>VLOOKUP(A171,Overview!B:B,1,0)</f>
@@ -11611,10 +11578,10 @@
         <v>412</v>
       </c>
       <c r="F171" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H171" s="4" t="str">
         <f>VLOOKUP(A171,Overview!B:D,3,0)&amp; "/" &amp; E171</f>
@@ -11626,7 +11593,7 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B172" t="str">
         <f>VLOOKUP(A172,Overview!B:B,1,0)</f>
@@ -11654,7 +11621,7 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B173" t="str">
         <f>VLOOKUP(A173,Overview!B:B,1,0)</f>
@@ -11682,7 +11649,7 @@
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B174" t="str">
         <f>VLOOKUP(A174,Overview!B:B,1,0)</f>
@@ -11710,7 +11677,7 @@
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B175" t="str">
         <f>VLOOKUP(A175,Overview!B:B,1,0)</f>
@@ -11738,7 +11705,7 @@
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B176" t="str">
         <f>VLOOKUP(A176,Overview!B:B,1,0)</f>
@@ -11766,7 +11733,7 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B177" t="str">
         <f>VLOOKUP(A177,Overview!B:B,1,0)</f>
@@ -11794,7 +11761,7 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B178" t="str">
         <f>VLOOKUP(A178,Overview!B:B,1,0)</f>
@@ -11822,7 +11789,7 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B179" t="str">
         <f>VLOOKUP(A179,Overview!B:B,1,0)</f>
@@ -11850,7 +11817,7 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B180" t="str">
         <f>VLOOKUP(A180,Overview!B:B,1,0)</f>
@@ -11873,12 +11840,12 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/collection</v>
       </c>
       <c r="I180" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B181" t="str">
         <f>VLOOKUP(A181,Overview!B:B,1,0)</f>
@@ -11901,12 +11868,12 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/distribution</v>
       </c>
       <c r="I181" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B182" t="str">
         <f>VLOOKUP(A182,Overview!B:B,1,0)</f>
@@ -11929,12 +11896,12 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/private</v>
       </c>
       <c r="I182" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B183" t="str">
         <f>VLOOKUP(A183,Overview!B:B,1,0)</f>
@@ -11957,28 +11924,28 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/transport</v>
       </c>
       <c r="I183" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="B184" t="str">
         <f>VLOOKUP(A184,Overview!B:B,1,0)</f>
         <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
       <c r="C184" t="s">
+        <v>653</v>
+      </c>
+      <c r="D184" t="s">
         <v>654</v>
       </c>
-      <c r="D184" t="s">
-        <v>655</v>
-      </c>
       <c r="E184" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="F184" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G184" s="9" t="s">
         <v>531</v>
@@ -11988,12 +11955,12 @@
         <v>https://vocab.belgif.be/auth/IMKL-UtilityDeliveryTypeIMKLValue/connection</v>
       </c>
       <c r="I184" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="28.8">
       <c r="A185" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B185" t="str">
         <f>VLOOKUP(A185,Overview!B:B,1,0)</f>
@@ -12016,7 +11983,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
       </c>
       <c r="I185" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -12037,7 +12004,7 @@
         <v>336</v>
       </c>
       <c r="F186" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G186" s="8" t="s">
         <v>559</v>
@@ -12047,12 +12014,12 @@
         <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue/protectivePlate</v>
       </c>
       <c r="I186" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="43.2">
       <c r="A187" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B187" t="str">
         <f>VLOOKUP(A187,Overview!B:B,1,0)</f>
@@ -12075,12 +12042,12 @@
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
       </c>
       <c r="I187" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B188" t="str">
         <f>VLOOKUP(A188,Overview!B:B,1,0)</f>
@@ -12108,7 +12075,7 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B189" t="str">
         <f>VLOOKUP(A189,Overview!B:B,1,0)</f>
@@ -12136,7 +12103,7 @@
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B190" t="str">
         <f>VLOOKUP(A190,Overview!B:B,1,0)</f>
@@ -12159,12 +12126,12 @@
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
       </c>
       <c r="I190" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B191" t="str">
         <f>VLOOKUP(A191,Overview!B:B,1,0)</f>
@@ -12187,12 +12154,12 @@
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
       </c>
       <c r="I191" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B192" t="str">
         <f>VLOOKUP(A192,Overview!B:B,1,0)</f>
@@ -12205,7 +12172,7 @@
         <v>455</v>
       </c>
       <c r="E192" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="G192" s="8" t="s">
         <v>150</v>
@@ -12215,12 +12182,12 @@
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
       </c>
       <c r="I192" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B193" t="str">
         <f>VLOOKUP(A193,Overview!B:B,1,0)</f>
@@ -12248,7 +12215,7 @@
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B194" t="str">
         <f>VLOOKUP(A194,Overview!B:B,1,0)</f>
@@ -12292,7 +12259,7 @@
         <v>322</v>
       </c>
       <c r="F195" s="13" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G195" s="8" t="s">
         <v>559</v>
@@ -12307,7 +12274,7 @@
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B196" t="str">
         <f>VLOOKUP(A196,Overview!B:B,1,0)</f>
@@ -12335,7 +12302,7 @@
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B197" t="str">
         <f>VLOOKUP(A197,Overview!B:B,1,0)</f>
@@ -12348,7 +12315,7 @@
         <v>465</v>
       </c>
       <c r="E197" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="G197" s="8" t="s">
         <v>150</v>
@@ -12363,7 +12330,7 @@
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B198" t="str">
         <f>VLOOKUP(A198,Overview!B:B,1,0)</f>
@@ -12391,7 +12358,7 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B199" t="str">
         <f>VLOOKUP(A199,Overview!B:B,1,0)</f>
@@ -12419,7 +12386,7 @@
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B200" t="str">
         <f>VLOOKUP(A200,Overview!B:B,1,0)</f>
@@ -12447,7 +12414,7 @@
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B201" t="str">
         <f>VLOOKUP(A201,Overview!B:B,1,0)</f>
@@ -12475,7 +12442,7 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B202" t="str">
         <f>VLOOKUP(A202,Overview!B:B,1,0)</f>
@@ -12503,7 +12470,7 @@
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B203" t="str">
         <f>VLOOKUP(A203,Overview!B:B,1,0)</f>
@@ -12531,7 +12498,7 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B204" t="str">
         <f>VLOOKUP(A204,Overview!B:B,1,0)</f>
@@ -12559,7 +12526,7 @@
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B205" t="str">
         <f>VLOOKUP(A205,Overview!B:B,1,0)</f>
@@ -12587,7 +12554,7 @@
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B206" t="str">
         <f>VLOOKUP(A206,Overview!B:B,1,0)</f>
@@ -12615,7 +12582,7 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B207" t="str">
         <f>VLOOKUP(A207,Overview!B:B,1,0)</f>
@@ -12643,7 +12610,7 @@
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B208" t="str">
         <f>VLOOKUP(A208,Overview!B:B,1,0)</f>
@@ -12671,7 +12638,7 @@
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B209" t="str">
         <f>VLOOKUP(A209,Overview!B:B,1,0)</f>
@@ -12715,10 +12682,10 @@
         <v>398</v>
       </c>
       <c r="F210" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H210" s="4" t="str">
         <f>VLOOKUP(A210,Overview!B:D,3,0)&amp; "/" &amp; E210</f>
@@ -12746,10 +12713,10 @@
         <v>490</v>
       </c>
       <c r="F211" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G211" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H211" s="4" t="str">
         <f>VLOOKUP(A211,Overview!B:D,3,0)&amp; "/" &amp; E211</f>
@@ -12761,7 +12728,7 @@
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B212" t="str">
         <f>VLOOKUP(A212,Overview!B:B,1,0)</f>
@@ -12789,7 +12756,7 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B213" t="str">
         <f>VLOOKUP(A213,Overview!B:B,1,0)</f>
@@ -12812,12 +12779,12 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</v>
       </c>
       <c r="I213" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B214" t="str">
         <f>VLOOKUP(A214,Overview!B:B,1,0)</f>
@@ -12845,7 +12812,7 @@
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B215" t="str">
         <f>VLOOKUP(A215,Overview!B:B,1,0)</f>
@@ -12873,7 +12840,7 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B216" t="str">
         <f>VLOOKUP(A216,Overview!B:B,1,0)</f>
@@ -12901,7 +12868,7 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B217" t="str">
         <f>VLOOKUP(A217,Overview!B:B,1,0)</f>
@@ -12929,7 +12896,7 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B218" t="str">
         <f>VLOOKUP(A218,Overview!B:B,1,0)</f>
@@ -12945,17 +12912,17 @@
         <v>504</v>
       </c>
       <c r="F218" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H218" s="4" t="str">
         <f>VLOOKUP(A218,Overview!B:D,3,0)&amp; "/" &amp; E218</f>
         <v>https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue/crossTheme</v>
       </c>
       <c r="I218" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -12976,10 +12943,10 @@
         <v>511</v>
       </c>
       <c r="F219" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G219" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H219" s="4" t="str">
         <f>VLOOKUP(A219,Overview!B:D,3,0)&amp; "/" &amp; E219</f>
@@ -13007,10 +12974,10 @@
         <v>507</v>
       </c>
       <c r="F220" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G220" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H220" s="4" t="str">
         <f>VLOOKUP(A220,Overview!B:D,3,0)&amp; "/" &amp; E220</f>
@@ -13038,10 +13005,10 @@
         <v>509</v>
       </c>
       <c r="F221" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G221" s="8" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="H221" s="4" t="str">
         <f>VLOOKUP(A221,Overview!B:D,3,0)&amp; "/" &amp; E221</f>
@@ -13076,7 +13043,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
       </c>
       <c r="I222" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -13104,7 +13071,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
       </c>
       <c r="I223" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -13132,7 +13099,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
       </c>
       <c r="I224" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -13151,7 +13118,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/underConstruction</v>
       </c>
       <c r="I225" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -13179,7 +13146,7 @@
         <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/onGroundSurface</v>
       </c>
       <c r="I226" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -13207,7 +13174,7 @@
         <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/suspendedOrElevated</v>
       </c>
       <c r="I227" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -13235,7 +13202,7 @@
         <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/underground</v>
       </c>
       <c r="I228" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -13256,7 +13223,7 @@
         <v>530</v>
       </c>
       <c r="I229" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -13277,7 +13244,7 @@
         <v>530</v>
       </c>
       <c r="I230" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -13298,7 +13265,7 @@
         <v>530</v>
       </c>
       <c r="I231" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -13319,7 +13286,7 @@
         <v>530</v>
       </c>
       <c r="I232" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -13340,7 +13307,7 @@
         <v>530</v>
       </c>
       <c r="I233" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -13358,7 +13325,7 @@
         <v>539</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G234" s="9" t="s">
         <v>531</v>
@@ -13368,7 +13335,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/digitizedPlan</v>
       </c>
       <c r="I234" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -13386,7 +13353,7 @@
         <v>29</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G235" s="9" t="s">
         <v>531</v>
@@ -13396,7 +13363,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/gnss</v>
       </c>
       <c r="I235" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -13414,7 +13381,7 @@
         <v>31</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G236" s="9" t="s">
         <v>531</v>
@@ -13424,7 +13391,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/lidar</v>
       </c>
       <c r="I236" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -13442,7 +13409,7 @@
         <v>541</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G237" s="9" t="s">
         <v>531</v>
@@ -13452,7 +13419,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringTape</v>
       </c>
       <c r="I237" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -13470,7 +13437,7 @@
         <v>538</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G238" s="9" t="s">
         <v>531</v>
@@ -13480,7 +13447,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringWheel</v>
       </c>
       <c r="I238" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -13498,7 +13465,7 @@
         <v>26</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G239" s="9" t="s">
         <v>531</v>
@@ -13508,7 +13475,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/photogrammetry</v>
       </c>
       <c r="I239" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -13526,7 +13493,7 @@
         <v>537</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G240" s="9" t="s">
         <v>531</v>
@@ -13536,7 +13503,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/sketch</v>
       </c>
       <c r="I240" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -13554,7 +13521,7 @@
         <v>28</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G241" s="9" t="s">
         <v>531</v>
@@ -13564,7 +13531,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/terrestrial</v>
       </c>
       <c r="I241" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -13582,7 +13549,7 @@
         <v>540</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G242" s="9" t="s">
         <v>531</v>
@@ -13592,7 +13559,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/totalStation</v>
       </c>
       <c r="I242" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -13610,7 +13577,7 @@
         <v>27</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G243" s="9" t="s">
         <v>531</v>
@@ -13620,7 +13587,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/triangulation</v>
       </c>
       <c r="I243" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -13638,7 +13605,7 @@
         <v>15</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G244" s="9" t="s">
         <v>531</v>
@@ -13648,7 +13615,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/notVisibleAboveGround</v>
       </c>
       <c r="I244" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -13666,7 +13633,7 @@
         <v>14</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G245" s="9" t="s">
         <v>531</v>
@@ -13676,7 +13643,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/visibleAboveGround</v>
       </c>
       <c r="I245" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -13694,7 +13661,7 @@
         <v>16</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G246" s="9" t="s">
         <v>531</v>
@@ -13704,7 +13671,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue/surfaceLevel</v>
       </c>
       <c r="I246" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -13722,7 +13689,7 @@
         <v>25</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G247" s="9" t="s">
         <v>531</v>
@@ -13732,7 +13699,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/culvert</v>
       </c>
       <c r="I247" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -13750,7 +13717,7 @@
         <v>22</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G248" s="9" t="s">
         <v>531</v>
@@ -13760,7 +13727,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/directionalDrilling</v>
       </c>
       <c r="I248" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -13778,7 +13745,7 @@
         <v>30</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G249" s="9" t="s">
         <v>531</v>
@@ -13788,7 +13755,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/openTrench</v>
       </c>
       <c r="I249" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -13806,7 +13773,7 @@
         <v>21</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G250" s="9" t="s">
         <v>531</v>
@@ -13816,7 +13783,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/other</v>
       </c>
       <c r="I250" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
     </row>
   </sheetData>
@@ -13827,6 +13794,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -14086,16 +14062,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC2C1C4-4794-4CDA-B113-FDC4260BCF94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{791B434E-C5B6-43DF-B218-859297235BBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14113,12 +14088,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC2C1C4-4794-4CDA-B113-FDC4260BCF94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/implementation/Documentation/IMKL3_Codelists.xlsx
+++ b/implementation/Documentation/IMKL3_Codelists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\Belgif\implementation\Documentation\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\ICEGthema-imkl\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D9C4BF0-4658-465E-B4A7-C7100257837E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9521CE3-B499-4819-BFB4-958F4C0EC52B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="23040" yWindow="0" windowWidth="23040" windowHeight="30264" activeTab="1" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" activeTab="1" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -1772,9 +1772,6 @@
     <t>ProtectedArea</t>
   </si>
   <si>
-    <t>type</t>
-  </si>
-  <si>
     <t>Annotation</t>
   </si>
   <si>
@@ -2632,6 +2629,9 @@
   </si>
   <si>
     <t>ElectricityCable</t>
+  </si>
+  <si>
+    <t>referenceSurfaceType</t>
   </si>
 </sst>
 </file>
@@ -3098,33 +3098,33 @@
       <selection activeCell="C58" sqref="C58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.6640625" customWidth="1"/>
-    <col min="4" max="4" width="76.6640625" customWidth="1"/>
-    <col min="5" max="5" width="81.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.7109375" customWidth="1"/>
+    <col min="4" max="4" width="76.7109375" customWidth="1"/>
+    <col min="5" max="5" width="81.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.5546875" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.44140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.28515625" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5703125" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -3142,7 +3142,7 @@
         <v>41</v>
       </c>
       <c r="E1" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="F1" s="10"/>
       <c r="G1" s="10"/>
@@ -3183,7 +3183,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ActivityValue</v>
       </c>
       <c r="E2" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -3201,7 +3201,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue</v>
       </c>
       <c r="E3" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -3219,7 +3219,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue</v>
       </c>
       <c r="E4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -3234,7 +3234,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue</v>
       </c>
       <c r="E5" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -3252,7 +3252,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue</v>
       </c>
       <c r="E6" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -3270,7 +3270,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue</v>
       </c>
       <c r="E7" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -3288,7 +3288,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue</v>
       </c>
       <c r="E8" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -3306,7 +3306,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ElectricityAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E9" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -3314,7 +3314,7 @@
         <v>449</v>
       </c>
       <c r="B10" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>150</v>
@@ -3324,7 +3324,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue</v>
       </c>
       <c r="E10" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -3342,7 +3342,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue</v>
       </c>
       <c r="E11" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -3360,7 +3360,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue</v>
       </c>
       <c r="E12" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -3389,7 +3389,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E14" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -3397,7 +3397,7 @@
         <v>453</v>
       </c>
       <c r="B15" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="C15" s="7" t="s">
         <v>150</v>
@@ -3407,7 +3407,7 @@
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue</v>
       </c>
       <c r="E15" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -3425,7 +3425,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="E16" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
     </row>
     <row r="17" spans="1:5">
@@ -3443,7 +3443,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue</v>
       </c>
       <c r="E17" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
     </row>
     <row r="18" spans="1:5">
@@ -3461,7 +3461,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue</v>
       </c>
       <c r="E18" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
     </row>
     <row r="19" spans="1:5">
@@ -3476,7 +3476,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue</v>
       </c>
       <c r="E19" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
     </row>
     <row r="20" spans="1:5">
@@ -3494,7 +3494,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E20" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="21" spans="1:5">
@@ -3502,7 +3502,7 @@
         <v>456</v>
       </c>
       <c r="B21" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="C21" s="7" t="s">
         <v>150</v>
@@ -3512,7 +3512,7 @@
         <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue</v>
       </c>
       <c r="E21" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
     </row>
     <row r="22" spans="1:5">
@@ -3530,7 +3530,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue</v>
       </c>
       <c r="E22" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
     </row>
     <row r="23" spans="1:5">
@@ -3538,7 +3538,7 @@
         <v>415</v>
       </c>
       <c r="B23" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="C23" s="7" t="s">
         <v>150</v>
@@ -3548,7 +3548,7 @@
         <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue</v>
       </c>
       <c r="E23" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
     </row>
     <row r="24" spans="1:5">
@@ -3563,7 +3563,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue</v>
       </c>
       <c r="E24" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
     </row>
     <row r="25" spans="1:5">
@@ -3574,7 +3574,7 @@
         <v>487</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="26" spans="1:5">
@@ -3592,7 +3592,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E26" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
     </row>
     <row r="27" spans="1:5">
@@ -3600,17 +3600,17 @@
         <v>407</v>
       </c>
       <c r="B27" t="s">
+        <v>648</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>649</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>650</v>
       </c>
       <c r="D27" s="4" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B27</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue</v>
       </c>
       <c r="E27" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="28" spans="1:5">
@@ -3628,7 +3628,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsSubthemeValue</v>
       </c>
       <c r="E28" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="29" spans="1:5">
@@ -3646,7 +3646,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E29" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
     </row>
     <row r="30" spans="1:5">
@@ -3664,7 +3664,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue</v>
       </c>
       <c r="E30" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
     </row>
     <row r="31" spans="1:5">
@@ -3672,10 +3672,10 @@
         <v>506</v>
       </c>
       <c r="B31" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
     </row>
     <row r="32" spans="1:5">
@@ -3693,12 +3693,12 @@
         <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue</v>
       </c>
       <c r="E32" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
     </row>
     <row r="33" spans="1:5">
       <c r="B33" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>531</v>
@@ -3708,7 +3708,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-UtilityDeliveryTypeIMKLValue</v>
       </c>
       <c r="E33" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="34" spans="1:5">
@@ -3716,7 +3716,7 @@
         <v>433</v>
       </c>
       <c r="B34" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="C34" s="7" t="s">
         <v>150</v>
@@ -3726,12 +3726,12 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue</v>
       </c>
       <c r="E34" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
     </row>
     <row r="35" spans="1:5">
       <c r="B35" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>531</v>
@@ -3741,7 +3741,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue</v>
       </c>
       <c r="E35" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="36" spans="1:5">
@@ -3749,7 +3749,7 @@
         <v>492</v>
       </c>
       <c r="B36" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="C36" s="7" t="s">
         <v>150</v>
@@ -3759,7 +3759,7 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue</v>
       </c>
       <c r="E36" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
     </row>
     <row r="37" spans="1:5">
@@ -3773,10 +3773,10 @@
         <v>199</v>
       </c>
       <c r="D37" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="E37" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
     </row>
     <row r="38" spans="1:5">
@@ -3791,7 +3791,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue</v>
       </c>
       <c r="E38" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="39" spans="1:5">
@@ -3809,7 +3809,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue</v>
       </c>
       <c r="E39" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="40" spans="1:5">
@@ -3817,7 +3817,7 @@
         <v>442</v>
       </c>
       <c r="B40" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="C40" s="7" t="s">
         <v>150</v>
@@ -3827,7 +3827,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue</v>
       </c>
       <c r="E40" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
     </row>
     <row r="41" spans="1:5">
@@ -3845,7 +3845,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E41" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="42" spans="1:5">
@@ -3853,7 +3853,7 @@
         <v>466</v>
       </c>
       <c r="B42" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="C42" s="7" t="s">
         <v>150</v>
@@ -3863,7 +3863,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue</v>
       </c>
       <c r="E42" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
     </row>
     <row r="43" spans="1:5">
@@ -3881,7 +3881,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue</v>
       </c>
       <c r="E43" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
     </row>
     <row r="44" spans="1:5">
@@ -3889,7 +3889,7 @@
         <v>424</v>
       </c>
       <c r="B44" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="C44" s="7" t="s">
         <v>150</v>
@@ -3899,7 +3899,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WaterTypeValue</v>
       </c>
       <c r="E44" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="45" spans="1:5">
@@ -3978,21 +3978,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64294C56-C363-4325-A21C-BEAD7C56353B}">
   <dimension ref="A1:D154"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="A114" sqref="A114:XFD114"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B155" sqref="B155"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.44140625" customWidth="1"/>
+    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.42578125" customWidth="1"/>
     <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
       <c r="A1" s="1" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>565</v>
@@ -4001,15 +4001,15 @@
         <v>40</v>
       </c>
       <c r="D1" s="1" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
     </row>
     <row r="2" spans="1:4">
       <c r="A2" t="s">
+        <v>592</v>
+      </c>
+      <c r="B2" t="s">
         <v>593</v>
-      </c>
-      <c r="B2" t="s">
-        <v>594</v>
       </c>
       <c r="C2" t="s">
         <v>523</v>
@@ -4021,10 +4021,10 @@
     </row>
     <row r="3" spans="1:4">
       <c r="A3" t="s">
+        <v>573</v>
+      </c>
+      <c r="B3" t="s">
         <v>574</v>
-      </c>
-      <c r="B3" t="s">
-        <v>575</v>
       </c>
       <c r="C3" t="s">
         <v>167</v>
@@ -4036,10 +4036,10 @@
     </row>
     <row r="4" spans="1:4">
       <c r="A4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C4" t="s">
         <v>8</v>
@@ -4051,10 +4051,10 @@
     </row>
     <row r="5" spans="1:4">
       <c r="A5" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B5" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C5" t="s">
         <v>8</v>
@@ -4066,10 +4066,10 @@
     </row>
     <row r="6" spans="1:4">
       <c r="A6" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B6" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C6" t="s">
         <v>8</v>
@@ -4081,10 +4081,10 @@
     </row>
     <row r="7" spans="1:4">
       <c r="A7" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B7" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C7" t="s">
         <v>8</v>
@@ -4096,10 +4096,10 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B8" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C8" t="s">
         <v>8</v>
@@ -4111,10 +4111,10 @@
     </row>
     <row r="9" spans="1:4">
       <c r="A9" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B9" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C9" t="s">
         <v>8</v>
@@ -4129,7 +4129,7 @@
         <v>568</v>
       </c>
       <c r="B10" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C10" t="s">
         <v>8</v>
@@ -4141,10 +4141,10 @@
     </row>
     <row r="11" spans="1:4">
       <c r="A11" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B11" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C11" t="s">
         <v>8</v>
@@ -4156,10 +4156,10 @@
     </row>
     <row r="12" spans="1:4">
       <c r="A12" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B12" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C12" t="s">
         <v>8</v>
@@ -4174,7 +4174,7 @@
         <v>570</v>
       </c>
       <c r="B13" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C13" t="s">
         <v>8</v>
@@ -4189,7 +4189,7 @@
         <v>567</v>
       </c>
       <c r="B14" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C14" t="s">
         <v>8</v>
@@ -4204,7 +4204,7 @@
         <v>571</v>
       </c>
       <c r="B15" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C15" t="s">
         <v>8</v>
@@ -4216,10 +4216,10 @@
     </row>
     <row r="16" spans="1:4">
       <c r="A16" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B16" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C16" t="s">
         <v>8</v>
@@ -4234,7 +4234,7 @@
         <v>569</v>
       </c>
       <c r="B17" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C17" t="s">
         <v>8</v>
@@ -4246,10 +4246,10 @@
     </row>
     <row r="18" spans="1:4">
       <c r="A18" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B18" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C18" t="s">
         <v>552</v>
@@ -4261,10 +4261,10 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B19" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C19" t="s">
         <v>552</v>
@@ -4279,7 +4279,7 @@
         <v>568</v>
       </c>
       <c r="B20" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C20" t="s">
         <v>552</v>
@@ -4291,10 +4291,10 @@
     </row>
     <row r="21" spans="1:4">
       <c r="A21" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B21" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C21" t="s">
         <v>552</v>
@@ -4309,7 +4309,7 @@
         <v>570</v>
       </c>
       <c r="B22" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C22" t="s">
         <v>552</v>
@@ -4324,7 +4324,7 @@
         <v>567</v>
       </c>
       <c r="B23" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C23" t="s">
         <v>552</v>
@@ -4339,7 +4339,7 @@
         <v>571</v>
       </c>
       <c r="B24" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C24" t="s">
         <v>552</v>
@@ -4354,7 +4354,7 @@
         <v>569</v>
       </c>
       <c r="B25" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="C25" t="s">
         <v>552</v>
@@ -4366,10 +4366,10 @@
     </row>
     <row r="26" spans="1:4">
       <c r="A26" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B26" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C26" t="s">
         <v>192</v>
@@ -4381,10 +4381,10 @@
     </row>
     <row r="27" spans="1:4">
       <c r="A27" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B27" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="C27" t="s">
         <v>192</v>
@@ -4396,10 +4396,10 @@
     </row>
     <row r="28" spans="1:4">
       <c r="A28" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="B28" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C28" t="s">
         <v>182</v>
@@ -4411,10 +4411,10 @@
     </row>
     <row r="29" spans="1:4">
       <c r="A29" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B29" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="C29" t="s">
         <v>182</v>
@@ -4426,10 +4426,10 @@
     </row>
     <row r="30" spans="1:4">
       <c r="A30" t="s">
+        <v>575</v>
+      </c>
+      <c r="B30" t="s">
         <v>576</v>
-      </c>
-      <c r="B30" t="s">
-        <v>577</v>
       </c>
       <c r="C30" t="s">
         <v>180</v>
@@ -4441,10 +4441,10 @@
     </row>
     <row r="31" spans="1:4">
       <c r="A31" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B31" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="C31" t="s">
         <v>180</v>
@@ -4456,10 +4456,10 @@
     </row>
     <row r="32" spans="1:4">
       <c r="A32" t="s">
+        <v>579</v>
+      </c>
+      <c r="B32" t="s">
         <v>580</v>
-      </c>
-      <c r="B32" t="s">
-        <v>581</v>
       </c>
       <c r="C32" t="s">
         <v>276</v>
@@ -4471,10 +4471,10 @@
     </row>
     <row r="33" spans="1:4">
       <c r="A33" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B33" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C33" t="s">
         <v>276</v>
@@ -4486,13 +4486,13 @@
     </row>
     <row r="34" spans="1:4">
       <c r="A34" t="s">
+        <v>579</v>
+      </c>
+      <c r="B34" t="s">
         <v>580</v>
       </c>
-      <c r="B34" t="s">
-        <v>581</v>
-      </c>
       <c r="C34" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D34" t="str">
         <f>VLOOKUP(C34,Overview!B:B,1,0)</f>
@@ -4501,13 +4501,13 @@
     </row>
     <row r="35" spans="1:4">
       <c r="A35" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B35" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C35" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="D35" t="str">
         <f>VLOOKUP(C35,Overview!B:B,1,0)</f>
@@ -4516,7 +4516,7 @@
     </row>
     <row r="36" spans="1:4">
       <c r="A36" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B36" t="s">
         <v>566</v>
@@ -4531,7 +4531,7 @@
     </row>
     <row r="37" spans="1:4">
       <c r="A37" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B37" t="s">
         <v>566</v>
@@ -4546,7 +4546,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B38" t="s">
         <v>566</v>
@@ -4561,7 +4561,7 @@
     </row>
     <row r="39" spans="1:4">
       <c r="A39" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B39" t="s">
         <v>566</v>
@@ -4576,10 +4576,10 @@
     </row>
     <row r="40" spans="1:4">
       <c r="A40" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B40" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C40" t="s">
         <v>344</v>
@@ -4591,10 +4591,10 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B41" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C41" t="s">
         <v>344</v>
@@ -4609,7 +4609,7 @@
         <v>568</v>
       </c>
       <c r="B42" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C42" t="s">
         <v>344</v>
@@ -4621,10 +4621,10 @@
     </row>
     <row r="43" spans="1:4">
       <c r="A43" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B43" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C43" t="s">
         <v>344</v>
@@ -4639,7 +4639,7 @@
         <v>570</v>
       </c>
       <c r="B44" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C44" t="s">
         <v>344</v>
@@ -4654,7 +4654,7 @@
         <v>567</v>
       </c>
       <c r="B45" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C45" t="s">
         <v>344</v>
@@ -4669,7 +4669,7 @@
         <v>571</v>
       </c>
       <c r="B46" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C46" t="s">
         <v>344</v>
@@ -4684,7 +4684,7 @@
         <v>569</v>
       </c>
       <c r="B47" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="C47" t="s">
         <v>344</v>
@@ -4696,10 +4696,10 @@
     </row>
     <row r="48" spans="1:4">
       <c r="A48" t="s">
+        <v>579</v>
+      </c>
+      <c r="B48" t="s">
         <v>580</v>
-      </c>
-      <c r="B48" t="s">
-        <v>581</v>
       </c>
       <c r="C48" t="s">
         <v>285</v>
@@ -4711,10 +4711,10 @@
     </row>
     <row r="49" spans="1:4">
       <c r="A49" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B49" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C49" t="s">
         <v>285</v>
@@ -4726,13 +4726,13 @@
     </row>
     <row r="50" spans="1:4">
       <c r="A50" t="s">
+        <v>579</v>
+      </c>
+      <c r="B50" t="s">
         <v>580</v>
       </c>
-      <c r="B50" t="s">
-        <v>581</v>
-      </c>
       <c r="C50" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D50" t="str">
         <f>VLOOKUP(C50,Overview!B:B,1,0)</f>
@@ -4741,13 +4741,13 @@
     </row>
     <row r="51" spans="1:4">
       <c r="A51" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B51" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C51" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="D51" t="str">
         <f>VLOOKUP(C51,Overview!B:B,1,0)</f>
@@ -4759,7 +4759,7 @@
         <v>568</v>
       </c>
       <c r="B52" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="C52" t="s">
         <v>12</v>
@@ -4771,7 +4771,7 @@
     </row>
     <row r="53" spans="1:4">
       <c r="A53" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B53" t="s">
         <v>566</v>
@@ -4786,7 +4786,7 @@
     </row>
     <row r="54" spans="1:4">
       <c r="A54" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B54" t="s">
         <v>566</v>
@@ -4816,7 +4816,7 @@
     </row>
     <row r="56" spans="1:4">
       <c r="A56" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B56" t="s">
         <v>566</v>
@@ -4834,7 +4834,7 @@
         <v>572</v>
       </c>
       <c r="B57" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="C57" t="s">
         <v>149</v>
@@ -4846,10 +4846,10 @@
     </row>
     <row r="58" spans="1:4">
       <c r="A58" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B58" t="s">
-        <v>573</v>
+        <v>858</v>
       </c>
       <c r="C58" t="s">
         <v>17</v>
@@ -4861,10 +4861,10 @@
     </row>
     <row r="59" spans="1:4">
       <c r="A59" t="s">
+        <v>579</v>
+      </c>
+      <c r="B59" t="s">
         <v>580</v>
-      </c>
-      <c r="B59" t="s">
-        <v>581</v>
       </c>
       <c r="C59" t="s">
         <v>320</v>
@@ -4876,10 +4876,10 @@
     </row>
     <row r="60" spans="1:4">
       <c r="A60" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B60" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C60" t="s">
         <v>320</v>
@@ -4891,13 +4891,13 @@
     </row>
     <row r="61" spans="1:4">
       <c r="A61" t="s">
+        <v>579</v>
+      </c>
+      <c r="B61" t="s">
         <v>580</v>
       </c>
-      <c r="B61" t="s">
-        <v>581</v>
-      </c>
       <c r="C61" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D61" t="str">
         <f>VLOOKUP(C61,Overview!B:B,1,0)</f>
@@ -4906,13 +4906,13 @@
     </row>
     <row r="62" spans="1:4">
       <c r="A62" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B62" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C62" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="D62" t="str">
         <f>VLOOKUP(C62,Overview!B:B,1,0)</f>
@@ -4921,7 +4921,7 @@
     </row>
     <row r="63" spans="1:4">
       <c r="A63" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B63" t="s">
         <v>566</v>
@@ -4936,7 +4936,7 @@
     </row>
     <row r="64" spans="1:4">
       <c r="A64" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B64" t="s">
         <v>566</v>
@@ -4966,7 +4966,7 @@
     </row>
     <row r="66" spans="1:4">
       <c r="A66" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B66" t="s">
         <v>566</v>
@@ -4984,10 +4984,10 @@
         <v>570</v>
       </c>
       <c r="B67" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="C67" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="D67" t="str">
         <f>VLOOKUP(C67,Overview!B:B,1,0)</f>
@@ -4996,10 +4996,10 @@
     </row>
     <row r="68" spans="1:4">
       <c r="A68" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B68" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
@@ -5011,10 +5011,10 @@
     </row>
     <row r="69" spans="1:4">
       <c r="A69" t="s">
+        <v>579</v>
+      </c>
+      <c r="B69" t="s">
         <v>580</v>
-      </c>
-      <c r="B69" t="s">
-        <v>581</v>
       </c>
       <c r="C69" t="s">
         <v>397</v>
@@ -5026,10 +5026,10 @@
     </row>
     <row r="70" spans="1:4">
       <c r="A70" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B70" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C70" t="s">
         <v>397</v>
@@ -5044,10 +5044,10 @@
         <v>567</v>
       </c>
       <c r="B71" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="C71" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="D71" t="str">
         <f>VLOOKUP(C71,Overview!B:B,1,0)</f>
@@ -5056,7 +5056,7 @@
     </row>
     <row r="72" spans="1:4">
       <c r="A72" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B72" t="s">
         <v>566</v>
@@ -5071,7 +5071,7 @@
     </row>
     <row r="73" spans="1:4">
       <c r="A73" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B73" t="s">
         <v>566</v>
@@ -5086,7 +5086,7 @@
     </row>
     <row r="74" spans="1:4">
       <c r="A74" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B74" t="s">
         <v>566</v>
@@ -5116,10 +5116,10 @@
     </row>
     <row r="76" spans="1:4">
       <c r="A76" t="s">
+        <v>579</v>
+      </c>
+      <c r="B76" t="s">
         <v>580</v>
-      </c>
-      <c r="B76" t="s">
-        <v>581</v>
       </c>
       <c r="C76" t="s">
         <v>337</v>
@@ -5131,10 +5131,10 @@
     </row>
     <row r="77" spans="1:4">
       <c r="A77" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B77" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C77" t="s">
         <v>337</v>
@@ -5149,7 +5149,7 @@
         <v>571</v>
       </c>
       <c r="B78" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="C78" t="s">
         <v>403</v>
@@ -5161,7 +5161,7 @@
     </row>
     <row r="79" spans="1:4">
       <c r="A79" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B79" t="s">
         <v>566</v>
@@ -5176,7 +5176,7 @@
     </row>
     <row r="80" spans="1:4">
       <c r="A80" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B80" t="s">
         <v>566</v>
@@ -5191,7 +5191,7 @@
     </row>
     <row r="81" spans="1:4">
       <c r="A81" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B81" t="s">
         <v>566</v>
@@ -5221,13 +5221,13 @@
     </row>
     <row r="83" spans="1:4">
       <c r="A83" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B83" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C83" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D83" t="str">
         <f>VLOOKUP(C83,Overview!B:B,1,0)</f>
@@ -5236,13 +5236,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B84" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C84" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D84" t="str">
         <f>VLOOKUP(C84,Overview!B:B,1,0)</f>
@@ -5254,10 +5254,10 @@
         <v>568</v>
       </c>
       <c r="B85" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C85" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D85" t="str">
         <f>VLOOKUP(C85,Overview!B:B,1,0)</f>
@@ -5266,13 +5266,13 @@
     </row>
     <row r="86" spans="1:4">
       <c r="A86" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B86" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C86" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D86" t="str">
         <f>VLOOKUP(C86,Overview!B:B,1,0)</f>
@@ -5284,10 +5284,10 @@
         <v>570</v>
       </c>
       <c r="B87" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C87" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D87" t="str">
         <f>VLOOKUP(C87,Overview!B:B,1,0)</f>
@@ -5299,10 +5299,10 @@
         <v>567</v>
       </c>
       <c r="B88" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C88" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D88" t="str">
         <f>VLOOKUP(C88,Overview!B:B,1,0)</f>
@@ -5314,10 +5314,10 @@
         <v>571</v>
       </c>
       <c r="B89" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C89" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D89" t="str">
         <f>VLOOKUP(C89,Overview!B:B,1,0)</f>
@@ -5329,10 +5329,10 @@
         <v>569</v>
       </c>
       <c r="B90" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C90" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="D90" t="str">
         <f>VLOOKUP(C90,Overview!B:B,1,0)</f>
@@ -5341,13 +5341,13 @@
     </row>
     <row r="91" spans="1:4">
       <c r="A91" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B91" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C91" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D91" t="str">
         <f>VLOOKUP(C91,Overview!B:B,1,0)</f>
@@ -5356,13 +5356,13 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B92" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C92" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D92" t="str">
         <f>VLOOKUP(C92,Overview!B:B,1,0)</f>
@@ -5374,10 +5374,10 @@
         <v>568</v>
       </c>
       <c r="B93" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C93" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D93" t="str">
         <f>VLOOKUP(C93,Overview!B:B,1,0)</f>
@@ -5386,13 +5386,13 @@
     </row>
     <row r="94" spans="1:4">
       <c r="A94" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B94" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C94" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D94" t="str">
         <f>VLOOKUP(C94,Overview!B:B,1,0)</f>
@@ -5404,10 +5404,10 @@
         <v>570</v>
       </c>
       <c r="B95" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C95" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D95" t="str">
         <f>VLOOKUP(C95,Overview!B:B,1,0)</f>
@@ -5419,10 +5419,10 @@
         <v>567</v>
       </c>
       <c r="B96" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C96" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D96" t="str">
         <f>VLOOKUP(C96,Overview!B:B,1,0)</f>
@@ -5434,10 +5434,10 @@
         <v>571</v>
       </c>
       <c r="B97" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C97" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D97" t="str">
         <f>VLOOKUP(C97,Overview!B:B,1,0)</f>
@@ -5449,10 +5449,10 @@
         <v>569</v>
       </c>
       <c r="B98" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="C98" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="D98" t="str">
         <f>VLOOKUP(C98,Overview!B:B,1,0)</f>
@@ -5461,13 +5461,13 @@
     </row>
     <row r="99" spans="1:4">
       <c r="A99" t="s">
+        <v>588</v>
+      </c>
+      <c r="B99" t="s">
         <v>589</v>
       </c>
-      <c r="B99" t="s">
-        <v>590</v>
-      </c>
       <c r="C99" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="D99" t="str">
         <f>VLOOKUP(C99,Overview!B:B,1,0)</f>
@@ -5476,13 +5476,13 @@
     </row>
     <row r="100" spans="1:4">
       <c r="A100" t="s">
+        <v>588</v>
+      </c>
+      <c r="B100" t="s">
         <v>589</v>
       </c>
-      <c r="B100" t="s">
-        <v>590</v>
-      </c>
       <c r="C100" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="D100" t="str">
         <f>VLOOKUP(C100,Overview!B:B,1,0)</f>
@@ -5491,10 +5491,10 @@
     </row>
     <row r="101" spans="1:4">
       <c r="A101" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B101" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C101" t="s">
         <v>516</v>
@@ -5506,10 +5506,10 @@
     </row>
     <row r="102" spans="1:4">
       <c r="A102" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B102" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C102" t="s">
         <v>516</v>
@@ -5521,10 +5521,10 @@
     </row>
     <row r="103" spans="1:4">
       <c r="A103" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B103" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C103" t="s">
         <v>516</v>
@@ -5536,10 +5536,10 @@
     </row>
     <row r="104" spans="1:4">
       <c r="A104" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B104" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C104" t="s">
         <v>516</v>
@@ -5551,10 +5551,10 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B105" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C105" t="s">
         <v>516</v>
@@ -5566,10 +5566,10 @@
     </row>
     <row r="106" spans="1:4">
       <c r="A106" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B106" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C106" t="s">
         <v>516</v>
@@ -5584,7 +5584,7 @@
         <v>568</v>
       </c>
       <c r="B107" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C107" t="s">
         <v>516</v>
@@ -5596,10 +5596,10 @@
     </row>
     <row r="108" spans="1:4">
       <c r="A108" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B108" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C108" t="s">
         <v>516</v>
@@ -5611,10 +5611,10 @@
     </row>
     <row r="109" spans="1:4">
       <c r="A109" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B109" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C109" t="s">
         <v>516</v>
@@ -5629,7 +5629,7 @@
         <v>570</v>
       </c>
       <c r="B110" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C110" t="s">
         <v>516</v>
@@ -5644,7 +5644,7 @@
         <v>567</v>
       </c>
       <c r="B111" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C111" t="s">
         <v>516</v>
@@ -5659,7 +5659,7 @@
         <v>571</v>
       </c>
       <c r="B112" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C112" t="s">
         <v>516</v>
@@ -5671,10 +5671,10 @@
     </row>
     <row r="113" spans="1:4">
       <c r="A113" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B113" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C113" t="s">
         <v>516</v>
@@ -5689,7 +5689,7 @@
         <v>569</v>
       </c>
       <c r="B114" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="C114" t="s">
         <v>516</v>
@@ -5701,10 +5701,10 @@
     </row>
     <row r="115" spans="1:4">
       <c r="A115" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B115" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C115" t="s">
         <v>13</v>
@@ -5716,10 +5716,10 @@
     </row>
     <row r="116" spans="1:4">
       <c r="A116" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B116" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C116" t="s">
         <v>13</v>
@@ -5731,10 +5731,10 @@
     </row>
     <row r="117" spans="1:4">
       <c r="A117" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B117" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C117" t="s">
         <v>13</v>
@@ -5746,10 +5746,10 @@
     </row>
     <row r="118" spans="1:4">
       <c r="A118" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B118" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C118" t="s">
         <v>13</v>
@@ -5761,10 +5761,10 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B119" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C119" t="s">
         <v>13</v>
@@ -5776,10 +5776,10 @@
     </row>
     <row r="120" spans="1:4">
       <c r="A120" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B120" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C120" t="s">
         <v>13</v>
@@ -5794,7 +5794,7 @@
         <v>568</v>
       </c>
       <c r="B121" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C121" t="s">
         <v>13</v>
@@ -5806,10 +5806,10 @@
     </row>
     <row r="122" spans="1:4">
       <c r="A122" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B122" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C122" t="s">
         <v>13</v>
@@ -5821,10 +5821,10 @@
     </row>
     <row r="123" spans="1:4">
       <c r="A123" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B123" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C123" t="s">
         <v>13</v>
@@ -5839,7 +5839,7 @@
         <v>570</v>
       </c>
       <c r="B124" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C124" t="s">
         <v>13</v>
@@ -5854,7 +5854,7 @@
         <v>567</v>
       </c>
       <c r="B125" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C125" t="s">
         <v>13</v>
@@ -5869,7 +5869,7 @@
         <v>571</v>
       </c>
       <c r="B126" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C126" t="s">
         <v>13</v>
@@ -5881,10 +5881,10 @@
     </row>
     <row r="127" spans="1:4">
       <c r="A127" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B127" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C127" t="s">
         <v>13</v>
@@ -5899,7 +5899,7 @@
         <v>569</v>
       </c>
       <c r="B128" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="C128" t="s">
         <v>13</v>
@@ -5911,10 +5911,10 @@
     </row>
     <row r="129" spans="1:4">
       <c r="A129" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B129" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C129" t="s">
         <v>333</v>
@@ -5926,10 +5926,10 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B130" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C130" t="s">
         <v>333</v>
@@ -5944,7 +5944,7 @@
         <v>568</v>
       </c>
       <c r="B131" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C131" t="s">
         <v>333</v>
@@ -5956,10 +5956,10 @@
     </row>
     <row r="132" spans="1:4">
       <c r="A132" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B132" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C132" t="s">
         <v>333</v>
@@ -5974,7 +5974,7 @@
         <v>570</v>
       </c>
       <c r="B133" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C133" t="s">
         <v>333</v>
@@ -5989,7 +5989,7 @@
         <v>567</v>
       </c>
       <c r="B134" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C134" t="s">
         <v>333</v>
@@ -6004,7 +6004,7 @@
         <v>571</v>
       </c>
       <c r="B135" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C135" t="s">
         <v>333</v>
@@ -6019,7 +6019,7 @@
         <v>569</v>
       </c>
       <c r="B136" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C136" t="s">
         <v>333</v>
@@ -6031,13 +6031,13 @@
     </row>
     <row r="137" spans="1:4">
       <c r="A137" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B137" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C137" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D137" t="str">
         <f>VLOOKUP(C137,Overview!B:B,1,0)</f>
@@ -6046,13 +6046,13 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>858</v>
+        <v>857</v>
       </c>
       <c r="B138" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C138" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D138" t="str">
         <f>VLOOKUP(C138,Overview!B:B,1,0)</f>
@@ -6064,10 +6064,10 @@
         <v>568</v>
       </c>
       <c r="B139" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C139" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D139" t="str">
         <f>VLOOKUP(C139,Overview!B:B,1,0)</f>
@@ -6076,13 +6076,13 @@
     </row>
     <row r="140" spans="1:4">
       <c r="A140" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B140" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C140" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D140" t="str">
         <f>VLOOKUP(C140,Overview!B:B,1,0)</f>
@@ -6094,10 +6094,10 @@
         <v>570</v>
       </c>
       <c r="B141" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C141" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D141" t="str">
         <f>VLOOKUP(C141,Overview!B:B,1,0)</f>
@@ -6109,10 +6109,10 @@
         <v>567</v>
       </c>
       <c r="B142" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C142" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D142" t="str">
         <f>VLOOKUP(C142,Overview!B:B,1,0)</f>
@@ -6124,10 +6124,10 @@
         <v>571</v>
       </c>
       <c r="B143" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C143" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D143" t="str">
         <f>VLOOKUP(C143,Overview!B:B,1,0)</f>
@@ -6139,10 +6139,10 @@
         <v>569</v>
       </c>
       <c r="B144" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="C144" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="D144" t="str">
         <f>VLOOKUP(C144,Overview!B:B,1,0)</f>
@@ -6151,10 +6151,10 @@
     </row>
     <row r="145" spans="1:4">
       <c r="A145" t="s">
+        <v>579</v>
+      </c>
+      <c r="B145" t="s">
         <v>580</v>
-      </c>
-      <c r="B145" t="s">
-        <v>581</v>
       </c>
       <c r="C145" t="s">
         <v>327</v>
@@ -6166,10 +6166,10 @@
     </row>
     <row r="146" spans="1:4">
       <c r="A146" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B146" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C146" t="s">
         <v>327</v>
@@ -6181,13 +6181,13 @@
     </row>
     <row r="147" spans="1:4">
       <c r="A147" t="s">
+        <v>579</v>
+      </c>
+      <c r="B147" t="s">
         <v>580</v>
       </c>
-      <c r="B147" t="s">
-        <v>581</v>
-      </c>
       <c r="C147" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D147" t="str">
         <f>VLOOKUP(C147,Overview!B:B,1,0)</f>
@@ -6196,13 +6196,13 @@
     </row>
     <row r="148" spans="1:4">
       <c r="A148" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B148" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="C148" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="D148" t="str">
         <f>VLOOKUP(C148,Overview!B:B,1,0)</f>
@@ -6211,7 +6211,7 @@
     </row>
     <row r="149" spans="1:4">
       <c r="A149" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B149" t="s">
         <v>566</v>
@@ -6226,7 +6226,7 @@
     </row>
     <row r="150" spans="1:4">
       <c r="A150" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B150" t="s">
         <v>566</v>
@@ -6241,7 +6241,7 @@
     </row>
     <row r="151" spans="1:4">
       <c r="A151" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B151" t="s">
         <v>566</v>
@@ -6274,10 +6274,10 @@
         <v>569</v>
       </c>
       <c r="B153" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="C153" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="D153" t="str">
         <f>VLOOKUP(C153,Overview!B:B,1,0)</f>
@@ -6286,10 +6286,10 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>857</v>
+        <v>856</v>
       </c>
       <c r="B154" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="C154" t="s">
         <v>8</v>
@@ -6323,15 +6323,15 @@
       <selection pane="bottomLeft" activeCell="D112" sqref="D112"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="45.109375" customWidth="1"/>
-    <col min="2" max="2" width="21.109375" customWidth="1"/>
-    <col min="3" max="3" width="23.88671875" customWidth="1"/>
-    <col min="4" max="4" width="75.88671875" customWidth="1"/>
-    <col min="5" max="5" width="53.33203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="7" width="53.33203125" customWidth="1"/>
-    <col min="8" max="8" width="97.5546875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.140625" customWidth="1"/>
+    <col min="2" max="2" width="21.140625" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
+    <col min="4" max="4" width="75.85546875" customWidth="1"/>
+    <col min="5" max="5" width="53.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="7" width="53.28515625" customWidth="1"/>
+    <col min="8" max="8" width="97.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
@@ -6339,7 +6339,7 @@
         <v>40</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>848</v>
+        <v>847</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>533</v>
@@ -6351,7 +6351,7 @@
         <v>534</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>536</v>
@@ -6360,7 +6360,7 @@
         <v>42</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>845</v>
+        <v>844</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -6381,7 +6381,7 @@
         <v>67</v>
       </c>
       <c r="F2" t="s">
-        <v>703</v>
+        <v>702</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>559</v>
@@ -6474,7 +6474,7 @@
         <v>58</v>
       </c>
       <c r="F5" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>559</v>
@@ -6505,7 +6505,7 @@
         <v>64</v>
       </c>
       <c r="F6" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>559</v>
@@ -6536,7 +6536,7 @@
         <v>61</v>
       </c>
       <c r="F7" t="s">
-        <v>706</v>
+        <v>705</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>559</v>
@@ -6629,7 +6629,7 @@
         <v>71</v>
       </c>
       <c r="F10" t="s">
-        <v>856</v>
+        <v>855</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>559</v>
@@ -6660,7 +6660,7 @@
         <v>74</v>
       </c>
       <c r="F11" t="s">
-        <v>820</v>
+        <v>819</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>559</v>
@@ -6691,7 +6691,7 @@
         <v>77</v>
       </c>
       <c r="F12" t="s">
-        <v>821</v>
+        <v>820</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>559</v>
@@ -6722,7 +6722,7 @@
         <v>81</v>
       </c>
       <c r="F13" t="s">
-        <v>780</v>
+        <v>779</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>559</v>
@@ -6732,7 +6732,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/naturalGasDistributionLowPressure</v>
       </c>
       <c r="I13" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -6753,7 +6753,7 @@
         <v>84</v>
       </c>
       <c r="F14" t="s">
-        <v>781</v>
+        <v>780</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>559</v>
@@ -6763,7 +6763,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/naturalGasDistributionMediumPressure</v>
       </c>
       <c r="I14" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -6784,7 +6784,7 @@
         <v>87</v>
       </c>
       <c r="F15" t="s">
-        <v>782</v>
+        <v>781</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>559</v>
@@ -6794,7 +6794,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/naturalGasTransport</v>
       </c>
       <c r="I15" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -6815,7 +6815,7 @@
         <v>90</v>
       </c>
       <c r="F16" t="s">
-        <v>783</v>
+        <v>782</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>559</v>
@@ -6825,10 +6825,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue/oilGasChemicalsTransport</v>
       </c>
       <c r="I16" t="s">
-        <v>846</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" ht="43.2">
+        <v>845</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" ht="60">
       <c r="A17" t="s">
         <v>529</v>
       </c>
@@ -6846,7 +6846,7 @@
         <v>97</v>
       </c>
       <c r="F17" t="s">
-        <v>843</v>
+        <v>842</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>559</v>
@@ -6859,7 +6859,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="172.8">
+    <row r="18" spans="1:9" ht="195">
       <c r="A18" t="s">
         <v>529</v>
       </c>
@@ -6877,7 +6877,7 @@
         <v>94</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>844</v>
+        <v>843</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>559</v>
@@ -6908,7 +6908,7 @@
         <v>104</v>
       </c>
       <c r="F19" t="s">
-        <v>797</v>
+        <v>796</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>559</v>
@@ -6939,7 +6939,7 @@
         <v>101</v>
       </c>
       <c r="F20" t="s">
-        <v>798</v>
+        <v>797</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>559</v>
@@ -6970,7 +6970,7 @@
         <v>116</v>
       </c>
       <c r="F21" t="s">
-        <v>799</v>
+        <v>798</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>559</v>
@@ -7001,7 +7001,7 @@
         <v>113</v>
       </c>
       <c r="F22" t="s">
-        <v>800</v>
+        <v>799</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>559</v>
@@ -7032,7 +7032,7 @@
         <v>110</v>
       </c>
       <c r="F23" t="s">
-        <v>801</v>
+        <v>800</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>559</v>
@@ -7063,7 +7063,7 @@
         <v>107</v>
       </c>
       <c r="F24" t="s">
-        <v>802</v>
+        <v>801</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>559</v>
@@ -7094,7 +7094,7 @@
         <v>123</v>
       </c>
       <c r="F25" t="s">
-        <v>831</v>
+        <v>830</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>559</v>
@@ -7125,7 +7125,7 @@
         <v>120</v>
       </c>
       <c r="F26" t="s">
-        <v>832</v>
+        <v>831</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>559</v>
@@ -7156,7 +7156,7 @@
         <v>129</v>
       </c>
       <c r="F27" t="s">
-        <v>833</v>
+        <v>832</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>559</v>
@@ -7187,7 +7187,7 @@
         <v>126</v>
       </c>
       <c r="F28" t="s">
-        <v>834</v>
+        <v>833</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>559</v>
@@ -7218,7 +7218,7 @@
         <v>139</v>
       </c>
       <c r="F29" t="s">
-        <v>784</v>
+        <v>783</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>559</v>
@@ -7228,7 +7228,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/drinkingWaterExtractionArea</v>
       </c>
       <c r="I29" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -7249,7 +7249,7 @@
         <v>142</v>
       </c>
       <c r="F30" t="s">
-        <v>785</v>
+        <v>784</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>559</v>
@@ -7277,7 +7277,7 @@
         <v>555</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>786</v>
+        <v>785</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>531</v>
@@ -7287,7 +7287,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/infiltrationArea</v>
       </c>
       <c r="I31" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -7308,7 +7308,7 @@
         <v>145</v>
       </c>
       <c r="F32" t="s">
-        <v>787</v>
+        <v>786</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>559</v>
@@ -7318,7 +7318,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/otherProtectedArea</v>
       </c>
       <c r="I32" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -7339,7 +7339,7 @@
         <v>136</v>
       </c>
       <c r="F33" t="s">
-        <v>788</v>
+        <v>787</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>559</v>
@@ -7349,7 +7349,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue/undergroundGasStorage</v>
       </c>
       <c r="I33" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -7370,7 +7370,7 @@
         <v>166</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>559</v>
@@ -7380,7 +7380,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/annotationLabel</v>
       </c>
       <c r="I34" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -7401,7 +7401,7 @@
         <v>163</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>559</v>
@@ -7411,7 +7411,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/annotationLine</v>
       </c>
       <c r="I35" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -7432,7 +7432,7 @@
         <v>160</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>559</v>
@@ -7442,7 +7442,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/arrow</v>
       </c>
       <c r="I36" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -7460,10 +7460,10 @@
         <v>153</v>
       </c>
       <c r="E37" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>559</v>
@@ -7473,7 +7473,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningGuideline</v>
       </c>
       <c r="I37" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -7491,10 +7491,10 @@
         <v>157</v>
       </c>
       <c r="E38" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>559</v>
@@ -7504,7 +7504,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningLabel</v>
       </c>
       <c r="I38" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -7522,10 +7522,10 @@
         <v>155</v>
       </c>
       <c r="E39" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>559</v>
@@ -7535,7 +7535,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue/dimensioningLine</v>
       </c>
       <c r="I39" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -7556,7 +7556,7 @@
         <v>20</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>559</v>
@@ -7566,7 +7566,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/crossSection</v>
       </c>
       <c r="I40" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -7587,7 +7587,7 @@
         <v>171</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>559</v>
@@ -7597,7 +7597,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/detailedPlan</v>
       </c>
       <c r="I41" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -7618,7 +7618,7 @@
         <v>22</v>
       </c>
       <c r="F42" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>559</v>
@@ -7628,7 +7628,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/directionalDrilling</v>
       </c>
       <c r="I42" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -7649,7 +7649,7 @@
         <v>19</v>
       </c>
       <c r="F43" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>559</v>
@@ -7659,7 +7659,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/longitudinalSection</v>
       </c>
       <c r="I43" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -7680,7 +7680,7 @@
         <v>21</v>
       </c>
       <c r="F44" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>559</v>
@@ -7690,7 +7690,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/other</v>
       </c>
       <c r="I44" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -7708,7 +7708,7 @@
         <v>23</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>531</v>
@@ -7718,7 +7718,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue/precaution</v>
       </c>
       <c r="I45" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -7739,7 +7739,7 @@
         <v>187</v>
       </c>
       <c r="F46" t="s">
-        <v>690</v>
+        <v>689</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>199</v>
@@ -7749,7 +7749,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/JPEG</v>
       </c>
       <c r="I46" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -7770,7 +7770,7 @@
         <v>185</v>
       </c>
       <c r="F47" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>199</v>
@@ -7780,7 +7780,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/PDF</v>
       </c>
       <c r="I47" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -7801,7 +7801,7 @@
         <v>183</v>
       </c>
       <c r="F48" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>199</v>
@@ -7811,7 +7811,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/PNG</v>
       </c>
       <c r="I48" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -7832,7 +7832,7 @@
         <v>189</v>
       </c>
       <c r="F49" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>199</v>
@@ -7842,7 +7842,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue/TIFF</v>
       </c>
       <c r="I49" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -7863,7 +7863,7 @@
         <v>198</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>559</v>
@@ -7873,7 +7873,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue/cableAndPipeGutter</v>
       </c>
       <c r="I50" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -7894,7 +7894,7 @@
         <v>195</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>689</v>
+        <v>688</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>559</v>
@@ -7904,7 +7904,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue/jacketPipe</v>
       </c>
       <c r="I51" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -7925,7 +7925,7 @@
         <v>206</v>
       </c>
       <c r="F52" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>199</v>
@@ -7935,7 +7935,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/accetone</v>
       </c>
       <c r="I52" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -7956,7 +7956,7 @@
         <v>208</v>
       </c>
       <c r="F53" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>199</v>
@@ -7966,7 +7966,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/air</v>
       </c>
       <c r="I53" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -7987,7 +7987,7 @@
         <v>210</v>
       </c>
       <c r="F54" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>199</v>
@@ -7997,7 +7997,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/argon</v>
       </c>
       <c r="I54" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -8018,7 +8018,7 @@
         <v>204</v>
       </c>
       <c r="F55" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>199</v>
@@ -8028,7 +8028,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/bioGas</v>
       </c>
       <c r="I55" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -8049,7 +8049,7 @@
         <v>562</v>
       </c>
       <c r="F56" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>563</v>
@@ -8059,7 +8059,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1,2</v>
       </c>
       <c r="I56" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -8080,7 +8080,7 @@
         <v>214</v>
       </c>
       <c r="F57" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>199</v>
@@ -8090,7 +8090,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1,3</v>
       </c>
       <c r="I57" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -8108,10 +8108,10 @@
         <v>217</v>
       </c>
       <c r="E58" t="s">
-        <v>850</v>
+        <v>849</v>
       </c>
       <c r="F58" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>199</v>
@@ -8121,7 +8121,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butane</v>
       </c>
       <c r="I58" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -8139,7 +8139,7 @@
         <v>201</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>531</v>
@@ -8149,7 +8149,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/carbonDioxide</v>
       </c>
       <c r="I59" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -8167,10 +8167,10 @@
         <v>219</v>
       </c>
       <c r="E60" t="s">
-        <v>851</v>
+        <v>850</v>
       </c>
       <c r="F60" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>199</v>
@@ -8180,7 +8180,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/carbonMonoxide</v>
       </c>
       <c r="I60" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -8198,10 +8198,10 @@
         <v>221</v>
       </c>
       <c r="E61" t="s">
-        <v>852</v>
+        <v>851</v>
       </c>
       <c r="F61" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>199</v>
@@ -8211,7 +8211,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/chlorine</v>
       </c>
       <c r="I61" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -8232,7 +8232,7 @@
         <v>389</v>
       </c>
       <c r="F62" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>563</v>
@@ -8242,7 +8242,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/concrete</v>
       </c>
       <c r="I62" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -8263,7 +8263,7 @@
         <v>560</v>
       </c>
       <c r="F63" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>563</v>
@@ -8273,7 +8273,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/crude</v>
       </c>
       <c r="I63" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -8291,10 +8291,10 @@
         <v>227</v>
       </c>
       <c r="E64" t="s">
-        <v>853</v>
+        <v>852</v>
       </c>
       <c r="F64" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>199</v>
@@ -8304,7 +8304,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/dichloroethane</v>
       </c>
       <c r="I64" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -8325,7 +8325,7 @@
         <v>561</v>
       </c>
       <c r="F65" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>563</v>
@@ -8335,7 +8335,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/diesel</v>
       </c>
       <c r="I65" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -8356,7 +8356,7 @@
         <v>274</v>
       </c>
       <c r="F66" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>199</v>
@@ -8366,7 +8366,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/empty</v>
       </c>
       <c r="I66" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -8384,10 +8384,10 @@
         <v>230</v>
       </c>
       <c r="E67" t="s">
-        <v>854</v>
+        <v>853</v>
       </c>
       <c r="F67" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>199</v>
@@ -8397,7 +8397,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/ethylene</v>
       </c>
       <c r="I67" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -8418,7 +8418,7 @@
         <v>231</v>
       </c>
       <c r="F68" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>199</v>
@@ -8428,7 +8428,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/gasFabricationOfCocs</v>
       </c>
       <c r="I68" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -8449,7 +8449,7 @@
         <v>233</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>199</v>
@@ -8459,7 +8459,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/gasHFx</v>
       </c>
       <c r="I69" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -8480,7 +8480,7 @@
         <v>235</v>
       </c>
       <c r="F70" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>199</v>
@@ -8490,7 +8490,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/gasoil</v>
       </c>
       <c r="I70" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -8511,7 +8511,7 @@
         <v>237</v>
       </c>
       <c r="F71" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>199</v>
@@ -8521,7 +8521,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/hydrogen</v>
       </c>
       <c r="I71" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -8539,10 +8539,10 @@
         <v>240</v>
       </c>
       <c r="E72" t="s">
-        <v>855</v>
+        <v>854</v>
       </c>
       <c r="F72" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>199</v>
@@ -8552,7 +8552,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/isobutane</v>
       </c>
       <c r="I72" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -8573,7 +8573,7 @@
         <v>241</v>
       </c>
       <c r="F73" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>199</v>
@@ -8583,7 +8583,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/JET-A1</v>
       </c>
       <c r="I73" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -8604,7 +8604,7 @@
         <v>243</v>
       </c>
       <c r="F74" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>199</v>
@@ -8614,7 +8614,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/kerosene</v>
       </c>
       <c r="I74" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -8635,7 +8635,7 @@
         <v>245</v>
       </c>
       <c r="F75" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>199</v>
@@ -8645,7 +8645,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/liquidAmmonia</v>
       </c>
       <c r="I75" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -8663,10 +8663,10 @@
         <v>248</v>
       </c>
       <c r="E76" t="s">
-        <v>849</v>
+        <v>848</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>199</v>
@@ -8676,7 +8676,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/liquidHydrocarbon</v>
       </c>
       <c r="I76" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -8697,7 +8697,7 @@
         <v>249</v>
       </c>
       <c r="F77" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>199</v>
@@ -8707,7 +8707,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/multiProduct</v>
       </c>
       <c r="I77" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -8728,7 +8728,7 @@
         <v>251</v>
       </c>
       <c r="F78" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>199</v>
@@ -8738,7 +8738,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/MVC</v>
       </c>
       <c r="I78" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -8759,7 +8759,7 @@
         <v>202</v>
       </c>
       <c r="F79" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>199</v>
@@ -8769,7 +8769,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/naturalGas</v>
       </c>
       <c r="I79" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -8790,7 +8790,7 @@
         <v>253</v>
       </c>
       <c r="F80" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>199</v>
@@ -8800,7 +8800,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/nitrogen</v>
       </c>
       <c r="I80" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -8821,7 +8821,7 @@
         <v>255</v>
       </c>
       <c r="F81" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>199</v>
@@ -8831,7 +8831,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/oxygen</v>
       </c>
       <c r="I81" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -8852,7 +8852,7 @@
         <v>257</v>
       </c>
       <c r="F82" t="s">
-        <v>773</v>
+        <v>772</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>199</v>
@@ -8862,7 +8862,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/phenol</v>
       </c>
       <c r="I82" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -8883,7 +8883,7 @@
         <v>259</v>
       </c>
       <c r="F83" t="s">
-        <v>774</v>
+        <v>773</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>199</v>
@@ -8893,7 +8893,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/propane</v>
       </c>
       <c r="I83" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -8914,7 +8914,7 @@
         <v>261</v>
       </c>
       <c r="F84" t="s">
-        <v>775</v>
+        <v>774</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>199</v>
@@ -8924,7 +8924,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/propylene</v>
       </c>
       <c r="I84" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -8945,7 +8945,7 @@
         <v>263</v>
       </c>
       <c r="F85" t="s">
-        <v>776</v>
+        <v>775</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>199</v>
@@ -8955,7 +8955,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/saltWater</v>
       </c>
       <c r="I85" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -8976,7 +8976,7 @@
         <v>267</v>
       </c>
       <c r="F86" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>199</v>
@@ -8986,7 +8986,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/sand</v>
       </c>
       <c r="I86" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -9007,7 +9007,7 @@
         <v>265</v>
       </c>
       <c r="F87" t="s">
-        <v>777</v>
+        <v>776</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>199</v>
@@ -9017,7 +9017,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/saumur</v>
       </c>
       <c r="I87" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -9038,7 +9038,7 @@
         <v>269</v>
       </c>
       <c r="F88" t="s">
-        <v>778</v>
+        <v>777</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>199</v>
@@ -9048,7 +9048,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/tetrachloroide</v>
       </c>
       <c r="I88" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -9069,7 +9069,7 @@
         <v>3</v>
       </c>
       <c r="F89" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>199</v>
@@ -9079,7 +9079,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/unknown</v>
       </c>
       <c r="I89" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -9100,7 +9100,7 @@
         <v>272</v>
       </c>
       <c r="F90" t="s">
-        <v>779</v>
+        <v>778</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>199</v>
@@ -9110,7 +9110,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/water</v>
       </c>
       <c r="I90" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -9131,7 +9131,7 @@
         <v>279</v>
       </c>
       <c r="F91" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>559</v>
@@ -9162,7 +9162,7 @@
         <v>283</v>
       </c>
       <c r="F92" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>199</v>
@@ -9193,7 +9193,7 @@
         <v>282</v>
       </c>
       <c r="F93" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>559</v>
@@ -9224,7 +9224,7 @@
         <v>294</v>
       </c>
       <c r="F94" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>559</v>
@@ -9234,7 +9234,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/adapter</v>
       </c>
       <c r="I94" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -9255,7 +9255,7 @@
         <v>288</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>559</v>
@@ -9265,7 +9265,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/airBeacon</v>
       </c>
       <c r="I95" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -9286,7 +9286,7 @@
         <v>311</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>559</v>
@@ -9296,7 +9296,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/blowHole</v>
       </c>
       <c r="I96" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -9314,10 +9314,10 @@
         <v>316</v>
       </c>
       <c r="E97" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F97" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>559</v>
@@ -9327,7 +9327,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionInstallation</v>
       </c>
       <c r="I97" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -9348,7 +9348,7 @@
         <v>314</v>
       </c>
       <c r="F98" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>559</v>
@@ -9358,7 +9358,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/cathodicProtectionMeasurementPoint</v>
       </c>
       <c r="I98" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -9379,7 +9379,7 @@
         <v>291</v>
       </c>
       <c r="F99" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>559</v>
@@ -9389,7 +9389,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/endCap</v>
       </c>
       <c r="I99" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -9410,7 +9410,7 @@
         <v>306</v>
       </c>
       <c r="F100" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>559</v>
@@ -9420,7 +9420,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/flange</v>
       </c>
       <c r="I100" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -9441,7 +9441,7 @@
         <v>300</v>
       </c>
       <c r="F101" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>559</v>
@@ -9451,7 +9451,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/measurementPoint</v>
       </c>
       <c r="I101" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -9469,10 +9469,10 @@
         <v>308</v>
       </c>
       <c r="E102" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F102" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G102" s="5" t="s">
         <v>199</v>
@@ -9482,7 +9482,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/siphon</v>
       </c>
       <c r="I102" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -9503,7 +9503,7 @@
         <v>282</v>
       </c>
       <c r="F103" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>559</v>
@@ -9513,7 +9513,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/sleeve</v>
       </c>
       <c r="I103" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -9534,7 +9534,7 @@
         <v>319</v>
       </c>
       <c r="F104" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>559</v>
@@ -9544,7 +9544,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/sluice</v>
       </c>
       <c r="I104" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -9565,7 +9565,7 @@
         <v>303</v>
       </c>
       <c r="F105" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>564</v>
@@ -9575,7 +9575,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/stoppleFitting</v>
       </c>
       <c r="I105" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -9596,7 +9596,7 @@
         <v>297</v>
       </c>
       <c r="F106" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>559</v>
@@ -9606,7 +9606,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsAppurtenanceTypeIMKLValue/valve</v>
       </c>
       <c r="I106" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -9624,10 +9624,10 @@
         <v>316</v>
       </c>
       <c r="E107" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F107" t="s">
-        <v>790</v>
+        <v>789</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>559</v>
@@ -9658,7 +9658,7 @@
         <v>314</v>
       </c>
       <c r="F108" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>559</v>
@@ -9689,7 +9689,7 @@
         <v>326</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G109" s="8" t="s">
         <v>559</v>
@@ -9720,7 +9720,7 @@
         <v>34</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>792</v>
+        <v>791</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>531</v>
@@ -9748,7 +9748,7 @@
         <v>32</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>793</v>
+        <v>792</v>
       </c>
       <c r="G111" s="9" t="s">
         <v>531</v>
@@ -9776,7 +9776,7 @@
         <v>36</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>794</v>
+        <v>793</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>531</v>
@@ -9804,7 +9804,7 @@
         <v>300</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G113" s="9" t="s">
         <v>531</v>
@@ -9835,10 +9835,10 @@
         <v>21</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H114" s="4" t="str">
         <f>VLOOKUP(A114,Overview!B:D,3,0)&amp; "/" &amp; E114</f>
@@ -9866,7 +9866,7 @@
         <v>324</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>795</v>
+        <v>794</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>559</v>
@@ -9894,10 +9894,10 @@
         <v>316</v>
       </c>
       <c r="E116" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F116" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>559</v>
@@ -9928,7 +9928,7 @@
         <v>314</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G117" s="8" t="s">
         <v>559</v>
@@ -9959,7 +9959,7 @@
         <v>330</v>
       </c>
       <c r="F118" t="s">
-        <v>841</v>
+        <v>840</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>559</v>
@@ -9990,7 +9990,7 @@
         <v>326</v>
       </c>
       <c r="F119" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>559</v>
@@ -10012,13 +10012,13 @@
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C120" t="s">
+        <v>614</v>
+      </c>
+      <c r="E120" s="9" t="s">
         <v>615</v>
       </c>
-      <c r="E120" s="9" t="s">
-        <v>616</v>
-      </c>
       <c r="F120" s="9" t="s">
-        <v>842</v>
+        <v>841</v>
       </c>
       <c r="G120" s="9" t="s">
         <v>531</v>
@@ -10046,7 +10046,7 @@
         <v>300</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G121" s="9" t="s">
         <v>531</v>
@@ -10061,7 +10061,7 @@
     </row>
     <row r="122" spans="1:9">
       <c r="A122" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B122" t="str">
         <f>VLOOKUP(A122,Overview!B:B,1,0)</f>
@@ -10084,7 +10084,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</v>
       </c>
       <c r="I122" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -10102,7 +10102,7 @@
         <v>556</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>839</v>
+        <v>838</v>
       </c>
       <c r="G123" s="9" t="s">
         <v>531</v>
@@ -10112,7 +10112,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue/geotextile</v>
       </c>
       <c r="I123" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -10133,7 +10133,7 @@
         <v>294</v>
       </c>
       <c r="F124" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="G124" s="8" t="s">
         <v>559</v>
@@ -10164,7 +10164,7 @@
         <v>341</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>822</v>
+        <v>821</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>559</v>
@@ -10195,7 +10195,7 @@
         <v>288</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="G126" s="8" t="s">
         <v>559</v>
@@ -10223,10 +10223,10 @@
         <v>316</v>
       </c>
       <c r="E127" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="G127" s="8" t="s">
         <v>559</v>
@@ -10257,7 +10257,7 @@
         <v>314</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="G128" s="8" t="s">
         <v>559</v>
@@ -10288,7 +10288,7 @@
         <v>343</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>823</v>
+        <v>822</v>
       </c>
       <c r="G129" s="8" t="s">
         <v>559</v>
@@ -10319,7 +10319,7 @@
         <v>326</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>791</v>
+        <v>790</v>
       </c>
       <c r="G130" s="8" t="s">
         <v>559</v>
@@ -10350,7 +10350,7 @@
         <v>339</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>824</v>
+        <v>823</v>
       </c>
       <c r="G131" s="8" t="s">
         <v>559</v>
@@ -10381,7 +10381,7 @@
         <v>306</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="G132" s="8" t="s">
         <v>559</v>
@@ -10403,10 +10403,10 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>825</v>
+        <v>824</v>
       </c>
       <c r="G133" s="9" t="s">
         <v>531</v>
@@ -10428,10 +10428,10 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>826</v>
+        <v>825</v>
       </c>
       <c r="G134" s="9" t="s">
         <v>531</v>
@@ -10462,7 +10462,7 @@
         <v>300</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="G135" s="8" t="s">
         <v>559</v>
@@ -10490,10 +10490,10 @@
         <v>307</v>
       </c>
       <c r="E136" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="G136" s="8" t="s">
         <v>559</v>
@@ -10524,7 +10524,7 @@
         <v>282</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>559</v>
@@ -10555,7 +10555,7 @@
         <v>319</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="G138" s="8" t="s">
         <v>559</v>
@@ -10586,7 +10586,7 @@
         <v>297</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="G139" s="8" t="s">
         <v>559</v>
@@ -10617,7 +10617,7 @@
         <v>396</v>
       </c>
       <c r="F140" t="s">
-        <v>707</v>
+        <v>706</v>
       </c>
       <c r="G140" s="8" t="s">
         <v>559</v>
@@ -10627,7 +10627,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/brickwork</v>
       </c>
       <c r="I140" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -10648,7 +10648,7 @@
         <v>389</v>
       </c>
       <c r="F141" t="s">
-        <v>708</v>
+        <v>707</v>
       </c>
       <c r="G141" s="8" t="s">
         <v>559</v>
@@ -10658,7 +10658,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/concrete</v>
       </c>
       <c r="I141" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -10679,7 +10679,7 @@
         <v>394</v>
       </c>
       <c r="F142" t="s">
-        <v>709</v>
+        <v>708</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>559</v>
@@ -10689,7 +10689,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/crossLinkPolyethylene</v>
       </c>
       <c r="I142" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -10710,7 +10710,7 @@
         <v>347</v>
       </c>
       <c r="F143" t="s">
-        <v>710</v>
+        <v>709</v>
       </c>
       <c r="G143" s="8" t="s">
         <v>559</v>
@@ -10720,7 +10720,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/ductileCastIron</v>
       </c>
       <c r="I143" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -10741,7 +10741,7 @@
         <v>350</v>
       </c>
       <c r="F144" t="s">
-        <v>711</v>
+        <v>710</v>
       </c>
       <c r="G144" s="8" t="s">
         <v>559</v>
@@ -10751,7 +10751,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/ductileCastIronBlutop</v>
       </c>
       <c r="I144" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -10772,7 +10772,7 @@
         <v>381</v>
       </c>
       <c r="F145" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="G145" s="8" t="s">
         <v>559</v>
@@ -10782,7 +10782,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/fiberCement</v>
       </c>
       <c r="I145" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -10803,7 +10803,7 @@
         <v>387</v>
       </c>
       <c r="F146" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="G146" s="8" t="s">
         <v>559</v>
@@ -10813,7 +10813,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/galvanisedSteel</v>
       </c>
       <c r="I146" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -10834,7 +10834,7 @@
         <v>353</v>
       </c>
       <c r="F147" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="G147" s="8" t="s">
         <v>559</v>
@@ -10844,7 +10844,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/glassFiberReinforcedPolyester</v>
       </c>
       <c r="I147" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -10865,7 +10865,7 @@
         <v>356</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>715</v>
+        <v>714</v>
       </c>
       <c r="G148" s="8" t="s">
         <v>559</v>
@@ -10875,7 +10875,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/grayCastIron</v>
       </c>
       <c r="I148" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -10896,7 +10896,7 @@
         <v>392</v>
       </c>
       <c r="F149" t="s">
-        <v>716</v>
+        <v>715</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>199</v>
@@ -10906,7 +10906,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/jute</v>
       </c>
       <c r="I149" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -10927,7 +10927,7 @@
         <v>359</v>
       </c>
       <c r="F150" t="s">
-        <v>717</v>
+        <v>716</v>
       </c>
       <c r="G150" s="8" t="s">
         <v>559</v>
@@ -10937,7 +10937,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/lead</v>
       </c>
       <c r="I150" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -10958,7 +10958,7 @@
         <v>21</v>
       </c>
       <c r="F151" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G151" s="8" t="s">
         <v>559</v>
@@ -10968,7 +10968,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/other</v>
       </c>
       <c r="I151" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -10989,7 +10989,7 @@
         <v>361</v>
       </c>
       <c r="F152" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>559</v>
@@ -10999,7 +10999,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethylene</v>
       </c>
       <c r="I152" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -11020,7 +11020,7 @@
         <v>366</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
       <c r="G153" s="8" t="s">
         <v>559</v>
@@ -11030,7 +11030,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethyleneHighDensity</v>
       </c>
       <c r="I153" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -11051,7 +11051,7 @@
         <v>363</v>
       </c>
       <c r="F154" t="s">
-        <v>724</v>
+        <v>723</v>
       </c>
       <c r="G154" s="8" t="s">
         <v>559</v>
@@ -11061,7 +11061,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polyethyleneSafetyLine</v>
       </c>
       <c r="I154" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -11082,7 +11082,7 @@
         <v>369</v>
       </c>
       <c r="F155" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="G155" s="8" t="s">
         <v>559</v>
@@ -11092,7 +11092,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polypropylene</v>
       </c>
       <c r="I155" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -11113,7 +11113,7 @@
         <v>372</v>
       </c>
       <c r="F156" t="s">
-        <v>725</v>
+        <v>724</v>
       </c>
       <c r="G156" s="8" t="s">
         <v>559</v>
@@ -11123,7 +11123,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/polypropyleneSLA</v>
       </c>
       <c r="I156" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -11144,7 +11144,7 @@
         <v>384</v>
       </c>
       <c r="F157" t="s">
-        <v>726</v>
+        <v>725</v>
       </c>
       <c r="G157" s="8" t="s">
         <v>559</v>
@@ -11154,7 +11154,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/prestressedConcrete</v>
       </c>
       <c r="I157" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -11175,7 +11175,7 @@
         <v>373</v>
       </c>
       <c r="F158" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>199</v>
@@ -11185,7 +11185,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/pvc</v>
       </c>
       <c r="I158" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -11206,7 +11206,7 @@
         <v>376</v>
       </c>
       <c r="F159" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>199</v>
@@ -11216,7 +11216,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/sideroCement</v>
       </c>
       <c r="I159" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -11237,7 +11237,7 @@
         <v>375</v>
       </c>
       <c r="F160" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="G160" s="8" t="s">
         <v>559</v>
@@ -11247,7 +11247,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/stainlessSteel</v>
       </c>
       <c r="I160" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -11268,7 +11268,7 @@
         <v>378</v>
       </c>
       <c r="F161" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="G161" s="8" t="s">
         <v>559</v>
@@ -11278,7 +11278,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/steel</v>
       </c>
       <c r="I161" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -11299,7 +11299,7 @@
         <v>391</v>
       </c>
       <c r="F162" t="s">
-        <v>720</v>
+        <v>719</v>
       </c>
       <c r="G162" s="8" t="s">
         <v>559</v>
@@ -11309,7 +11309,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/stoneware</v>
       </c>
       <c r="I162" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -11330,7 +11330,7 @@
         <v>558</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="G163" s="9" t="s">
         <v>531</v>
@@ -11340,7 +11340,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/sulfurConcrete</v>
       </c>
       <c r="I163" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -11361,7 +11361,7 @@
         <v>3</v>
       </c>
       <c r="F164" t="s">
-        <v>721</v>
+        <v>720</v>
       </c>
       <c r="G164" s="8" t="s">
         <v>559</v>
@@ -11371,7 +11371,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue/unknown</v>
       </c>
       <c r="I164" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -11392,10 +11392,10 @@
         <v>402</v>
       </c>
       <c r="F165" s="13" t="s">
-        <v>813</v>
+        <v>812</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H165" s="4" t="str">
         <f>VLOOKUP(A165,Overview!B:D,3,0)&amp; "/" &amp; E165</f>
@@ -11423,10 +11423,10 @@
         <v>488</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>814</v>
+        <v>813</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H166" s="4" t="str">
         <f>VLOOKUP(A166,Overview!B:D,3,0)&amp; "/" &amp; E166</f>
@@ -11454,7 +11454,7 @@
         <v>406</v>
       </c>
       <c r="F167" t="s">
-        <v>827</v>
+        <v>826</v>
       </c>
       <c r="G167" s="8" t="s">
         <v>559</v>
@@ -11469,7 +11469,7 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B168" t="str">
         <f>VLOOKUP(A168,Overview!B:B,1,0)</f>
@@ -11485,10 +11485,10 @@
         <v>408</v>
       </c>
       <c r="F168" t="s">
-        <v>817</v>
+        <v>816</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H168" s="4" t="str">
         <f>VLOOKUP(A168,Overview!B:D,3,0)&amp; "/" &amp; E168</f>
@@ -11500,7 +11500,7 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B169" t="str">
         <f>VLOOKUP(A169,Overview!B:B,1,0)</f>
@@ -11516,10 +11516,10 @@
         <v>410</v>
       </c>
       <c r="F169" t="s">
-        <v>818</v>
+        <v>817</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H169" s="4" t="str">
         <f>VLOOKUP(A169,Overview!B:D,3,0)&amp; "/" &amp; E169</f>
@@ -11531,7 +11531,7 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B170" t="str">
         <f>VLOOKUP(A170,Overview!B:B,1,0)</f>
@@ -11547,10 +11547,10 @@
         <v>21</v>
       </c>
       <c r="F170" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H170" s="4" t="str">
         <f>VLOOKUP(A170,Overview!B:D,3,0)&amp; "/" &amp; E170</f>
@@ -11562,7 +11562,7 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B171" t="str">
         <f>VLOOKUP(A171,Overview!B:B,1,0)</f>
@@ -11578,10 +11578,10 @@
         <v>412</v>
       </c>
       <c r="F171" t="s">
-        <v>819</v>
+        <v>818</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H171" s="4" t="str">
         <f>VLOOKUP(A171,Overview!B:D,3,0)&amp; "/" &amp; E171</f>
@@ -11593,7 +11593,7 @@
     </row>
     <row r="172" spans="1:9">
       <c r="A172" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B172" t="str">
         <f>VLOOKUP(A172,Overview!B:B,1,0)</f>
@@ -11621,7 +11621,7 @@
     </row>
     <row r="173" spans="1:9">
       <c r="A173" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B173" t="str">
         <f>VLOOKUP(A173,Overview!B:B,1,0)</f>
@@ -11649,7 +11649,7 @@
     </row>
     <row r="174" spans="1:9">
       <c r="A174" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B174" t="str">
         <f>VLOOKUP(A174,Overview!B:B,1,0)</f>
@@ -11677,7 +11677,7 @@
     </row>
     <row r="175" spans="1:9">
       <c r="A175" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B175" t="str">
         <f>VLOOKUP(A175,Overview!B:B,1,0)</f>
@@ -11705,7 +11705,7 @@
     </row>
     <row r="176" spans="1:9">
       <c r="A176" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B176" t="str">
         <f>VLOOKUP(A176,Overview!B:B,1,0)</f>
@@ -11733,7 +11733,7 @@
     </row>
     <row r="177" spans="1:9">
       <c r="A177" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B177" t="str">
         <f>VLOOKUP(A177,Overview!B:B,1,0)</f>
@@ -11761,7 +11761,7 @@
     </row>
     <row r="178" spans="1:9">
       <c r="A178" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B178" t="str">
         <f>VLOOKUP(A178,Overview!B:B,1,0)</f>
@@ -11789,7 +11789,7 @@
     </row>
     <row r="179" spans="1:9">
       <c r="A179" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B179" t="str">
         <f>VLOOKUP(A179,Overview!B:B,1,0)</f>
@@ -11817,7 +11817,7 @@
     </row>
     <row r="180" spans="1:9">
       <c r="A180" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B180" t="str">
         <f>VLOOKUP(A180,Overview!B:B,1,0)</f>
@@ -11840,12 +11840,12 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/collection</v>
       </c>
       <c r="I180" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="181" spans="1:9">
       <c r="A181" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B181" t="str">
         <f>VLOOKUP(A181,Overview!B:B,1,0)</f>
@@ -11868,12 +11868,12 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/distribution</v>
       </c>
       <c r="I181" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="182" spans="1:9">
       <c r="A182" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B182" t="str">
         <f>VLOOKUP(A182,Overview!B:B,1,0)</f>
@@ -11896,12 +11896,12 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/private</v>
       </c>
       <c r="I182" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="183" spans="1:9">
       <c r="A183" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B183" t="str">
         <f>VLOOKUP(A183,Overview!B:B,1,0)</f>
@@ -11924,28 +11924,28 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/transport</v>
       </c>
       <c r="I183" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B184" t="str">
         <f>VLOOKUP(A184,Overview!B:B,1,0)</f>
         <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
       <c r="C184" t="s">
+        <v>652</v>
+      </c>
+      <c r="D184" t="s">
         <v>653</v>
       </c>
-      <c r="D184" t="s">
-        <v>654</v>
-      </c>
       <c r="E184" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="F184" t="s">
-        <v>835</v>
+        <v>834</v>
       </c>
       <c r="G184" s="9" t="s">
         <v>531</v>
@@ -11955,12 +11955,12 @@
         <v>https://vocab.belgif.be/auth/IMKL-UtilityDeliveryTypeIMKLValue/connection</v>
       </c>
       <c r="I184" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="185" spans="1:9" ht="28.8">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="185" spans="1:9" ht="30">
       <c r="A185" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B185" t="str">
         <f>VLOOKUP(A185,Overview!B:B,1,0)</f>
@@ -11983,7 +11983,7 @@
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/net</v>
       </c>
       <c r="I185" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -12004,7 +12004,7 @@
         <v>336</v>
       </c>
       <c r="F186" t="s">
-        <v>840</v>
+        <v>839</v>
       </c>
       <c r="G186" s="8" t="s">
         <v>559</v>
@@ -12014,12 +12014,12 @@
         <v>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue/protectivePlate</v>
       </c>
       <c r="I186" t="s">
-        <v>847</v>
-      </c>
-    </row>
-    <row r="187" spans="1:9" ht="43.2">
+        <v>846</v>
+      </c>
+    </row>
+    <row r="187" spans="1:9" ht="60">
       <c r="A187" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B187" t="str">
         <f>VLOOKUP(A187,Overview!B:B,1,0)</f>
@@ -12042,12 +12042,12 @@
         <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</v>
       </c>
       <c r="I187" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="188" spans="1:9">
       <c r="A188" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B188" t="str">
         <f>VLOOKUP(A188,Overview!B:B,1,0)</f>
@@ -12075,7 +12075,7 @@
     </row>
     <row r="189" spans="1:9">
       <c r="A189" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B189" t="str">
         <f>VLOOKUP(A189,Overview!B:B,1,0)</f>
@@ -12103,7 +12103,7 @@
     </row>
     <row r="190" spans="1:9">
       <c r="A190" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B190" t="str">
         <f>VLOOKUP(A190,Overview!B:B,1,0)</f>
@@ -12126,12 +12126,12 @@
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</v>
       </c>
       <c r="I190" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="191" spans="1:9">
       <c r="A191" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B191" t="str">
         <f>VLOOKUP(A191,Overview!B:B,1,0)</f>
@@ -12154,12 +12154,12 @@
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</v>
       </c>
       <c r="I191" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="192" spans="1:9">
       <c r="A192" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B192" t="str">
         <f>VLOOKUP(A192,Overview!B:B,1,0)</f>
@@ -12172,7 +12172,7 @@
         <v>455</v>
       </c>
       <c r="E192" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="G192" s="8" t="s">
         <v>150</v>
@@ -12182,12 +12182,12 @@
         <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</v>
       </c>
       <c r="I192" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="193" spans="1:9">
       <c r="A193" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B193" t="str">
         <f>VLOOKUP(A193,Overview!B:B,1,0)</f>
@@ -12215,7 +12215,7 @@
     </row>
     <row r="194" spans="1:9">
       <c r="A194" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B194" t="str">
         <f>VLOOKUP(A194,Overview!B:B,1,0)</f>
@@ -12259,7 +12259,7 @@
         <v>322</v>
       </c>
       <c r="F195" s="13" t="s">
-        <v>796</v>
+        <v>795</v>
       </c>
       <c r="G195" s="8" t="s">
         <v>559</v>
@@ -12274,7 +12274,7 @@
     </row>
     <row r="196" spans="1:9">
       <c r="A196" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B196" t="str">
         <f>VLOOKUP(A196,Overview!B:B,1,0)</f>
@@ -12302,7 +12302,7 @@
     </row>
     <row r="197" spans="1:9">
       <c r="A197" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B197" t="str">
         <f>VLOOKUP(A197,Overview!B:B,1,0)</f>
@@ -12315,7 +12315,7 @@
         <v>465</v>
       </c>
       <c r="E197" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="G197" s="8" t="s">
         <v>150</v>
@@ -12330,7 +12330,7 @@
     </row>
     <row r="198" spans="1:9">
       <c r="A198" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B198" t="str">
         <f>VLOOKUP(A198,Overview!B:B,1,0)</f>
@@ -12358,7 +12358,7 @@
     </row>
     <row r="199" spans="1:9">
       <c r="A199" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B199" t="str">
         <f>VLOOKUP(A199,Overview!B:B,1,0)</f>
@@ -12386,7 +12386,7 @@
     </row>
     <row r="200" spans="1:9">
       <c r="A200" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B200" t="str">
         <f>VLOOKUP(A200,Overview!B:B,1,0)</f>
@@ -12414,7 +12414,7 @@
     </row>
     <row r="201" spans="1:9">
       <c r="A201" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B201" t="str">
         <f>VLOOKUP(A201,Overview!B:B,1,0)</f>
@@ -12442,7 +12442,7 @@
     </row>
     <row r="202" spans="1:9">
       <c r="A202" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B202" t="str">
         <f>VLOOKUP(A202,Overview!B:B,1,0)</f>
@@ -12470,7 +12470,7 @@
     </row>
     <row r="203" spans="1:9">
       <c r="A203" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B203" t="str">
         <f>VLOOKUP(A203,Overview!B:B,1,0)</f>
@@ -12498,7 +12498,7 @@
     </row>
     <row r="204" spans="1:9">
       <c r="A204" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B204" t="str">
         <f>VLOOKUP(A204,Overview!B:B,1,0)</f>
@@ -12526,7 +12526,7 @@
     </row>
     <row r="205" spans="1:9">
       <c r="A205" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B205" t="str">
         <f>VLOOKUP(A205,Overview!B:B,1,0)</f>
@@ -12554,7 +12554,7 @@
     </row>
     <row r="206" spans="1:9">
       <c r="A206" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B206" t="str">
         <f>VLOOKUP(A206,Overview!B:B,1,0)</f>
@@ -12582,7 +12582,7 @@
     </row>
     <row r="207" spans="1:9">
       <c r="A207" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B207" t="str">
         <f>VLOOKUP(A207,Overview!B:B,1,0)</f>
@@ -12610,7 +12610,7 @@
     </row>
     <row r="208" spans="1:9">
       <c r="A208" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B208" t="str">
         <f>VLOOKUP(A208,Overview!B:B,1,0)</f>
@@ -12638,7 +12638,7 @@
     </row>
     <row r="209" spans="1:9">
       <c r="A209" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B209" t="str">
         <f>VLOOKUP(A209,Overview!B:B,1,0)</f>
@@ -12682,10 +12682,10 @@
         <v>398</v>
       </c>
       <c r="F210" t="s">
-        <v>815</v>
+        <v>814</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H210" s="4" t="str">
         <f>VLOOKUP(A210,Overview!B:D,3,0)&amp; "/" &amp; E210</f>
@@ -12713,10 +12713,10 @@
         <v>490</v>
       </c>
       <c r="F211" t="s">
-        <v>816</v>
+        <v>815</v>
       </c>
       <c r="G211" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H211" s="4" t="str">
         <f>VLOOKUP(A211,Overview!B:D,3,0)&amp; "/" &amp; E211</f>
@@ -12728,7 +12728,7 @@
     </row>
     <row r="212" spans="1:9">
       <c r="A212" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B212" t="str">
         <f>VLOOKUP(A212,Overview!B:B,1,0)</f>
@@ -12756,7 +12756,7 @@
     </row>
     <row r="213" spans="1:9">
       <c r="A213" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B213" t="str">
         <f>VLOOKUP(A213,Overview!B:B,1,0)</f>
@@ -12779,12 +12779,12 @@
         <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</v>
       </c>
       <c r="I213" t="s">
-        <v>846</v>
+        <v>845</v>
       </c>
     </row>
     <row r="214" spans="1:9">
       <c r="A214" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B214" t="str">
         <f>VLOOKUP(A214,Overview!B:B,1,0)</f>
@@ -12812,7 +12812,7 @@
     </row>
     <row r="215" spans="1:9">
       <c r="A215" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B215" t="str">
         <f>VLOOKUP(A215,Overview!B:B,1,0)</f>
@@ -12840,7 +12840,7 @@
     </row>
     <row r="216" spans="1:9">
       <c r="A216" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B216" t="str">
         <f>VLOOKUP(A216,Overview!B:B,1,0)</f>
@@ -12868,7 +12868,7 @@
     </row>
     <row r="217" spans="1:9">
       <c r="A217" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B217" t="str">
         <f>VLOOKUP(A217,Overview!B:B,1,0)</f>
@@ -12896,7 +12896,7 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B218" t="str">
         <f>VLOOKUP(A218,Overview!B:B,1,0)</f>
@@ -12912,17 +12912,17 @@
         <v>504</v>
       </c>
       <c r="F218" t="s">
-        <v>836</v>
+        <v>835</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H218" s="4" t="str">
         <f>VLOOKUP(A218,Overview!B:D,3,0)&amp; "/" &amp; E218</f>
         <v>https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue/crossTheme</v>
       </c>
       <c r="I218" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -12943,10 +12943,10 @@
         <v>511</v>
       </c>
       <c r="F219" t="s">
-        <v>828</v>
+        <v>827</v>
       </c>
       <c r="G219" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H219" s="4" t="str">
         <f>VLOOKUP(A219,Overview!B:D,3,0)&amp; "/" &amp; E219</f>
@@ -12974,10 +12974,10 @@
         <v>507</v>
       </c>
       <c r="F220" t="s">
-        <v>829</v>
+        <v>828</v>
       </c>
       <c r="G220" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H220" s="4" t="str">
         <f>VLOOKUP(A220,Overview!B:D,3,0)&amp; "/" &amp; E220</f>
@@ -13005,10 +13005,10 @@
         <v>509</v>
       </c>
       <c r="F221" t="s">
-        <v>830</v>
+        <v>829</v>
       </c>
       <c r="G221" s="8" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="H221" s="4" t="str">
         <f>VLOOKUP(A221,Overview!B:D,3,0)&amp; "/" &amp; E221</f>
@@ -13043,7 +13043,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</v>
       </c>
       <c r="I222" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -13071,7 +13071,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</v>
       </c>
       <c r="I223" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -13099,7 +13099,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</v>
       </c>
       <c r="I224" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -13118,7 +13118,7 @@
         <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/underConstruction</v>
       </c>
       <c r="I225" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -13146,7 +13146,7 @@
         <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/onGroundSurface</v>
       </c>
       <c r="I226" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -13174,7 +13174,7 @@
         <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/suspendedOrElevated</v>
       </c>
       <c r="I227" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -13202,7 +13202,7 @@
         <v>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/underground</v>
       </c>
       <c r="I228" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -13223,7 +13223,7 @@
         <v>530</v>
       </c>
       <c r="I229" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -13244,7 +13244,7 @@
         <v>530</v>
       </c>
       <c r="I230" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -13265,7 +13265,7 @@
         <v>530</v>
       </c>
       <c r="I231" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -13286,7 +13286,7 @@
         <v>530</v>
       </c>
       <c r="I232" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -13307,7 +13307,7 @@
         <v>530</v>
       </c>
       <c r="I233" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -13325,7 +13325,7 @@
         <v>539</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>803</v>
+        <v>802</v>
       </c>
       <c r="G234" s="9" t="s">
         <v>531</v>
@@ -13335,7 +13335,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/digitizedPlan</v>
       </c>
       <c r="I234" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -13353,7 +13353,7 @@
         <v>29</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>804</v>
+        <v>803</v>
       </c>
       <c r="G235" s="9" t="s">
         <v>531</v>
@@ -13363,7 +13363,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/gnss</v>
       </c>
       <c r="I235" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -13381,7 +13381,7 @@
         <v>31</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>805</v>
+        <v>804</v>
       </c>
       <c r="G236" s="9" t="s">
         <v>531</v>
@@ -13391,7 +13391,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/lidar</v>
       </c>
       <c r="I236" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -13409,7 +13409,7 @@
         <v>541</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>806</v>
+        <v>805</v>
       </c>
       <c r="G237" s="9" t="s">
         <v>531</v>
@@ -13419,7 +13419,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringTape</v>
       </c>
       <c r="I237" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -13437,7 +13437,7 @@
         <v>538</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>807</v>
+        <v>806</v>
       </c>
       <c r="G238" s="9" t="s">
         <v>531</v>
@@ -13447,7 +13447,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/measuringWheel</v>
       </c>
       <c r="I238" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -13465,7 +13465,7 @@
         <v>26</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>808</v>
+        <v>807</v>
       </c>
       <c r="G239" s="9" t="s">
         <v>531</v>
@@ -13475,7 +13475,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/photogrammetry</v>
       </c>
       <c r="I239" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -13493,7 +13493,7 @@
         <v>537</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>809</v>
+        <v>808</v>
       </c>
       <c r="G240" s="9" t="s">
         <v>531</v>
@@ -13503,7 +13503,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/sketch</v>
       </c>
       <c r="I240" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -13521,7 +13521,7 @@
         <v>28</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>810</v>
+        <v>809</v>
       </c>
       <c r="G241" s="9" t="s">
         <v>531</v>
@@ -13531,7 +13531,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/terrestrial</v>
       </c>
       <c r="I241" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -13549,7 +13549,7 @@
         <v>540</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>811</v>
+        <v>810</v>
       </c>
       <c r="G242" s="9" t="s">
         <v>531</v>
@@ -13559,7 +13559,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/totalStation</v>
       </c>
       <c r="I242" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -13577,7 +13577,7 @@
         <v>27</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>812</v>
+        <v>811</v>
       </c>
       <c r="G243" s="9" t="s">
         <v>531</v>
@@ -13587,7 +13587,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/triangulation</v>
       </c>
       <c r="I243" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -13605,7 +13605,7 @@
         <v>15</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>837</v>
+        <v>836</v>
       </c>
       <c r="G244" s="9" t="s">
         <v>531</v>
@@ -13615,7 +13615,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/notVisibleAboveGround</v>
       </c>
       <c r="I244" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -13633,7 +13633,7 @@
         <v>14</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>838</v>
+        <v>837</v>
       </c>
       <c r="G245" s="9" t="s">
         <v>531</v>
@@ -13643,7 +13643,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-VisibilityTypeValue/visibleAboveGround</v>
       </c>
       <c r="I245" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -13661,7 +13661,7 @@
         <v>16</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>789</v>
+        <v>788</v>
       </c>
       <c r="G246" s="9" t="s">
         <v>531</v>
@@ -13671,7 +13671,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue/surfaceLevel</v>
       </c>
       <c r="I246" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -13689,7 +13689,7 @@
         <v>25</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="G247" s="9" t="s">
         <v>531</v>
@@ -13699,7 +13699,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/culvert</v>
       </c>
       <c r="I247" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -13717,7 +13717,7 @@
         <v>22</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="G248" s="9" t="s">
         <v>531</v>
@@ -13727,7 +13727,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/directionalDrilling</v>
       </c>
       <c r="I248" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -13745,7 +13745,7 @@
         <v>30</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="G249" s="9" t="s">
         <v>531</v>
@@ -13755,7 +13755,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/openTrench</v>
       </c>
       <c r="I249" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -13773,7 +13773,7 @@
         <v>21</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="G250" s="9" t="s">
         <v>531</v>
@@ -13783,7 +13783,7 @@
         <v>https://vocab.belgif.be/auth/IMKL-ConstructionTechniqueValue/other</v>
       </c>
       <c r="I250" t="s">
-        <v>847</v>
+        <v>846</v>
       </c>
     </row>
   </sheetData>
@@ -13794,15 +13794,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -14062,15 +14053,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC2C1C4-4794-4CDA-B113-FDC4260BCF94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{791B434E-C5B6-43DF-B218-859297235BBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -14088,4 +14080,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC2C1C4-4794-4CDA-B113-FDC4260BCF94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/implementation/Documentation/IMKL3_Codelists.xlsx
+++ b/implementation/Documentation/IMKL3_Codelists.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28324"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\ICEGthema-imkl\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{53740677-22FD-49E7-B884-39EBB2A180D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE92BAD3-B185-44FA-984C-958DDF2D84D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" activeTab="2" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -1893,12 +1893,6 @@
     <t>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/bioGas</t>
   </si>
   <si>
-    <t>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1,2</t>
-  </si>
-  <si>
-    <t>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1,3</t>
-  </si>
-  <si>
     <t>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butane</t>
   </si>
   <si>
@@ -3550,6 +3544,12 @@
   </si>
   <si>
     <t>Classificatie van constructietechnieken.</t>
+  </si>
+  <si>
+    <t>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1_2</t>
+  </si>
+  <si>
+    <t>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1_3</t>
   </si>
 </sst>
 </file>
@@ -4019,37 +4019,37 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12F05A2-F84B-4BFA-ADF4-7302F1870D77}">
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="E9" sqref="E9"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="2" width="50" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="32.7109375" customWidth="1"/>
-    <col min="4" max="4" width="76.7109375" customWidth="1"/>
-    <col min="5" max="5" width="81.28515625" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="7.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="32.6640625" customWidth="1"/>
+    <col min="4" max="4" width="76.6640625" customWidth="1"/>
+    <col min="5" max="5" width="81.33203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="7.6640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="10" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="5" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="13" max="13" width="9.28515625" bestFit="1" customWidth="1"/>
-    <col min="14" max="14" width="8.7109375" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="20.42578125" bestFit="1" customWidth="1"/>
-    <col min="16" max="17" width="4.85546875" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="14.5546875" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="9.33203125" bestFit="1" customWidth="1"/>
+    <col min="14" max="14" width="8.6640625" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="20.44140625" bestFit="1" customWidth="1"/>
+    <col min="16" max="17" width="4.88671875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="16.33203125" bestFit="1" customWidth="1"/>
     <col min="20" max="20" width="10" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="22.5703125" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="22.5546875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="10.5546875" bestFit="1" customWidth="1"/>
     <col min="23" max="23" width="25" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="12.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="6.28515625" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="13.42578125" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="20.5703125" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="12.109375" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="13.44140625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="20.5546875" bestFit="1" customWidth="1"/>
     <col min="28" max="28" width="10" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -4173,7 +4173,7 @@
         <v>334</v>
       </c>
       <c r="F5" t="s">
-        <v>1164</v>
+        <v>1162</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -4194,7 +4194,7 @@
         <v>345</v>
       </c>
       <c r="F6" t="s">
-        <v>802</v>
+        <v>800</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -4215,7 +4215,7 @@
         <v>346</v>
       </c>
       <c r="F7" t="s">
-        <v>803</v>
+        <v>801</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -4236,7 +4236,7 @@
         <v>347</v>
       </c>
       <c r="F8" t="s">
-        <v>804</v>
+        <v>802</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -4257,7 +4257,7 @@
         <v>329</v>
       </c>
       <c r="F9" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -4278,7 +4278,7 @@
         <v>329</v>
       </c>
       <c r="F10" t="s">
-        <v>813</v>
+        <v>811</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -4299,7 +4299,7 @@
         <v>348</v>
       </c>
       <c r="F11" t="s">
-        <v>814</v>
+        <v>812</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -4320,7 +4320,7 @@
         <v>349</v>
       </c>
       <c r="F12" t="s">
-        <v>815</v>
+        <v>813</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -4352,7 +4352,7 @@
         <v>330</v>
       </c>
       <c r="F14" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -4373,7 +4373,7 @@
         <v>330</v>
       </c>
       <c r="F15" t="s">
-        <v>816</v>
+        <v>814</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -4394,7 +4394,7 @@
         <v>350</v>
       </c>
       <c r="F16" t="s">
-        <v>817</v>
+        <v>815</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4415,7 +4415,7 @@
         <v>351</v>
       </c>
       <c r="F17" t="s">
-        <v>818</v>
+        <v>816</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4436,7 +4436,7 @@
         <v>352</v>
       </c>
       <c r="F18" t="s">
-        <v>805</v>
+        <v>803</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4454,7 +4454,7 @@
         <v>353</v>
       </c>
       <c r="F19" t="s">
-        <v>806</v>
+        <v>804</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4475,7 +4475,7 @@
         <v>354</v>
       </c>
       <c r="F20" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4496,7 +4496,7 @@
         <v>354</v>
       </c>
       <c r="F21" t="s">
-        <v>819</v>
+        <v>817</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4517,7 +4517,7 @@
         <v>355</v>
       </c>
       <c r="F22" t="s">
-        <v>820</v>
+        <v>818</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4538,7 +4538,7 @@
         <v>331</v>
       </c>
       <c r="F23" t="s">
-        <v>807</v>
+        <v>805</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4556,7 +4556,7 @@
         <v>332</v>
       </c>
       <c r="F24" t="s">
-        <v>824</v>
+        <v>822</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4588,7 +4588,7 @@
         <v>356</v>
       </c>
       <c r="F26" t="s">
-        <v>825</v>
+        <v>823</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4609,7 +4609,7 @@
         <v>357</v>
       </c>
       <c r="F27" t="s">
-        <v>826</v>
+        <v>824</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4630,7 +4630,7 @@
         <v>358</v>
       </c>
       <c r="F28" t="s">
-        <v>821</v>
+        <v>819</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4651,7 +4651,7 @@
         <v>359</v>
       </c>
       <c r="F29" t="s">
-        <v>827</v>
+        <v>825</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4672,7 +4672,7 @@
         <v>360</v>
       </c>
       <c r="F30" t="s">
-        <v>828</v>
+        <v>826</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4704,7 +4704,7 @@
         <v>361</v>
       </c>
       <c r="F32" t="s">
-        <v>822</v>
+        <v>820</v>
       </c>
     </row>
     <row r="33" spans="1:6">
@@ -4722,7 +4722,7 @@
         <v>319</v>
       </c>
       <c r="F33" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4743,7 +4743,7 @@
         <v>319</v>
       </c>
       <c r="F34" t="s">
-        <v>808</v>
+        <v>806</v>
       </c>
     </row>
     <row r="35" spans="1:6">
@@ -4761,7 +4761,7 @@
         <v>321</v>
       </c>
       <c r="F35" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4782,7 +4782,7 @@
         <v>321</v>
       </c>
       <c r="F36" t="s">
-        <v>809</v>
+        <v>807</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4802,7 +4802,7 @@
         <v>364</v>
       </c>
       <c r="F37" t="s">
-        <v>829</v>
+        <v>827</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4820,7 +4820,7 @@
         <v>333</v>
       </c>
       <c r="F38" t="s">
-        <v>810</v>
+        <v>808</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4841,7 +4841,7 @@
         <v>324</v>
       </c>
       <c r="F39" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4862,7 +4862,7 @@
         <v>324</v>
       </c>
       <c r="F40" t="s">
-        <v>811</v>
+        <v>809</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4883,7 +4883,7 @@
         <v>362</v>
       </c>
       <c r="F41" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4904,7 +4904,7 @@
         <v>362</v>
       </c>
       <c r="F42" t="s">
-        <v>830</v>
+        <v>828</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4925,7 +4925,7 @@
         <v>363</v>
       </c>
       <c r="F43" t="s">
-        <v>823</v>
+        <v>821</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4946,7 +4946,7 @@
         <v>326</v>
       </c>
       <c r="F44" t="s">
-        <v>812</v>
+        <v>810</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5029,11 +5029,11 @@
       <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="43.28515625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="36.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" customWidth="1"/>
+    <col min="1" max="1" width="43.33203125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="36.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.44140625" customWidth="1"/>
     <col min="4" max="4" width="50" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -7365,21 +7365,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}">
   <dimension ref="A1:I250"/>
   <sheetViews>
-    <sheetView topLeftCell="D1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D47" sqref="D47"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
-    <col min="1" max="1" width="45.140625" customWidth="1"/>
-    <col min="2" max="2" width="21.140625" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="39.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="45.109375" customWidth="1"/>
+    <col min="2" max="2" width="21.109375" hidden="1" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53" customWidth="1"/>
-    <col min="5" max="5" width="33.85546875" customWidth="1"/>
-    <col min="6" max="6" width="56.5703125" customWidth="1"/>
-    <col min="7" max="7" width="53.28515625" customWidth="1"/>
-    <col min="8" max="8" width="97.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="33.88671875" customWidth="1"/>
+    <col min="6" max="6" width="56.5546875" customWidth="1"/>
+    <col min="7" max="7" width="53.33203125" customWidth="1"/>
+    <col min="8" max="8" width="97.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" s="1" customFormat="1">
@@ -7420,13 +7420,13 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C2" t="s">
-        <v>856</v>
+        <v>854</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>857</v>
+        <v>855</v>
       </c>
       <c r="F2" t="s">
         <v>389</v>
@@ -7450,13 +7450,13 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C3" t="s">
-        <v>852</v>
+        <v>850</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>863</v>
+        <v>861</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -7480,13 +7480,13 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C4" t="s">
-        <v>853</v>
+        <v>851</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>858</v>
+        <v>856</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -7516,7 +7516,7 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>859</v>
+        <v>857</v>
       </c>
       <c r="F5" t="s">
         <v>390</v>
@@ -7540,13 +7540,13 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C6" t="s">
-        <v>855</v>
+        <v>853</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>860</v>
+        <v>858</v>
       </c>
       <c r="F6" t="s">
         <v>391</v>
@@ -7570,13 +7570,13 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C7" t="s">
-        <v>854</v>
+        <v>852</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>861</v>
+        <v>859</v>
       </c>
       <c r="F7" t="s">
         <v>392</v>
@@ -7600,13 +7600,13 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C8" t="s">
-        <v>850</v>
+        <v>848</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>862</v>
+        <v>860</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -7630,13 +7630,13 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C9" t="s">
-        <v>851</v>
+        <v>849</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>864</v>
+        <v>862</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>17</v>
@@ -7660,13 +7660,13 @@
         <v>TelecommunicationsSubthemeValue</v>
       </c>
       <c r="C10" t="s">
-        <v>1014</v>
+        <v>1012</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>1017</v>
+        <v>1015</v>
       </c>
       <c r="F10" t="s">
         <v>533</v>
@@ -7690,13 +7690,13 @@
         <v>TelecommunicationsSubthemeValue</v>
       </c>
       <c r="C11" t="s">
-        <v>1015</v>
+        <v>1013</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>1018</v>
+        <v>1016</v>
       </c>
       <c r="F11" t="s">
         <v>504</v>
@@ -7720,13 +7720,13 @@
         <v>TelecommunicationsSubthemeValue</v>
       </c>
       <c r="C12" t="s">
-        <v>1016</v>
+        <v>1014</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>1019</v>
+        <v>1017</v>
       </c>
       <c r="F12" t="s">
         <v>505</v>
@@ -7750,13 +7750,13 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
       <c r="C13" t="s">
-        <v>951</v>
+        <v>949</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>955</v>
+        <v>953</v>
       </c>
       <c r="F13" t="s">
         <v>464</v>
@@ -7780,13 +7780,13 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
       <c r="C14" t="s">
-        <v>952</v>
+        <v>950</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>956</v>
+        <v>954</v>
       </c>
       <c r="F14" t="s">
         <v>465</v>
@@ -7810,13 +7810,13 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
       <c r="C15" t="s">
-        <v>953</v>
+        <v>951</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>957</v>
+        <v>955</v>
       </c>
       <c r="F15" t="s">
         <v>466</v>
@@ -7840,13 +7840,13 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
       <c r="C16" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F16" t="s">
         <v>467</v>
@@ -7861,7 +7861,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="17" spans="1:9" ht="90">
+    <row r="17" spans="1:9" ht="72">
       <c r="A17" t="s">
         <v>251</v>
       </c>
@@ -7870,13 +7870,13 @@
         <v>WaterSubthemeValue</v>
       </c>
       <c r="C17" t="s">
-        <v>1054</v>
+        <v>1052</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>1055</v>
+        <v>1053</v>
       </c>
       <c r="F17" t="s">
         <v>527</v>
@@ -7891,7 +7891,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="18" spans="1:9" ht="195">
+    <row r="18" spans="1:9" ht="187.2">
       <c r="A18" t="s">
         <v>251</v>
       </c>
@@ -7900,13 +7900,13 @@
         <v>WaterSubthemeValue</v>
       </c>
       <c r="C18" t="s">
-        <v>1053</v>
+        <v>1051</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>1056</v>
+        <v>1054</v>
       </c>
       <c r="F18" s="2" t="s">
         <v>528</v>
@@ -7930,13 +7930,13 @@
         <v>SewerSubthemeValue</v>
       </c>
       <c r="C19" t="s">
-        <v>986</v>
+        <v>984</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>991</v>
+        <v>989</v>
       </c>
       <c r="F19" t="s">
         <v>481</v>
@@ -7960,13 +7960,13 @@
         <v>SewerSubthemeValue</v>
       </c>
       <c r="C20" t="s">
-        <v>985</v>
+        <v>983</v>
       </c>
       <c r="D20" t="s">
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>992</v>
+        <v>990</v>
       </c>
       <c r="F20" t="s">
         <v>482</v>
@@ -7990,13 +7990,13 @@
         <v>SewerSubthemeValue</v>
       </c>
       <c r="C21" t="s">
-        <v>987</v>
+        <v>985</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>993</v>
+        <v>991</v>
       </c>
       <c r="F21" t="s">
         <v>483</v>
@@ -8020,13 +8020,13 @@
         <v>SewerSubthemeValue</v>
       </c>
       <c r="C22" t="s">
-        <v>988</v>
+        <v>986</v>
       </c>
       <c r="D22" t="s">
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>994</v>
+        <v>992</v>
       </c>
       <c r="F22" t="s">
         <v>484</v>
@@ -8050,13 +8050,13 @@
         <v>SewerSubthemeValue</v>
       </c>
       <c r="C23" t="s">
-        <v>989</v>
+        <v>987</v>
       </c>
       <c r="D23" t="s">
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>995</v>
+        <v>993</v>
       </c>
       <c r="F23" t="s">
         <v>485</v>
@@ -8080,13 +8080,13 @@
         <v>SewerSubthemeValue</v>
       </c>
       <c r="C24" t="s">
-        <v>990</v>
+        <v>988</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>996</v>
+        <v>994</v>
       </c>
       <c r="F24" t="s">
         <v>486</v>
@@ -8116,7 +8116,7 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>1037</v>
+        <v>1035</v>
       </c>
       <c r="F25" t="s">
         <v>515</v>
@@ -8140,13 +8140,13 @@
         <v>ThermalSubthemeValue</v>
       </c>
       <c r="C26" t="s">
-        <v>1035</v>
+        <v>1033</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>1038</v>
+        <v>1036</v>
       </c>
       <c r="F26" t="s">
         <v>516</v>
@@ -8176,7 +8176,7 @@
         <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>1039</v>
+        <v>1037</v>
       </c>
       <c r="F27" t="s">
         <v>517</v>
@@ -8200,13 +8200,13 @@
         <v>ThermalSubthemeValue</v>
       </c>
       <c r="C28" t="s">
-        <v>1036</v>
+        <v>1034</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>1040</v>
+        <v>1038</v>
       </c>
       <c r="F28" t="s">
         <v>518</v>
@@ -8230,13 +8230,13 @@
         <v>ProtectedAreaTypeValue</v>
       </c>
       <c r="C29" t="s">
-        <v>962</v>
+        <v>960</v>
       </c>
       <c r="D29" t="s">
-        <v>972</v>
+        <v>970</v>
       </c>
       <c r="E29" t="s">
-        <v>963</v>
+        <v>961</v>
       </c>
       <c r="F29" t="s">
         <v>468</v>
@@ -8260,13 +8260,13 @@
         <v>ProtectedAreaTypeValue</v>
       </c>
       <c r="C30" t="s">
-        <v>961</v>
+        <v>959</v>
       </c>
       <c r="D30" t="s">
-        <v>969</v>
+        <v>967</v>
       </c>
       <c r="E30" t="s">
-        <v>964</v>
+        <v>962</v>
       </c>
       <c r="F30" t="s">
         <v>469</v>
@@ -8290,13 +8290,13 @@
         <v>ProtectedAreaTypeValue</v>
       </c>
       <c r="C31" t="s">
-        <v>960</v>
+        <v>958</v>
       </c>
       <c r="D31" t="s">
-        <v>968</v>
+        <v>966</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>965</v>
+        <v>963</v>
       </c>
       <c r="F31" s="4" t="s">
         <v>470</v>
@@ -8320,13 +8320,13 @@
         <v>ProtectedAreaTypeValue</v>
       </c>
       <c r="C32" t="s">
-        <v>959</v>
+        <v>957</v>
       </c>
       <c r="D32" t="s">
-        <v>970</v>
+        <v>968</v>
       </c>
       <c r="E32" t="s">
-        <v>966</v>
+        <v>964</v>
       </c>
       <c r="F32" t="s">
         <v>471</v>
@@ -8350,13 +8350,13 @@
         <v>ProtectedAreaTypeValue</v>
       </c>
       <c r="C33" t="s">
-        <v>958</v>
+        <v>956</v>
       </c>
       <c r="D33" t="s">
-        <v>971</v>
+        <v>969</v>
       </c>
       <c r="E33" t="s">
-        <v>967</v>
+        <v>965</v>
       </c>
       <c r="F33" t="s">
         <v>472</v>
@@ -8560,16 +8560,16 @@
         <v>DocumentTypeValue</v>
       </c>
       <c r="C40" t="s">
-        <v>839</v>
+        <v>837</v>
       </c>
       <c r="D40" t="s">
         <v>76</v>
       </c>
       <c r="E40" t="s">
-        <v>843</v>
+        <v>841</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>1161</v>
+        <v>1159</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>260</v>
@@ -8590,13 +8590,13 @@
         <v>DocumentTypeValue</v>
       </c>
       <c r="C41" t="s">
-        <v>840</v>
+        <v>838</v>
       </c>
       <c r="D41" t="s">
         <v>74</v>
       </c>
       <c r="E41" t="s">
-        <v>844</v>
+        <v>842</v>
       </c>
       <c r="F41" s="13" t="s">
         <v>382</v>
@@ -8626,7 +8626,7 @@
         <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F42" t="s">
         <v>383</v>
@@ -8650,13 +8650,13 @@
         <v>DocumentTypeValue</v>
       </c>
       <c r="C43" t="s">
-        <v>841</v>
+        <v>839</v>
       </c>
       <c r="D43" t="s">
         <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>845</v>
+        <v>843</v>
       </c>
       <c r="F43" t="s">
         <v>384</v>
@@ -8683,13 +8683,13 @@
         <v>179</v>
       </c>
       <c r="D44" t="s">
-        <v>1163</v>
+        <v>1161</v>
       </c>
       <c r="E44" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F44" t="s">
-        <v>1162</v>
+        <v>1160</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>260</v>
@@ -8710,10 +8710,10 @@
         <v>DocumentTypeValue</v>
       </c>
       <c r="C45" t="s">
-        <v>842</v>
+        <v>840</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>846</v>
+        <v>844</v>
       </c>
       <c r="F45" s="4" t="s">
         <v>385</v>
@@ -8857,13 +8857,13 @@
         <v>ContainerTypeValue</v>
       </c>
       <c r="C50" t="s">
-        <v>831</v>
+        <v>829</v>
       </c>
       <c r="D50" t="s">
         <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>833</v>
+        <v>831</v>
       </c>
       <c r="F50" s="13" t="s">
         <v>376</v>
@@ -8887,13 +8887,13 @@
         <v>ContainerTypeValue</v>
       </c>
       <c r="C51" t="s">
-        <v>832</v>
+        <v>830</v>
       </c>
       <c r="D51" t="s">
         <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>834</v>
+        <v>832</v>
       </c>
       <c r="F51" s="13" t="s">
         <v>377</v>
@@ -8923,7 +8923,7 @@
         <v>97</v>
       </c>
       <c r="E52" t="s">
-        <v>916</v>
+        <v>914</v>
       </c>
       <c r="F52" t="s">
         <v>429</v>
@@ -8953,7 +8953,7 @@
         <v>98</v>
       </c>
       <c r="E53" t="s">
-        <v>917</v>
+        <v>915</v>
       </c>
       <c r="F53" t="s">
         <v>430</v>
@@ -8977,16 +8977,16 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C54" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="D54" t="s">
-        <v>913</v>
+        <v>911</v>
       </c>
       <c r="E54" t="s">
         <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>919</v>
+        <v>917</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>94</v>
@@ -9013,7 +9013,7 @@
         <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>920</v>
+        <v>918</v>
       </c>
       <c r="F55" t="s">
         <v>439</v>
@@ -9043,7 +9043,7 @@
         <v>100</v>
       </c>
       <c r="E56" t="s">
-        <v>921</v>
+        <v>919</v>
       </c>
       <c r="F56" t="s">
         <v>440</v>
@@ -9051,8 +9051,8 @@
       <c r="G56" s="8" t="s">
         <v>261</v>
       </c>
-      <c r="H56" s="4" t="s">
-        <v>612</v>
+      <c r="H56" s="11" t="s">
+        <v>1163</v>
       </c>
       <c r="I56" t="s">
         <v>530</v>
@@ -9073,7 +9073,7 @@
         <v>101</v>
       </c>
       <c r="E57" t="s">
-        <v>922</v>
+        <v>920</v>
       </c>
       <c r="F57" t="s">
         <v>442</v>
@@ -9081,8 +9081,8 @@
       <c r="G57" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H57" s="4" t="s">
-        <v>613</v>
+      <c r="H57" s="11" t="s">
+        <v>1164</v>
       </c>
       <c r="I57" t="s">
         <v>530</v>
@@ -9103,7 +9103,7 @@
         <v>102</v>
       </c>
       <c r="E58" t="s">
-        <v>923</v>
+        <v>921</v>
       </c>
       <c r="F58" t="s">
         <v>443</v>
@@ -9112,7 +9112,7 @@
         <v>94</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>614</v>
+        <v>612</v>
       </c>
       <c r="I58" t="s">
         <v>530</v>
@@ -9127,13 +9127,13 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C59" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="D59" t="s">
-        <v>914</v>
+        <v>912</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>924</v>
+        <v>922</v>
       </c>
       <c r="F59" s="4" t="s">
         <v>444</v>
@@ -9142,7 +9142,7 @@
         <v>253</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>615</v>
+        <v>613</v>
       </c>
       <c r="I59" t="s">
         <v>530</v>
@@ -9163,7 +9163,7 @@
         <v>103</v>
       </c>
       <c r="E60" t="s">
-        <v>925</v>
+        <v>923</v>
       </c>
       <c r="F60" t="s">
         <v>445</v>
@@ -9172,7 +9172,7 @@
         <v>94</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>616</v>
+        <v>614</v>
       </c>
       <c r="I60" t="s">
         <v>530</v>
@@ -9193,7 +9193,7 @@
         <v>104</v>
       </c>
       <c r="E61" t="s">
-        <v>926</v>
+        <v>924</v>
       </c>
       <c r="F61" t="s">
         <v>435</v>
@@ -9202,7 +9202,7 @@
         <v>94</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>617</v>
+        <v>615</v>
       </c>
       <c r="I61" t="s">
         <v>530</v>
@@ -9232,7 +9232,7 @@
         <v>261</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>618</v>
+        <v>616</v>
       </c>
       <c r="I62" t="s">
         <v>530</v>
@@ -9262,7 +9262,7 @@
         <v>261</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>619</v>
+        <v>617</v>
       </c>
       <c r="I63" t="s">
         <v>530</v>
@@ -9283,7 +9283,7 @@
         <v>109</v>
       </c>
       <c r="E64" t="s">
-        <v>927</v>
+        <v>925</v>
       </c>
       <c r="F64" t="s">
         <v>446</v>
@@ -9292,7 +9292,7 @@
         <v>94</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>620</v>
+        <v>618</v>
       </c>
       <c r="I64" t="s">
         <v>530</v>
@@ -9322,7 +9322,7 @@
         <v>261</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>621</v>
+        <v>619</v>
       </c>
       <c r="I65" t="s">
         <v>530</v>
@@ -9343,7 +9343,7 @@
         <v>134</v>
       </c>
       <c r="E66" t="s">
-        <v>928</v>
+        <v>926</v>
       </c>
       <c r="F66" t="s">
         <v>432</v>
@@ -9352,7 +9352,7 @@
         <v>94</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>622</v>
+        <v>620</v>
       </c>
       <c r="I66" t="s">
         <v>530</v>
@@ -9373,7 +9373,7 @@
         <v>111</v>
       </c>
       <c r="E67" t="s">
-        <v>929</v>
+        <v>927</v>
       </c>
       <c r="F67" t="s">
         <v>447</v>
@@ -9382,7 +9382,7 @@
         <v>94</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>623</v>
+        <v>621</v>
       </c>
       <c r="I67" t="s">
         <v>530</v>
@@ -9403,7 +9403,7 @@
         <v>112</v>
       </c>
       <c r="E68" t="s">
-        <v>930</v>
+        <v>928</v>
       </c>
       <c r="F68" t="s">
         <v>448</v>
@@ -9412,7 +9412,7 @@
         <v>94</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>624</v>
+        <v>622</v>
       </c>
       <c r="I68" t="s">
         <v>530</v>
@@ -9433,7 +9433,7 @@
         <v>113</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>931</v>
+        <v>929</v>
       </c>
       <c r="F69" s="13" t="s">
         <v>449</v>
@@ -9442,7 +9442,7 @@
         <v>94</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>625</v>
+        <v>623</v>
       </c>
       <c r="I69" t="s">
         <v>530</v>
@@ -9463,7 +9463,7 @@
         <v>114</v>
       </c>
       <c r="E70" t="s">
-        <v>932</v>
+        <v>930</v>
       </c>
       <c r="F70" t="s">
         <v>433</v>
@@ -9472,7 +9472,7 @@
         <v>94</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>626</v>
+        <v>624</v>
       </c>
       <c r="I70" t="s">
         <v>530</v>
@@ -9493,7 +9493,7 @@
         <v>115</v>
       </c>
       <c r="E71" t="s">
-        <v>933</v>
+        <v>931</v>
       </c>
       <c r="F71" t="s">
         <v>436</v>
@@ -9502,7 +9502,7 @@
         <v>94</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>627</v>
+        <v>625</v>
       </c>
       <c r="I71" t="s">
         <v>530</v>
@@ -9523,7 +9523,7 @@
         <v>116</v>
       </c>
       <c r="E72" t="s">
-        <v>934</v>
+        <v>932</v>
       </c>
       <c r="F72" t="s">
         <v>450</v>
@@ -9532,7 +9532,7 @@
         <v>94</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>628</v>
+        <v>626</v>
       </c>
       <c r="I72" t="s">
         <v>530</v>
@@ -9547,13 +9547,13 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C73" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="D73" t="s">
-        <v>915</v>
+        <v>913</v>
       </c>
       <c r="E73" t="s">
-        <v>935</v>
+        <v>933</v>
       </c>
       <c r="F73" t="s">
         <v>451</v>
@@ -9562,7 +9562,7 @@
         <v>94</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>629</v>
+        <v>627</v>
       </c>
       <c r="I73" t="s">
         <v>530</v>
@@ -9583,16 +9583,16 @@
         <v>117</v>
       </c>
       <c r="E74" t="s">
-        <v>936</v>
+        <v>934</v>
       </c>
       <c r="F74" t="s">
-        <v>918</v>
+        <v>916</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>630</v>
+        <v>628</v>
       </c>
       <c r="I74" t="s">
         <v>530</v>
@@ -9613,7 +9613,7 @@
         <v>118</v>
       </c>
       <c r="E75" t="s">
-        <v>937</v>
+        <v>935</v>
       </c>
       <c r="F75" t="s">
         <v>452</v>
@@ -9622,7 +9622,7 @@
         <v>94</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>631</v>
+        <v>629</v>
       </c>
       <c r="I75" t="s">
         <v>530</v>
@@ -9643,7 +9643,7 @@
         <v>119</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>938</v>
+        <v>936</v>
       </c>
       <c r="F76" s="13" t="s">
         <v>453</v>
@@ -9652,7 +9652,7 @@
         <v>94</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>632</v>
+        <v>630</v>
       </c>
       <c r="I76" t="s">
         <v>530</v>
@@ -9673,7 +9673,7 @@
         <v>120</v>
       </c>
       <c r="E77" t="s">
-        <v>939</v>
+        <v>937</v>
       </c>
       <c r="F77" t="s">
         <v>454</v>
@@ -9682,7 +9682,7 @@
         <v>94</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>633</v>
+        <v>631</v>
       </c>
       <c r="I77" t="s">
         <v>530</v>
@@ -9703,7 +9703,7 @@
         <v>121</v>
       </c>
       <c r="E78" t="s">
-        <v>940</v>
+        <v>938</v>
       </c>
       <c r="F78" t="s">
         <v>455</v>
@@ -9712,7 +9712,7 @@
         <v>94</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>634</v>
+        <v>632</v>
       </c>
       <c r="I78" t="s">
         <v>530</v>
@@ -9733,7 +9733,7 @@
         <v>95</v>
       </c>
       <c r="E79" t="s">
-        <v>941</v>
+        <v>939</v>
       </c>
       <c r="F79" t="s">
         <v>456</v>
@@ -9742,7 +9742,7 @@
         <v>94</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>635</v>
+        <v>633</v>
       </c>
       <c r="I79" t="s">
         <v>530</v>
@@ -9763,7 +9763,7 @@
         <v>122</v>
       </c>
       <c r="E80" t="s">
-        <v>942</v>
+        <v>940</v>
       </c>
       <c r="F80" t="s">
         <v>437</v>
@@ -9772,7 +9772,7 @@
         <v>94</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>636</v>
+        <v>634</v>
       </c>
       <c r="I80" t="s">
         <v>530</v>
@@ -9793,7 +9793,7 @@
         <v>123</v>
       </c>
       <c r="E81" t="s">
-        <v>943</v>
+        <v>941</v>
       </c>
       <c r="F81" t="s">
         <v>438</v>
@@ -9802,7 +9802,7 @@
         <v>94</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>637</v>
+        <v>635</v>
       </c>
       <c r="I81" t="s">
         <v>530</v>
@@ -9823,7 +9823,7 @@
         <v>124</v>
       </c>
       <c r="E82" t="s">
-        <v>944</v>
+        <v>942</v>
       </c>
       <c r="F82" t="s">
         <v>457</v>
@@ -9832,7 +9832,7 @@
         <v>94</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>638</v>
+        <v>636</v>
       </c>
       <c r="I82" t="s">
         <v>530</v>
@@ -9853,7 +9853,7 @@
         <v>125</v>
       </c>
       <c r="E83" t="s">
-        <v>945</v>
+        <v>943</v>
       </c>
       <c r="F83" t="s">
         <v>458</v>
@@ -9862,7 +9862,7 @@
         <v>94</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>639</v>
+        <v>637</v>
       </c>
       <c r="I83" t="s">
         <v>530</v>
@@ -9883,7 +9883,7 @@
         <v>126</v>
       </c>
       <c r="E84" t="s">
-        <v>946</v>
+        <v>944</v>
       </c>
       <c r="F84" t="s">
         <v>459</v>
@@ -9892,7 +9892,7 @@
         <v>94</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>640</v>
+        <v>638</v>
       </c>
       <c r="I84" t="s">
         <v>530</v>
@@ -9913,7 +9913,7 @@
         <v>127</v>
       </c>
       <c r="E85" t="s">
-        <v>947</v>
+        <v>945</v>
       </c>
       <c r="F85" t="s">
         <v>460</v>
@@ -9922,7 +9922,7 @@
         <v>94</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>641</v>
+        <v>639</v>
       </c>
       <c r="I85" t="s">
         <v>530</v>
@@ -9943,7 +9943,7 @@
         <v>129</v>
       </c>
       <c r="E86" t="s">
-        <v>948</v>
+        <v>946</v>
       </c>
       <c r="F86" t="s">
         <v>434</v>
@@ -9952,7 +9952,7 @@
         <v>94</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>642</v>
+        <v>640</v>
       </c>
       <c r="I86" t="s">
         <v>530</v>
@@ -9973,7 +9973,7 @@
         <v>128</v>
       </c>
       <c r="E87" t="s">
-        <v>949</v>
+        <v>947</v>
       </c>
       <c r="F87" t="s">
         <v>461</v>
@@ -9982,7 +9982,7 @@
         <v>94</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>643</v>
+        <v>641</v>
       </c>
       <c r="I87" t="s">
         <v>530</v>
@@ -10003,7 +10003,7 @@
         <v>130</v>
       </c>
       <c r="E88" t="s">
-        <v>950</v>
+        <v>948</v>
       </c>
       <c r="F88" t="s">
         <v>462</v>
@@ -10012,7 +10012,7 @@
         <v>94</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>644</v>
+        <v>642</v>
       </c>
       <c r="I88" t="s">
         <v>530</v>
@@ -10033,7 +10033,7 @@
         <v>131</v>
       </c>
       <c r="E89" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F89" t="s">
         <v>407</v>
@@ -10042,7 +10042,7 @@
         <v>94</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>645</v>
+        <v>643</v>
       </c>
       <c r="I89" t="s">
         <v>530</v>
@@ -10072,7 +10072,7 @@
         <v>94</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>646</v>
+        <v>644</v>
       </c>
       <c r="I90" t="s">
         <v>530</v>
@@ -10093,7 +10093,7 @@
         <v>136</v>
       </c>
       <c r="E91" t="s">
-        <v>848</v>
+        <v>846</v>
       </c>
       <c r="F91" t="s">
         <v>386</v>
@@ -10102,7 +10102,7 @@
         <v>260</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>647</v>
+        <v>645</v>
       </c>
       <c r="I91" t="s">
         <v>223</v>
@@ -10123,7 +10123,7 @@
         <v>138</v>
       </c>
       <c r="E92" t="s">
-        <v>847</v>
+        <v>845</v>
       </c>
       <c r="F92" t="s">
         <v>388</v>
@@ -10132,7 +10132,7 @@
         <v>94</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>648</v>
+        <v>646</v>
       </c>
       <c r="I92" t="s">
         <v>223</v>
@@ -10153,7 +10153,7 @@
         <v>137</v>
       </c>
       <c r="E93" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F93" t="s">
         <v>387</v>
@@ -10162,7 +10162,7 @@
         <v>260</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>649</v>
+        <v>647</v>
       </c>
       <c r="I93" t="s">
         <v>223</v>
@@ -10183,7 +10183,7 @@
         <v>142</v>
       </c>
       <c r="E94" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F94" t="s">
         <v>417</v>
@@ -10192,7 +10192,7 @@
         <v>260</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>650</v>
+        <v>648</v>
       </c>
       <c r="I94" t="s">
         <v>530</v>
@@ -10213,7 +10213,7 @@
         <v>140</v>
       </c>
       <c r="E95" t="s">
-        <v>902</v>
+        <v>900</v>
       </c>
       <c r="F95" s="13" t="s">
         <v>423</v>
@@ -10222,7 +10222,7 @@
         <v>260</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>651</v>
+        <v>649</v>
       </c>
       <c r="I95" t="s">
         <v>530</v>
@@ -10237,13 +10237,13 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C96" t="s">
-        <v>898</v>
+        <v>896</v>
       </c>
       <c r="D96" t="s">
         <v>148</v>
       </c>
       <c r="E96" t="s">
-        <v>903</v>
+        <v>901</v>
       </c>
       <c r="F96" s="13" t="s">
         <v>418</v>
@@ -10252,7 +10252,7 @@
         <v>260</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>652</v>
+        <v>650</v>
       </c>
       <c r="I96" t="s">
         <v>530</v>
@@ -10273,7 +10273,7 @@
         <v>150</v>
       </c>
       <c r="E97" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F97" t="s">
         <v>424</v>
@@ -10282,7 +10282,7 @@
         <v>260</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>653</v>
+        <v>651</v>
       </c>
       <c r="I97" t="s">
         <v>530</v>
@@ -10303,7 +10303,7 @@
         <v>149</v>
       </c>
       <c r="E98" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F98" t="s">
         <v>425</v>
@@ -10312,7 +10312,7 @@
         <v>260</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>654</v>
+        <v>652</v>
       </c>
       <c r="I98" t="s">
         <v>530</v>
@@ -10333,7 +10333,7 @@
         <v>141</v>
       </c>
       <c r="E99" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F99" t="s">
         <v>426</v>
@@ -10342,7 +10342,7 @@
         <v>260</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>655</v>
+        <v>653</v>
       </c>
       <c r="I99" t="s">
         <v>530</v>
@@ -10363,7 +10363,7 @@
         <v>146</v>
       </c>
       <c r="E100" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F100" t="s">
         <v>419</v>
@@ -10372,7 +10372,7 @@
         <v>260</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>656</v>
+        <v>654</v>
       </c>
       <c r="I100" t="s">
         <v>530</v>
@@ -10387,13 +10387,13 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C101" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D101" t="s">
         <v>144</v>
       </c>
       <c r="E101" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F101" t="s">
         <v>427</v>
@@ -10402,7 +10402,7 @@
         <v>260</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>657</v>
+        <v>655</v>
       </c>
       <c r="I101" t="s">
         <v>530</v>
@@ -10423,7 +10423,7 @@
         <v>147</v>
       </c>
       <c r="E102" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F102" t="s">
         <v>420</v>
@@ -10432,7 +10432,7 @@
         <v>260</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>658</v>
+        <v>656</v>
       </c>
       <c r="I102" t="s">
         <v>530</v>
@@ -10453,7 +10453,7 @@
         <v>137</v>
       </c>
       <c r="E103" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F103" t="s">
         <v>387</v>
@@ -10462,7 +10462,7 @@
         <v>260</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>659</v>
+        <v>657</v>
       </c>
       <c r="I103" t="s">
         <v>530</v>
@@ -10477,13 +10477,13 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C104" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D104" t="s">
         <v>151</v>
       </c>
       <c r="E104" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F104" t="s">
         <v>421</v>
@@ -10492,7 +10492,7 @@
         <v>260</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>660</v>
+        <v>658</v>
       </c>
       <c r="I104" t="s">
         <v>530</v>
@@ -10513,7 +10513,7 @@
         <v>145</v>
       </c>
       <c r="E105" t="s">
-        <v>911</v>
+        <v>909</v>
       </c>
       <c r="F105" t="s">
         <v>428</v>
@@ -10522,7 +10522,7 @@
         <v>262</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>661</v>
+        <v>659</v>
       </c>
       <c r="I105" t="s">
         <v>530</v>
@@ -10543,7 +10543,7 @@
         <v>143</v>
       </c>
       <c r="E106" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F106" t="s">
         <v>422</v>
@@ -10552,7 +10552,7 @@
         <v>260</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>662</v>
+        <v>660</v>
       </c>
       <c r="I106" t="s">
         <v>530</v>
@@ -10573,7 +10573,7 @@
         <v>150</v>
       </c>
       <c r="E107" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F107" t="s">
         <v>474</v>
@@ -10582,7 +10582,7 @@
         <v>260</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>663</v>
+        <v>661</v>
       </c>
       <c r="I107" t="s">
         <v>226</v>
@@ -10603,7 +10603,7 @@
         <v>149</v>
       </c>
       <c r="E108" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F108" t="s">
         <v>425</v>
@@ -10612,7 +10612,7 @@
         <v>260</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>664</v>
+        <v>662</v>
       </c>
       <c r="I108" t="s">
         <v>226</v>
@@ -10633,7 +10633,7 @@
         <v>154</v>
       </c>
       <c r="E109" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F109" s="13" t="s">
         <v>475</v>
@@ -10642,7 +10642,7 @@
         <v>260</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>665</v>
+        <v>663</v>
       </c>
       <c r="I109" t="s">
         <v>226</v>
@@ -10657,13 +10657,13 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C110" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="D110" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>979</v>
+        <v>977</v>
       </c>
       <c r="F110" s="4" t="s">
         <v>476</v>
@@ -10672,7 +10672,7 @@
         <v>253</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>666</v>
+        <v>664</v>
       </c>
       <c r="I110" t="s">
         <v>226</v>
@@ -10687,13 +10687,13 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C111" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="D111" t="s">
-        <v>978</v>
+        <v>976</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>981</v>
+        <v>979</v>
       </c>
       <c r="F111" s="4" t="s">
         <v>477</v>
@@ -10702,7 +10702,7 @@
         <v>253</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>667</v>
+        <v>665</v>
       </c>
       <c r="I111" t="s">
         <v>226</v>
@@ -10717,13 +10717,13 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C112" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="D112" t="s">
-        <v>977</v>
+        <v>975</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>982</v>
+        <v>980</v>
       </c>
       <c r="F112" s="4" t="s">
         <v>478</v>
@@ -10732,7 +10732,7 @@
         <v>253</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>668</v>
+        <v>666</v>
       </c>
       <c r="I112" t="s">
         <v>226</v>
@@ -10747,13 +10747,13 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C113" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D113" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F113" s="4" t="s">
         <v>427</v>
@@ -10762,7 +10762,7 @@
         <v>253</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>669</v>
+        <v>667</v>
       </c>
       <c r="I113" t="s">
         <v>226</v>
@@ -10783,7 +10783,7 @@
         <v>77</v>
       </c>
       <c r="E114" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F114" s="13" t="s">
         <v>375</v>
@@ -10792,7 +10792,7 @@
         <v>337</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>670</v>
+        <v>668</v>
       </c>
       <c r="I114" t="s">
         <v>226</v>
@@ -10807,13 +10807,13 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C115" t="s">
-        <v>976</v>
+        <v>974</v>
       </c>
       <c r="D115" t="s">
         <v>153</v>
       </c>
       <c r="E115" t="s">
-        <v>983</v>
+        <v>981</v>
       </c>
       <c r="F115" s="13" t="s">
         <v>479</v>
@@ -10822,7 +10822,7 @@
         <v>260</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>671</v>
+        <v>669</v>
       </c>
       <c r="I115" t="s">
         <v>226</v>
@@ -10843,7 +10843,7 @@
         <v>150</v>
       </c>
       <c r="E116" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F116" t="s">
         <v>424</v>
@@ -10852,7 +10852,7 @@
         <v>260</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>672</v>
+        <v>670</v>
       </c>
       <c r="I116" t="s">
         <v>132</v>
@@ -10873,7 +10873,7 @@
         <v>149</v>
       </c>
       <c r="E117" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F117" s="13" t="s">
         <v>425</v>
@@ -10882,7 +10882,7 @@
         <v>260</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>673</v>
+        <v>671</v>
       </c>
       <c r="I117" t="s">
         <v>132</v>
@@ -10903,7 +10903,7 @@
         <v>156</v>
       </c>
       <c r="E118" t="s">
-        <v>1051</v>
+        <v>1049</v>
       </c>
       <c r="F118" t="s">
         <v>525</v>
@@ -10912,7 +10912,7 @@
         <v>260</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>674</v>
+        <v>672</v>
       </c>
       <c r="I118" t="s">
         <v>132</v>
@@ -10933,7 +10933,7 @@
         <v>157</v>
       </c>
       <c r="E119" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F119" t="s">
         <v>475</v>
@@ -10942,7 +10942,7 @@
         <v>260</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>675</v>
+        <v>673</v>
       </c>
       <c r="I119" t="s">
         <v>132</v>
@@ -10957,13 +10957,13 @@
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C120" t="s">
+        <v>1048</v>
+      </c>
+      <c r="D120" t="s">
+        <v>1048</v>
+      </c>
+      <c r="E120" s="9" t="s">
         <v>1050</v>
-      </c>
-      <c r="D120" t="s">
-        <v>1050</v>
-      </c>
-      <c r="E120" s="9" t="s">
-        <v>1052</v>
       </c>
       <c r="F120" s="9" t="s">
         <v>526</v>
@@ -10972,7 +10972,7 @@
         <v>253</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>676</v>
+        <v>674</v>
       </c>
       <c r="I120" t="s">
         <v>132</v>
@@ -10987,13 +10987,13 @@
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C121" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D121" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F121" s="9" t="s">
         <v>427</v>
@@ -11002,7 +11002,7 @@
         <v>253</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I121" t="s">
         <v>132</v>
@@ -11017,22 +11017,22 @@
         <v>WarningTypeValue</v>
       </c>
       <c r="C122" t="s">
-        <v>1122</v>
+        <v>1120</v>
       </c>
       <c r="D122" t="s">
         <v>198</v>
       </c>
       <c r="E122" t="s">
-        <v>1124</v>
+        <v>1122</v>
       </c>
       <c r="F122" t="s">
-        <v>1123</v>
+        <v>1121</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H122" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I122" t="s">
         <v>531</v>
@@ -11047,13 +11047,13 @@
         <v>WarningTypeIMKLValue</v>
       </c>
       <c r="C123" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="D123" t="s">
-        <v>1047</v>
+        <v>1045</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>1048</v>
+        <v>1046</v>
       </c>
       <c r="F123" s="4" t="s">
         <v>523</v>
@@ -11062,7 +11062,7 @@
         <v>253</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I123" t="s">
         <v>531</v>
@@ -11083,7 +11083,7 @@
         <v>142</v>
       </c>
       <c r="E124" t="s">
-        <v>901</v>
+        <v>899</v>
       </c>
       <c r="F124" t="s">
         <v>417</v>
@@ -11092,7 +11092,7 @@
         <v>260</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I124" t="s">
         <v>229</v>
@@ -11107,13 +11107,13 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C125" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="D125" t="s">
-        <v>1020</v>
+        <v>1018</v>
       </c>
       <c r="E125" t="s">
-        <v>1025</v>
+        <v>1023</v>
       </c>
       <c r="F125" s="13" t="s">
         <v>506</v>
@@ -11122,7 +11122,7 @@
         <v>260</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="I125" t="s">
         <v>229</v>
@@ -11143,7 +11143,7 @@
         <v>141</v>
       </c>
       <c r="E126" t="s">
-        <v>906</v>
+        <v>904</v>
       </c>
       <c r="F126" s="13" t="s">
         <v>426</v>
@@ -11152,7 +11152,7 @@
         <v>260</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I126" t="s">
         <v>229</v>
@@ -11173,7 +11173,7 @@
         <v>150</v>
       </c>
       <c r="E127" t="s">
-        <v>904</v>
+        <v>902</v>
       </c>
       <c r="F127" s="13" t="s">
         <v>424</v>
@@ -11182,7 +11182,7 @@
         <v>260</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="I127" t="s">
         <v>229</v>
@@ -11203,7 +11203,7 @@
         <v>149</v>
       </c>
       <c r="E128" t="s">
-        <v>905</v>
+        <v>903</v>
       </c>
       <c r="F128" s="13" t="s">
         <v>425</v>
@@ -11212,7 +11212,7 @@
         <v>260</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I128" t="s">
         <v>229</v>
@@ -11227,13 +11227,13 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C129" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="D129" t="s">
-        <v>1021</v>
+        <v>1019</v>
       </c>
       <c r="E129" t="s">
-        <v>1026</v>
+        <v>1024</v>
       </c>
       <c r="F129" s="13" t="s">
         <v>507</v>
@@ -11242,7 +11242,7 @@
         <v>260</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I129" t="s">
         <v>229</v>
@@ -11263,7 +11263,7 @@
         <v>200</v>
       </c>
       <c r="E130" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F130" s="13" t="s">
         <v>475</v>
@@ -11272,7 +11272,7 @@
         <v>260</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="I130" t="s">
         <v>229</v>
@@ -11287,13 +11287,13 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C131" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="D131" t="s">
-        <v>1022</v>
+        <v>1020</v>
       </c>
       <c r="E131" t="s">
-        <v>1027</v>
+        <v>1025</v>
       </c>
       <c r="F131" s="13" t="s">
         <v>508</v>
@@ -11302,7 +11302,7 @@
         <v>260</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="I131" t="s">
         <v>229</v>
@@ -11323,7 +11323,7 @@
         <v>146</v>
       </c>
       <c r="E132" t="s">
-        <v>907</v>
+        <v>905</v>
       </c>
       <c r="F132" s="13" t="s">
         <v>419</v>
@@ -11332,7 +11332,7 @@
         <v>260</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I132" t="s">
         <v>229</v>
@@ -11347,13 +11347,13 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C133" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="D133" t="s">
-        <v>1023</v>
+        <v>1021</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>1028</v>
+        <v>1026</v>
       </c>
       <c r="F133" s="4" t="s">
         <v>509</v>
@@ -11362,7 +11362,7 @@
         <v>253</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I133" t="s">
         <v>229</v>
@@ -11377,13 +11377,13 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C134" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="D134" t="s">
-        <v>1024</v>
+        <v>1022</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>1029</v>
+        <v>1027</v>
       </c>
       <c r="F134" s="4" t="s">
         <v>510</v>
@@ -11392,7 +11392,7 @@
         <v>253</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I134" t="s">
         <v>229</v>
@@ -11407,13 +11407,13 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C135" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="D135" t="s">
-        <v>899</v>
+        <v>897</v>
       </c>
       <c r="E135" t="s">
-        <v>908</v>
+        <v>906</v>
       </c>
       <c r="F135" s="13" t="s">
         <v>427</v>
@@ -11422,7 +11422,7 @@
         <v>260</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I135" t="s">
         <v>229</v>
@@ -11443,7 +11443,7 @@
         <v>147</v>
       </c>
       <c r="E136" t="s">
-        <v>909</v>
+        <v>907</v>
       </c>
       <c r="F136" s="13" t="s">
         <v>420</v>
@@ -11452,7 +11452,7 @@
         <v>260</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="I136" t="s">
         <v>229</v>
@@ -11473,7 +11473,7 @@
         <v>137</v>
       </c>
       <c r="E137" t="s">
-        <v>849</v>
+        <v>847</v>
       </c>
       <c r="F137" s="13" t="s">
         <v>387</v>
@@ -11482,7 +11482,7 @@
         <v>260</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I137" t="s">
         <v>229</v>
@@ -11497,13 +11497,13 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C138" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="D138" t="s">
-        <v>900</v>
+        <v>898</v>
       </c>
       <c r="E138" t="s">
-        <v>910</v>
+        <v>908</v>
       </c>
       <c r="F138" s="13" t="s">
         <v>421</v>
@@ -11512,7 +11512,7 @@
         <v>260</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I138" t="s">
         <v>229</v>
@@ -11533,7 +11533,7 @@
         <v>143</v>
       </c>
       <c r="E139" t="s">
-        <v>912</v>
+        <v>910</v>
       </c>
       <c r="F139" s="13" t="s">
         <v>422</v>
@@ -11542,7 +11542,7 @@
         <v>260</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I139" t="s">
         <v>229</v>
@@ -11557,13 +11557,13 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C140" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="D140" t="s">
-        <v>865</v>
+        <v>863</v>
       </c>
       <c r="E140" t="s">
-        <v>881</v>
+        <v>879</v>
       </c>
       <c r="F140" t="s">
         <v>393</v>
@@ -11572,7 +11572,7 @@
         <v>260</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="I140" t="s">
         <v>531</v>
@@ -11602,7 +11602,7 @@
         <v>260</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I141" t="s">
         <v>531</v>
@@ -11617,13 +11617,13 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C142" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="D142" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="E142" t="s">
-        <v>866</v>
+        <v>864</v>
       </c>
       <c r="F142" t="s">
         <v>395</v>
@@ -11632,7 +11632,7 @@
         <v>260</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I142" t="s">
         <v>531</v>
@@ -11647,13 +11647,13 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C143" t="s">
-        <v>867</v>
+        <v>865</v>
       </c>
       <c r="D143" t="s">
         <v>162</v>
       </c>
       <c r="E143" t="s">
-        <v>882</v>
+        <v>880</v>
       </c>
       <c r="F143" t="s">
         <v>396</v>
@@ -11662,7 +11662,7 @@
         <v>260</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="I143" t="s">
         <v>531</v>
@@ -11677,13 +11677,13 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C144" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="D144" t="s">
-        <v>868</v>
+        <v>866</v>
       </c>
       <c r="E144" t="s">
-        <v>883</v>
+        <v>881</v>
       </c>
       <c r="F144" t="s">
         <v>397</v>
@@ -11692,7 +11692,7 @@
         <v>260</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="I144" t="s">
         <v>531</v>
@@ -11707,13 +11707,13 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C145" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="D145" t="s">
-        <v>869</v>
+        <v>867</v>
       </c>
       <c r="E145" t="s">
-        <v>884</v>
+        <v>882</v>
       </c>
       <c r="F145" t="s">
         <v>398</v>
@@ -11722,7 +11722,7 @@
         <v>260</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I145" t="s">
         <v>531</v>
@@ -11743,7 +11743,7 @@
         <v>169</v>
       </c>
       <c r="E146" t="s">
-        <v>885</v>
+        <v>883</v>
       </c>
       <c r="F146" t="s">
         <v>399</v>
@@ -11752,7 +11752,7 @@
         <v>260</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I146" t="s">
         <v>531</v>
@@ -11767,13 +11767,13 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C147" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="D147" t="s">
-        <v>870</v>
+        <v>868</v>
       </c>
       <c r="E147" t="s">
-        <v>886</v>
+        <v>884</v>
       </c>
       <c r="F147" t="s">
         <v>400</v>
@@ -11782,7 +11782,7 @@
         <v>260</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I147" t="s">
         <v>531</v>
@@ -11803,7 +11803,7 @@
         <v>163</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>887</v>
+        <v>885</v>
       </c>
       <c r="F148" s="13" t="s">
         <v>401</v>
@@ -11812,7 +11812,7 @@
         <v>260</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I148" t="s">
         <v>531</v>
@@ -11827,13 +11827,13 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C149" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="D149" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="E149" t="s">
-        <v>871</v>
+        <v>869</v>
       </c>
       <c r="F149" t="s">
         <v>402</v>
@@ -11842,7 +11842,7 @@
         <v>94</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="I149" t="s">
         <v>531</v>
@@ -11863,7 +11863,7 @@
         <v>164</v>
       </c>
       <c r="E150" t="s">
-        <v>888</v>
+        <v>886</v>
       </c>
       <c r="F150" t="s">
         <v>403</v>
@@ -11872,7 +11872,7 @@
         <v>260</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="I150" t="s">
         <v>531</v>
@@ -11893,7 +11893,7 @@
         <v>179</v>
       </c>
       <c r="E151" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F151" t="s">
         <v>375</v>
@@ -11902,7 +11902,7 @@
         <v>260</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="I151" t="s">
         <v>531</v>
@@ -11917,13 +11917,13 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C152" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="D152" t="s">
-        <v>872</v>
+        <v>870</v>
       </c>
       <c r="E152" t="s">
-        <v>889</v>
+        <v>887</v>
       </c>
       <c r="F152" t="s">
         <v>408</v>
@@ -11932,7 +11932,7 @@
         <v>260</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="I152" t="s">
         <v>531</v>
@@ -11947,10 +11947,10 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C153" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="D153" t="s">
-        <v>873</v>
+        <v>871</v>
       </c>
       <c r="E153" t="s">
         <v>165</v>
@@ -11962,7 +11962,7 @@
         <v>260</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="I153" t="s">
         <v>531</v>
@@ -11977,10 +11977,10 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C154" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="D154" t="s">
-        <v>874</v>
+        <v>872</v>
       </c>
       <c r="E154" t="s">
         <v>410</v>
@@ -11992,7 +11992,7 @@
         <v>260</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="I154" t="s">
         <v>531</v>
@@ -12013,7 +12013,7 @@
         <v>166</v>
       </c>
       <c r="E155" t="s">
-        <v>890</v>
+        <v>888</v>
       </c>
       <c r="F155" t="s">
         <v>404</v>
@@ -12022,7 +12022,7 @@
         <v>260</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I155" t="s">
         <v>531</v>
@@ -12043,7 +12043,7 @@
         <v>167</v>
       </c>
       <c r="E156" t="s">
-        <v>891</v>
+        <v>889</v>
       </c>
       <c r="F156" t="s">
         <v>411</v>
@@ -12052,7 +12052,7 @@
         <v>260</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I156" t="s">
         <v>531</v>
@@ -12073,7 +12073,7 @@
         <v>168</v>
       </c>
       <c r="E157" t="s">
-        <v>892</v>
+        <v>890</v>
       </c>
       <c r="F157" t="s">
         <v>412</v>
@@ -12082,7 +12082,7 @@
         <v>260</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="I157" t="s">
         <v>531</v>
@@ -12097,13 +12097,13 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C158" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="D158" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="E158" t="s">
-        <v>875</v>
+        <v>873</v>
       </c>
       <c r="F158" t="s">
         <v>415</v>
@@ -12112,7 +12112,7 @@
         <v>94</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I158" t="s">
         <v>531</v>
@@ -12127,13 +12127,13 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C159" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="D159" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="E159" t="s">
-        <v>876</v>
+        <v>874</v>
       </c>
       <c r="F159" t="s">
         <v>413</v>
@@ -12142,7 +12142,7 @@
         <v>94</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I159" t="s">
         <v>531</v>
@@ -12157,13 +12157,13 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C160" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="D160" t="s">
-        <v>877</v>
+        <v>875</v>
       </c>
       <c r="E160" t="s">
-        <v>893</v>
+        <v>891</v>
       </c>
       <c r="F160" t="s">
         <v>414</v>
@@ -12172,7 +12172,7 @@
         <v>260</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="I160" t="s">
         <v>531</v>
@@ -12187,13 +12187,13 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C161" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="D161" t="s">
-        <v>878</v>
+        <v>876</v>
       </c>
       <c r="E161" t="s">
-        <v>894</v>
+        <v>892</v>
       </c>
       <c r="F161" t="s">
         <v>405</v>
@@ -12202,7 +12202,7 @@
         <v>260</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="I161" t="s">
         <v>531</v>
@@ -12217,13 +12217,13 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C162" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="D162" t="s">
-        <v>879</v>
+        <v>877</v>
       </c>
       <c r="E162" t="s">
-        <v>895</v>
+        <v>893</v>
       </c>
       <c r="F162" t="s">
         <v>406</v>
@@ -12232,7 +12232,7 @@
         <v>260</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="I162" t="s">
         <v>531</v>
@@ -12247,13 +12247,13 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C163" t="s">
-        <v>880</v>
+        <v>878</v>
       </c>
       <c r="D163" t="s">
         <v>259</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>896</v>
+        <v>894</v>
       </c>
       <c r="F163" s="4" t="s">
         <v>416</v>
@@ -12262,7 +12262,7 @@
         <v>253</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I163" t="s">
         <v>531</v>
@@ -12283,7 +12283,7 @@
         <v>131</v>
       </c>
       <c r="E164" t="s">
-        <v>897</v>
+        <v>895</v>
       </c>
       <c r="F164" t="s">
         <v>407</v>
@@ -12292,7 +12292,7 @@
         <v>260</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="I164" t="s">
         <v>531</v>
@@ -12307,13 +12307,13 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C165" t="s">
-        <v>1005</v>
+        <v>1003</v>
       </c>
       <c r="D165" t="s">
         <v>172</v>
       </c>
       <c r="E165" t="s">
-        <v>1009</v>
+        <v>1007</v>
       </c>
       <c r="F165" s="13" t="s">
         <v>497</v>
@@ -12322,7 +12322,7 @@
         <v>337</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I165" t="s">
         <v>231</v>
@@ -12337,13 +12337,13 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C166" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="D166" t="s">
         <v>220</v>
       </c>
       <c r="E166" t="s">
-        <v>1006</v>
+        <v>1004</v>
       </c>
       <c r="F166" s="13" t="s">
         <v>498</v>
@@ -12352,7 +12352,7 @@
         <v>337</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="I166" t="s">
         <v>231</v>
@@ -12367,13 +12367,13 @@
         <v>ThermalProductTypeIMKLValue</v>
       </c>
       <c r="C167" t="s">
-        <v>1030</v>
+        <v>1028</v>
       </c>
       <c r="D167" t="s">
         <v>174</v>
       </c>
       <c r="E167" t="s">
-        <v>1031</v>
+        <v>1029</v>
       </c>
       <c r="F167" t="s">
         <v>511</v>
@@ -12382,7 +12382,7 @@
         <v>260</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="I167" t="s">
         <v>229</v>
@@ -12397,13 +12397,13 @@
         <v>TelecommunicationsCableMaterialTypeIMKLValue</v>
       </c>
       <c r="C168" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="D168" t="s">
         <v>176</v>
       </c>
       <c r="E168" t="s">
-        <v>1010</v>
+        <v>1008</v>
       </c>
       <c r="F168" t="s">
         <v>501</v>
@@ -12412,7 +12412,7 @@
         <v>337</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="I168" t="s">
         <v>231</v>
@@ -12433,7 +12433,7 @@
         <v>177</v>
       </c>
       <c r="E169" t="s">
-        <v>1012</v>
+        <v>1010</v>
       </c>
       <c r="F169" t="s">
         <v>502</v>
@@ -12442,7 +12442,7 @@
         <v>337</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I169" t="s">
         <v>231</v>
@@ -12463,7 +12463,7 @@
         <v>179</v>
       </c>
       <c r="E170" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F170" t="s">
         <v>375</v>
@@ -12472,7 +12472,7 @@
         <v>337</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>726</v>
+        <v>724</v>
       </c>
       <c r="I170" t="s">
         <v>231</v>
@@ -12487,13 +12487,13 @@
         <v>TelecommunicationsCableMaterialTypeIMKLValue</v>
       </c>
       <c r="C171" t="s">
-        <v>1011</v>
+        <v>1009</v>
       </c>
       <c r="D171" t="s">
         <v>178</v>
       </c>
       <c r="E171" t="s">
-        <v>1013</v>
+        <v>1011</v>
       </c>
       <c r="F171" t="s">
         <v>503</v>
@@ -12502,7 +12502,7 @@
         <v>337</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>727</v>
+        <v>725</v>
       </c>
       <c r="I171" t="s">
         <v>231</v>
@@ -12517,22 +12517,22 @@
         <v>SewerWaterTypeValue</v>
       </c>
       <c r="C172" t="s">
-        <v>1078</v>
+        <v>1076</v>
       </c>
       <c r="D172" t="s">
         <v>181</v>
       </c>
       <c r="E172" t="s">
-        <v>1088</v>
+        <v>1086</v>
       </c>
       <c r="F172" t="s">
-        <v>1089</v>
+        <v>1087</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H172" s="4" t="s">
-        <v>728</v>
+        <v>726</v>
       </c>
       <c r="I172" t="s">
         <v>226</v>
@@ -12547,22 +12547,22 @@
         <v>SewerWaterTypeValue</v>
       </c>
       <c r="C173" t="s">
-        <v>1079</v>
+        <v>1077</v>
       </c>
       <c r="D173" t="s">
         <v>182</v>
       </c>
       <c r="E173" t="s">
-        <v>1087</v>
+        <v>1085</v>
       </c>
       <c r="F173" t="s">
-        <v>1086</v>
+        <v>1084</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H173" s="4" t="s">
-        <v>729</v>
+        <v>727</v>
       </c>
       <c r="I173" t="s">
         <v>226</v>
@@ -12577,22 +12577,22 @@
         <v>SewerWaterTypeValue</v>
       </c>
       <c r="C174" t="s">
-        <v>1080</v>
+        <v>1078</v>
       </c>
       <c r="D174" t="s">
         <v>183</v>
       </c>
       <c r="E174" t="s">
-        <v>1085</v>
+        <v>1083</v>
       </c>
       <c r="F174" t="s">
-        <v>1084</v>
+        <v>1082</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H174" s="4" t="s">
-        <v>730</v>
+        <v>728</v>
       </c>
       <c r="I174" t="s">
         <v>226</v>
@@ -12607,22 +12607,22 @@
         <v>SewerWaterTypeValue</v>
       </c>
       <c r="C175" t="s">
-        <v>1081</v>
+        <v>1079</v>
       </c>
       <c r="D175" t="s">
         <v>184</v>
       </c>
       <c r="E175" t="s">
-        <v>1083</v>
+        <v>1081</v>
       </c>
       <c r="F175" t="s">
-        <v>1082</v>
+        <v>1080</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H175" s="4" t="s">
-        <v>731</v>
+        <v>729</v>
       </c>
       <c r="I175" t="s">
         <v>226</v>
@@ -12643,16 +12643,16 @@
         <v>186</v>
       </c>
       <c r="E176" t="s">
-        <v>1157</v>
+        <v>1155</v>
       </c>
       <c r="F176" t="s">
-        <v>1154</v>
+        <v>1152</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H176" s="11" t="s">
-        <v>732</v>
+        <v>730</v>
       </c>
       <c r="I176" t="s">
         <v>132</v>
@@ -12667,22 +12667,22 @@
         <v>WaterTypeValue</v>
       </c>
       <c r="C177" t="s">
-        <v>1153</v>
+        <v>1151</v>
       </c>
       <c r="D177" t="s">
         <v>187</v>
       </c>
       <c r="E177" t="s">
-        <v>1158</v>
+        <v>1156</v>
       </c>
       <c r="F177" t="s">
-        <v>1155</v>
+        <v>1153</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H177" s="4" t="s">
-        <v>733</v>
+        <v>731</v>
       </c>
       <c r="I177" t="s">
         <v>132</v>
@@ -12703,7 +12703,7 @@
         <v>188</v>
       </c>
       <c r="E178" t="s">
-        <v>1159</v>
+        <v>1157</v>
       </c>
       <c r="F178" t="s">
         <v>460</v>
@@ -12712,7 +12712,7 @@
         <v>94</v>
       </c>
       <c r="H178" s="4" t="s">
-        <v>734</v>
+        <v>732</v>
       </c>
       <c r="I178" t="s">
         <v>132</v>
@@ -12733,16 +12733,16 @@
         <v>189</v>
       </c>
       <c r="E179" t="s">
-        <v>1160</v>
+        <v>1158</v>
       </c>
       <c r="F179" t="s">
-        <v>1156</v>
+        <v>1154</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H179" s="4" t="s">
-        <v>735</v>
+        <v>733</v>
       </c>
       <c r="I179" t="s">
         <v>132</v>
@@ -12757,22 +12757,22 @@
         <v>UtilityDeliveryTypeValue</v>
       </c>
       <c r="C180" t="s">
-        <v>1090</v>
+        <v>1088</v>
       </c>
       <c r="D180" t="s">
         <v>191</v>
       </c>
       <c r="E180" t="s">
-        <v>1095</v>
+        <v>1093</v>
       </c>
       <c r="F180" t="s">
-        <v>1096</v>
+        <v>1094</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H180" s="11" t="s">
-        <v>736</v>
+        <v>734</v>
       </c>
       <c r="I180" t="s">
         <v>531</v>
@@ -12787,22 +12787,22 @@
         <v>UtilityDeliveryTypeValue</v>
       </c>
       <c r="C181" t="s">
-        <v>1091</v>
+        <v>1089</v>
       </c>
       <c r="D181" t="s">
         <v>192</v>
       </c>
       <c r="E181" t="s">
-        <v>1094</v>
+        <v>1092</v>
       </c>
       <c r="F181" t="s">
-        <v>1097</v>
+        <v>1095</v>
       </c>
       <c r="G181" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H181" s="4" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I181" t="s">
         <v>531</v>
@@ -12817,22 +12817,22 @@
         <v>UtilityDeliveryTypeValue</v>
       </c>
       <c r="C182" t="s">
-        <v>1092</v>
+        <v>1090</v>
       </c>
       <c r="D182" t="s">
         <v>193</v>
       </c>
       <c r="E182" t="s">
-        <v>1093</v>
+        <v>1091</v>
       </c>
       <c r="F182" t="s">
-        <v>1098</v>
+        <v>1096</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H182" s="4" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I182" t="s">
         <v>531</v>
@@ -12847,22 +12847,22 @@
         <v>UtilityDeliveryTypeValue</v>
       </c>
       <c r="C183" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="D183" t="s">
         <v>194</v>
       </c>
       <c r="E183" t="s">
-        <v>954</v>
+        <v>952</v>
       </c>
       <c r="F183" t="s">
-        <v>1099</v>
+        <v>1097</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H183" s="4" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="I183" t="s">
         <v>531</v>
@@ -12892,13 +12892,13 @@
         <v>253</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I184" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="45">
+    <row r="185" spans="1:9" ht="28.8">
       <c r="A185" t="s">
         <v>323</v>
       </c>
@@ -12907,22 +12907,22 @@
         <v>WarningTypeValue</v>
       </c>
       <c r="C185" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>196</v>
       </c>
       <c r="E185" t="s">
-        <v>1120</v>
+        <v>1118</v>
       </c>
       <c r="F185" t="s">
-        <v>1126</v>
+        <v>1124</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H185" s="4" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I185" t="s">
         <v>531</v>
@@ -12937,13 +12937,13 @@
         <v>WarningTypeIMKLValue</v>
       </c>
       <c r="C186" t="s">
-        <v>1046</v>
+        <v>1044</v>
       </c>
       <c r="D186" t="s">
         <v>159</v>
       </c>
       <c r="E186" t="s">
-        <v>1049</v>
+        <v>1047</v>
       </c>
       <c r="F186" t="s">
         <v>524</v>
@@ -12952,13 +12952,13 @@
         <v>260</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="I186" t="s">
         <v>531</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="75">
+    <row r="187" spans="1:9" ht="57.6">
       <c r="A187" t="s">
         <v>323</v>
       </c>
@@ -12967,22 +12967,22 @@
         <v>WarningTypeValue</v>
       </c>
       <c r="C187" t="s">
-        <v>1121</v>
+        <v>1119</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E187" t="s">
+        <v>1123</v>
+      </c>
+      <c r="F187" t="s">
         <v>1125</v>
-      </c>
-      <c r="F187" t="s">
-        <v>1127</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H187" s="4" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I187" t="s">
         <v>531</v>
@@ -13003,7 +13003,7 @@
         <v>200</v>
       </c>
       <c r="E188" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F188" t="s">
         <v>475</v>
@@ -13012,7 +13012,7 @@
         <v>94</v>
       </c>
       <c r="H188" s="4" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="I188" t="s">
         <v>223</v>
@@ -13033,16 +13033,16 @@
         <v>201</v>
       </c>
       <c r="E189" t="s">
-        <v>1066</v>
+        <v>1064</v>
       </c>
       <c r="F189" t="s">
-        <v>1065</v>
+        <v>1063</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H189" s="4" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="I189" t="s">
         <v>223</v>
@@ -13063,16 +13063,16 @@
         <v>200</v>
       </c>
       <c r="E190" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="F190" t="s">
-        <v>980</v>
+        <v>978</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H190" s="4" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
       <c r="I190" t="s">
         <v>530</v>
@@ -13093,7 +13093,7 @@
         <v>138</v>
       </c>
       <c r="E191" t="s">
-        <v>1068</v>
+        <v>1066</v>
       </c>
       <c r="F191" t="s">
         <v>388</v>
@@ -13102,7 +13102,7 @@
         <v>94</v>
       </c>
       <c r="H191" s="4" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
       <c r="I191" t="s">
         <v>530</v>
@@ -13123,16 +13123,16 @@
         <v>203</v>
       </c>
       <c r="E192" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="F192" t="s">
-        <v>1067</v>
+        <v>1065</v>
       </c>
       <c r="G192" s="8" t="s">
         <v>55</v>
       </c>
       <c r="H192" s="4" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
       <c r="I192" t="s">
         <v>530</v>
@@ -13147,22 +13147,22 @@
         <v>SewerAppurtenanceTypeValue</v>
       </c>
       <c r="C193" t="s">
-        <v>1069</v>
+        <v>1067</v>
       </c>
       <c r="D193" t="s">
         <v>205</v>
       </c>
       <c r="E193" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="F193" t="s">
-        <v>1072</v>
+        <v>1070</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H193" s="4" t="s">
-        <v>749</v>
+        <v>747</v>
       </c>
       <c r="I193" t="s">
         <v>226</v>
@@ -13177,22 +13177,22 @@
         <v>SewerAppurtenanceTypeValue</v>
       </c>
       <c r="C194" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="D194" t="s">
-        <v>1070</v>
+        <v>1068</v>
       </c>
       <c r="E194" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="F194" t="s">
-        <v>1073</v>
+        <v>1071</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H194" s="4" t="s">
-        <v>750</v>
+        <v>748</v>
       </c>
       <c r="I194" t="s">
         <v>226</v>
@@ -13207,13 +13207,13 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C195" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="D195" t="s">
-        <v>975</v>
+        <v>973</v>
       </c>
       <c r="E195" t="s">
-        <v>984</v>
+        <v>982</v>
       </c>
       <c r="F195" s="13" t="s">
         <v>480</v>
@@ -13222,7 +13222,7 @@
         <v>260</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>751</v>
+        <v>749</v>
       </c>
       <c r="I195" t="s">
         <v>226</v>
@@ -13237,22 +13237,22 @@
         <v>SewerAppurtenanceTypeValue</v>
       </c>
       <c r="C196" t="s">
-        <v>1071</v>
+        <v>1069</v>
       </c>
       <c r="D196" t="s">
         <v>206</v>
       </c>
       <c r="E196" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F196" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H196" s="4" t="s">
-        <v>752</v>
+        <v>750</v>
       </c>
       <c r="I196" t="s">
         <v>226</v>
@@ -13273,16 +13273,16 @@
         <v>207</v>
       </c>
       <c r="E197" t="s">
-        <v>1074</v>
+        <v>1072</v>
       </c>
       <c r="F197" t="s">
-        <v>1077</v>
+        <v>1075</v>
       </c>
       <c r="G197" s="8" t="s">
         <v>55</v>
       </c>
       <c r="H197" s="4" t="s">
-        <v>753</v>
+        <v>751</v>
       </c>
       <c r="I197" t="s">
         <v>226</v>
@@ -13303,16 +13303,16 @@
         <v>214</v>
       </c>
       <c r="E198" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="F198" t="s">
-        <v>1075</v>
+        <v>1073</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H198" s="4" t="s">
-        <v>754</v>
+        <v>752</v>
       </c>
       <c r="I198" t="s">
         <v>226</v>
@@ -13333,16 +13333,16 @@
         <v>213</v>
       </c>
       <c r="E199" t="s">
-        <v>1143</v>
+        <v>1141</v>
       </c>
       <c r="F199" t="s">
-        <v>1132</v>
+        <v>1130</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H199" s="4" t="s">
-        <v>755</v>
+        <v>753</v>
       </c>
       <c r="I199" t="s">
         <v>132</v>
@@ -13363,16 +13363,16 @@
         <v>214</v>
       </c>
       <c r="E200" t="s">
-        <v>1144</v>
+        <v>1142</v>
       </c>
       <c r="F200" t="s">
-        <v>1133</v>
+        <v>1131</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H200" s="4" t="s">
-        <v>756</v>
+        <v>754</v>
       </c>
       <c r="I200" t="s">
         <v>132</v>
@@ -13387,22 +13387,22 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C201" t="s">
-        <v>1129</v>
+        <v>1127</v>
       </c>
       <c r="D201" t="s">
         <v>217</v>
       </c>
       <c r="E201" t="s">
-        <v>1152</v>
+        <v>1150</v>
       </c>
       <c r="F201" t="s">
-        <v>1134</v>
+        <v>1132</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H201" s="4" t="s">
-        <v>757</v>
+        <v>755</v>
       </c>
       <c r="I201" t="s">
         <v>132</v>
@@ -13417,22 +13417,22 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C202" t="s">
-        <v>1131</v>
+        <v>1129</v>
       </c>
       <c r="D202" t="s">
         <v>216</v>
       </c>
       <c r="E202" t="s">
-        <v>1145</v>
+        <v>1143</v>
       </c>
       <c r="F202" t="s">
-        <v>1135</v>
+        <v>1133</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H202" s="4" t="s">
-        <v>758</v>
+        <v>756</v>
       </c>
       <c r="I202" t="s">
         <v>132</v>
@@ -13447,22 +13447,22 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C203" t="s">
-        <v>1128</v>
+        <v>1126</v>
       </c>
       <c r="D203" t="s">
         <v>209</v>
       </c>
       <c r="E203" t="s">
-        <v>1146</v>
+        <v>1144</v>
       </c>
       <c r="F203" t="s">
-        <v>1136</v>
+        <v>1134</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H203" s="4" t="s">
-        <v>759</v>
+        <v>757</v>
       </c>
       <c r="I203" t="s">
         <v>132</v>
@@ -13483,16 +13483,16 @@
         <v>210</v>
       </c>
       <c r="E204" t="s">
-        <v>1147</v>
+        <v>1145</v>
       </c>
       <c r="F204" t="s">
-        <v>1137</v>
+        <v>1135</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H204" s="4" t="s">
-        <v>760</v>
+        <v>758</v>
       </c>
       <c r="I204" t="s">
         <v>132</v>
@@ -13513,16 +13513,16 @@
         <v>218</v>
       </c>
       <c r="E205" t="s">
-        <v>1148</v>
+        <v>1146</v>
       </c>
       <c r="F205" t="s">
-        <v>1138</v>
+        <v>1136</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H205" s="4" t="s">
-        <v>761</v>
+        <v>759</v>
       </c>
       <c r="I205" t="s">
         <v>132</v>
@@ -13537,22 +13537,22 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C206" t="s">
-        <v>1130</v>
+        <v>1128</v>
       </c>
       <c r="D206" t="s">
         <v>211</v>
       </c>
       <c r="E206" t="s">
-        <v>1076</v>
+        <v>1074</v>
       </c>
       <c r="F206" t="s">
-        <v>1139</v>
+        <v>1137</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H206" s="4" t="s">
-        <v>762</v>
+        <v>760</v>
       </c>
       <c r="I206" t="s">
         <v>132</v>
@@ -13573,16 +13573,16 @@
         <v>143</v>
       </c>
       <c r="E207" t="s">
-        <v>1149</v>
+        <v>1147</v>
       </c>
       <c r="F207" t="s">
-        <v>1140</v>
+        <v>1138</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H207" s="4" t="s">
-        <v>763</v>
+        <v>761</v>
       </c>
       <c r="I207" t="s">
         <v>132</v>
@@ -13603,16 +13603,16 @@
         <v>212</v>
       </c>
       <c r="E208" t="s">
-        <v>1150</v>
+        <v>1148</v>
       </c>
       <c r="F208" t="s">
-        <v>1141</v>
+        <v>1139</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H208" s="4" t="s">
-        <v>764</v>
+        <v>762</v>
       </c>
       <c r="I208" t="s">
         <v>132</v>
@@ -13633,16 +13633,16 @@
         <v>215</v>
       </c>
       <c r="E209" t="s">
-        <v>1151</v>
+        <v>1149</v>
       </c>
       <c r="F209" t="s">
-        <v>1142</v>
+        <v>1140</v>
       </c>
       <c r="G209" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H209" s="4" t="s">
-        <v>765</v>
+        <v>763</v>
       </c>
       <c r="I209" t="s">
         <v>132</v>
@@ -13657,13 +13657,13 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C210" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="D210" t="s">
         <v>171</v>
       </c>
       <c r="E210" t="s">
-        <v>1007</v>
+        <v>1005</v>
       </c>
       <c r="F210" t="s">
         <v>499</v>
@@ -13672,7 +13672,7 @@
         <v>337</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>766</v>
+        <v>764</v>
       </c>
       <c r="I210" t="s">
         <v>231</v>
@@ -13687,13 +13687,13 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C211" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="D211" t="s">
         <v>221</v>
       </c>
       <c r="E211" t="s">
-        <v>1008</v>
+        <v>1006</v>
       </c>
       <c r="F211" t="s">
         <v>500</v>
@@ -13702,7 +13702,7 @@
         <v>337</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>767</v>
+        <v>765</v>
       </c>
       <c r="I211" t="s">
         <v>231</v>
@@ -13723,16 +13723,16 @@
         <v>224</v>
       </c>
       <c r="E212" t="s">
-        <v>1110</v>
+        <v>1108</v>
       </c>
       <c r="F212" t="s">
-        <v>1109</v>
+        <v>1107</v>
       </c>
       <c r="G212" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H212" s="4" t="s">
-        <v>768</v>
+        <v>766</v>
       </c>
       <c r="I212" t="s">
         <v>223</v>
@@ -13753,16 +13753,16 @@
         <v>225</v>
       </c>
       <c r="E213" t="s">
-        <v>1108</v>
+        <v>1106</v>
       </c>
       <c r="F213" t="s">
-        <v>1107</v>
+        <v>1105</v>
       </c>
       <c r="G213" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H213" s="4" t="s">
-        <v>769</v>
+        <v>767</v>
       </c>
       <c r="I213" t="s">
         <v>530</v>
@@ -13783,16 +13783,16 @@
         <v>227</v>
       </c>
       <c r="E214" t="s">
-        <v>1106</v>
+        <v>1104</v>
       </c>
       <c r="F214" t="s">
-        <v>1105</v>
+        <v>1103</v>
       </c>
       <c r="G214" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H214" s="4" t="s">
-        <v>770</v>
+        <v>768</v>
       </c>
       <c r="I214" t="s">
         <v>226</v>
@@ -13813,16 +13813,16 @@
         <v>232</v>
       </c>
       <c r="E215" t="s">
-        <v>1101</v>
+        <v>1099</v>
       </c>
       <c r="F215" t="s">
-        <v>1100</v>
+        <v>1098</v>
       </c>
       <c r="G215" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H215" s="11" t="s">
-        <v>771</v>
+        <v>769</v>
       </c>
       <c r="I215" t="s">
         <v>231</v>
@@ -13843,16 +13843,16 @@
         <v>230</v>
       </c>
       <c r="E216" t="s">
-        <v>1103</v>
+        <v>1101</v>
       </c>
       <c r="F216" t="s">
-        <v>1102</v>
+        <v>1100</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H216" s="4" t="s">
-        <v>772</v>
+        <v>770</v>
       </c>
       <c r="I216" t="s">
         <v>229</v>
@@ -13876,13 +13876,13 @@
         <v>133</v>
       </c>
       <c r="F217" t="s">
-        <v>1104</v>
+        <v>1102</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H217" s="4" t="s">
-        <v>773</v>
+        <v>771</v>
       </c>
       <c r="I217" t="s">
         <v>132</v>
@@ -13897,7 +13897,7 @@
         <v>UtilityNetworkTypeIMKLValue</v>
       </c>
       <c r="C218" t="s">
-        <v>1041</v>
+        <v>1039</v>
       </c>
       <c r="D218" t="s">
         <v>233</v>
@@ -13912,7 +13912,7 @@
         <v>337</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="I218" t="s">
         <v>531</v>
@@ -13933,7 +13933,7 @@
         <v>237</v>
       </c>
       <c r="E219" t="s">
-        <v>1032</v>
+        <v>1030</v>
       </c>
       <c r="F219" t="s">
         <v>512</v>
@@ -13942,7 +13942,7 @@
         <v>337</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="I219" t="s">
         <v>229</v>
@@ -13963,7 +13963,7 @@
         <v>235</v>
       </c>
       <c r="E220" t="s">
-        <v>1033</v>
+        <v>1031</v>
       </c>
       <c r="F220" t="s">
         <v>513</v>
@@ -13972,7 +13972,7 @@
         <v>337</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="I220" t="s">
         <v>229</v>
@@ -13993,7 +13993,7 @@
         <v>236</v>
       </c>
       <c r="E221" t="s">
-        <v>1034</v>
+        <v>1032</v>
       </c>
       <c r="F221" t="s">
         <v>514</v>
@@ -14002,7 +14002,7 @@
         <v>337</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="I221" t="s">
         <v>229</v>
@@ -14017,13 +14017,13 @@
         <v>ConditionOfFacilityValue</v>
       </c>
       <c r="C222" t="s">
-        <v>1057</v>
+        <v>1055</v>
       </c>
       <c r="D222" t="s">
         <v>240</v>
       </c>
       <c r="E222" t="s">
-        <v>1061</v>
+        <v>1059</v>
       </c>
       <c r="F222" t="s">
         <v>555</v>
@@ -14032,7 +14032,7 @@
         <v>94</v>
       </c>
       <c r="H222" s="4" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="I222" t="s">
         <v>531</v>
@@ -14047,13 +14047,13 @@
         <v>ConditionOfFacilityValue</v>
       </c>
       <c r="C223" t="s">
-        <v>1058</v>
+        <v>1056</v>
       </c>
       <c r="D223" t="s">
         <v>238</v>
       </c>
       <c r="E223" t="s">
-        <v>1062</v>
+        <v>1060</v>
       </c>
       <c r="F223" s="14" t="s">
         <v>554</v>
@@ -14062,7 +14062,7 @@
         <v>94</v>
       </c>
       <c r="H223" s="4" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="I223" t="s">
         <v>531</v>
@@ -14077,13 +14077,13 @@
         <v>ConditionOfFacilityValue</v>
       </c>
       <c r="C224" t="s">
-        <v>1059</v>
+        <v>1057</v>
       </c>
       <c r="D224" t="s">
         <v>239</v>
       </c>
       <c r="E224" t="s">
-        <v>1063</v>
+        <v>1061</v>
       </c>
       <c r="F224" t="s">
         <v>556</v>
@@ -14092,7 +14092,7 @@
         <v>94</v>
       </c>
       <c r="H224" s="4" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="I224" t="s">
         <v>531</v>
@@ -14107,13 +14107,13 @@
         <v>ConditionOfFacilityValue</v>
       </c>
       <c r="C225" t="s">
-        <v>1060</v>
+        <v>1058</v>
       </c>
       <c r="D225" t="s">
         <v>537</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>1064</v>
+        <v>1062</v>
       </c>
       <c r="F225" s="4" t="s">
         <v>557</v>
@@ -14122,7 +14122,7 @@
         <v>253</v>
       </c>
       <c r="H225" s="4" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="I225" t="s">
         <v>531</v>
@@ -14137,22 +14137,22 @@
         <v>VerticalPositionValue</v>
       </c>
       <c r="C226" t="s">
-        <v>1111</v>
+        <v>1109</v>
       </c>
       <c r="D226" t="s">
         <v>242</v>
       </c>
       <c r="E226" t="s">
-        <v>1115</v>
+        <v>1113</v>
       </c>
       <c r="F226" t="s">
-        <v>1114</v>
+        <v>1112</v>
       </c>
       <c r="G226" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H226" s="4" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="I226" t="s">
         <v>531</v>
@@ -14167,22 +14167,22 @@
         <v>VerticalPositionValue</v>
       </c>
       <c r="C227" t="s">
-        <v>1112</v>
+        <v>1110</v>
       </c>
       <c r="D227" t="s">
         <v>243</v>
       </c>
       <c r="E227" t="s">
-        <v>1117</v>
+        <v>1115</v>
       </c>
       <c r="F227" t="s">
-        <v>1116</v>
+        <v>1114</v>
       </c>
       <c r="G227" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H227" s="4" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="I227" t="s">
         <v>531</v>
@@ -14197,22 +14197,22 @@
         <v>VerticalPositionValue</v>
       </c>
       <c r="C228" t="s">
-        <v>1113</v>
+        <v>1111</v>
       </c>
       <c r="D228" t="s">
         <v>244</v>
       </c>
       <c r="E228" t="s">
-        <v>1118</v>
+        <v>1116</v>
       </c>
       <c r="F228" t="s">
-        <v>1119</v>
+        <v>1117</v>
       </c>
       <c r="G228" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H228" s="4" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="I228" t="s">
         <v>531</v>
@@ -14338,7 +14338,7 @@
         <v>541</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>997</v>
+        <v>995</v>
       </c>
       <c r="F234" s="4" t="s">
         <v>487</v>
@@ -14347,7 +14347,7 @@
         <v>253</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="I234" t="s">
         <v>531</v>
@@ -14377,7 +14377,7 @@
         <v>253</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="I235" t="s">
         <v>531</v>
@@ -14407,7 +14407,7 @@
         <v>253</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I236" t="s">
         <v>531</v>
@@ -14428,7 +14428,7 @@
         <v>549</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>998</v>
+        <v>996</v>
       </c>
       <c r="F237" s="4" t="s">
         <v>490</v>
@@ -14437,7 +14437,7 @@
         <v>253</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="I237" t="s">
         <v>531</v>
@@ -14458,7 +14458,7 @@
         <v>550</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>999</v>
+        <v>997</v>
       </c>
       <c r="F238" s="4" t="s">
         <v>491</v>
@@ -14467,7 +14467,7 @@
         <v>253</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>789</v>
+        <v>787</v>
       </c>
       <c r="I238" t="s">
         <v>531</v>
@@ -14488,7 +14488,7 @@
         <v>545</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>1000</v>
+        <v>998</v>
       </c>
       <c r="F239" s="4" t="s">
         <v>492</v>
@@ -14497,7 +14497,7 @@
         <v>253</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>790</v>
+        <v>788</v>
       </c>
       <c r="I239" t="s">
         <v>531</v>
@@ -14518,7 +14518,7 @@
         <v>546</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>1001</v>
+        <v>999</v>
       </c>
       <c r="F240" s="4" t="s">
         <v>493</v>
@@ -14527,7 +14527,7 @@
         <v>253</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>791</v>
+        <v>789</v>
       </c>
       <c r="I240" t="s">
         <v>531</v>
@@ -14548,7 +14548,7 @@
         <v>547</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>1002</v>
+        <v>1000</v>
       </c>
       <c r="F241" s="4" t="s">
         <v>494</v>
@@ -14557,7 +14557,7 @@
         <v>253</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>792</v>
+        <v>790</v>
       </c>
       <c r="I241" t="s">
         <v>531</v>
@@ -14578,7 +14578,7 @@
         <v>542</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>1003</v>
+        <v>1001</v>
       </c>
       <c r="F242" s="4" t="s">
         <v>495</v>
@@ -14587,7 +14587,7 @@
         <v>253</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>793</v>
+        <v>791</v>
       </c>
       <c r="I242" t="s">
         <v>531</v>
@@ -14608,7 +14608,7 @@
         <v>548</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>1004</v>
+        <v>1002</v>
       </c>
       <c r="F243" s="4" t="s">
         <v>496</v>
@@ -14617,7 +14617,7 @@
         <v>253</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>794</v>
+        <v>792</v>
       </c>
       <c r="I243" t="s">
         <v>531</v>
@@ -14632,13 +14632,13 @@
         <v>VisibilityTypeValue</v>
       </c>
       <c r="C244" t="s">
+        <v>1040</v>
+      </c>
+      <c r="D244" t="s">
+        <v>1040</v>
+      </c>
+      <c r="E244" s="4" t="s">
         <v>1042</v>
-      </c>
-      <c r="D244" t="s">
-        <v>1042</v>
-      </c>
-      <c r="E244" s="4" t="s">
-        <v>1044</v>
       </c>
       <c r="F244" s="4" t="s">
         <v>521</v>
@@ -14647,7 +14647,7 @@
         <v>253</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>795</v>
+        <v>793</v>
       </c>
       <c r="I244" t="s">
         <v>531</v>
@@ -14662,13 +14662,13 @@
         <v>VisibilityTypeValue</v>
       </c>
       <c r="C245" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D245" t="s">
+        <v>1041</v>
+      </c>
+      <c r="E245" s="4" t="s">
         <v>1043</v>
-      </c>
-      <c r="D245" t="s">
-        <v>1043</v>
-      </c>
-      <c r="E245" s="4" t="s">
-        <v>1045</v>
       </c>
       <c r="F245" s="4" t="s">
         <v>522</v>
@@ -14677,7 +14677,7 @@
         <v>253</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>796</v>
+        <v>794</v>
       </c>
       <c r="I245" t="s">
         <v>531</v>
@@ -14692,13 +14692,13 @@
         <v>ReferenceSurfaceTypeValue</v>
       </c>
       <c r="C246" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="D246" t="s">
-        <v>973</v>
+        <v>971</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>974</v>
+        <v>972</v>
       </c>
       <c r="F246" s="4" t="s">
         <v>473</v>
@@ -14707,7 +14707,7 @@
         <v>253</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>797</v>
+        <v>795</v>
       </c>
       <c r="I246" t="s">
         <v>531</v>
@@ -14728,7 +14728,7 @@
         <v>538</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>835</v>
+        <v>833</v>
       </c>
       <c r="F247" s="4" t="s">
         <v>372</v>
@@ -14737,7 +14737,7 @@
         <v>253</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>798</v>
+        <v>796</v>
       </c>
       <c r="I247" t="s">
         <v>531</v>
@@ -14758,7 +14758,7 @@
         <v>539</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>836</v>
+        <v>834</v>
       </c>
       <c r="F248" s="4" t="s">
         <v>373</v>
@@ -14767,7 +14767,7 @@
         <v>253</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>799</v>
+        <v>797</v>
       </c>
       <c r="I248" t="s">
         <v>531</v>
@@ -14788,7 +14788,7 @@
         <v>540</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>837</v>
+        <v>835</v>
       </c>
       <c r="F249" s="4" t="s">
         <v>374</v>
@@ -14797,7 +14797,7 @@
         <v>253</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>800</v>
+        <v>798</v>
       </c>
       <c r="I249" t="s">
         <v>531</v>
@@ -14818,7 +14818,7 @@
         <v>179</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>838</v>
+        <v>836</v>
       </c>
       <c r="F250" s="4" t="s">
         <v>375</v>
@@ -14827,7 +14827,7 @@
         <v>253</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>801</v>
+        <v>799</v>
       </c>
       <c r="I250" t="s">
         <v>531</v>
@@ -14839,9 +14839,11 @@
     <hyperlink ref="H180" r:id="rId1" xr:uid="{937649D5-206B-4F0F-AC39-B248CB8B3379}"/>
     <hyperlink ref="H215" r:id="rId2" xr:uid="{58EA29A0-45FB-4990-9EF7-62E6622DF2D7}"/>
     <hyperlink ref="H176" r:id="rId3" xr:uid="{C88BA0AA-E539-4613-B0E2-CF257D7FDA97}"/>
+    <hyperlink ref="H56" r:id="rId4" xr:uid="{1F1F5C28-1BDF-47D0-B346-A07AEBB91FE4}"/>
+    <hyperlink ref="H57" r:id="rId5" xr:uid="{D4697982-2693-4411-94C5-21CE77B430F4}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId4"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
 </worksheet>
 </file>
 

--- a/implementation/Documentation/IMKL3_Codelists.xlsx
+++ b/implementation/Documentation/IMKL3_Codelists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\ICEGthema-imkl\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DE92BAD3-B185-44FA-984C-958DDF2D84D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E46885-E336-4888-B931-B1B61364A650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" activeTab="2" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -1061,9 +1061,6 @@
     <t>ThermalProductTypeValue</t>
   </si>
   <si>
-    <t>https://inspire.ec.europa.eu/codelist/VerticalPositionValue</t>
-  </si>
-  <si>
     <t>Moved to IMKL specific list</t>
   </si>
   <si>
@@ -2085,9 +2082,6 @@
     <t>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue/measurementPoint</t>
   </si>
   <si>
-    <t>https://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</t>
-  </si>
-  <si>
     <t>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue/geotextile</t>
   </si>
   <si>
@@ -2235,144 +2229,21 @@
     <t>https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue/twistedPair</t>
   </si>
   <si>
-    <t>https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/combined</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/reclaimed</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/sanitary</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/storm</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/WaterTypeValue/potable</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/WaterTypeValue/raw</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/WaterTypeValue/salt</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/WaterTypeValue/treated</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/collection</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/distribution</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/private</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/transport</t>
-  </si>
-  <si>
     <t>https://vocab.belgif.be/auth/IMKL-UtilityDeliveryTypeIMKLValue/connection</t>
   </si>
   <si>
-    <t>https://inspire.ec.europa.eu/codelist/WarningTypeValue/net</t>
-  </si>
-  <si>
     <t>https://vocab.belgif.be/auth/IMKL-WarningTypeIMKLValue/protectivePlate</t>
   </si>
   <si>
-    <t>https://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure</t>
-  </si>
-  <si>
     <t>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue/treatmentSystem</t>
   </si>
   <si>
-    <t>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/pump</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/sewerNode</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fountain</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/hydrant</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pump</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/systemValve</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/thrustProtection</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</t>
-  </si>
-  <si>
     <t>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/splitter</t>
   </si>
   <si>
     <t>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue/termination</t>
   </si>
   <si>
-    <t>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/electricity</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/sewer</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/telecommunications</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/thermal</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/water</t>
-  </si>
-  <si>
     <t>https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue/crossTheme</t>
   </si>
   <si>
@@ -2385,27 +2256,6 @@
     <t>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue/heatingWater</t>
   </si>
   <si>
-    <t>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/underConstruction</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/onGroundSurface</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/suspendedOrElevated</t>
-  </si>
-  <si>
-    <t>https://inspire.ec.europa.eu/codelist/VerticalPositionValue/underground</t>
-  </si>
-  <si>
     <t>https://vocab.belgif.be/auth/IMKL-SurveyMethodValue/digitizedPlan</t>
   </si>
   <si>
@@ -3550,6 +3400,156 @@
   </si>
   <si>
     <t>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue/butadiene1_3</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/WarningTypeValue/concretePaving</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/combined</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/reclaimed</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/sanitary</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue/storm</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/WaterTypeValue/potable</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/WaterTypeValue/raw</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/WaterTypeValue/salt</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/WaterTypeValue/treated</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/collection</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/distribution</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/private</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue/transport</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/WarningTypeValue/net</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/WarningTypeValue/tape</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/deliveryPoint</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue/streetLight</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/deliveryPoint</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/marker</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue/oilGasChemicalsNode</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/catchBasin</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/dischargeStructure</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/pump</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/sewerNode</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue/tideGate</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/airRelieveValve</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/checkValve</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fireHydrant</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/fountain</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/hydrant</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/meter</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pressureController</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/pump</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/systemValve</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/thrustProtection</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue/waterExhaustPoint</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/electricity</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/oilGasChemical</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/sewer</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/telecommunications</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/thermal</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue/water</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/disused</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/functional</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/projected</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue/underConstruction</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/VerticalPositionValue/onGroundSurface</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/VerticalPositionValue/suspendedOrElevated</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/VerticalPositionValue/underground</t>
+  </si>
+  <si>
+    <t>http://inspire.ec.europa.eu/codelist/VerticalPositionValue</t>
   </si>
 </sst>
 </file>
@@ -4019,8 +4019,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12F05A2-F84B-4BFA-ADF4-7302F1870D77}">
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -4113,7 +4113,7 @@
         <v>314</v>
       </c>
       <c r="F2" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
     </row>
     <row r="3" spans="1:28">
@@ -4131,10 +4131,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-AnnotationTypeValue</v>
       </c>
       <c r="E3" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="F3" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
     </row>
     <row r="4" spans="1:28">
@@ -4148,14 +4148,14 @@
         <v>94</v>
       </c>
       <c r="D4" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B4</f>
-        <v>https://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue</v>
+        <f>"http://inspire.ec.europa.eu/codelist/" &amp; B4</f>
+        <v>http://inspire.ec.europa.eu/codelist/ConditionOfFacilityValue</v>
       </c>
       <c r="E4" t="s">
         <v>328</v>
       </c>
       <c r="F4" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
     </row>
     <row r="5" spans="1:28">
@@ -4173,7 +4173,7 @@
         <v>334</v>
       </c>
       <c r="F5" t="s">
-        <v>1162</v>
+        <v>1112</v>
       </c>
     </row>
     <row r="6" spans="1:28">
@@ -4191,10 +4191,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-ContainerTypeValue</v>
       </c>
       <c r="E6" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="F6" t="s">
-        <v>800</v>
+        <v>750</v>
       </c>
     </row>
     <row r="7" spans="1:28">
@@ -4212,10 +4212,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentMediaTypeValue</v>
       </c>
       <c r="E7" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="F7" t="s">
-        <v>801</v>
+        <v>751</v>
       </c>
     </row>
     <row r="8" spans="1:28">
@@ -4233,10 +4233,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-DocumentTypeValue</v>
       </c>
       <c r="E8" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="F8" t="s">
-        <v>802</v>
+        <v>752</v>
       </c>
     </row>
     <row r="9" spans="1:28">
@@ -4257,7 +4257,7 @@
         <v>329</v>
       </c>
       <c r="F9" t="s">
-        <v>811</v>
+        <v>761</v>
       </c>
     </row>
     <row r="10" spans="1:28">
@@ -4271,14 +4271,14 @@
         <v>55</v>
       </c>
       <c r="D10" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B10</f>
-        <v>https://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue</v>
+        <f>"http://inspire.ec.europa.eu/codelist/" &amp; B10</f>
+        <v>http://inspire.ec.europa.eu/codelist/ElectricityAppurtenanceTypeValue</v>
       </c>
       <c r="E10" t="s">
         <v>329</v>
       </c>
       <c r="F10" t="s">
-        <v>811</v>
+        <v>761</v>
       </c>
     </row>
     <row r="11" spans="1:28">
@@ -4296,10 +4296,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-ElectricitySubthemeValue</v>
       </c>
       <c r="E11" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="F11" t="s">
-        <v>812</v>
+        <v>762</v>
       </c>
     </row>
     <row r="12" spans="1:28">
@@ -4317,10 +4317,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-MaterialTypeValue</v>
       </c>
       <c r="E12" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="F12" t="s">
-        <v>813</v>
+        <v>763</v>
       </c>
     </row>
     <row r="13" spans="1:28">
@@ -4352,7 +4352,7 @@
         <v>330</v>
       </c>
       <c r="F14" t="s">
-        <v>814</v>
+        <v>764</v>
       </c>
     </row>
     <row r="15" spans="1:28">
@@ -4366,14 +4366,14 @@
         <v>55</v>
       </c>
       <c r="D15" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B15</f>
-        <v>https://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue</v>
+        <f>"http://inspire.ec.europa.eu/codelist/" &amp; B15</f>
+        <v>http://inspire.ec.europa.eu/codelist/OilGasChemicalsAppurtenanceTypeValue</v>
       </c>
       <c r="E15" t="s">
         <v>330</v>
       </c>
       <c r="F15" t="s">
-        <v>814</v>
+        <v>764</v>
       </c>
     </row>
     <row r="16" spans="1:28">
@@ -4391,10 +4391,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="E16" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="F16" t="s">
-        <v>815</v>
+        <v>765</v>
       </c>
     </row>
     <row r="17" spans="1:6">
@@ -4412,10 +4412,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-OilGasChemicalsSubthemeValue</v>
       </c>
       <c r="E17" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="F17" t="s">
-        <v>816</v>
+        <v>766</v>
       </c>
     </row>
     <row r="18" spans="1:6">
@@ -4433,10 +4433,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-ProtectedAreaTypeValue</v>
       </c>
       <c r="E18" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="F18" t="s">
-        <v>803</v>
+        <v>753</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -4451,10 +4451,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-ReferenceSurfaceTypeValue</v>
       </c>
       <c r="E19" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="F19" t="s">
-        <v>804</v>
+        <v>754</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -4472,10 +4472,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E20" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F20" t="s">
-        <v>817</v>
+        <v>767</v>
       </c>
     </row>
     <row r="21" spans="1:6">
@@ -4489,14 +4489,14 @@
         <v>55</v>
       </c>
       <c r="D21" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B21</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue</v>
+        <f>"http://inspire.ec.europa.eu/codelist/" &amp; B21</f>
+        <v>http://inspire.ec.europa.eu/codelist/SewerAppurtenanceTypeValue</v>
       </c>
       <c r="E21" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="F21" t="s">
-        <v>817</v>
+        <v>767</v>
       </c>
     </row>
     <row r="22" spans="1:6">
@@ -4514,10 +4514,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-SewerSubthemeValue</v>
       </c>
       <c r="E22" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="F22" t="s">
-        <v>818</v>
+        <v>768</v>
       </c>
     </row>
     <row r="23" spans="1:6">
@@ -4531,14 +4531,14 @@
         <v>55</v>
       </c>
       <c r="D23" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B23</f>
-        <v>https://inspire.ec.europa.eu/codelist/SewerWaterTypeValue</v>
+        <f>"http://inspire.ec.europa.eu/codelist/" &amp; B23</f>
+        <v>http://inspire.ec.europa.eu/codelist/SewerWaterTypeValue</v>
       </c>
       <c r="E23" t="s">
         <v>331</v>
       </c>
       <c r="F23" t="s">
-        <v>805</v>
+        <v>755</v>
       </c>
     </row>
     <row r="24" spans="1:6">
@@ -4556,7 +4556,7 @@
         <v>332</v>
       </c>
       <c r="F24" t="s">
-        <v>822</v>
+        <v>772</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -4567,7 +4567,7 @@
         <v>219</v>
       </c>
       <c r="C25" s="12" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="26" spans="1:6">
@@ -4585,10 +4585,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E26" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="F26" t="s">
-        <v>823</v>
+        <v>773</v>
       </c>
     </row>
     <row r="27" spans="1:6">
@@ -4596,20 +4596,20 @@
         <v>175</v>
       </c>
       <c r="B27" t="s">
+        <v>338</v>
+      </c>
+      <c r="C27" s="8" t="s">
         <v>339</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>340</v>
       </c>
       <c r="D27" s="4" t="str">
         <f>"https://vocab.belgif.be/auth/IMKL-" &amp; B27</f>
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue</v>
       </c>
       <c r="E27" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="F27" t="s">
-        <v>824</v>
+        <v>774</v>
       </c>
     </row>
     <row r="28" spans="1:6">
@@ -4627,10 +4627,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-TelecommunicationsSubthemeValue</v>
       </c>
       <c r="E28" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="F28" t="s">
-        <v>819</v>
+        <v>769</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -4648,10 +4648,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E29" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="F29" t="s">
-        <v>825</v>
+        <v>775</v>
       </c>
     </row>
     <row r="30" spans="1:6">
@@ -4669,10 +4669,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-ThermalProductTypeIMKLValue</v>
       </c>
       <c r="E30" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="F30" t="s">
-        <v>826</v>
+        <v>776</v>
       </c>
     </row>
     <row r="31" spans="1:6">
@@ -4683,7 +4683,7 @@
         <v>335</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
     </row>
     <row r="32" spans="1:6">
@@ -4701,15 +4701,15 @@
         <v>https://vocab.belgif.be/auth/IMKL-ThermalSubthemeValue</v>
       </c>
       <c r="E32" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="F32" t="s">
-        <v>820</v>
+        <v>770</v>
       </c>
     </row>
     <row r="33" spans="1:6">
       <c r="B33" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="C33" s="4" t="s">
         <v>253</v>
@@ -4722,7 +4722,7 @@
         <v>319</v>
       </c>
       <c r="F33" t="s">
-        <v>806</v>
+        <v>756</v>
       </c>
     </row>
     <row r="34" spans="1:6">
@@ -4736,19 +4736,19 @@
         <v>55</v>
       </c>
       <c r="D34" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B34</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue</v>
+        <f>"http://inspire.ec.europa.eu/codelist/" &amp; B34</f>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityDeliveryTypeValue</v>
       </c>
       <c r="E34" t="s">
         <v>319</v>
       </c>
       <c r="F34" t="s">
-        <v>806</v>
+        <v>756</v>
       </c>
     </row>
     <row r="35" spans="1:6">
       <c r="B35" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="C35" s="4" t="s">
         <v>253</v>
@@ -4761,7 +4761,7 @@
         <v>321</v>
       </c>
       <c r="F35" t="s">
-        <v>807</v>
+        <v>757</v>
       </c>
     </row>
     <row r="36" spans="1:6">
@@ -4775,14 +4775,14 @@
         <v>55</v>
       </c>
       <c r="D36" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B36</f>
-        <v>https://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue</v>
+        <f>"http://inspire.ec.europa.eu/codelist/" &amp; B36</f>
+        <v>http://inspire.ec.europa.eu/codelist/UtilityNetworkTypeValue</v>
       </c>
       <c r="E36" t="s">
         <v>321</v>
       </c>
       <c r="F36" t="s">
-        <v>807</v>
+        <v>757</v>
       </c>
     </row>
     <row r="37" spans="1:6">
@@ -4795,14 +4795,14 @@
       <c r="C37" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="D37" s="4" t="s">
-        <v>336</v>
+      <c r="D37" s="11" t="s">
+        <v>1164</v>
       </c>
       <c r="E37" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="F37" t="s">
-        <v>827</v>
+        <v>777</v>
       </c>
     </row>
     <row r="38" spans="1:6">
@@ -4820,7 +4820,7 @@
         <v>333</v>
       </c>
       <c r="F38" t="s">
-        <v>808</v>
+        <v>758</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -4841,7 +4841,7 @@
         <v>324</v>
       </c>
       <c r="F39" t="s">
-        <v>809</v>
+        <v>759</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -4855,14 +4855,14 @@
         <v>55</v>
       </c>
       <c r="D40" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B40</f>
-        <v>https://inspire.ec.europa.eu/codelist/WarningTypeValue</v>
+        <f>"http://inspire.ec.europa.eu/codelist/" &amp; B40</f>
+        <v>http://inspire.ec.europa.eu/codelist/WarningTypeValue</v>
       </c>
       <c r="E40" t="s">
         <v>324</v>
       </c>
       <c r="F40" t="s">
-        <v>809</v>
+        <v>759</v>
       </c>
     </row>
     <row r="41" spans="1:6">
@@ -4880,10 +4880,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="E41" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F41" t="s">
-        <v>828</v>
+        <v>778</v>
       </c>
     </row>
     <row r="42" spans="1:6">
@@ -4897,14 +4897,14 @@
         <v>55</v>
       </c>
       <c r="D42" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B42</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue</v>
+        <f>"http://inspire.ec.europa.eu/codelist/" &amp; B42</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterAppurtenanceTypeValue</v>
       </c>
       <c r="E42" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="F42" t="s">
-        <v>828</v>
+        <v>778</v>
       </c>
     </row>
     <row r="43" spans="1:6">
@@ -4922,10 +4922,10 @@
         <v>https://vocab.belgif.be/auth/IMKL-WaterSubthemeValue</v>
       </c>
       <c r="E43" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="F43" t="s">
-        <v>821</v>
+        <v>771</v>
       </c>
     </row>
     <row r="44" spans="1:6">
@@ -4939,14 +4939,14 @@
         <v>55</v>
       </c>
       <c r="D44" s="4" t="str">
-        <f>"https://inspire.ec.europa.eu/codelist/" &amp; B44</f>
-        <v>https://inspire.ec.europa.eu/codelist/WaterTypeValue</v>
+        <f>"http://inspire.ec.europa.eu/codelist/" &amp; B44</f>
+        <v>http://inspire.ec.europa.eu/codelist/WaterTypeValue</v>
       </c>
       <c r="E44" t="s">
         <v>326</v>
       </c>
       <c r="F44" t="s">
-        <v>810</v>
+        <v>760</v>
       </c>
     </row>
     <row r="45" spans="1:6">
@@ -5015,9 +5015,10 @@
     <hyperlink ref="D27" r:id="rId37" display="https://vocab.belgif.be/auth/IMKL-TelecommunicationsCableMaterialTypeIMKLValue" xr:uid="{DE4AAE5E-7909-4C75-9F9D-5357B115F0C9}"/>
     <hyperlink ref="D35" r:id="rId38" display="https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue" xr:uid="{A081DBA0-097F-42F0-B121-8F402379F3E3}"/>
     <hyperlink ref="D33" r:id="rId39" display="https://vocab.belgif.be/auth/IMKL-UtilityNetworkTypeIMKLValue" xr:uid="{EBB32CD7-9307-4BC6-BCE5-327B4F032DB6}"/>
+    <hyperlink ref="D37" r:id="rId40" xr:uid="{B2C7AE6C-37E4-4AA9-ADC6-536DF964E301}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId40"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId41"/>
 </worksheet>
 </file>
 
@@ -5143,7 +5144,7 @@
     </row>
     <row r="8" spans="1:4">
       <c r="A8" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B8" t="s">
         <v>288</v>
@@ -5308,7 +5309,7 @@
     </row>
     <row r="19" spans="1:4">
       <c r="A19" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B19" t="s">
         <v>305</v>
@@ -5593,7 +5594,7 @@
     </row>
     <row r="38" spans="1:4">
       <c r="A38" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B38" t="s">
         <v>264</v>
@@ -5638,7 +5639,7 @@
     </row>
     <row r="41" spans="1:4">
       <c r="A41" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B41" t="s">
         <v>280</v>
@@ -5896,7 +5897,7 @@
         <v>295</v>
       </c>
       <c r="B58" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="C58" t="s">
         <v>9</v>
@@ -6094,7 +6095,7 @@
         <v>282</v>
       </c>
       <c r="C71" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="D71" t="str">
         <f>VLOOKUP(C71,Overview!B:B,1,0)</f>
@@ -6274,7 +6275,7 @@
         <v>285</v>
       </c>
       <c r="C83" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D83" t="str">
         <f>VLOOKUP(C83,Overview!B:B,1,0)</f>
@@ -6283,13 +6284,13 @@
     </row>
     <row r="84" spans="1:4">
       <c r="A84" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B84" t="s">
         <v>285</v>
       </c>
       <c r="C84" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D84" t="str">
         <f>VLOOKUP(C84,Overview!B:B,1,0)</f>
@@ -6304,7 +6305,7 @@
         <v>285</v>
       </c>
       <c r="C85" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D85" t="str">
         <f>VLOOKUP(C85,Overview!B:B,1,0)</f>
@@ -6319,7 +6320,7 @@
         <v>285</v>
       </c>
       <c r="C86" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D86" t="str">
         <f>VLOOKUP(C86,Overview!B:B,1,0)</f>
@@ -6334,7 +6335,7 @@
         <v>285</v>
       </c>
       <c r="C87" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D87" t="str">
         <f>VLOOKUP(C87,Overview!B:B,1,0)</f>
@@ -6349,7 +6350,7 @@
         <v>285</v>
       </c>
       <c r="C88" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D88" t="str">
         <f>VLOOKUP(C88,Overview!B:B,1,0)</f>
@@ -6364,7 +6365,7 @@
         <v>285</v>
       </c>
       <c r="C89" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D89" t="str">
         <f>VLOOKUP(C89,Overview!B:B,1,0)</f>
@@ -6379,7 +6380,7 @@
         <v>285</v>
       </c>
       <c r="C90" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="D90" t="str">
         <f>VLOOKUP(C90,Overview!B:B,1,0)</f>
@@ -6403,7 +6404,7 @@
     </row>
     <row r="92" spans="1:4">
       <c r="A92" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B92" t="s">
         <v>285</v>
@@ -6514,7 +6515,7 @@
         <v>287</v>
       </c>
       <c r="C99" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="D99" t="str">
         <f>VLOOKUP(C99,Overview!B:B,1,0)</f>
@@ -6598,7 +6599,7 @@
     </row>
     <row r="105" spans="1:4">
       <c r="A105" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B105" t="s">
         <v>289</v>
@@ -6808,7 +6809,7 @@
     </row>
     <row r="119" spans="1:4">
       <c r="A119" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B119" t="s">
         <v>292</v>
@@ -6973,7 +6974,7 @@
     </row>
     <row r="130" spans="1:4">
       <c r="A130" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B130" t="s">
         <v>279</v>
@@ -7093,7 +7094,7 @@
     </row>
     <row r="138" spans="1:4">
       <c r="A138" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B138" t="s">
         <v>279</v>
@@ -7333,7 +7334,7 @@
     </row>
     <row r="154" spans="1:4">
       <c r="A154" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B154" t="s">
         <v>288</v>
@@ -7365,9 +7366,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}">
   <dimension ref="A1:I250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A23" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F98" sqref="F98"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="H258" sqref="H258"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -7387,7 +7388,7 @@
         <v>12</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>254</v>
@@ -7399,7 +7400,7 @@
         <v>255</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="G1" s="1" t="s">
         <v>257</v>
@@ -7408,7 +7409,7 @@
         <v>14</v>
       </c>
       <c r="I1" s="1" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
     </row>
     <row r="2" spans="1:9">
@@ -7420,22 +7421,22 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C2" t="s">
-        <v>854</v>
+        <v>804</v>
       </c>
       <c r="D2" t="s">
         <v>23</v>
       </c>
       <c r="E2" t="s">
-        <v>855</v>
+        <v>805</v>
       </c>
       <c r="F2" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="G2" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H2" s="4" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="I2" t="s">
         <v>223</v>
@@ -7450,13 +7451,13 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C3" t="s">
-        <v>850</v>
+        <v>800</v>
       </c>
       <c r="D3" t="s">
         <v>18</v>
       </c>
       <c r="E3" t="s">
-        <v>861</v>
+        <v>811</v>
       </c>
       <c r="F3" t="s">
         <v>18</v>
@@ -7465,7 +7466,7 @@
         <v>260</v>
       </c>
       <c r="H3" s="4" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="I3" t="s">
         <v>223</v>
@@ -7480,13 +7481,13 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C4" t="s">
-        <v>851</v>
+        <v>801</v>
       </c>
       <c r="D4" t="s">
         <v>19</v>
       </c>
       <c r="E4" t="s">
-        <v>856</v>
+        <v>806</v>
       </c>
       <c r="F4" t="s">
         <v>19</v>
@@ -7495,7 +7496,7 @@
         <v>260</v>
       </c>
       <c r="H4" s="4" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="I4" t="s">
         <v>223</v>
@@ -7516,16 +7517,16 @@
         <v>20</v>
       </c>
       <c r="E5" t="s">
-        <v>857</v>
+        <v>807</v>
       </c>
       <c r="F5" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="G5" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H5" s="4" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="I5" t="s">
         <v>223</v>
@@ -7540,22 +7541,22 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C6" t="s">
-        <v>853</v>
+        <v>803</v>
       </c>
       <c r="D6" t="s">
         <v>22</v>
       </c>
       <c r="E6" t="s">
-        <v>858</v>
+        <v>808</v>
       </c>
       <c r="F6" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="G6" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H6" s="4" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="I6" t="s">
         <v>223</v>
@@ -7570,22 +7571,22 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C7" t="s">
-        <v>852</v>
+        <v>802</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7" t="s">
-        <v>859</v>
+        <v>809</v>
       </c>
       <c r="F7" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="G7" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H7" s="4" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="I7" t="s">
         <v>223</v>
@@ -7600,13 +7601,13 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C8" t="s">
-        <v>848</v>
+        <v>798</v>
       </c>
       <c r="D8" t="s">
         <v>16</v>
       </c>
       <c r="E8" t="s">
-        <v>860</v>
+        <v>810</v>
       </c>
       <c r="F8" t="s">
         <v>16</v>
@@ -7615,7 +7616,7 @@
         <v>260</v>
       </c>
       <c r="H8" s="4" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="I8" t="s">
         <v>223</v>
@@ -7630,13 +7631,13 @@
         <v>ElectricitySubthemeValue</v>
       </c>
       <c r="C9" t="s">
-        <v>849</v>
+        <v>799</v>
       </c>
       <c r="D9" t="s">
         <v>17</v>
       </c>
       <c r="E9" t="s">
-        <v>862</v>
+        <v>812</v>
       </c>
       <c r="F9" s="5" t="s">
         <v>17</v>
@@ -7645,7 +7646,7 @@
         <v>260</v>
       </c>
       <c r="H9" s="4" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="I9" t="s">
         <v>223</v>
@@ -7660,22 +7661,22 @@
         <v>TelecommunicationsSubthemeValue</v>
       </c>
       <c r="C10" t="s">
-        <v>1012</v>
+        <v>962</v>
       </c>
       <c r="D10" t="s">
         <v>25</v>
       </c>
       <c r="E10" t="s">
-        <v>1015</v>
+        <v>965</v>
       </c>
       <c r="F10" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="G10" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H10" s="4" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="I10" t="s">
         <v>231</v>
@@ -7690,22 +7691,22 @@
         <v>TelecommunicationsSubthemeValue</v>
       </c>
       <c r="C11" t="s">
-        <v>1013</v>
+        <v>963</v>
       </c>
       <c r="D11" t="s">
         <v>26</v>
       </c>
       <c r="E11" t="s">
-        <v>1016</v>
+        <v>966</v>
       </c>
       <c r="F11" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="G11" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H11" s="4" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="I11" t="s">
         <v>231</v>
@@ -7720,22 +7721,22 @@
         <v>TelecommunicationsSubthemeValue</v>
       </c>
       <c r="C12" t="s">
-        <v>1014</v>
+        <v>964</v>
       </c>
       <c r="D12" t="s">
         <v>27</v>
       </c>
       <c r="E12" t="s">
-        <v>1017</v>
+        <v>967</v>
       </c>
       <c r="F12" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H12" s="4" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="I12" t="s">
         <v>231</v>
@@ -7750,25 +7751,25 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
       <c r="C13" t="s">
-        <v>949</v>
+        <v>899</v>
       </c>
       <c r="D13" t="s">
         <v>29</v>
       </c>
       <c r="E13" t="s">
-        <v>953</v>
+        <v>903</v>
       </c>
       <c r="F13" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H13" s="4" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="I13" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="14" spans="1:9">
@@ -7780,25 +7781,25 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
       <c r="C14" t="s">
-        <v>950</v>
+        <v>900</v>
       </c>
       <c r="D14" t="s">
         <v>30</v>
       </c>
       <c r="E14" t="s">
-        <v>954</v>
+        <v>904</v>
       </c>
       <c r="F14" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="G14" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H14" s="4" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="I14" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="15" spans="1:9">
@@ -7810,25 +7811,25 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
       <c r="C15" t="s">
-        <v>951</v>
+        <v>901</v>
       </c>
       <c r="D15" t="s">
         <v>31</v>
       </c>
       <c r="E15" t="s">
-        <v>955</v>
+        <v>905</v>
       </c>
       <c r="F15" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="G15" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H15" s="4" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="I15" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="16" spans="1:9">
@@ -7840,25 +7841,25 @@
         <v>OilGasChemicalsSubthemeValue</v>
       </c>
       <c r="C16" t="s">
-        <v>952</v>
+        <v>902</v>
       </c>
       <c r="D16" t="s">
         <v>32</v>
       </c>
       <c r="E16" t="s">
-        <v>952</v>
+        <v>902</v>
       </c>
       <c r="F16" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="G16" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H16" s="4" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="I16" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="72">
@@ -7870,22 +7871,22 @@
         <v>WaterSubthemeValue</v>
       </c>
       <c r="C17" t="s">
-        <v>1052</v>
+        <v>1002</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E17" t="s">
-        <v>1053</v>
+        <v>1003</v>
       </c>
       <c r="F17" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="G17" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H17" s="4" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="I17" t="s">
         <v>132</v>
@@ -7900,22 +7901,22 @@
         <v>WaterSubthemeValue</v>
       </c>
       <c r="C18" t="s">
-        <v>1051</v>
+        <v>1001</v>
       </c>
       <c r="D18" s="2" t="s">
         <v>34</v>
       </c>
       <c r="E18" t="s">
-        <v>1054</v>
+        <v>1004</v>
       </c>
       <c r="F18" s="2" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="G18" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H18" s="4" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="I18" t="s">
         <v>132</v>
@@ -7930,22 +7931,22 @@
         <v>SewerSubthemeValue</v>
       </c>
       <c r="C19" t="s">
-        <v>984</v>
+        <v>934</v>
       </c>
       <c r="D19" t="s">
         <v>38</v>
       </c>
       <c r="E19" t="s">
-        <v>989</v>
+        <v>939</v>
       </c>
       <c r="F19" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="G19" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H19" s="4" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="I19" t="s">
         <v>226</v>
@@ -7960,22 +7961,22 @@
         <v>SewerSubthemeValue</v>
       </c>
       <c r="C20" t="s">
-        <v>983</v>
+        <v>933</v>
       </c>
       <c r="D20" t="s">
         <v>37</v>
       </c>
       <c r="E20" t="s">
-        <v>990</v>
+        <v>940</v>
       </c>
       <c r="F20" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="G20" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H20" s="4" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="I20" t="s">
         <v>226</v>
@@ -7990,22 +7991,22 @@
         <v>SewerSubthemeValue</v>
       </c>
       <c r="C21" t="s">
-        <v>985</v>
+        <v>935</v>
       </c>
       <c r="D21" t="s">
         <v>42</v>
       </c>
       <c r="E21" t="s">
-        <v>991</v>
+        <v>941</v>
       </c>
       <c r="F21" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="G21" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H21" s="4" t="s">
-        <v>577</v>
+        <v>576</v>
       </c>
       <c r="I21" t="s">
         <v>226</v>
@@ -8020,22 +8021,22 @@
         <v>SewerSubthemeValue</v>
       </c>
       <c r="C22" t="s">
-        <v>986</v>
+        <v>936</v>
       </c>
       <c r="D22" t="s">
         <v>41</v>
       </c>
       <c r="E22" t="s">
-        <v>992</v>
+        <v>942</v>
       </c>
       <c r="F22" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="G22" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H22" s="4" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="I22" t="s">
         <v>226</v>
@@ -8050,22 +8051,22 @@
         <v>SewerSubthemeValue</v>
       </c>
       <c r="C23" t="s">
-        <v>987</v>
+        <v>937</v>
       </c>
       <c r="D23" t="s">
         <v>40</v>
       </c>
       <c r="E23" t="s">
-        <v>993</v>
+        <v>943</v>
       </c>
       <c r="F23" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="G23" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H23" s="4" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="I23" t="s">
         <v>226</v>
@@ -8080,22 +8081,22 @@
         <v>SewerSubthemeValue</v>
       </c>
       <c r="C24" t="s">
-        <v>988</v>
+        <v>938</v>
       </c>
       <c r="D24" t="s">
         <v>39</v>
       </c>
       <c r="E24" t="s">
-        <v>994</v>
+        <v>944</v>
       </c>
       <c r="F24" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="G24" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H24" s="4" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="I24" t="s">
         <v>226</v>
@@ -8116,16 +8117,16 @@
         <v>45</v>
       </c>
       <c r="E25" t="s">
-        <v>1035</v>
+        <v>985</v>
       </c>
       <c r="F25" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="G25" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H25" s="4" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="I25" t="s">
         <v>229</v>
@@ -8140,22 +8141,22 @@
         <v>ThermalSubthemeValue</v>
       </c>
       <c r="C26" t="s">
-        <v>1033</v>
+        <v>983</v>
       </c>
       <c r="D26" t="s">
         <v>44</v>
       </c>
       <c r="E26" t="s">
-        <v>1036</v>
+        <v>986</v>
       </c>
       <c r="F26" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="G26" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H26" s="4" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="I26" t="s">
         <v>229</v>
@@ -8176,16 +8177,16 @@
         <v>47</v>
       </c>
       <c r="E27" t="s">
-        <v>1037</v>
+        <v>987</v>
       </c>
       <c r="F27" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="G27" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H27" s="4" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="I27" t="s">
         <v>229</v>
@@ -8200,22 +8201,22 @@
         <v>ThermalSubthemeValue</v>
       </c>
       <c r="C28" t="s">
-        <v>1034</v>
+        <v>984</v>
       </c>
       <c r="D28" t="s">
         <v>46</v>
       </c>
       <c r="E28" t="s">
-        <v>1038</v>
+        <v>988</v>
       </c>
       <c r="F28" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="G28" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H28" s="4" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="I28" t="s">
         <v>229</v>
@@ -8230,25 +8231,25 @@
         <v>ProtectedAreaTypeValue</v>
       </c>
       <c r="C29" t="s">
-        <v>960</v>
+        <v>910</v>
       </c>
       <c r="D29" t="s">
-        <v>970</v>
+        <v>920</v>
       </c>
       <c r="E29" t="s">
-        <v>961</v>
+        <v>911</v>
       </c>
       <c r="F29" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="G29" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H29" s="4" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="I29" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="30" spans="1:9">
@@ -8260,22 +8261,22 @@
         <v>ProtectedAreaTypeValue</v>
       </c>
       <c r="C30" t="s">
-        <v>959</v>
+        <v>909</v>
       </c>
       <c r="D30" t="s">
-        <v>967</v>
+        <v>917</v>
       </c>
       <c r="E30" t="s">
-        <v>962</v>
+        <v>912</v>
       </c>
       <c r="F30" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="G30" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H30" s="4" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="I30" t="s">
         <v>229</v>
@@ -8290,25 +8291,25 @@
         <v>ProtectedAreaTypeValue</v>
       </c>
       <c r="C31" t="s">
-        <v>958</v>
+        <v>908</v>
       </c>
       <c r="D31" t="s">
-        <v>966</v>
+        <v>916</v>
       </c>
       <c r="E31" s="4" t="s">
-        <v>963</v>
+        <v>913</v>
       </c>
       <c r="F31" s="4" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="G31" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H31" s="4" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="I31" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="32" spans="1:9">
@@ -8320,25 +8321,25 @@
         <v>ProtectedAreaTypeValue</v>
       </c>
       <c r="C32" t="s">
-        <v>957</v>
+        <v>907</v>
       </c>
       <c r="D32" t="s">
-        <v>968</v>
+        <v>918</v>
       </c>
       <c r="E32" t="s">
-        <v>964</v>
+        <v>914</v>
       </c>
       <c r="F32" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="G32" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H32" s="4" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="I32" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="33" spans="1:9">
@@ -8350,25 +8351,25 @@
         <v>ProtectedAreaTypeValue</v>
       </c>
       <c r="C33" t="s">
-        <v>956</v>
+        <v>906</v>
       </c>
       <c r="D33" t="s">
-        <v>969</v>
+        <v>919</v>
       </c>
       <c r="E33" t="s">
-        <v>965</v>
+        <v>915</v>
       </c>
       <c r="F33" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="G33" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H33" s="4" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="I33" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="34" spans="1:9">
@@ -8389,16 +8390,16 @@
         <v>71</v>
       </c>
       <c r="F34" s="13" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="G34" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H34" s="4" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="I34" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="35" spans="1:9">
@@ -8419,16 +8420,16 @@
         <v>68</v>
       </c>
       <c r="F35" s="13" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="G35" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H35" s="4" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="I35" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="36" spans="1:9">
@@ -8449,16 +8450,16 @@
         <v>65</v>
       </c>
       <c r="F36" s="13" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="G36" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H36" s="4" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="I36" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="37" spans="1:9">
@@ -8479,16 +8480,16 @@
         <v>309</v>
       </c>
       <c r="F37" s="13" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="G37" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H37" s="4" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="I37" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="38" spans="1:9">
@@ -8509,16 +8510,16 @@
         <v>311</v>
       </c>
       <c r="F38" s="13" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="G38" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H38" s="4" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="I38" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="39" spans="1:9">
@@ -8539,16 +8540,16 @@
         <v>310</v>
       </c>
       <c r="F39" s="13" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="G39" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H39" s="4" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="I39" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="40" spans="1:9">
@@ -8560,25 +8561,25 @@
         <v>DocumentTypeValue</v>
       </c>
       <c r="C40" t="s">
-        <v>837</v>
+        <v>787</v>
       </c>
       <c r="D40" t="s">
         <v>76</v>
       </c>
       <c r="E40" t="s">
-        <v>841</v>
+        <v>791</v>
       </c>
       <c r="F40" s="13" t="s">
-        <v>1159</v>
+        <v>1109</v>
       </c>
       <c r="G40" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H40" s="4" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="I40" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="41" spans="1:9">
@@ -8590,25 +8591,25 @@
         <v>DocumentTypeValue</v>
       </c>
       <c r="C41" t="s">
-        <v>838</v>
+        <v>788</v>
       </c>
       <c r="D41" t="s">
         <v>74</v>
       </c>
       <c r="E41" t="s">
-        <v>842</v>
+        <v>792</v>
       </c>
       <c r="F41" s="13" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="G41" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H41" s="4" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="I41" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="42" spans="1:9">
@@ -8620,25 +8621,25 @@
         <v>DocumentTypeValue</v>
       </c>
       <c r="C42" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D42" t="s">
         <v>78</v>
       </c>
       <c r="E42" t="s">
-        <v>834</v>
+        <v>784</v>
       </c>
       <c r="F42" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="G42" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H42" s="4" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="I42" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="43" spans="1:9">
@@ -8650,25 +8651,25 @@
         <v>DocumentTypeValue</v>
       </c>
       <c r="C43" t="s">
-        <v>839</v>
+        <v>789</v>
       </c>
       <c r="D43" t="s">
         <v>75</v>
       </c>
       <c r="E43" t="s">
-        <v>843</v>
+        <v>793</v>
       </c>
       <c r="F43" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="G43" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H43" s="4" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="I43" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="44" spans="1:9">
@@ -8683,22 +8684,22 @@
         <v>179</v>
       </c>
       <c r="D44" t="s">
-        <v>1161</v>
+        <v>1111</v>
       </c>
       <c r="E44" t="s">
-        <v>836</v>
+        <v>786</v>
       </c>
       <c r="F44" t="s">
-        <v>1160</v>
+        <v>1110</v>
       </c>
       <c r="G44" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H44" s="4" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="I44" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="45" spans="1:9">
@@ -8710,22 +8711,22 @@
         <v>DocumentTypeValue</v>
       </c>
       <c r="C45" t="s">
-        <v>840</v>
+        <v>790</v>
       </c>
       <c r="E45" s="4" t="s">
-        <v>844</v>
+        <v>794</v>
       </c>
       <c r="F45" s="4" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="G45" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H45" s="4" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="I45" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="46" spans="1:9">
@@ -8746,16 +8747,16 @@
         <v>86</v>
       </c>
       <c r="F46" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="G46" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H46" s="4" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="I46" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="47" spans="1:9">
@@ -8776,16 +8777,16 @@
         <v>84</v>
       </c>
       <c r="F47" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="G47" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H47" s="4" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="I47" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="48" spans="1:9">
@@ -8806,16 +8807,16 @@
         <v>82</v>
       </c>
       <c r="F48" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="G48" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H48" s="4" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="I48" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="49" spans="1:9">
@@ -8836,16 +8837,16 @@
         <v>88</v>
       </c>
       <c r="F49" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="G49" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H49" s="4" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="I49" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="50" spans="1:9">
@@ -8857,25 +8858,25 @@
         <v>ContainerTypeValue</v>
       </c>
       <c r="C50" t="s">
-        <v>829</v>
+        <v>779</v>
       </c>
       <c r="D50" t="s">
         <v>93</v>
       </c>
       <c r="E50" t="s">
-        <v>831</v>
+        <v>781</v>
       </c>
       <c r="F50" s="13" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="G50" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H50" s="4" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="I50" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="51" spans="1:9">
@@ -8887,25 +8888,25 @@
         <v>ContainerTypeValue</v>
       </c>
       <c r="C51" t="s">
-        <v>830</v>
+        <v>780</v>
       </c>
       <c r="D51" t="s">
         <v>92</v>
       </c>
       <c r="E51" t="s">
-        <v>832</v>
+        <v>782</v>
       </c>
       <c r="F51" s="13" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="G51" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H51" s="4" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="I51" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="52" spans="1:9">
@@ -8923,19 +8924,19 @@
         <v>97</v>
       </c>
       <c r="E52" t="s">
-        <v>914</v>
+        <v>864</v>
       </c>
       <c r="F52" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="G52" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H52" s="4" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="I52" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="53" spans="1:9">
@@ -8953,19 +8954,19 @@
         <v>98</v>
       </c>
       <c r="E53" t="s">
-        <v>915</v>
+        <v>865</v>
       </c>
       <c r="F53" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="G53" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H53" s="4" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="I53" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="54" spans="1:9">
@@ -8977,25 +8978,25 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C54" t="s">
-        <v>911</v>
+        <v>861</v>
       </c>
       <c r="D54" t="s">
-        <v>911</v>
+        <v>861</v>
       </c>
       <c r="E54" t="s">
         <v>99</v>
       </c>
       <c r="F54" t="s">
-        <v>917</v>
+        <v>867</v>
       </c>
       <c r="G54" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H54" s="4" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="I54" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="55" spans="1:9">
@@ -9013,19 +9014,19 @@
         <v>96</v>
       </c>
       <c r="E55" t="s">
-        <v>918</v>
+        <v>868</v>
       </c>
       <c r="F55" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="G55" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H55" s="4" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="I55" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="56" spans="1:9">
@@ -9043,19 +9044,19 @@
         <v>100</v>
       </c>
       <c r="E56" t="s">
-        <v>919</v>
+        <v>869</v>
       </c>
       <c r="F56" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="G56" s="8" t="s">
         <v>261</v>
       </c>
       <c r="H56" s="11" t="s">
-        <v>1163</v>
+        <v>1113</v>
       </c>
       <c r="I56" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="57" spans="1:9">
@@ -9073,19 +9074,19 @@
         <v>101</v>
       </c>
       <c r="E57" t="s">
-        <v>920</v>
+        <v>870</v>
       </c>
       <c r="F57" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="G57" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H57" s="11" t="s">
-        <v>1164</v>
+        <v>1114</v>
       </c>
       <c r="I57" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="58" spans="1:9">
@@ -9103,19 +9104,19 @@
         <v>102</v>
       </c>
       <c r="E58" t="s">
-        <v>921</v>
+        <v>871</v>
       </c>
       <c r="F58" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="G58" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H58" s="4" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="I58" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="59" spans="1:9">
@@ -9127,25 +9128,25 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C59" t="s">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="D59" t="s">
-        <v>912</v>
+        <v>862</v>
       </c>
       <c r="E59" s="4" t="s">
-        <v>922</v>
+        <v>872</v>
       </c>
       <c r="F59" s="4" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="G59" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H59" s="4" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="I59" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="60" spans="1:9">
@@ -9163,19 +9164,19 @@
         <v>103</v>
       </c>
       <c r="E60" t="s">
-        <v>923</v>
+        <v>873</v>
       </c>
       <c r="F60" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="G60" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H60" s="4" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="I60" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="61" spans="1:9">
@@ -9193,19 +9194,19 @@
         <v>104</v>
       </c>
       <c r="E61" t="s">
-        <v>924</v>
+        <v>874</v>
       </c>
       <c r="F61" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="G61" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H61" s="4" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="I61" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="62" spans="1:9">
@@ -9226,16 +9227,16 @@
         <v>105</v>
       </c>
       <c r="F62" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G62" s="8" t="s">
         <v>261</v>
       </c>
       <c r="H62" s="4" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="I62" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="63" spans="1:9">
@@ -9256,16 +9257,16 @@
         <v>107</v>
       </c>
       <c r="F63" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="G63" s="8" t="s">
         <v>261</v>
       </c>
       <c r="H63" s="4" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="I63" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="64" spans="1:9">
@@ -9283,19 +9284,19 @@
         <v>109</v>
       </c>
       <c r="E64" t="s">
-        <v>925</v>
+        <v>875</v>
       </c>
       <c r="F64" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="G64" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H64" s="4" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="I64" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="65" spans="1:9">
@@ -9316,16 +9317,16 @@
         <v>110</v>
       </c>
       <c r="F65" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="G65" s="8" t="s">
         <v>261</v>
       </c>
       <c r="H65" s="4" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="I65" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="66" spans="1:9">
@@ -9343,19 +9344,19 @@
         <v>134</v>
       </c>
       <c r="E66" t="s">
-        <v>926</v>
+        <v>876</v>
       </c>
       <c r="F66" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="G66" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H66" s="4" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="I66" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="67" spans="1:9">
@@ -9373,19 +9374,19 @@
         <v>111</v>
       </c>
       <c r="E67" t="s">
-        <v>927</v>
+        <v>877</v>
       </c>
       <c r="F67" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="G67" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H67" s="4" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="I67" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="68" spans="1:9">
@@ -9403,19 +9404,19 @@
         <v>112</v>
       </c>
       <c r="E68" t="s">
-        <v>928</v>
+        <v>878</v>
       </c>
       <c r="F68" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="G68" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H68" s="4" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="I68" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="69" spans="1:9">
@@ -9433,19 +9434,19 @@
         <v>113</v>
       </c>
       <c r="E69" s="13" t="s">
-        <v>929</v>
+        <v>879</v>
       </c>
       <c r="F69" s="13" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="G69" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H69" s="4" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="I69" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="70" spans="1:9">
@@ -9463,19 +9464,19 @@
         <v>114</v>
       </c>
       <c r="E70" t="s">
-        <v>930</v>
+        <v>880</v>
       </c>
       <c r="F70" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="G70" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H70" s="4" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="I70" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="71" spans="1:9">
@@ -9493,19 +9494,19 @@
         <v>115</v>
       </c>
       <c r="E71" t="s">
-        <v>931</v>
+        <v>881</v>
       </c>
       <c r="F71" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="G71" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H71" s="4" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="I71" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="72" spans="1:9">
@@ -9523,19 +9524,19 @@
         <v>116</v>
       </c>
       <c r="E72" t="s">
-        <v>932</v>
+        <v>882</v>
       </c>
       <c r="F72" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="G72" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H72" s="4" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="I72" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="73" spans="1:9">
@@ -9547,25 +9548,25 @@
         <v>OilGasChemicalsProductTypeIMKLValue</v>
       </c>
       <c r="C73" t="s">
-        <v>913</v>
+        <v>863</v>
       </c>
       <c r="D73" t="s">
-        <v>913</v>
+        <v>863</v>
       </c>
       <c r="E73" t="s">
-        <v>933</v>
+        <v>883</v>
       </c>
       <c r="F73" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="G73" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H73" s="4" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="I73" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="74" spans="1:9">
@@ -9583,19 +9584,19 @@
         <v>117</v>
       </c>
       <c r="E74" t="s">
-        <v>934</v>
+        <v>884</v>
       </c>
       <c r="F74" t="s">
-        <v>916</v>
+        <v>866</v>
       </c>
       <c r="G74" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H74" s="4" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="I74" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="75" spans="1:9">
@@ -9613,19 +9614,19 @@
         <v>118</v>
       </c>
       <c r="E75" t="s">
-        <v>935</v>
+        <v>885</v>
       </c>
       <c r="F75" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="G75" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H75" s="4" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="I75" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="76" spans="1:9">
@@ -9643,19 +9644,19 @@
         <v>119</v>
       </c>
       <c r="E76" s="13" t="s">
-        <v>936</v>
+        <v>886</v>
       </c>
       <c r="F76" s="13" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="G76" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H76" s="4" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="I76" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="77" spans="1:9">
@@ -9673,19 +9674,19 @@
         <v>120</v>
       </c>
       <c r="E77" t="s">
-        <v>937</v>
+        <v>887</v>
       </c>
       <c r="F77" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="G77" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H77" s="4" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="I77" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="78" spans="1:9">
@@ -9703,19 +9704,19 @@
         <v>121</v>
       </c>
       <c r="E78" t="s">
-        <v>938</v>
+        <v>888</v>
       </c>
       <c r="F78" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="G78" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H78" s="4" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="I78" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="79" spans="1:9">
@@ -9733,19 +9734,19 @@
         <v>95</v>
       </c>
       <c r="E79" t="s">
-        <v>939</v>
+        <v>889</v>
       </c>
       <c r="F79" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="G79" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H79" s="4" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="I79" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="80" spans="1:9">
@@ -9763,19 +9764,19 @@
         <v>122</v>
       </c>
       <c r="E80" t="s">
-        <v>940</v>
+        <v>890</v>
       </c>
       <c r="F80" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="G80" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H80" s="4" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="I80" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="81" spans="1:9">
@@ -9793,19 +9794,19 @@
         <v>123</v>
       </c>
       <c r="E81" t="s">
-        <v>941</v>
+        <v>891</v>
       </c>
       <c r="F81" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="G81" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H81" s="4" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="I81" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="82" spans="1:9">
@@ -9823,19 +9824,19 @@
         <v>124</v>
       </c>
       <c r="E82" t="s">
-        <v>942</v>
+        <v>892</v>
       </c>
       <c r="F82" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="G82" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H82" s="4" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="I82" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="83" spans="1:9">
@@ -9853,19 +9854,19 @@
         <v>125</v>
       </c>
       <c r="E83" t="s">
-        <v>943</v>
+        <v>893</v>
       </c>
       <c r="F83" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="G83" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H83" s="4" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="I83" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="84" spans="1:9">
@@ -9883,19 +9884,19 @@
         <v>126</v>
       </c>
       <c r="E84" t="s">
-        <v>944</v>
+        <v>894</v>
       </c>
       <c r="F84" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="G84" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H84" s="4" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="I84" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="85" spans="1:9">
@@ -9913,19 +9914,19 @@
         <v>127</v>
       </c>
       <c r="E85" t="s">
-        <v>945</v>
+        <v>895</v>
       </c>
       <c r="F85" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G85" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H85" s="4" t="s">
-        <v>639</v>
+        <v>638</v>
       </c>
       <c r="I85" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="86" spans="1:9">
@@ -9943,19 +9944,19 @@
         <v>129</v>
       </c>
       <c r="E86" t="s">
-        <v>946</v>
+        <v>896</v>
       </c>
       <c r="F86" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="G86" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H86" s="4" t="s">
-        <v>640</v>
+        <v>639</v>
       </c>
       <c r="I86" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="87" spans="1:9">
@@ -9973,19 +9974,19 @@
         <v>128</v>
       </c>
       <c r="E87" t="s">
-        <v>947</v>
+        <v>897</v>
       </c>
       <c r="F87" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="G87" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H87" s="4" t="s">
-        <v>641</v>
+        <v>640</v>
       </c>
       <c r="I87" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="88" spans="1:9">
@@ -10003,19 +10004,19 @@
         <v>130</v>
       </c>
       <c r="E88" t="s">
-        <v>948</v>
+        <v>898</v>
       </c>
       <c r="F88" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="G88" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H88" s="4" t="s">
-        <v>642</v>
+        <v>641</v>
       </c>
       <c r="I88" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="89" spans="1:9">
@@ -10033,19 +10034,19 @@
         <v>131</v>
       </c>
       <c r="E89" t="s">
-        <v>895</v>
+        <v>845</v>
       </c>
       <c r="F89" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G89" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H89" s="4" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="I89" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="90" spans="1:9">
@@ -10066,16 +10067,16 @@
         <v>133</v>
       </c>
       <c r="F90" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="G90" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H90" s="4" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="I90" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="91" spans="1:9">
@@ -10093,16 +10094,16 @@
         <v>136</v>
       </c>
       <c r="E91" t="s">
-        <v>846</v>
+        <v>796</v>
       </c>
       <c r="F91" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="G91" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H91" s="4" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
       <c r="I91" t="s">
         <v>223</v>
@@ -10123,16 +10124,16 @@
         <v>138</v>
       </c>
       <c r="E92" t="s">
-        <v>845</v>
+        <v>795</v>
       </c>
       <c r="F92" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G92" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H92" s="4" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
       <c r="I92" t="s">
         <v>223</v>
@@ -10153,16 +10154,16 @@
         <v>137</v>
       </c>
       <c r="E93" t="s">
-        <v>847</v>
+        <v>797</v>
       </c>
       <c r="F93" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G93" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H93" s="4" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
       <c r="I93" t="s">
         <v>223</v>
@@ -10183,19 +10184,19 @@
         <v>142</v>
       </c>
       <c r="E94" t="s">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="F94" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G94" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H94" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="I94" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="95" spans="1:9">
@@ -10213,19 +10214,19 @@
         <v>140</v>
       </c>
       <c r="E95" t="s">
-        <v>900</v>
+        <v>850</v>
       </c>
       <c r="F95" s="13" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="G95" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H95" s="4" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="I95" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="96" spans="1:9">
@@ -10237,25 +10238,25 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C96" t="s">
-        <v>896</v>
+        <v>846</v>
       </c>
       <c r="D96" t="s">
         <v>148</v>
       </c>
       <c r="E96" t="s">
-        <v>901</v>
+        <v>851</v>
       </c>
       <c r="F96" s="13" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="G96" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H96" s="4" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="I96" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="97" spans="1:9">
@@ -10273,19 +10274,19 @@
         <v>150</v>
       </c>
       <c r="E97" t="s">
-        <v>902</v>
+        <v>852</v>
       </c>
       <c r="F97" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G97" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H97" s="4" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="I97" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="98" spans="1:9">
@@ -10303,19 +10304,19 @@
         <v>149</v>
       </c>
       <c r="E98" t="s">
-        <v>903</v>
+        <v>853</v>
       </c>
       <c r="F98" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G98" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H98" s="4" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="I98" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="99" spans="1:9">
@@ -10333,19 +10334,19 @@
         <v>141</v>
       </c>
       <c r="E99" t="s">
-        <v>904</v>
+        <v>854</v>
       </c>
       <c r="F99" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G99" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H99" s="4" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="I99" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="100" spans="1:9">
@@ -10363,19 +10364,19 @@
         <v>146</v>
       </c>
       <c r="E100" t="s">
-        <v>905</v>
+        <v>855</v>
       </c>
       <c r="F100" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G100" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H100" s="4" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="I100" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="101" spans="1:9">
@@ -10387,25 +10388,25 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C101" t="s">
-        <v>897</v>
+        <v>847</v>
       </c>
       <c r="D101" t="s">
         <v>144</v>
       </c>
       <c r="E101" t="s">
-        <v>906</v>
+        <v>856</v>
       </c>
       <c r="F101" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G101" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H101" s="4" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="I101" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="102" spans="1:9">
@@ -10423,19 +10424,19 @@
         <v>147</v>
       </c>
       <c r="E102" t="s">
-        <v>907</v>
+        <v>857</v>
       </c>
       <c r="F102" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G102" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H102" s="4" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
       <c r="I102" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="103" spans="1:9">
@@ -10453,19 +10454,19 @@
         <v>137</v>
       </c>
       <c r="E103" t="s">
-        <v>847</v>
+        <v>797</v>
       </c>
       <c r="F103" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G103" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H103" s="4" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
       <c r="I103" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="104" spans="1:9">
@@ -10477,25 +10478,25 @@
         <v>OilGasChemicalsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C104" t="s">
-        <v>898</v>
+        <v>848</v>
       </c>
       <c r="D104" t="s">
         <v>151</v>
       </c>
       <c r="E104" t="s">
-        <v>908</v>
+        <v>858</v>
       </c>
       <c r="F104" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G104" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H104" s="4" t="s">
-        <v>658</v>
+        <v>657</v>
       </c>
       <c r="I104" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="105" spans="1:9">
@@ -10513,19 +10514,19 @@
         <v>145</v>
       </c>
       <c r="E105" t="s">
-        <v>909</v>
+        <v>859</v>
       </c>
       <c r="F105" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="G105" s="8" t="s">
         <v>262</v>
       </c>
       <c r="H105" s="4" t="s">
-        <v>659</v>
+        <v>658</v>
       </c>
       <c r="I105" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="106" spans="1:9">
@@ -10543,19 +10544,19 @@
         <v>143</v>
       </c>
       <c r="E106" t="s">
-        <v>910</v>
+        <v>860</v>
       </c>
       <c r="F106" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G106" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H106" s="4" t="s">
-        <v>660</v>
+        <v>659</v>
       </c>
       <c r="I106" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="107" spans="1:9">
@@ -10573,16 +10574,16 @@
         <v>150</v>
       </c>
       <c r="E107" t="s">
-        <v>902</v>
+        <v>852</v>
       </c>
       <c r="F107" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="G107" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H107" s="4" t="s">
-        <v>661</v>
+        <v>660</v>
       </c>
       <c r="I107" t="s">
         <v>226</v>
@@ -10603,16 +10604,16 @@
         <v>149</v>
       </c>
       <c r="E108" t="s">
-        <v>903</v>
+        <v>853</v>
       </c>
       <c r="F108" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G108" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H108" s="4" t="s">
-        <v>662</v>
+        <v>661</v>
       </c>
       <c r="I108" t="s">
         <v>226</v>
@@ -10633,16 +10634,16 @@
         <v>154</v>
       </c>
       <c r="E109" t="s">
-        <v>978</v>
+        <v>928</v>
       </c>
       <c r="F109" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G109" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H109" s="4" t="s">
-        <v>663</v>
+        <v>662</v>
       </c>
       <c r="I109" t="s">
         <v>226</v>
@@ -10657,22 +10658,22 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C110" t="s">
-        <v>977</v>
+        <v>927</v>
       </c>
       <c r="D110" t="s">
         <v>11</v>
       </c>
       <c r="E110" s="4" t="s">
-        <v>977</v>
+        <v>927</v>
       </c>
       <c r="F110" s="4" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="G110" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H110" s="4" t="s">
-        <v>664</v>
+        <v>663</v>
       </c>
       <c r="I110" t="s">
         <v>226</v>
@@ -10687,22 +10688,22 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C111" t="s">
-        <v>976</v>
+        <v>926</v>
       </c>
       <c r="D111" t="s">
-        <v>976</v>
+        <v>926</v>
       </c>
       <c r="E111" s="4" t="s">
-        <v>979</v>
+        <v>929</v>
       </c>
       <c r="F111" s="4" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="G111" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H111" s="4" t="s">
-        <v>665</v>
+        <v>664</v>
       </c>
       <c r="I111" t="s">
         <v>226</v>
@@ -10717,22 +10718,22 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C112" t="s">
-        <v>975</v>
+        <v>925</v>
       </c>
       <c r="D112" t="s">
-        <v>975</v>
+        <v>925</v>
       </c>
       <c r="E112" s="4" t="s">
-        <v>980</v>
+        <v>930</v>
       </c>
       <c r="F112" s="4" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="G112" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H112" s="4" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="I112" t="s">
         <v>226</v>
@@ -10747,22 +10748,22 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C113" t="s">
-        <v>897</v>
+        <v>847</v>
       </c>
       <c r="D113" t="s">
-        <v>897</v>
+        <v>847</v>
       </c>
       <c r="E113" s="4" t="s">
-        <v>906</v>
+        <v>856</v>
       </c>
       <c r="F113" s="4" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G113" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H113" s="4" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="I113" t="s">
         <v>226</v>
@@ -10783,16 +10784,16 @@
         <v>77</v>
       </c>
       <c r="E114" t="s">
-        <v>836</v>
+        <v>786</v>
       </c>
       <c r="F114" s="13" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G114" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H114" s="4" t="s">
-        <v>668</v>
+        <v>667</v>
       </c>
       <c r="I114" t="s">
         <v>226</v>
@@ -10807,22 +10808,22 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C115" t="s">
-        <v>974</v>
+        <v>924</v>
       </c>
       <c r="D115" t="s">
         <v>153</v>
       </c>
       <c r="E115" t="s">
-        <v>981</v>
+        <v>931</v>
       </c>
       <c r="F115" s="13" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="G115" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H115" s="4" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
       <c r="I115" t="s">
         <v>226</v>
@@ -10843,16 +10844,16 @@
         <v>150</v>
       </c>
       <c r="E116" t="s">
-        <v>902</v>
+        <v>852</v>
       </c>
       <c r="F116" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G116" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H116" s="4" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
       <c r="I116" t="s">
         <v>132</v>
@@ -10873,16 +10874,16 @@
         <v>149</v>
       </c>
       <c r="E117" t="s">
-        <v>903</v>
+        <v>853</v>
       </c>
       <c r="F117" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G117" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H117" s="4" t="s">
-        <v>671</v>
+        <v>670</v>
       </c>
       <c r="I117" t="s">
         <v>132</v>
@@ -10903,16 +10904,16 @@
         <v>156</v>
       </c>
       <c r="E118" t="s">
-        <v>1049</v>
+        <v>999</v>
       </c>
       <c r="F118" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="G118" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H118" s="4" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="I118" t="s">
         <v>132</v>
@@ -10933,16 +10934,16 @@
         <v>157</v>
       </c>
       <c r="E119" t="s">
-        <v>978</v>
+        <v>928</v>
       </c>
       <c r="F119" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G119" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H119" s="4" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="I119" t="s">
         <v>132</v>
@@ -10957,22 +10958,22 @@
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C120" t="s">
-        <v>1048</v>
+        <v>998</v>
       </c>
       <c r="D120" t="s">
-        <v>1048</v>
+        <v>998</v>
       </c>
       <c r="E120" s="9" t="s">
-        <v>1050</v>
+        <v>1000</v>
       </c>
       <c r="F120" s="9" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="G120" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H120" s="4" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="I120" t="s">
         <v>132</v>
@@ -10987,22 +10988,22 @@
         <v>WaterAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C121" t="s">
-        <v>897</v>
+        <v>847</v>
       </c>
       <c r="D121" t="s">
-        <v>897</v>
+        <v>847</v>
       </c>
       <c r="E121" s="9" t="s">
-        <v>906</v>
+        <v>856</v>
       </c>
       <c r="F121" s="9" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G121" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H121" s="4" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="I121" t="s">
         <v>132</v>
@@ -11017,25 +11018,25 @@
         <v>WarningTypeValue</v>
       </c>
       <c r="C122" t="s">
-        <v>1120</v>
+        <v>1070</v>
       </c>
       <c r="D122" t="s">
         <v>198</v>
       </c>
       <c r="E122" t="s">
-        <v>1122</v>
+        <v>1072</v>
       </c>
       <c r="F122" t="s">
-        <v>1121</v>
+        <v>1071</v>
       </c>
       <c r="G122" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H122" s="4" t="s">
-        <v>676</v>
+      <c r="H122" s="11" t="s">
+        <v>1115</v>
       </c>
       <c r="I122" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="123" spans="1:9">
@@ -11047,25 +11048,25 @@
         <v>WarningTypeIMKLValue</v>
       </c>
       <c r="C123" t="s">
-        <v>1045</v>
+        <v>995</v>
       </c>
       <c r="D123" t="s">
-        <v>1045</v>
+        <v>995</v>
       </c>
       <c r="E123" s="4" t="s">
-        <v>1046</v>
+        <v>996</v>
       </c>
       <c r="F123" s="4" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="G123" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H123" s="4" t="s">
-        <v>677</v>
+        <v>675</v>
       </c>
       <c r="I123" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="124" spans="1:9">
@@ -11083,16 +11084,16 @@
         <v>142</v>
       </c>
       <c r="E124" t="s">
-        <v>899</v>
+        <v>849</v>
       </c>
       <c r="F124" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="G124" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H124" s="4" t="s">
-        <v>678</v>
+        <v>676</v>
       </c>
       <c r="I124" t="s">
         <v>229</v>
@@ -11107,22 +11108,22 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C125" t="s">
-        <v>1018</v>
+        <v>968</v>
       </c>
       <c r="D125" t="s">
-        <v>1018</v>
+        <v>968</v>
       </c>
       <c r="E125" t="s">
-        <v>1023</v>
+        <v>973</v>
       </c>
       <c r="F125" s="13" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="G125" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H125" s="4" t="s">
-        <v>679</v>
+        <v>677</v>
       </c>
       <c r="I125" t="s">
         <v>229</v>
@@ -11143,16 +11144,16 @@
         <v>141</v>
       </c>
       <c r="E126" t="s">
-        <v>904</v>
+        <v>854</v>
       </c>
       <c r="F126" s="13" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="G126" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H126" s="4" t="s">
-        <v>680</v>
+        <v>678</v>
       </c>
       <c r="I126" t="s">
         <v>229</v>
@@ -11173,16 +11174,16 @@
         <v>150</v>
       </c>
       <c r="E127" t="s">
-        <v>902</v>
+        <v>852</v>
       </c>
       <c r="F127" s="13" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="G127" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H127" s="4" t="s">
-        <v>681</v>
+        <v>679</v>
       </c>
       <c r="I127" t="s">
         <v>229</v>
@@ -11203,16 +11204,16 @@
         <v>149</v>
       </c>
       <c r="E128" t="s">
-        <v>903</v>
+        <v>853</v>
       </c>
       <c r="F128" s="13" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="G128" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H128" s="4" t="s">
-        <v>682</v>
+        <v>680</v>
       </c>
       <c r="I128" t="s">
         <v>229</v>
@@ -11227,22 +11228,22 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C129" t="s">
-        <v>1019</v>
+        <v>969</v>
       </c>
       <c r="D129" t="s">
-        <v>1019</v>
+        <v>969</v>
       </c>
       <c r="E129" t="s">
-        <v>1024</v>
+        <v>974</v>
       </c>
       <c r="F129" s="13" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="G129" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H129" s="4" t="s">
-        <v>683</v>
+        <v>681</v>
       </c>
       <c r="I129" t="s">
         <v>229</v>
@@ -11263,16 +11264,16 @@
         <v>200</v>
       </c>
       <c r="E130" t="s">
-        <v>978</v>
+        <v>928</v>
       </c>
       <c r="F130" s="13" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G130" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H130" s="4" t="s">
-        <v>684</v>
+        <v>682</v>
       </c>
       <c r="I130" t="s">
         <v>229</v>
@@ -11287,22 +11288,22 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C131" t="s">
-        <v>1020</v>
+        <v>970</v>
       </c>
       <c r="D131" t="s">
-        <v>1020</v>
+        <v>970</v>
       </c>
       <c r="E131" t="s">
-        <v>1025</v>
+        <v>975</v>
       </c>
       <c r="F131" s="13" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="G131" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H131" s="4" t="s">
-        <v>685</v>
+        <v>683</v>
       </c>
       <c r="I131" t="s">
         <v>229</v>
@@ -11323,16 +11324,16 @@
         <v>146</v>
       </c>
       <c r="E132" t="s">
-        <v>905</v>
+        <v>855</v>
       </c>
       <c r="F132" s="13" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="G132" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H132" s="4" t="s">
-        <v>686</v>
+        <v>684</v>
       </c>
       <c r="I132" t="s">
         <v>229</v>
@@ -11347,22 +11348,22 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C133" t="s">
-        <v>1021</v>
+        <v>971</v>
       </c>
       <c r="D133" t="s">
-        <v>1021</v>
+        <v>971</v>
       </c>
       <c r="E133" s="4" t="s">
-        <v>1026</v>
+        <v>976</v>
       </c>
       <c r="F133" s="4" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="G133" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H133" s="4" t="s">
-        <v>687</v>
+        <v>685</v>
       </c>
       <c r="I133" t="s">
         <v>229</v>
@@ -11377,22 +11378,22 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C134" t="s">
-        <v>1022</v>
+        <v>972</v>
       </c>
       <c r="D134" t="s">
-        <v>1022</v>
+        <v>972</v>
       </c>
       <c r="E134" s="4" t="s">
-        <v>1027</v>
+        <v>977</v>
       </c>
       <c r="F134" s="4" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="G134" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H134" s="4" t="s">
-        <v>688</v>
+        <v>686</v>
       </c>
       <c r="I134" t="s">
         <v>229</v>
@@ -11407,22 +11408,22 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C135" t="s">
-        <v>897</v>
+        <v>847</v>
       </c>
       <c r="D135" t="s">
-        <v>897</v>
+        <v>847</v>
       </c>
       <c r="E135" t="s">
-        <v>906</v>
+        <v>856</v>
       </c>
       <c r="F135" s="13" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="G135" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H135" s="4" t="s">
-        <v>689</v>
+        <v>687</v>
       </c>
       <c r="I135" t="s">
         <v>229</v>
@@ -11443,16 +11444,16 @@
         <v>147</v>
       </c>
       <c r="E136" t="s">
-        <v>907</v>
+        <v>857</v>
       </c>
       <c r="F136" s="13" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="G136" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H136" s="4" t="s">
-        <v>690</v>
+        <v>688</v>
       </c>
       <c r="I136" t="s">
         <v>229</v>
@@ -11473,16 +11474,16 @@
         <v>137</v>
       </c>
       <c r="E137" t="s">
-        <v>847</v>
+        <v>797</v>
       </c>
       <c r="F137" s="13" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="G137" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H137" s="4" t="s">
-        <v>691</v>
+        <v>689</v>
       </c>
       <c r="I137" t="s">
         <v>229</v>
@@ -11497,22 +11498,22 @@
         <v>ThermalAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C138" t="s">
-        <v>898</v>
+        <v>848</v>
       </c>
       <c r="D138" t="s">
-        <v>898</v>
+        <v>848</v>
       </c>
       <c r="E138" t="s">
-        <v>908</v>
+        <v>858</v>
       </c>
       <c r="F138" s="13" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="G138" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H138" s="4" t="s">
-        <v>692</v>
+        <v>690</v>
       </c>
       <c r="I138" t="s">
         <v>229</v>
@@ -11533,16 +11534,16 @@
         <v>143</v>
       </c>
       <c r="E139" t="s">
-        <v>910</v>
+        <v>860</v>
       </c>
       <c r="F139" s="13" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="G139" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H139" s="4" t="s">
-        <v>693</v>
+        <v>691</v>
       </c>
       <c r="I139" t="s">
         <v>229</v>
@@ -11557,25 +11558,25 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C140" t="s">
-        <v>863</v>
+        <v>813</v>
       </c>
       <c r="D140" t="s">
-        <v>863</v>
+        <v>813</v>
       </c>
       <c r="E140" t="s">
-        <v>879</v>
+        <v>829</v>
       </c>
       <c r="F140" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="G140" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H140" s="4" t="s">
-        <v>694</v>
+        <v>692</v>
       </c>
       <c r="I140" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="141" spans="1:9">
@@ -11596,16 +11597,16 @@
         <v>105</v>
       </c>
       <c r="F141" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="G141" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H141" s="4" t="s">
-        <v>695</v>
+        <v>693</v>
       </c>
       <c r="I141" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="142" spans="1:9">
@@ -11617,25 +11618,25 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C142" t="s">
-        <v>864</v>
+        <v>814</v>
       </c>
       <c r="D142" t="s">
-        <v>864</v>
+        <v>814</v>
       </c>
       <c r="E142" t="s">
-        <v>864</v>
+        <v>814</v>
       </c>
       <c r="F142" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="G142" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H142" s="4" t="s">
-        <v>696</v>
+        <v>694</v>
       </c>
       <c r="I142" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="143" spans="1:9">
@@ -11647,25 +11648,25 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C143" t="s">
-        <v>865</v>
+        <v>815</v>
       </c>
       <c r="D143" t="s">
         <v>162</v>
       </c>
       <c r="E143" t="s">
-        <v>880</v>
+        <v>830</v>
       </c>
       <c r="F143" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="G143" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H143" s="4" t="s">
-        <v>697</v>
+        <v>695</v>
       </c>
       <c r="I143" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="144" spans="1:9">
@@ -11677,25 +11678,25 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C144" t="s">
-        <v>866</v>
+        <v>816</v>
       </c>
       <c r="D144" t="s">
-        <v>866</v>
+        <v>816</v>
       </c>
       <c r="E144" t="s">
-        <v>881</v>
+        <v>831</v>
       </c>
       <c r="F144" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="G144" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H144" s="4" t="s">
-        <v>698</v>
+        <v>696</v>
       </c>
       <c r="I144" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="145" spans="1:9">
@@ -11707,25 +11708,25 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C145" t="s">
-        <v>867</v>
+        <v>817</v>
       </c>
       <c r="D145" t="s">
-        <v>867</v>
+        <v>817</v>
       </c>
       <c r="E145" t="s">
-        <v>882</v>
+        <v>832</v>
       </c>
       <c r="F145" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="G145" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H145" s="4" t="s">
-        <v>699</v>
+        <v>697</v>
       </c>
       <c r="I145" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="146" spans="1:9">
@@ -11743,19 +11744,19 @@
         <v>169</v>
       </c>
       <c r="E146" t="s">
-        <v>883</v>
+        <v>833</v>
       </c>
       <c r="F146" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="G146" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H146" s="4" t="s">
-        <v>700</v>
+        <v>698</v>
       </c>
       <c r="I146" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="147" spans="1:9">
@@ -11767,25 +11768,25 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C147" t="s">
-        <v>868</v>
+        <v>818</v>
       </c>
       <c r="D147" t="s">
-        <v>868</v>
+        <v>818</v>
       </c>
       <c r="E147" t="s">
-        <v>884</v>
+        <v>834</v>
       </c>
       <c r="F147" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="G147" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H147" s="4" t="s">
-        <v>701</v>
+        <v>699</v>
       </c>
       <c r="I147" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="148" spans="1:9">
@@ -11803,19 +11804,19 @@
         <v>163</v>
       </c>
       <c r="E148" s="13" t="s">
-        <v>885</v>
+        <v>835</v>
       </c>
       <c r="F148" s="13" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="G148" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H148" s="4" t="s">
-        <v>702</v>
+        <v>700</v>
       </c>
       <c r="I148" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="149" spans="1:9">
@@ -11827,25 +11828,25 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C149" t="s">
-        <v>869</v>
+        <v>819</v>
       </c>
       <c r="D149" t="s">
-        <v>869</v>
+        <v>819</v>
       </c>
       <c r="E149" t="s">
-        <v>869</v>
+        <v>819</v>
       </c>
       <c r="F149" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="G149" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H149" s="4" t="s">
-        <v>703</v>
+        <v>701</v>
       </c>
       <c r="I149" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="150" spans="1:9">
@@ -11863,19 +11864,19 @@
         <v>164</v>
       </c>
       <c r="E150" t="s">
-        <v>886</v>
+        <v>836</v>
       </c>
       <c r="F150" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="G150" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H150" s="4" t="s">
-        <v>704</v>
+        <v>702</v>
       </c>
       <c r="I150" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="151" spans="1:9">
@@ -11893,19 +11894,19 @@
         <v>179</v>
       </c>
       <c r="E151" t="s">
-        <v>836</v>
+        <v>786</v>
       </c>
       <c r="F151" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G151" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H151" s="4" t="s">
-        <v>705</v>
+        <v>703</v>
       </c>
       <c r="I151" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="152" spans="1:9">
@@ -11917,25 +11918,25 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C152" t="s">
-        <v>870</v>
+        <v>820</v>
       </c>
       <c r="D152" t="s">
-        <v>870</v>
+        <v>820</v>
       </c>
       <c r="E152" t="s">
-        <v>887</v>
+        <v>837</v>
       </c>
       <c r="F152" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="G152" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H152" s="4" t="s">
-        <v>706</v>
+        <v>704</v>
       </c>
       <c r="I152" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="153" spans="1:9">
@@ -11947,25 +11948,25 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C153" t="s">
-        <v>871</v>
+        <v>821</v>
       </c>
       <c r="D153" t="s">
-        <v>871</v>
+        <v>821</v>
       </c>
       <c r="E153" t="s">
         <v>165</v>
       </c>
       <c r="F153" s="13" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="G153" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H153" s="4" t="s">
-        <v>707</v>
+        <v>705</v>
       </c>
       <c r="I153" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="154" spans="1:9">
@@ -11977,25 +11978,25 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C154" t="s">
-        <v>872</v>
+        <v>822</v>
       </c>
       <c r="D154" t="s">
-        <v>872</v>
+        <v>822</v>
       </c>
       <c r="E154" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="F154" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="G154" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H154" s="4" t="s">
-        <v>708</v>
+        <v>706</v>
       </c>
       <c r="I154" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="155" spans="1:9">
@@ -12013,19 +12014,19 @@
         <v>166</v>
       </c>
       <c r="E155" t="s">
-        <v>888</v>
+        <v>838</v>
       </c>
       <c r="F155" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="G155" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H155" s="4" t="s">
-        <v>709</v>
+        <v>707</v>
       </c>
       <c r="I155" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="156" spans="1:9">
@@ -12043,19 +12044,19 @@
         <v>167</v>
       </c>
       <c r="E156" t="s">
-        <v>889</v>
+        <v>839</v>
       </c>
       <c r="F156" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="G156" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H156" s="4" t="s">
-        <v>710</v>
+        <v>708</v>
       </c>
       <c r="I156" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="157" spans="1:9">
@@ -12073,19 +12074,19 @@
         <v>168</v>
       </c>
       <c r="E157" t="s">
-        <v>890</v>
+        <v>840</v>
       </c>
       <c r="F157" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="G157" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H157" s="4" t="s">
-        <v>711</v>
+        <v>709</v>
       </c>
       <c r="I157" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="158" spans="1:9">
@@ -12097,25 +12098,25 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C158" t="s">
-        <v>873</v>
+        <v>823</v>
       </c>
       <c r="D158" t="s">
-        <v>873</v>
+        <v>823</v>
       </c>
       <c r="E158" t="s">
-        <v>873</v>
+        <v>823</v>
       </c>
       <c r="F158" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="G158" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H158" s="4" t="s">
-        <v>712</v>
+        <v>710</v>
       </c>
       <c r="I158" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="159" spans="1:9">
@@ -12127,25 +12128,25 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C159" t="s">
-        <v>874</v>
+        <v>824</v>
       </c>
       <c r="D159" t="s">
-        <v>874</v>
+        <v>824</v>
       </c>
       <c r="E159" t="s">
-        <v>874</v>
+        <v>824</v>
       </c>
       <c r="F159" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="G159" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H159" s="4" t="s">
-        <v>713</v>
+        <v>711</v>
       </c>
       <c r="I159" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="160" spans="1:9">
@@ -12157,25 +12158,25 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C160" t="s">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="D160" t="s">
-        <v>875</v>
+        <v>825</v>
       </c>
       <c r="E160" t="s">
-        <v>891</v>
+        <v>841</v>
       </c>
       <c r="F160" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="G160" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H160" s="4" t="s">
-        <v>714</v>
+        <v>712</v>
       </c>
       <c r="I160" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="161" spans="1:9">
@@ -12187,25 +12188,25 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C161" t="s">
-        <v>876</v>
+        <v>826</v>
       </c>
       <c r="D161" t="s">
-        <v>876</v>
+        <v>826</v>
       </c>
       <c r="E161" t="s">
-        <v>892</v>
+        <v>842</v>
       </c>
       <c r="F161" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="G161" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H161" s="4" t="s">
-        <v>715</v>
+        <v>713</v>
       </c>
       <c r="I161" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="162" spans="1:9">
@@ -12217,25 +12218,25 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C162" t="s">
-        <v>877</v>
+        <v>827</v>
       </c>
       <c r="D162" t="s">
-        <v>877</v>
+        <v>827</v>
       </c>
       <c r="E162" t="s">
-        <v>893</v>
+        <v>843</v>
       </c>
       <c r="F162" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="G162" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H162" s="4" t="s">
-        <v>716</v>
+        <v>714</v>
       </c>
       <c r="I162" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="163" spans="1:9">
@@ -12247,25 +12248,25 @@
         <v>MaterialTypeValue</v>
       </c>
       <c r="C163" t="s">
-        <v>878</v>
+        <v>828</v>
       </c>
       <c r="D163" t="s">
         <v>259</v>
       </c>
       <c r="E163" s="4" t="s">
-        <v>894</v>
+        <v>844</v>
       </c>
       <c r="F163" s="4" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="G163" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H163" s="4" t="s">
-        <v>717</v>
+        <v>715</v>
       </c>
       <c r="I163" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="164" spans="1:9">
@@ -12283,19 +12284,19 @@
         <v>131</v>
       </c>
       <c r="E164" t="s">
-        <v>895</v>
+        <v>845</v>
       </c>
       <c r="F164" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="G164" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H164" s="4" t="s">
-        <v>718</v>
+        <v>716</v>
       </c>
       <c r="I164" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="165" spans="1:9">
@@ -12307,22 +12308,22 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C165" t="s">
-        <v>1003</v>
+        <v>953</v>
       </c>
       <c r="D165" t="s">
         <v>172</v>
       </c>
       <c r="E165" t="s">
-        <v>1007</v>
+        <v>957</v>
       </c>
       <c r="F165" s="13" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="G165" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H165" s="4" t="s">
-        <v>719</v>
+        <v>717</v>
       </c>
       <c r="I165" t="s">
         <v>231</v>
@@ -12337,22 +12338,22 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C166" t="s">
-        <v>1004</v>
+        <v>954</v>
       </c>
       <c r="D166" t="s">
         <v>220</v>
       </c>
       <c r="E166" t="s">
-        <v>1004</v>
+        <v>954</v>
       </c>
       <c r="F166" s="13" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="G166" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H166" s="4" t="s">
-        <v>720</v>
+        <v>718</v>
       </c>
       <c r="I166" t="s">
         <v>231</v>
@@ -12367,22 +12368,22 @@
         <v>ThermalProductTypeIMKLValue</v>
       </c>
       <c r="C167" t="s">
-        <v>1028</v>
+        <v>978</v>
       </c>
       <c r="D167" t="s">
         <v>174</v>
       </c>
       <c r="E167" t="s">
-        <v>1029</v>
+        <v>979</v>
       </c>
       <c r="F167" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="G167" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H167" s="4" t="s">
-        <v>721</v>
+        <v>719</v>
       </c>
       <c r="I167" t="s">
         <v>229</v>
@@ -12390,29 +12391,29 @@
     </row>
     <row r="168" spans="1:9">
       <c r="A168" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B168" t="str">
         <f>VLOOKUP(A168,Overview!B:B,1,0)</f>
         <v>TelecommunicationsCableMaterialTypeIMKLValue</v>
       </c>
       <c r="C168" t="s">
-        <v>1008</v>
+        <v>958</v>
       </c>
       <c r="D168" t="s">
         <v>176</v>
       </c>
       <c r="E168" t="s">
-        <v>1008</v>
+        <v>958</v>
       </c>
       <c r="F168" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="G168" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H168" s="4" t="s">
-        <v>722</v>
+        <v>720</v>
       </c>
       <c r="I168" t="s">
         <v>231</v>
@@ -12420,7 +12421,7 @@
     </row>
     <row r="169" spans="1:9">
       <c r="A169" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B169" t="str">
         <f>VLOOKUP(A169,Overview!B:B,1,0)</f>
@@ -12433,16 +12434,16 @@
         <v>177</v>
       </c>
       <c r="E169" t="s">
-        <v>1010</v>
+        <v>960</v>
       </c>
       <c r="F169" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="G169" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H169" s="4" t="s">
-        <v>723</v>
+        <v>721</v>
       </c>
       <c r="I169" t="s">
         <v>231</v>
@@ -12450,7 +12451,7 @@
     </row>
     <row r="170" spans="1:9">
       <c r="A170" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B170" t="str">
         <f>VLOOKUP(A170,Overview!B:B,1,0)</f>
@@ -12463,16 +12464,16 @@
         <v>179</v>
       </c>
       <c r="E170" t="s">
-        <v>836</v>
+        <v>786</v>
       </c>
       <c r="F170" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G170" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H170" s="4" t="s">
-        <v>724</v>
+        <v>722</v>
       </c>
       <c r="I170" t="s">
         <v>231</v>
@@ -12480,29 +12481,29 @@
     </row>
     <row r="171" spans="1:9">
       <c r="A171" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B171" t="str">
         <f>VLOOKUP(A171,Overview!B:B,1,0)</f>
         <v>TelecommunicationsCableMaterialTypeIMKLValue</v>
       </c>
       <c r="C171" t="s">
-        <v>1009</v>
+        <v>959</v>
       </c>
       <c r="D171" t="s">
         <v>178</v>
       </c>
       <c r="E171" t="s">
-        <v>1011</v>
+        <v>961</v>
       </c>
       <c r="F171" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="G171" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H171" s="4" t="s">
-        <v>725</v>
+        <v>723</v>
       </c>
       <c r="I171" t="s">
         <v>231</v>
@@ -12517,22 +12518,22 @@
         <v>SewerWaterTypeValue</v>
       </c>
       <c r="C172" t="s">
-        <v>1076</v>
+        <v>1026</v>
       </c>
       <c r="D172" t="s">
         <v>181</v>
       </c>
       <c r="E172" t="s">
-        <v>1086</v>
+        <v>1036</v>
       </c>
       <c r="F172" t="s">
-        <v>1087</v>
+        <v>1037</v>
       </c>
       <c r="G172" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H172" s="4" t="s">
-        <v>726</v>
+      <c r="H172" s="11" t="s">
+        <v>1116</v>
       </c>
       <c r="I172" t="s">
         <v>226</v>
@@ -12547,22 +12548,22 @@
         <v>SewerWaterTypeValue</v>
       </c>
       <c r="C173" t="s">
-        <v>1077</v>
+        <v>1027</v>
       </c>
       <c r="D173" t="s">
         <v>182</v>
       </c>
       <c r="E173" t="s">
-        <v>1085</v>
+        <v>1035</v>
       </c>
       <c r="F173" t="s">
-        <v>1084</v>
+        <v>1034</v>
       </c>
       <c r="G173" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H173" s="4" t="s">
-        <v>727</v>
+      <c r="H173" s="11" t="s">
+        <v>1117</v>
       </c>
       <c r="I173" t="s">
         <v>226</v>
@@ -12577,22 +12578,22 @@
         <v>SewerWaterTypeValue</v>
       </c>
       <c r="C174" t="s">
-        <v>1078</v>
+        <v>1028</v>
       </c>
       <c r="D174" t="s">
         <v>183</v>
       </c>
       <c r="E174" t="s">
-        <v>1083</v>
+        <v>1033</v>
       </c>
       <c r="F174" t="s">
-        <v>1082</v>
+        <v>1032</v>
       </c>
       <c r="G174" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H174" s="4" t="s">
-        <v>728</v>
+      <c r="H174" s="11" t="s">
+        <v>1118</v>
       </c>
       <c r="I174" t="s">
         <v>226</v>
@@ -12607,22 +12608,22 @@
         <v>SewerWaterTypeValue</v>
       </c>
       <c r="C175" t="s">
-        <v>1079</v>
+        <v>1029</v>
       </c>
       <c r="D175" t="s">
         <v>184</v>
       </c>
       <c r="E175" t="s">
-        <v>1081</v>
+        <v>1031</v>
       </c>
       <c r="F175" t="s">
-        <v>1080</v>
+        <v>1030</v>
       </c>
       <c r="G175" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H175" s="4" t="s">
-        <v>729</v>
+      <c r="H175" s="11" t="s">
+        <v>1119</v>
       </c>
       <c r="I175" t="s">
         <v>226</v>
@@ -12643,16 +12644,16 @@
         <v>186</v>
       </c>
       <c r="E176" t="s">
-        <v>1155</v>
+        <v>1105</v>
       </c>
       <c r="F176" t="s">
-        <v>1152</v>
+        <v>1102</v>
       </c>
       <c r="G176" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H176" s="11" t="s">
-        <v>730</v>
+        <v>1120</v>
       </c>
       <c r="I176" t="s">
         <v>132</v>
@@ -12667,22 +12668,22 @@
         <v>WaterTypeValue</v>
       </c>
       <c r="C177" t="s">
-        <v>1151</v>
+        <v>1101</v>
       </c>
       <c r="D177" t="s">
         <v>187</v>
       </c>
       <c r="E177" t="s">
-        <v>1156</v>
+        <v>1106</v>
       </c>
       <c r="F177" t="s">
-        <v>1153</v>
+        <v>1103</v>
       </c>
       <c r="G177" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H177" s="4" t="s">
-        <v>731</v>
+      <c r="H177" s="11" t="s">
+        <v>1121</v>
       </c>
       <c r="I177" t="s">
         <v>132</v>
@@ -12703,16 +12704,16 @@
         <v>188</v>
       </c>
       <c r="E178" t="s">
-        <v>1157</v>
+        <v>1107</v>
       </c>
       <c r="F178" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="G178" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H178" s="4" t="s">
-        <v>732</v>
+      <c r="H178" s="11" t="s">
+        <v>1122</v>
       </c>
       <c r="I178" t="s">
         <v>132</v>
@@ -12733,16 +12734,16 @@
         <v>189</v>
       </c>
       <c r="E179" t="s">
-        <v>1158</v>
+        <v>1108</v>
       </c>
       <c r="F179" t="s">
-        <v>1154</v>
+        <v>1104</v>
       </c>
       <c r="G179" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H179" s="4" t="s">
-        <v>733</v>
+      <c r="H179" s="11" t="s">
+        <v>1123</v>
       </c>
       <c r="I179" t="s">
         <v>132</v>
@@ -12757,25 +12758,25 @@
         <v>UtilityDeliveryTypeValue</v>
       </c>
       <c r="C180" t="s">
-        <v>1088</v>
+        <v>1038</v>
       </c>
       <c r="D180" t="s">
         <v>191</v>
       </c>
       <c r="E180" t="s">
-        <v>1093</v>
+        <v>1043</v>
       </c>
       <c r="F180" t="s">
-        <v>1094</v>
+        <v>1044</v>
       </c>
       <c r="G180" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H180" s="11" t="s">
-        <v>734</v>
+        <v>1124</v>
       </c>
       <c r="I180" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="181" spans="1:9">
@@ -12787,25 +12788,25 @@
         <v>UtilityDeliveryTypeValue</v>
       </c>
       <c r="C181" t="s">
-        <v>1089</v>
+        <v>1039</v>
       </c>
       <c r="D181" t="s">
         <v>192</v>
       </c>
       <c r="E181" t="s">
-        <v>1092</v>
+        <v>1042</v>
       </c>
       <c r="F181" t="s">
-        <v>1095</v>
+        <v>1045</v>
       </c>
       <c r="G181" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H181" s="4" t="s">
-        <v>735</v>
+      <c r="H181" s="11" t="s">
+        <v>1125</v>
       </c>
       <c r="I181" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="182" spans="1:9">
@@ -12817,25 +12818,25 @@
         <v>UtilityDeliveryTypeValue</v>
       </c>
       <c r="C182" t="s">
-        <v>1090</v>
+        <v>1040</v>
       </c>
       <c r="D182" t="s">
         <v>193</v>
       </c>
       <c r="E182" t="s">
-        <v>1091</v>
+        <v>1041</v>
       </c>
       <c r="F182" t="s">
-        <v>1096</v>
+        <v>1046</v>
       </c>
       <c r="G182" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H182" s="4" t="s">
-        <v>736</v>
+      <c r="H182" s="11" t="s">
+        <v>1126</v>
       </c>
       <c r="I182" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="183" spans="1:9">
@@ -12847,55 +12848,55 @@
         <v>UtilityDeliveryTypeValue</v>
       </c>
       <c r="C183" t="s">
-        <v>952</v>
+        <v>902</v>
       </c>
       <c r="D183" t="s">
         <v>194</v>
       </c>
       <c r="E183" t="s">
-        <v>952</v>
+        <v>902</v>
       </c>
       <c r="F183" t="s">
-        <v>1097</v>
+        <v>1047</v>
       </c>
       <c r="G183" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H183" s="4" t="s">
-        <v>737</v>
+      <c r="H183" s="11" t="s">
+        <v>1127</v>
       </c>
       <c r="I183" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="184" spans="1:9">
       <c r="A184" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B184" t="str">
         <f>VLOOKUP(A184,Overview!B:B,1,0)</f>
         <v>UtilityDeliveryTypeIMKLValue</v>
       </c>
       <c r="C184" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="D184" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="E184" t="s">
         <v>293</v>
       </c>
       <c r="F184" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G184" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H184" s="4" t="s">
-        <v>738</v>
+        <v>724</v>
       </c>
       <c r="I184" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="185" spans="1:9" ht="28.8">
@@ -12907,25 +12908,25 @@
         <v>WarningTypeValue</v>
       </c>
       <c r="C185" t="s">
-        <v>1118</v>
+        <v>1068</v>
       </c>
       <c r="D185" s="2" t="s">
         <v>196</v>
       </c>
       <c r="E185" t="s">
-        <v>1118</v>
+        <v>1068</v>
       </c>
       <c r="F185" t="s">
-        <v>1124</v>
+        <v>1074</v>
       </c>
       <c r="G185" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H185" s="4" t="s">
-        <v>739</v>
+      <c r="H185" s="11" t="s">
+        <v>1128</v>
       </c>
       <c r="I185" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="186" spans="1:9">
@@ -12937,25 +12938,25 @@
         <v>WarningTypeIMKLValue</v>
       </c>
       <c r="C186" t="s">
-        <v>1044</v>
+        <v>994</v>
       </c>
       <c r="D186" t="s">
         <v>159</v>
       </c>
       <c r="E186" t="s">
-        <v>1047</v>
+        <v>997</v>
       </c>
       <c r="F186" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G186" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H186" s="4" t="s">
-        <v>740</v>
+        <v>725</v>
       </c>
       <c r="I186" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="187" spans="1:9" ht="57.6">
@@ -12967,25 +12968,25 @@
         <v>WarningTypeValue</v>
       </c>
       <c r="C187" t="s">
-        <v>1119</v>
+        <v>1069</v>
       </c>
       <c r="D187" s="2" t="s">
         <v>197</v>
       </c>
       <c r="E187" t="s">
-        <v>1123</v>
+        <v>1073</v>
       </c>
       <c r="F187" t="s">
-        <v>1125</v>
+        <v>1075</v>
       </c>
       <c r="G187" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H187" s="4" t="s">
-        <v>741</v>
+      <c r="H187" s="11" t="s">
+        <v>1129</v>
       </c>
       <c r="I187" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="188" spans="1:9">
@@ -13003,16 +13004,16 @@
         <v>200</v>
       </c>
       <c r="E188" t="s">
-        <v>978</v>
+        <v>928</v>
       </c>
       <c r="F188" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="G188" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H188" s="4" t="s">
-        <v>742</v>
+      <c r="H188" s="11" t="s">
+        <v>1130</v>
       </c>
       <c r="I188" t="s">
         <v>223</v>
@@ -13033,16 +13034,16 @@
         <v>201</v>
       </c>
       <c r="E189" t="s">
-        <v>1064</v>
+        <v>1014</v>
       </c>
       <c r="F189" t="s">
-        <v>1063</v>
+        <v>1013</v>
       </c>
       <c r="G189" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H189" s="4" t="s">
-        <v>743</v>
+      <c r="H189" s="11" t="s">
+        <v>1131</v>
       </c>
       <c r="I189" t="s">
         <v>223</v>
@@ -13063,19 +13064,19 @@
         <v>200</v>
       </c>
       <c r="E190" t="s">
-        <v>978</v>
+        <v>928</v>
       </c>
       <c r="F190" t="s">
-        <v>978</v>
+        <v>928</v>
       </c>
       <c r="G190" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H190" s="4" t="s">
-        <v>744</v>
+      <c r="H190" s="11" t="s">
+        <v>1132</v>
       </c>
       <c r="I190" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="191" spans="1:9">
@@ -13093,19 +13094,19 @@
         <v>138</v>
       </c>
       <c r="E191" t="s">
-        <v>1066</v>
+        <v>1016</v>
       </c>
       <c r="F191" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="G191" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H191" s="4" t="s">
-        <v>745</v>
+      <c r="H191" s="11" t="s">
+        <v>1133</v>
       </c>
       <c r="I191" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="192" spans="1:9">
@@ -13123,19 +13124,19 @@
         <v>203</v>
       </c>
       <c r="E192" t="s">
-        <v>1065</v>
+        <v>1015</v>
       </c>
       <c r="F192" t="s">
-        <v>1065</v>
+        <v>1015</v>
       </c>
       <c r="G192" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H192" s="4" t="s">
-        <v>746</v>
+      <c r="H192" s="11" t="s">
+        <v>1134</v>
       </c>
       <c r="I192" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="193" spans="1:9">
@@ -13147,22 +13148,22 @@
         <v>SewerAppurtenanceTypeValue</v>
       </c>
       <c r="C193" t="s">
-        <v>1067</v>
+        <v>1017</v>
       </c>
       <c r="D193" t="s">
         <v>205</v>
       </c>
       <c r="E193" t="s">
-        <v>1070</v>
+        <v>1020</v>
       </c>
       <c r="F193" t="s">
-        <v>1070</v>
+        <v>1020</v>
       </c>
       <c r="G193" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H193" s="4" t="s">
-        <v>747</v>
+      <c r="H193" s="11" t="s">
+        <v>1135</v>
       </c>
       <c r="I193" t="s">
         <v>226</v>
@@ -13177,22 +13178,22 @@
         <v>SewerAppurtenanceTypeValue</v>
       </c>
       <c r="C194" t="s">
-        <v>1068</v>
+        <v>1018</v>
       </c>
       <c r="D194" t="s">
-        <v>1068</v>
+        <v>1018</v>
       </c>
       <c r="E194" t="s">
-        <v>1071</v>
+        <v>1021</v>
       </c>
       <c r="F194" t="s">
-        <v>1071</v>
+        <v>1021</v>
       </c>
       <c r="G194" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H194" s="4" t="s">
-        <v>748</v>
+      <c r="H194" s="11" t="s">
+        <v>1136</v>
       </c>
       <c r="I194" t="s">
         <v>226</v>
@@ -13207,22 +13208,22 @@
         <v>SewerAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C195" t="s">
-        <v>973</v>
+        <v>923</v>
       </c>
       <c r="D195" t="s">
-        <v>973</v>
+        <v>923</v>
       </c>
       <c r="E195" t="s">
-        <v>982</v>
+        <v>932</v>
       </c>
       <c r="F195" s="13" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="G195" s="8" t="s">
         <v>260</v>
       </c>
       <c r="H195" s="4" t="s">
-        <v>749</v>
+        <v>726</v>
       </c>
       <c r="I195" t="s">
         <v>226</v>
@@ -13237,22 +13238,22 @@
         <v>SewerAppurtenanceTypeValue</v>
       </c>
       <c r="C196" t="s">
-        <v>1069</v>
+        <v>1019</v>
       </c>
       <c r="D196" t="s">
         <v>206</v>
       </c>
       <c r="E196" t="s">
-        <v>1074</v>
+        <v>1024</v>
       </c>
       <c r="F196" t="s">
-        <v>1074</v>
+        <v>1024</v>
       </c>
       <c r="G196" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H196" s="4" t="s">
-        <v>750</v>
+      <c r="H196" s="11" t="s">
+        <v>1137</v>
       </c>
       <c r="I196" t="s">
         <v>226</v>
@@ -13273,16 +13274,16 @@
         <v>207</v>
       </c>
       <c r="E197" t="s">
-        <v>1072</v>
+        <v>1022</v>
       </c>
       <c r="F197" t="s">
-        <v>1075</v>
+        <v>1025</v>
       </c>
       <c r="G197" s="8" t="s">
         <v>55</v>
       </c>
-      <c r="H197" s="4" t="s">
-        <v>751</v>
+      <c r="H197" s="11" t="s">
+        <v>1138</v>
       </c>
       <c r="I197" t="s">
         <v>226</v>
@@ -13303,16 +13304,16 @@
         <v>214</v>
       </c>
       <c r="E198" t="s">
-        <v>1073</v>
+        <v>1023</v>
       </c>
       <c r="F198" t="s">
-        <v>1073</v>
+        <v>1023</v>
       </c>
       <c r="G198" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H198" s="4" t="s">
-        <v>752</v>
+      <c r="H198" s="11" t="s">
+        <v>1139</v>
       </c>
       <c r="I198" t="s">
         <v>226</v>
@@ -13333,16 +13334,16 @@
         <v>213</v>
       </c>
       <c r="E199" t="s">
-        <v>1141</v>
+        <v>1091</v>
       </c>
       <c r="F199" t="s">
-        <v>1130</v>
+        <v>1080</v>
       </c>
       <c r="G199" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H199" s="4" t="s">
-        <v>753</v>
+      <c r="H199" s="11" t="s">
+        <v>1140</v>
       </c>
       <c r="I199" t="s">
         <v>132</v>
@@ -13363,16 +13364,16 @@
         <v>214</v>
       </c>
       <c r="E200" t="s">
-        <v>1142</v>
+        <v>1092</v>
       </c>
       <c r="F200" t="s">
-        <v>1131</v>
+        <v>1081</v>
       </c>
       <c r="G200" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H200" s="4" t="s">
-        <v>754</v>
+      <c r="H200" s="11" t="s">
+        <v>1141</v>
       </c>
       <c r="I200" t="s">
         <v>132</v>
@@ -13387,22 +13388,22 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C201" t="s">
-        <v>1127</v>
+        <v>1077</v>
       </c>
       <c r="D201" t="s">
         <v>217</v>
       </c>
       <c r="E201" t="s">
-        <v>1150</v>
+        <v>1100</v>
       </c>
       <c r="F201" t="s">
-        <v>1132</v>
+        <v>1082</v>
       </c>
       <c r="G201" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H201" s="4" t="s">
-        <v>755</v>
+      <c r="H201" s="11" t="s">
+        <v>1142</v>
       </c>
       <c r="I201" t="s">
         <v>132</v>
@@ -13417,22 +13418,22 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C202" t="s">
-        <v>1129</v>
+        <v>1079</v>
       </c>
       <c r="D202" t="s">
         <v>216</v>
       </c>
       <c r="E202" t="s">
-        <v>1143</v>
+        <v>1093</v>
       </c>
       <c r="F202" t="s">
-        <v>1133</v>
+        <v>1083</v>
       </c>
       <c r="G202" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H202" s="4" t="s">
-        <v>756</v>
+      <c r="H202" s="11" t="s">
+        <v>1143</v>
       </c>
       <c r="I202" t="s">
         <v>132</v>
@@ -13447,22 +13448,22 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C203" t="s">
-        <v>1126</v>
+        <v>1076</v>
       </c>
       <c r="D203" t="s">
         <v>209</v>
       </c>
       <c r="E203" t="s">
-        <v>1144</v>
+        <v>1094</v>
       </c>
       <c r="F203" t="s">
-        <v>1134</v>
+        <v>1084</v>
       </c>
       <c r="G203" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H203" s="4" t="s">
-        <v>757</v>
+      <c r="H203" s="11" t="s">
+        <v>1144</v>
       </c>
       <c r="I203" t="s">
         <v>132</v>
@@ -13483,16 +13484,16 @@
         <v>210</v>
       </c>
       <c r="E204" t="s">
-        <v>1145</v>
+        <v>1095</v>
       </c>
       <c r="F204" t="s">
-        <v>1135</v>
+        <v>1085</v>
       </c>
       <c r="G204" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H204" s="4" t="s">
-        <v>758</v>
+      <c r="H204" s="11" t="s">
+        <v>1145</v>
       </c>
       <c r="I204" t="s">
         <v>132</v>
@@ -13513,16 +13514,16 @@
         <v>218</v>
       </c>
       <c r="E205" t="s">
-        <v>1146</v>
+        <v>1096</v>
       </c>
       <c r="F205" t="s">
-        <v>1136</v>
+        <v>1086</v>
       </c>
       <c r="G205" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H205" s="4" t="s">
-        <v>759</v>
+      <c r="H205" s="11" t="s">
+        <v>1146</v>
       </c>
       <c r="I205" t="s">
         <v>132</v>
@@ -13537,22 +13538,22 @@
         <v>WaterAppurtenanceTypeValue</v>
       </c>
       <c r="C206" t="s">
-        <v>1128</v>
+        <v>1078</v>
       </c>
       <c r="D206" t="s">
         <v>211</v>
       </c>
       <c r="E206" t="s">
-        <v>1074</v>
+        <v>1024</v>
       </c>
       <c r="F206" t="s">
-        <v>1137</v>
+        <v>1087</v>
       </c>
       <c r="G206" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H206" s="4" t="s">
-        <v>760</v>
+      <c r="H206" s="11" t="s">
+        <v>1147</v>
       </c>
       <c r="I206" t="s">
         <v>132</v>
@@ -13573,16 +13574,16 @@
         <v>143</v>
       </c>
       <c r="E207" t="s">
-        <v>1147</v>
+        <v>1097</v>
       </c>
       <c r="F207" t="s">
-        <v>1138</v>
+        <v>1088</v>
       </c>
       <c r="G207" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H207" s="4" t="s">
-        <v>761</v>
+      <c r="H207" s="11" t="s">
+        <v>1148</v>
       </c>
       <c r="I207" t="s">
         <v>132</v>
@@ -13603,16 +13604,16 @@
         <v>212</v>
       </c>
       <c r="E208" t="s">
-        <v>1148</v>
+        <v>1098</v>
       </c>
       <c r="F208" t="s">
-        <v>1139</v>
+        <v>1089</v>
       </c>
       <c r="G208" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H208" s="4" t="s">
-        <v>762</v>
+      <c r="H208" s="11" t="s">
+        <v>1149</v>
       </c>
       <c r="I208" t="s">
         <v>132</v>
@@ -13633,16 +13634,16 @@
         <v>215</v>
       </c>
       <c r="E209" t="s">
-        <v>1149</v>
+        <v>1099</v>
       </c>
       <c r="F209" t="s">
-        <v>1140</v>
+        <v>1090</v>
       </c>
       <c r="G209" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H209" s="4" t="s">
-        <v>763</v>
+      <c r="H209" s="11" t="s">
+        <v>1150</v>
       </c>
       <c r="I209" t="s">
         <v>132</v>
@@ -13657,22 +13658,22 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C210" t="s">
-        <v>1005</v>
+        <v>955</v>
       </c>
       <c r="D210" t="s">
         <v>171</v>
       </c>
       <c r="E210" t="s">
-        <v>1005</v>
+        <v>955</v>
       </c>
       <c r="F210" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="G210" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H210" s="4" t="s">
-        <v>764</v>
+        <v>727</v>
       </c>
       <c r="I210" t="s">
         <v>231</v>
@@ -13687,22 +13688,22 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C211" t="s">
-        <v>1006</v>
+        <v>956</v>
       </c>
       <c r="D211" t="s">
         <v>221</v>
       </c>
       <c r="E211" t="s">
-        <v>1006</v>
+        <v>956</v>
       </c>
       <c r="F211" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="G211" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H211" s="4" t="s">
-        <v>765</v>
+        <v>728</v>
       </c>
       <c r="I211" t="s">
         <v>231</v>
@@ -13723,16 +13724,16 @@
         <v>224</v>
       </c>
       <c r="E212" t="s">
-        <v>1108</v>
+        <v>1058</v>
       </c>
       <c r="F212" t="s">
-        <v>1107</v>
+        <v>1057</v>
       </c>
       <c r="G212" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H212" s="4" t="s">
-        <v>766</v>
+      <c r="H212" s="11" t="s">
+        <v>1151</v>
       </c>
       <c r="I212" t="s">
         <v>223</v>
@@ -13753,19 +13754,19 @@
         <v>225</v>
       </c>
       <c r="E213" t="s">
-        <v>1106</v>
+        <v>1056</v>
       </c>
       <c r="F213" t="s">
-        <v>1105</v>
+        <v>1055</v>
       </c>
       <c r="G213" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H213" s="4" t="s">
-        <v>767</v>
+      <c r="H213" s="11" t="s">
+        <v>1152</v>
       </c>
       <c r="I213" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
     </row>
     <row r="214" spans="1:9">
@@ -13783,16 +13784,16 @@
         <v>227</v>
       </c>
       <c r="E214" t="s">
-        <v>1104</v>
+        <v>1054</v>
       </c>
       <c r="F214" t="s">
-        <v>1103</v>
+        <v>1053</v>
       </c>
       <c r="G214" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H214" s="4" t="s">
-        <v>768</v>
+      <c r="H214" s="11" t="s">
+        <v>1153</v>
       </c>
       <c r="I214" t="s">
         <v>226</v>
@@ -13813,16 +13814,16 @@
         <v>232</v>
       </c>
       <c r="E215" t="s">
-        <v>1099</v>
+        <v>1049</v>
       </c>
       <c r="F215" t="s">
-        <v>1098</v>
+        <v>1048</v>
       </c>
       <c r="G215" s="5" t="s">
         <v>94</v>
       </c>
       <c r="H215" s="11" t="s">
-        <v>769</v>
+        <v>1154</v>
       </c>
       <c r="I215" t="s">
         <v>231</v>
@@ -13843,16 +13844,16 @@
         <v>230</v>
       </c>
       <c r="E216" t="s">
-        <v>1101</v>
+        <v>1051</v>
       </c>
       <c r="F216" t="s">
-        <v>1100</v>
+        <v>1050</v>
       </c>
       <c r="G216" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H216" s="4" t="s">
-        <v>770</v>
+      <c r="H216" s="11" t="s">
+        <v>1155</v>
       </c>
       <c r="I216" t="s">
         <v>229</v>
@@ -13876,13 +13877,13 @@
         <v>133</v>
       </c>
       <c r="F217" t="s">
-        <v>1102</v>
+        <v>1052</v>
       </c>
       <c r="G217" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H217" s="4" t="s">
-        <v>771</v>
+      <c r="H217" s="11" t="s">
+        <v>1156</v>
       </c>
       <c r="I217" t="s">
         <v>132</v>
@@ -13890,32 +13891,32 @@
     </row>
     <row r="218" spans="1:9">
       <c r="A218" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B218" t="str">
         <f>VLOOKUP(A218,Overview!B:B,1,0)</f>
         <v>UtilityNetworkTypeIMKLValue</v>
       </c>
       <c r="C218" t="s">
-        <v>1039</v>
+        <v>989</v>
       </c>
       <c r="D218" t="s">
         <v>233</v>
       </c>
       <c r="E218" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="F218" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="G218" s="5" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H218" s="4" t="s">
-        <v>772</v>
+        <v>729</v>
       </c>
       <c r="I218" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="219" spans="1:9">
@@ -13933,16 +13934,16 @@
         <v>237</v>
       </c>
       <c r="E219" t="s">
-        <v>1030</v>
+        <v>980</v>
       </c>
       <c r="F219" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="G219" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H219" s="4" t="s">
-        <v>773</v>
+        <v>730</v>
       </c>
       <c r="I219" t="s">
         <v>229</v>
@@ -13963,16 +13964,16 @@
         <v>235</v>
       </c>
       <c r="E220" t="s">
-        <v>1031</v>
+        <v>981</v>
       </c>
       <c r="F220" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="G220" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H220" s="4" t="s">
-        <v>774</v>
+        <v>731</v>
       </c>
       <c r="I220" t="s">
         <v>229</v>
@@ -13993,16 +13994,16 @@
         <v>236</v>
       </c>
       <c r="E221" t="s">
-        <v>1032</v>
+        <v>982</v>
       </c>
       <c r="F221" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="G221" s="8" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="H221" s="4" t="s">
-        <v>775</v>
+        <v>732</v>
       </c>
       <c r="I221" t="s">
         <v>229</v>
@@ -14017,25 +14018,25 @@
         <v>ConditionOfFacilityValue</v>
       </c>
       <c r="C222" t="s">
-        <v>1055</v>
+        <v>1005</v>
       </c>
       <c r="D222" t="s">
         <v>240</v>
       </c>
       <c r="E222" t="s">
-        <v>1059</v>
+        <v>1009</v>
       </c>
       <c r="F222" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="G222" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H222" s="4" t="s">
-        <v>776</v>
+      <c r="H222" s="11" t="s">
+        <v>1157</v>
       </c>
       <c r="I222" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="223" spans="1:9">
@@ -14047,25 +14048,25 @@
         <v>ConditionOfFacilityValue</v>
       </c>
       <c r="C223" t="s">
-        <v>1056</v>
+        <v>1006</v>
       </c>
       <c r="D223" t="s">
         <v>238</v>
       </c>
       <c r="E223" t="s">
-        <v>1060</v>
+        <v>1010</v>
       </c>
       <c r="F223" s="14" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="G223" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H223" s="4" t="s">
-        <v>777</v>
+      <c r="H223" s="11" t="s">
+        <v>1158</v>
       </c>
       <c r="I223" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="224" spans="1:9">
@@ -14077,25 +14078,25 @@
         <v>ConditionOfFacilityValue</v>
       </c>
       <c r="C224" t="s">
-        <v>1057</v>
+        <v>1007</v>
       </c>
       <c r="D224" t="s">
         <v>239</v>
       </c>
       <c r="E224" t="s">
-        <v>1061</v>
+        <v>1011</v>
       </c>
       <c r="F224" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="G224" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H224" s="4" t="s">
-        <v>778</v>
+      <c r="H224" s="11" t="s">
+        <v>1159</v>
       </c>
       <c r="I224" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="225" spans="1:9">
@@ -14107,25 +14108,25 @@
         <v>ConditionOfFacilityValue</v>
       </c>
       <c r="C225" t="s">
-        <v>1058</v>
+        <v>1008</v>
       </c>
       <c r="D225" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="E225" s="4" t="s">
-        <v>1062</v>
+        <v>1012</v>
       </c>
       <c r="F225" s="4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="G225" s="9" t="s">
         <v>253</v>
       </c>
-      <c r="H225" s="4" t="s">
-        <v>779</v>
+      <c r="H225" s="11" t="s">
+        <v>1160</v>
       </c>
       <c r="I225" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="226" spans="1:9">
@@ -14137,25 +14138,25 @@
         <v>VerticalPositionValue</v>
       </c>
       <c r="C226" t="s">
-        <v>1109</v>
+        <v>1059</v>
       </c>
       <c r="D226" t="s">
         <v>242</v>
       </c>
       <c r="E226" t="s">
-        <v>1113</v>
+        <v>1063</v>
       </c>
       <c r="F226" t="s">
-        <v>1112</v>
+        <v>1062</v>
       </c>
       <c r="G226" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H226" s="4" t="s">
-        <v>780</v>
+      <c r="H226" s="11" t="s">
+        <v>1161</v>
       </c>
       <c r="I226" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="227" spans="1:9">
@@ -14167,25 +14168,25 @@
         <v>VerticalPositionValue</v>
       </c>
       <c r="C227" t="s">
-        <v>1110</v>
+        <v>1060</v>
       </c>
       <c r="D227" t="s">
         <v>243</v>
       </c>
       <c r="E227" t="s">
-        <v>1115</v>
+        <v>1065</v>
       </c>
       <c r="F227" t="s">
-        <v>1114</v>
+        <v>1064</v>
       </c>
       <c r="G227" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H227" s="4" t="s">
-        <v>781</v>
+      <c r="H227" s="11" t="s">
+        <v>1162</v>
       </c>
       <c r="I227" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="228" spans="1:9">
@@ -14197,25 +14198,25 @@
         <v>VerticalPositionValue</v>
       </c>
       <c r="C228" t="s">
-        <v>1111</v>
+        <v>1061</v>
       </c>
       <c r="D228" t="s">
         <v>244</v>
       </c>
       <c r="E228" t="s">
-        <v>1116</v>
+        <v>1066</v>
       </c>
       <c r="F228" t="s">
-        <v>1117</v>
+        <v>1067</v>
       </c>
       <c r="G228" s="5" t="s">
         <v>94</v>
       </c>
-      <c r="H228" s="4" t="s">
-        <v>782</v>
+      <c r="H228" s="11" t="s">
+        <v>1163</v>
       </c>
       <c r="I228" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="229" spans="1:9">
@@ -14236,7 +14237,7 @@
         <v>252</v>
       </c>
       <c r="I229" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="230" spans="1:9">
@@ -14257,7 +14258,7 @@
         <v>252</v>
       </c>
       <c r="I230" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="231" spans="1:9">
@@ -14278,7 +14279,7 @@
         <v>252</v>
       </c>
       <c r="I231" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="232" spans="1:9">
@@ -14299,7 +14300,7 @@
         <v>252</v>
       </c>
       <c r="I232" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="233" spans="1:9">
@@ -14320,7 +14321,7 @@
         <v>252</v>
       </c>
       <c r="I233" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="234" spans="1:9">
@@ -14332,25 +14333,25 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C234" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="D234" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="E234" s="4" t="s">
-        <v>995</v>
+        <v>945</v>
       </c>
       <c r="F234" s="4" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="G234" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H234" s="4" t="s">
-        <v>783</v>
+        <v>733</v>
       </c>
       <c r="I234" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="235" spans="1:9">
@@ -14362,25 +14363,25 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C235" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="D235" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="E235" s="4" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="F235" s="4" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="G235" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H235" s="4" t="s">
-        <v>784</v>
+        <v>734</v>
       </c>
       <c r="I235" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="236" spans="1:9">
@@ -14392,25 +14393,25 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C236" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="D236" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="E236" s="4" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="F236" s="4" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="G236" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H236" s="4" t="s">
-        <v>785</v>
+        <v>735</v>
       </c>
       <c r="I236" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="237" spans="1:9">
@@ -14422,25 +14423,25 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C237" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="D237" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="E237" s="4" t="s">
-        <v>996</v>
+        <v>946</v>
       </c>
       <c r="F237" s="4" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="G237" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H237" s="4" t="s">
-        <v>786</v>
+        <v>736</v>
       </c>
       <c r="I237" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="238" spans="1:9">
@@ -14452,25 +14453,25 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C238" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="D238" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="E238" s="4" t="s">
-        <v>997</v>
+        <v>947</v>
       </c>
       <c r="F238" s="4" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="G238" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H238" s="4" t="s">
-        <v>787</v>
+        <v>737</v>
       </c>
       <c r="I238" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="239" spans="1:9">
@@ -14482,25 +14483,25 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C239" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D239" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="E239" s="4" t="s">
-        <v>998</v>
+        <v>948</v>
       </c>
       <c r="F239" s="4" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="G239" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H239" s="4" t="s">
-        <v>788</v>
+        <v>738</v>
       </c>
       <c r="I239" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="240" spans="1:9">
@@ -14512,25 +14513,25 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C240" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="D240" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="E240" s="4" t="s">
-        <v>999</v>
+        <v>949</v>
       </c>
       <c r="F240" s="4" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="G240" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H240" s="4" t="s">
-        <v>789</v>
+        <v>739</v>
       </c>
       <c r="I240" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="241" spans="1:9">
@@ -14542,25 +14543,25 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C241" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="D241" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="E241" s="4" t="s">
-        <v>1000</v>
+        <v>950</v>
       </c>
       <c r="F241" s="4" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="G241" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H241" s="4" t="s">
-        <v>790</v>
+        <v>740</v>
       </c>
       <c r="I241" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="242" spans="1:9">
@@ -14572,25 +14573,25 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C242" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="D242" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="E242" s="4" t="s">
-        <v>1001</v>
+        <v>951</v>
       </c>
       <c r="F242" s="4" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="G242" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H242" s="4" t="s">
-        <v>791</v>
+        <v>741</v>
       </c>
       <c r="I242" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="243" spans="1:9">
@@ -14602,25 +14603,25 @@
         <v>SurveyMethodValue</v>
       </c>
       <c r="C243" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="D243" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="E243" s="4" t="s">
-        <v>1002</v>
+        <v>952</v>
       </c>
       <c r="F243" s="4" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="G243" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H243" s="4" t="s">
-        <v>792</v>
+        <v>742</v>
       </c>
       <c r="I243" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="244" spans="1:9">
@@ -14632,25 +14633,25 @@
         <v>VisibilityTypeValue</v>
       </c>
       <c r="C244" t="s">
-        <v>1040</v>
+        <v>990</v>
       </c>
       <c r="D244" t="s">
-        <v>1040</v>
+        <v>990</v>
       </c>
       <c r="E244" s="4" t="s">
-        <v>1042</v>
+        <v>992</v>
       </c>
       <c r="F244" s="4" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="G244" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H244" s="4" t="s">
-        <v>793</v>
+        <v>743</v>
       </c>
       <c r="I244" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="245" spans="1:9">
@@ -14662,25 +14663,25 @@
         <v>VisibilityTypeValue</v>
       </c>
       <c r="C245" t="s">
-        <v>1041</v>
+        <v>991</v>
       </c>
       <c r="D245" t="s">
-        <v>1041</v>
+        <v>991</v>
       </c>
       <c r="E245" s="4" t="s">
-        <v>1043</v>
+        <v>993</v>
       </c>
       <c r="F245" s="4" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="G245" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H245" s="4" t="s">
-        <v>794</v>
+        <v>744</v>
       </c>
       <c r="I245" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="246" spans="1:9">
@@ -14692,25 +14693,25 @@
         <v>ReferenceSurfaceTypeValue</v>
       </c>
       <c r="C246" t="s">
-        <v>971</v>
+        <v>921</v>
       </c>
       <c r="D246" t="s">
-        <v>971</v>
+        <v>921</v>
       </c>
       <c r="E246" s="4" t="s">
-        <v>972</v>
+        <v>922</v>
       </c>
       <c r="F246" s="4" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="G246" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H246" s="4" t="s">
-        <v>795</v>
+        <v>745</v>
       </c>
       <c r="I246" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="247" spans="1:9">
@@ -14722,25 +14723,25 @@
         <v>ConstructionTechniqueValue</v>
       </c>
       <c r="C247" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="D247" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="E247" s="4" t="s">
-        <v>833</v>
+        <v>783</v>
       </c>
       <c r="F247" s="4" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="G247" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H247" s="4" t="s">
-        <v>796</v>
+        <v>746</v>
       </c>
       <c r="I247" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="248" spans="1:9">
@@ -14752,25 +14753,25 @@
         <v>ConstructionTechniqueValue</v>
       </c>
       <c r="C248" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="D248" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="E248" s="4" t="s">
-        <v>834</v>
+        <v>784</v>
       </c>
       <c r="F248" s="4" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="G248" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H248" s="4" t="s">
-        <v>797</v>
+        <v>747</v>
       </c>
       <c r="I248" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="249" spans="1:9">
@@ -14782,25 +14783,25 @@
         <v>ConstructionTechniqueValue</v>
       </c>
       <c r="C249" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="D249" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="E249" s="4" t="s">
-        <v>835</v>
+        <v>785</v>
       </c>
       <c r="F249" s="4" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="G249" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H249" s="4" t="s">
-        <v>798</v>
+        <v>748</v>
       </c>
       <c r="I249" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
     <row r="250" spans="1:9">
@@ -14818,19 +14819,19 @@
         <v>179</v>
       </c>
       <c r="E250" s="4" t="s">
-        <v>836</v>
+        <v>786</v>
       </c>
       <c r="F250" s="4" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="G250" s="9" t="s">
         <v>253</v>
       </c>
       <c r="H250" s="4" t="s">
-        <v>799</v>
+        <v>749</v>
       </c>
       <c r="I250" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
     </row>
   </sheetData>
@@ -14841,13 +14842,68 @@
     <hyperlink ref="H176" r:id="rId3" xr:uid="{C88BA0AA-E539-4613-B0E2-CF257D7FDA97}"/>
     <hyperlink ref="H56" r:id="rId4" xr:uid="{1F1F5C28-1BDF-47D0-B346-A07AEBB91FE4}"/>
     <hyperlink ref="H57" r:id="rId5" xr:uid="{D4697982-2693-4411-94C5-21CE77B430F4}"/>
+    <hyperlink ref="H122" r:id="rId6" xr:uid="{ABAA3D72-7544-45A4-99A8-7572D1DD7F01}"/>
+    <hyperlink ref="H172" r:id="rId7" xr:uid="{B683F742-B418-4F3E-96FF-570D55D50F0F}"/>
+    <hyperlink ref="H173" r:id="rId8" xr:uid="{2C646016-AC82-4F1D-A125-2A94BC400122}"/>
+    <hyperlink ref="H174" r:id="rId9" xr:uid="{1F5A36F7-914B-4D15-9A3D-9ACD60FB966D}"/>
+    <hyperlink ref="H175" r:id="rId10" xr:uid="{4A8D0103-F670-43B3-BDC3-BCEB9EC3FF62}"/>
+    <hyperlink ref="H177" r:id="rId11" xr:uid="{401D065B-1365-4619-84EB-607412D77093}"/>
+    <hyperlink ref="H178" r:id="rId12" xr:uid="{A1B04730-FC37-4CDC-BD1F-89F7412237E8}"/>
+    <hyperlink ref="H179" r:id="rId13" xr:uid="{55DFEA1B-E702-495D-A07E-4FD962E5C359}"/>
+    <hyperlink ref="H181" r:id="rId14" xr:uid="{0EFFACAD-16A8-4AC6-B31C-EB3BB2071948}"/>
+    <hyperlink ref="H182" r:id="rId15" xr:uid="{1D68CE8C-02F4-449E-BC71-7234D067A023}"/>
+    <hyperlink ref="H183" r:id="rId16" xr:uid="{B7DE930E-F25B-41D3-BF91-90A4526D21E8}"/>
+    <hyperlink ref="H185" r:id="rId17" xr:uid="{677DC633-D0CE-4486-876A-6C2789498D8E}"/>
+    <hyperlink ref="H187" r:id="rId18" xr:uid="{4D24114E-D288-498A-AC4E-CA0AC7F528DC}"/>
+    <hyperlink ref="H188" r:id="rId19" xr:uid="{6337A1B1-63F3-4689-B00E-7E97D8BDBB17}"/>
+    <hyperlink ref="H189" r:id="rId20" xr:uid="{6F01D057-5009-405C-A378-2C9084522ACE}"/>
+    <hyperlink ref="H190" r:id="rId21" xr:uid="{F834685D-0E20-48F9-972A-B499B1744483}"/>
+    <hyperlink ref="H191" r:id="rId22" xr:uid="{C563FF9C-B35D-43D2-B5A0-5948B139E823}"/>
+    <hyperlink ref="H192" r:id="rId23" xr:uid="{4204DC20-B08E-4214-BAB2-7865E88A74E2}"/>
+    <hyperlink ref="H193" r:id="rId24" xr:uid="{E6B4C9D5-536F-49C0-9836-49A1729EF5F8}"/>
+    <hyperlink ref="H194" r:id="rId25" xr:uid="{1747156C-EC05-42D9-9C17-ECED15A16B8C}"/>
+    <hyperlink ref="H196" r:id="rId26" xr:uid="{C840FD79-5511-419B-B71C-523325940511}"/>
+    <hyperlink ref="H197" r:id="rId27" xr:uid="{A612728F-E534-4F83-B75C-C943E511E5F4}"/>
+    <hyperlink ref="H198" r:id="rId28" xr:uid="{0C412814-EDD8-494A-8DD8-8717326FE6CE}"/>
+    <hyperlink ref="H199" r:id="rId29" xr:uid="{E8436180-4CC1-414A-A98C-E65BCCFB9A97}"/>
+    <hyperlink ref="H200" r:id="rId30" xr:uid="{7BFA7725-C619-4D8B-83B4-51C04EA8AE9C}"/>
+    <hyperlink ref="H201" r:id="rId31" xr:uid="{0FE796B3-2D6A-411D-818D-CEB958FA4A53}"/>
+    <hyperlink ref="H202" r:id="rId32" xr:uid="{BFEF2AF7-7B49-4333-99FC-2C06BDAEB39C}"/>
+    <hyperlink ref="H203" r:id="rId33" xr:uid="{2A44252A-0BD9-401A-A612-F9B7450526EB}"/>
+    <hyperlink ref="H204" r:id="rId34" xr:uid="{1C4D117C-8255-4C7D-BD23-3F47AE919C86}"/>
+    <hyperlink ref="H205" r:id="rId35" xr:uid="{B7104230-4872-4C91-8A2F-6C4D9420C255}"/>
+    <hyperlink ref="H206" r:id="rId36" xr:uid="{C2A58BB7-4B38-48AF-99EA-AD98C0BAD6B7}"/>
+    <hyperlink ref="H207" r:id="rId37" xr:uid="{CB761062-F3A5-4CCA-81AE-CCDC6EBA5DD0}"/>
+    <hyperlink ref="H208" r:id="rId38" xr:uid="{540E5C28-BF01-478F-B414-05A17A0FFBBD}"/>
+    <hyperlink ref="H209" r:id="rId39" xr:uid="{A841B4E2-A4E2-43AD-8EA0-F7536CFE80F5}"/>
+    <hyperlink ref="H212" r:id="rId40" xr:uid="{162B6A1F-9236-4017-A801-80CA95E093B7}"/>
+    <hyperlink ref="H213" r:id="rId41" xr:uid="{69393C07-8305-49C2-951A-5B014181C889}"/>
+    <hyperlink ref="H214" r:id="rId42" xr:uid="{4872D9B8-98CE-4658-B0A2-721157FD4719}"/>
+    <hyperlink ref="H216" r:id="rId43" xr:uid="{CF7A175C-9AF1-4E2F-8B5C-129F74864BB5}"/>
+    <hyperlink ref="H217" r:id="rId44" xr:uid="{8B04C234-CAE1-4D8F-9D6B-3CE5D7151A1C}"/>
+    <hyperlink ref="H222" r:id="rId45" xr:uid="{DD849531-5AD5-4BCE-B04D-D612D36CFE58}"/>
+    <hyperlink ref="H223" r:id="rId46" xr:uid="{C68522B8-6AA1-4251-9F40-89879E7E43FF}"/>
+    <hyperlink ref="H224" r:id="rId47" xr:uid="{24B8D400-A939-4D71-AE9B-70DD18DC3C0F}"/>
+    <hyperlink ref="H225" r:id="rId48" xr:uid="{86A09E5E-4436-4D65-B54F-E71F96FCC891}"/>
+    <hyperlink ref="H226" r:id="rId49" xr:uid="{D7E61AB4-FE38-4F11-B4F8-1FE4491E4793}"/>
+    <hyperlink ref="H227" r:id="rId50" xr:uid="{5B4D8E4B-F663-4D57-9BB6-92434C862DC8}"/>
+    <hyperlink ref="H228" r:id="rId51" xr:uid="{E808D984-0BBF-405B-983F-9F2F3DCEF94D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId6"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId52"/>
 </worksheet>
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -15107,16 +15163,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC2C1C4-4794-4CDA-B113-FDC4260BCF94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{791B434E-C5B6-43DF-B218-859297235BBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15134,12 +15189,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC2C1C4-4794-4CDA-B113-FDC4260BCF94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/implementation/Documentation/IMKL3_Codelists.xlsx
+++ b/implementation/Documentation/IMKL3_Codelists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\ICEGthema-imkl\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D5E46885-E336-4888-B931-B1B61364A650}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA09841-84DA-42F7-BF42-CD23ED9BC078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="46296" windowHeight="30480" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
+    <workbookView xWindow="17268" yWindow="3096" windowWidth="26196" windowHeight="25128" activeTab="2" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -4019,7 +4019,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A12F05A2-F84B-4BFA-ADF4-7302F1870D77}">
   <dimension ref="A1:AB47"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+    <sheetView topLeftCell="B1" workbookViewId="0">
       <selection activeCell="B62" sqref="B62"/>
     </sheetView>
   </sheetViews>
@@ -7364,11 +7364,12 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}">
+  <sheetPr filterMode="1"/>
   <dimension ref="A1:I250"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H258" sqref="H258"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -8222,7 +8223,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:9">
+    <row r="29" spans="1:9" hidden="1">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -8252,7 +8253,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="30" spans="1:9">
+    <row r="30" spans="1:9" hidden="1">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -8282,7 +8283,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:9">
+    <row r="31" spans="1:9" hidden="1">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -8312,7 +8313,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:9" hidden="1">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -8342,7 +8343,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="33" spans="1:9">
+    <row r="33" spans="1:9" hidden="1">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -8372,7 +8373,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="34" spans="1:9">
+    <row r="34" spans="1:9" hidden="1">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -8402,7 +8403,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="35" spans="1:9">
+    <row r="35" spans="1:9" hidden="1">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -8432,7 +8433,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="36" spans="1:9">
+    <row r="36" spans="1:9" hidden="1">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -8462,7 +8463,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="37" spans="1:9">
+    <row r="37" spans="1:9" hidden="1">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -8492,7 +8493,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="38" spans="1:9">
+    <row r="38" spans="1:9" hidden="1">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -8522,7 +8523,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="39" spans="1:9">
+    <row r="39" spans="1:9" hidden="1">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -8552,7 +8553,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="40" spans="1:9">
+    <row r="40" spans="1:9" hidden="1">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -8582,7 +8583,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:9">
+    <row r="41" spans="1:9" hidden="1">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -8612,7 +8613,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="42" spans="1:9">
+    <row r="42" spans="1:9" hidden="1">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -8642,7 +8643,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="43" spans="1:9">
+    <row r="43" spans="1:9" hidden="1">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -8672,7 +8673,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="44" spans="1:9">
+    <row r="44" spans="1:9" hidden="1">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -8702,7 +8703,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="45" spans="1:9">
+    <row r="45" spans="1:9" hidden="1">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -8729,7 +8730,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="46" spans="1:9">
+    <row r="46" spans="1:9" hidden="1">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -8759,7 +8760,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="47" spans="1:9">
+    <row r="47" spans="1:9" hidden="1">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -8789,7 +8790,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="48" spans="1:9">
+    <row r="48" spans="1:9" hidden="1">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -8819,7 +8820,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="49" spans="1:9">
+    <row r="49" spans="1:9" hidden="1">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -8849,7 +8850,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="50" spans="1:9">
+    <row r="50" spans="1:9" hidden="1">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -8879,7 +8880,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="51" spans="1:9">
+    <row r="51" spans="1:9" hidden="1">
       <c r="A51" t="s">
         <v>91</v>
       </c>
@@ -8909,7 +8910,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="52" spans="1:9">
+    <row r="52" spans="1:9" hidden="1">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -8939,7 +8940,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="53" spans="1:9">
+    <row r="53" spans="1:9" hidden="1">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -8969,7 +8970,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="54" spans="1:9">
+    <row r="54" spans="1:9" hidden="1">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -8999,7 +9000,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="55" spans="1:9">
+    <row r="55" spans="1:9" hidden="1">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -9029,7 +9030,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="56" spans="1:9">
+    <row r="56" spans="1:9" hidden="1">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -9059,7 +9060,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="57" spans="1:9">
+    <row r="57" spans="1:9" hidden="1">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -9089,7 +9090,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="58" spans="1:9">
+    <row r="58" spans="1:9" hidden="1">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -9119,7 +9120,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="59" spans="1:9">
+    <row r="59" spans="1:9" hidden="1">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -9149,7 +9150,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="60" spans="1:9">
+    <row r="60" spans="1:9" hidden="1">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -9179,7 +9180,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="61" spans="1:9">
+    <row r="61" spans="1:9" hidden="1">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -9209,7 +9210,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="62" spans="1:9">
+    <row r="62" spans="1:9" hidden="1">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -9239,7 +9240,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="63" spans="1:9">
+    <row r="63" spans="1:9" hidden="1">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -9269,7 +9270,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="64" spans="1:9">
+    <row r="64" spans="1:9" hidden="1">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -9299,7 +9300,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="65" spans="1:9">
+    <row r="65" spans="1:9" hidden="1">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -9329,7 +9330,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="66" spans="1:9">
+    <row r="66" spans="1:9" hidden="1">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -9359,7 +9360,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="67" spans="1:9">
+    <row r="67" spans="1:9" hidden="1">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -9389,7 +9390,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="68" spans="1:9">
+    <row r="68" spans="1:9" hidden="1">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -9419,7 +9420,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="69" spans="1:9">
+    <row r="69" spans="1:9" hidden="1">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -9449,7 +9450,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="70" spans="1:9">
+    <row r="70" spans="1:9" hidden="1">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -9479,7 +9480,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="71" spans="1:9">
+    <row r="71" spans="1:9" hidden="1">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -9509,7 +9510,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="72" spans="1:9">
+    <row r="72" spans="1:9" hidden="1">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -9539,7 +9540,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="73" spans="1:9">
+    <row r="73" spans="1:9" hidden="1">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -9569,7 +9570,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="74" spans="1:9">
+    <row r="74" spans="1:9" hidden="1">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -9599,7 +9600,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="75" spans="1:9">
+    <row r="75" spans="1:9" hidden="1">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -9629,7 +9630,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="76" spans="1:9">
+    <row r="76" spans="1:9" hidden="1">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -9659,7 +9660,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="77" spans="1:9">
+    <row r="77" spans="1:9" hidden="1">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -9689,7 +9690,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="78" spans="1:9">
+    <row r="78" spans="1:9" hidden="1">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -9719,7 +9720,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="79" spans="1:9">
+    <row r="79" spans="1:9" hidden="1">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -9749,7 +9750,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="80" spans="1:9">
+    <row r="80" spans="1:9" hidden="1">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -9779,7 +9780,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="81" spans="1:9">
+    <row r="81" spans="1:9" hidden="1">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -9809,7 +9810,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="82" spans="1:9">
+    <row r="82" spans="1:9" hidden="1">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -9839,7 +9840,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="83" spans="1:9">
+    <row r="83" spans="1:9" hidden="1">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -9869,7 +9870,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="84" spans="1:9">
+    <row r="84" spans="1:9" hidden="1">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -9899,7 +9900,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="85" spans="1:9">
+    <row r="85" spans="1:9" hidden="1">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -9929,7 +9930,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="86" spans="1:9">
+    <row r="86" spans="1:9" hidden="1">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -9959,7 +9960,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="87" spans="1:9">
+    <row r="87" spans="1:9" hidden="1">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -9989,7 +9990,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="88" spans="1:9">
+    <row r="88" spans="1:9" hidden="1">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -10019,7 +10020,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="89" spans="1:9">
+    <row r="89" spans="1:9" hidden="1">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -10049,7 +10050,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="90" spans="1:9">
+    <row r="90" spans="1:9" hidden="1">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -10079,7 +10080,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="91" spans="1:9">
+    <row r="91" spans="1:9" hidden="1">
       <c r="A91" t="s">
         <v>135</v>
       </c>
@@ -10109,7 +10110,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="92" spans="1:9">
+    <row r="92" spans="1:9" hidden="1">
       <c r="A92" t="s">
         <v>135</v>
       </c>
@@ -10139,7 +10140,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="93" spans="1:9">
+    <row r="93" spans="1:9" hidden="1">
       <c r="A93" t="s">
         <v>135</v>
       </c>
@@ -10169,7 +10170,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="94" spans="1:9">
+    <row r="94" spans="1:9" hidden="1">
       <c r="A94" t="s">
         <v>139</v>
       </c>
@@ -10199,7 +10200,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="95" spans="1:9">
+    <row r="95" spans="1:9" hidden="1">
       <c r="A95" t="s">
         <v>139</v>
       </c>
@@ -10229,7 +10230,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="96" spans="1:9">
+    <row r="96" spans="1:9" hidden="1">
       <c r="A96" t="s">
         <v>139</v>
       </c>
@@ -10259,7 +10260,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="97" spans="1:9">
+    <row r="97" spans="1:9" hidden="1">
       <c r="A97" t="s">
         <v>139</v>
       </c>
@@ -10289,7 +10290,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="98" spans="1:9">
+    <row r="98" spans="1:9" hidden="1">
       <c r="A98" t="s">
         <v>139</v>
       </c>
@@ -10319,7 +10320,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="99" spans="1:9">
+    <row r="99" spans="1:9" hidden="1">
       <c r="A99" t="s">
         <v>139</v>
       </c>
@@ -10349,7 +10350,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="100" spans="1:9">
+    <row r="100" spans="1:9" hidden="1">
       <c r="A100" t="s">
         <v>139</v>
       </c>
@@ -10379,7 +10380,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="101" spans="1:9">
+    <row r="101" spans="1:9" hidden="1">
       <c r="A101" t="s">
         <v>139</v>
       </c>
@@ -10409,7 +10410,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="102" spans="1:9">
+    <row r="102" spans="1:9" hidden="1">
       <c r="A102" t="s">
         <v>139</v>
       </c>
@@ -10439,7 +10440,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="103" spans="1:9">
+    <row r="103" spans="1:9" hidden="1">
       <c r="A103" t="s">
         <v>139</v>
       </c>
@@ -10469,7 +10470,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="104" spans="1:9">
+    <row r="104" spans="1:9" hidden="1">
       <c r="A104" t="s">
         <v>139</v>
       </c>
@@ -10499,7 +10500,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="105" spans="1:9">
+    <row r="105" spans="1:9" hidden="1">
       <c r="A105" t="s">
         <v>139</v>
       </c>
@@ -10529,7 +10530,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="106" spans="1:9">
+    <row r="106" spans="1:9" hidden="1">
       <c r="A106" t="s">
         <v>139</v>
       </c>
@@ -10559,7 +10560,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="107" spans="1:9">
+    <row r="107" spans="1:9" hidden="1">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -10589,7 +10590,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="1:9">
+    <row r="108" spans="1:9" hidden="1">
       <c r="A108" t="s">
         <v>152</v>
       </c>
@@ -10619,7 +10620,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="109" spans="1:9">
+    <row r="109" spans="1:9" hidden="1">
       <c r="A109" t="s">
         <v>152</v>
       </c>
@@ -10649,7 +10650,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="110" spans="1:9">
+    <row r="110" spans="1:9" hidden="1">
       <c r="A110" t="s">
         <v>152</v>
       </c>
@@ -10679,7 +10680,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:9">
+    <row r="111" spans="1:9" hidden="1">
       <c r="A111" t="s">
         <v>152</v>
       </c>
@@ -10709,7 +10710,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:9">
+    <row r="112" spans="1:9" hidden="1">
       <c r="A112" t="s">
         <v>152</v>
       </c>
@@ -10739,7 +10740,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="113" spans="1:9">
+    <row r="113" spans="1:9" hidden="1">
       <c r="A113" t="s">
         <v>152</v>
       </c>
@@ -10769,7 +10770,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:9">
+    <row r="114" spans="1:9" hidden="1">
       <c r="A114" t="s">
         <v>152</v>
       </c>
@@ -10799,7 +10800,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:9">
+    <row r="115" spans="1:9" hidden="1">
       <c r="A115" t="s">
         <v>152</v>
       </c>
@@ -10829,7 +10830,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:9">
+    <row r="116" spans="1:9" hidden="1">
       <c r="A116" t="s">
         <v>155</v>
       </c>
@@ -10859,7 +10860,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:9">
+    <row r="117" spans="1:9" hidden="1">
       <c r="A117" t="s">
         <v>155</v>
       </c>
@@ -10889,7 +10890,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="118" spans="1:9">
+    <row r="118" spans="1:9" hidden="1">
       <c r="A118" t="s">
         <v>155</v>
       </c>
@@ -10919,7 +10920,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="119" spans="1:9">
+    <row r="119" spans="1:9" hidden="1">
       <c r="A119" t="s">
         <v>155</v>
       </c>
@@ -10949,7 +10950,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="120" spans="1:9">
+    <row r="120" spans="1:9" hidden="1">
       <c r="A120" t="s">
         <v>155</v>
       </c>
@@ -10979,7 +10980,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="1:9">
+    <row r="121" spans="1:9" hidden="1">
       <c r="A121" t="s">
         <v>155</v>
       </c>
@@ -11009,7 +11010,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="122" spans="1:9">
+    <row r="122" spans="1:9" hidden="1">
       <c r="A122" t="s">
         <v>323</v>
       </c>
@@ -11039,7 +11040,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="123" spans="1:9">
+    <row r="123" spans="1:9" hidden="1">
       <c r="A123" t="s">
         <v>158</v>
       </c>
@@ -11069,7 +11070,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="124" spans="1:9">
+    <row r="124" spans="1:9" hidden="1">
       <c r="A124" t="s">
         <v>160</v>
       </c>
@@ -11099,7 +11100,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="125" spans="1:9">
+    <row r="125" spans="1:9" hidden="1">
       <c r="A125" t="s">
         <v>160</v>
       </c>
@@ -11129,7 +11130,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="1:9">
+    <row r="126" spans="1:9" hidden="1">
       <c r="A126" t="s">
         <v>160</v>
       </c>
@@ -11159,7 +11160,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="127" spans="1:9">
+    <row r="127" spans="1:9" hidden="1">
       <c r="A127" t="s">
         <v>160</v>
       </c>
@@ -11189,7 +11190,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="128" spans="1:9">
+    <row r="128" spans="1:9" hidden="1">
       <c r="A128" t="s">
         <v>160</v>
       </c>
@@ -11219,7 +11220,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="129" spans="1:9">
+    <row r="129" spans="1:9" hidden="1">
       <c r="A129" t="s">
         <v>160</v>
       </c>
@@ -11249,7 +11250,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="130" spans="1:9">
+    <row r="130" spans="1:9" hidden="1">
       <c r="A130" t="s">
         <v>160</v>
       </c>
@@ -11279,7 +11280,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="131" spans="1:9">
+    <row r="131" spans="1:9" hidden="1">
       <c r="A131" t="s">
         <v>160</v>
       </c>
@@ -11309,7 +11310,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="132" spans="1:9">
+    <row r="132" spans="1:9" hidden="1">
       <c r="A132" t="s">
         <v>160</v>
       </c>
@@ -11339,7 +11340,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="133" spans="1:9">
+    <row r="133" spans="1:9" hidden="1">
       <c r="A133" t="s">
         <v>160</v>
       </c>
@@ -11369,7 +11370,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="134" spans="1:9">
+    <row r="134" spans="1:9" hidden="1">
       <c r="A134" t="s">
         <v>160</v>
       </c>
@@ -11399,7 +11400,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="135" spans="1:9">
+    <row r="135" spans="1:9" hidden="1">
       <c r="A135" t="s">
         <v>160</v>
       </c>
@@ -11429,7 +11430,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="136" spans="1:9">
+    <row r="136" spans="1:9" hidden="1">
       <c r="A136" t="s">
         <v>160</v>
       </c>
@@ -11459,7 +11460,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="1:9">
+    <row r="137" spans="1:9" hidden="1">
       <c r="A137" t="s">
         <v>160</v>
       </c>
@@ -11489,7 +11490,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="138" spans="1:9">
+    <row r="138" spans="1:9" hidden="1">
       <c r="A138" t="s">
         <v>160</v>
       </c>
@@ -11519,7 +11520,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="139" spans="1:9">
+    <row r="139" spans="1:9" hidden="1">
       <c r="A139" t="s">
         <v>160</v>
       </c>
@@ -11549,7 +11550,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="140" spans="1:9">
+    <row r="140" spans="1:9" hidden="1">
       <c r="A140" t="s">
         <v>161</v>
       </c>
@@ -11579,7 +11580,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="141" spans="1:9">
+    <row r="141" spans="1:9" hidden="1">
       <c r="A141" t="s">
         <v>161</v>
       </c>
@@ -11609,7 +11610,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="142" spans="1:9">
+    <row r="142" spans="1:9" hidden="1">
       <c r="A142" t="s">
         <v>161</v>
       </c>
@@ -11639,7 +11640,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="143" spans="1:9">
+    <row r="143" spans="1:9" hidden="1">
       <c r="A143" t="s">
         <v>161</v>
       </c>
@@ -11669,7 +11670,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="144" spans="1:9">
+    <row r="144" spans="1:9" hidden="1">
       <c r="A144" t="s">
         <v>161</v>
       </c>
@@ -11699,7 +11700,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="145" spans="1:9">
+    <row r="145" spans="1:9" hidden="1">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -11729,7 +11730,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="146" spans="1:9">
+    <row r="146" spans="1:9" hidden="1">
       <c r="A146" t="s">
         <v>161</v>
       </c>
@@ -11759,7 +11760,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="147" spans="1:9">
+    <row r="147" spans="1:9" hidden="1">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -11789,7 +11790,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="148" spans="1:9">
+    <row r="148" spans="1:9" hidden="1">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -11819,7 +11820,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="149" spans="1:9">
+    <row r="149" spans="1:9" hidden="1">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -11849,7 +11850,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="150" spans="1:9">
+    <row r="150" spans="1:9" hidden="1">
       <c r="A150" t="s">
         <v>161</v>
       </c>
@@ -11879,7 +11880,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="151" spans="1:9">
+    <row r="151" spans="1:9" hidden="1">
       <c r="A151" t="s">
         <v>161</v>
       </c>
@@ -11909,7 +11910,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="152" spans="1:9">
+    <row r="152" spans="1:9" hidden="1">
       <c r="A152" t="s">
         <v>161</v>
       </c>
@@ -11939,7 +11940,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="153" spans="1:9">
+    <row r="153" spans="1:9" hidden="1">
       <c r="A153" t="s">
         <v>161</v>
       </c>
@@ -11969,7 +11970,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="154" spans="1:9">
+    <row r="154" spans="1:9" hidden="1">
       <c r="A154" t="s">
         <v>161</v>
       </c>
@@ -11999,7 +12000,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="155" spans="1:9">
+    <row r="155" spans="1:9" hidden="1">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -12029,7 +12030,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="156" spans="1:9">
+    <row r="156" spans="1:9" hidden="1">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -12059,7 +12060,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="157" spans="1:9">
+    <row r="157" spans="1:9" hidden="1">
       <c r="A157" t="s">
         <v>161</v>
       </c>
@@ -12089,7 +12090,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="158" spans="1:9">
+    <row r="158" spans="1:9" hidden="1">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -12119,7 +12120,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="159" spans="1:9">
+    <row r="159" spans="1:9" hidden="1">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -12149,7 +12150,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="160" spans="1:9">
+    <row r="160" spans="1:9" hidden="1">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -12179,7 +12180,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="161" spans="1:9">
+    <row r="161" spans="1:9" hidden="1">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -12209,7 +12210,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="162" spans="1:9">
+    <row r="162" spans="1:9" hidden="1">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -12239,7 +12240,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="163" spans="1:9">
+    <row r="163" spans="1:9" hidden="1">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -12269,7 +12270,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="164" spans="1:9">
+    <row r="164" spans="1:9" hidden="1">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -12299,7 +12300,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="165" spans="1:9">
+    <row r="165" spans="1:9" hidden="1">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -12329,7 +12330,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="166" spans="1:9">
+    <row r="166" spans="1:9" hidden="1">
       <c r="A166" t="s">
         <v>170</v>
       </c>
@@ -12359,7 +12360,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="167" spans="1:9">
+    <row r="167" spans="1:9" hidden="1">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -12389,7 +12390,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="168" spans="1:9">
+    <row r="168" spans="1:9" hidden="1">
       <c r="A168" t="s">
         <v>338</v>
       </c>
@@ -12419,7 +12420,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="169" spans="1:9">
+    <row r="169" spans="1:9" hidden="1">
       <c r="A169" t="s">
         <v>338</v>
       </c>
@@ -12449,7 +12450,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="170" spans="1:9">
+    <row r="170" spans="1:9" hidden="1">
       <c r="A170" t="s">
         <v>338</v>
       </c>
@@ -12479,7 +12480,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="171" spans="1:9">
+    <row r="171" spans="1:9" hidden="1">
       <c r="A171" t="s">
         <v>338</v>
       </c>
@@ -12509,7 +12510,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="172" spans="1:9">
+    <row r="172" spans="1:9" hidden="1">
       <c r="A172" t="s">
         <v>327</v>
       </c>
@@ -12539,7 +12540,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="173" spans="1:9">
+    <row r="173" spans="1:9" hidden="1">
       <c r="A173" t="s">
         <v>327</v>
       </c>
@@ -12569,7 +12570,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="174" spans="1:9">
+    <row r="174" spans="1:9" hidden="1">
       <c r="A174" t="s">
         <v>327</v>
       </c>
@@ -12599,7 +12600,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="175" spans="1:9">
+    <row r="175" spans="1:9" hidden="1">
       <c r="A175" t="s">
         <v>327</v>
       </c>
@@ -12629,7 +12630,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="176" spans="1:9">
+    <row r="176" spans="1:9" hidden="1">
       <c r="A176" t="s">
         <v>325</v>
       </c>
@@ -12659,7 +12660,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="177" spans="1:9">
+    <row r="177" spans="1:9" hidden="1">
       <c r="A177" t="s">
         <v>325</v>
       </c>
@@ -12689,7 +12690,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="178" spans="1:9">
+    <row r="178" spans="1:9" hidden="1">
       <c r="A178" t="s">
         <v>325</v>
       </c>
@@ -12719,7 +12720,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="179" spans="1:9">
+    <row r="179" spans="1:9" hidden="1">
       <c r="A179" t="s">
         <v>325</v>
       </c>
@@ -12749,7 +12750,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="180" spans="1:9">
+    <row r="180" spans="1:9" hidden="1">
       <c r="A180" t="s">
         <v>320</v>
       </c>
@@ -12779,7 +12780,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="181" spans="1:9">
+    <row r="181" spans="1:9" hidden="1">
       <c r="A181" t="s">
         <v>320</v>
       </c>
@@ -12809,7 +12810,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="182" spans="1:9">
+    <row r="182" spans="1:9" hidden="1">
       <c r="A182" t="s">
         <v>320</v>
       </c>
@@ -12839,7 +12840,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="183" spans="1:9">
+    <row r="183" spans="1:9" hidden="1">
       <c r="A183" t="s">
         <v>320</v>
       </c>
@@ -12869,7 +12870,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="184" spans="1:9">
+    <row r="184" spans="1:9" hidden="1">
       <c r="A184" t="s">
         <v>341</v>
       </c>
@@ -12899,7 +12900,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="28.8">
+    <row r="185" spans="1:9" ht="28.8" hidden="1">
       <c r="A185" t="s">
         <v>323</v>
       </c>
@@ -12929,7 +12930,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="186" spans="1:9">
+    <row r="186" spans="1:9" hidden="1">
       <c r="A186" t="s">
         <v>158</v>
       </c>
@@ -12959,7 +12960,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="57.6">
+    <row r="187" spans="1:9" ht="57.6" hidden="1">
       <c r="A187" t="s">
         <v>323</v>
       </c>
@@ -12989,7 +12990,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="188" spans="1:9">
+    <row r="188" spans="1:9" hidden="1">
       <c r="A188" t="s">
         <v>315</v>
       </c>
@@ -13019,7 +13020,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="189" spans="1:9">
+    <row r="189" spans="1:9" hidden="1">
       <c r="A189" t="s">
         <v>315</v>
       </c>
@@ -13049,7 +13050,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="190" spans="1:9">
+    <row r="190" spans="1:9" hidden="1">
       <c r="A190" t="s">
         <v>316</v>
       </c>
@@ -13079,7 +13080,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="191" spans="1:9">
+    <row r="191" spans="1:9" hidden="1">
       <c r="A191" t="s">
         <v>316</v>
       </c>
@@ -13109,7 +13110,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="192" spans="1:9">
+    <row r="192" spans="1:9" hidden="1">
       <c r="A192" t="s">
         <v>316</v>
       </c>
@@ -13139,7 +13140,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="193" spans="1:9">
+    <row r="193" spans="1:9" hidden="1">
       <c r="A193" t="s">
         <v>317</v>
       </c>
@@ -13169,7 +13170,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="194" spans="1:9">
+    <row r="194" spans="1:9" hidden="1">
       <c r="A194" t="s">
         <v>317</v>
       </c>
@@ -13199,7 +13200,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="195" spans="1:9">
+    <row r="195" spans="1:9" hidden="1">
       <c r="A195" t="s">
         <v>152</v>
       </c>
@@ -13229,7 +13230,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="196" spans="1:9">
+    <row r="196" spans="1:9" hidden="1">
       <c r="A196" t="s">
         <v>317</v>
       </c>
@@ -13259,7 +13260,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="197" spans="1:9">
+    <row r="197" spans="1:9" hidden="1">
       <c r="A197" t="s">
         <v>317</v>
       </c>
@@ -13289,7 +13290,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="198" spans="1:9">
+    <row r="198" spans="1:9" hidden="1">
       <c r="A198" t="s">
         <v>317</v>
       </c>
@@ -13319,7 +13320,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="199" spans="1:9">
+    <row r="199" spans="1:9" hidden="1">
       <c r="A199" t="s">
         <v>318</v>
       </c>
@@ -13349,7 +13350,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="200" spans="1:9">
+    <row r="200" spans="1:9" hidden="1">
       <c r="A200" t="s">
         <v>318</v>
       </c>
@@ -13379,7 +13380,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="201" spans="1:9">
+    <row r="201" spans="1:9" hidden="1">
       <c r="A201" t="s">
         <v>318</v>
       </c>
@@ -13409,7 +13410,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="202" spans="1:9">
+    <row r="202" spans="1:9" hidden="1">
       <c r="A202" t="s">
         <v>318</v>
       </c>
@@ -13439,7 +13440,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="203" spans="1:9">
+    <row r="203" spans="1:9" hidden="1">
       <c r="A203" t="s">
         <v>318</v>
       </c>
@@ -13469,7 +13470,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="204" spans="1:9">
+    <row r="204" spans="1:9" hidden="1">
       <c r="A204" t="s">
         <v>318</v>
       </c>
@@ -13499,7 +13500,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="205" spans="1:9">
+    <row r="205" spans="1:9" hidden="1">
       <c r="A205" t="s">
         <v>318</v>
       </c>
@@ -13529,7 +13530,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="206" spans="1:9">
+    <row r="206" spans="1:9" hidden="1">
       <c r="A206" t="s">
         <v>318</v>
       </c>
@@ -13559,7 +13560,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="207" spans="1:9">
+    <row r="207" spans="1:9" hidden="1">
       <c r="A207" t="s">
         <v>318</v>
       </c>
@@ -13589,7 +13590,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="208" spans="1:9">
+    <row r="208" spans="1:9" hidden="1">
       <c r="A208" t="s">
         <v>318</v>
       </c>
@@ -13619,7 +13620,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="209" spans="1:9">
+    <row r="209" spans="1:9" hidden="1">
       <c r="A209" t="s">
         <v>318</v>
       </c>
@@ -13649,7 +13650,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="210" spans="1:9">
+    <row r="210" spans="1:9" hidden="1">
       <c r="A210" t="s">
         <v>170</v>
       </c>
@@ -13679,7 +13680,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="211" spans="1:9">
+    <row r="211" spans="1:9" hidden="1">
       <c r="A211" t="s">
         <v>170</v>
       </c>
@@ -13709,7 +13710,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="212" spans="1:9">
+    <row r="212" spans="1:9" hidden="1">
       <c r="A212" t="s">
         <v>322</v>
       </c>
@@ -13739,7 +13740,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="213" spans="1:9">
+    <row r="213" spans="1:9" hidden="1">
       <c r="A213" t="s">
         <v>322</v>
       </c>
@@ -13769,7 +13770,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="214" spans="1:9">
+    <row r="214" spans="1:9" hidden="1">
       <c r="A214" t="s">
         <v>322</v>
       </c>
@@ -13799,7 +13800,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="215" spans="1:9">
+    <row r="215" spans="1:9" hidden="1">
       <c r="A215" t="s">
         <v>322</v>
       </c>
@@ -13829,7 +13830,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="216" spans="1:9">
+    <row r="216" spans="1:9" hidden="1">
       <c r="A216" t="s">
         <v>322</v>
       </c>
@@ -13859,7 +13860,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="217" spans="1:9">
+    <row r="217" spans="1:9" hidden="1">
       <c r="A217" t="s">
         <v>322</v>
       </c>
@@ -13889,7 +13890,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="218" spans="1:9">
+    <row r="218" spans="1:9" hidden="1">
       <c r="A218" t="s">
         <v>340</v>
       </c>
@@ -13919,7 +13920,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="219" spans="1:9">
+    <row r="219" spans="1:9" hidden="1">
       <c r="A219" t="s">
         <v>173</v>
       </c>
@@ -13949,7 +13950,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="220" spans="1:9">
+    <row r="220" spans="1:9" hidden="1">
       <c r="A220" t="s">
         <v>173</v>
       </c>
@@ -13979,7 +13980,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="221" spans="1:9">
+    <row r="221" spans="1:9" hidden="1">
       <c r="A221" t="s">
         <v>173</v>
       </c>
@@ -14009,7 +14010,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="222" spans="1:9">
+    <row r="222" spans="1:9" hidden="1">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -14039,7 +14040,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="223" spans="1:9">
+    <row r="223" spans="1:9" hidden="1">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -14069,7 +14070,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="224" spans="1:9">
+    <row r="224" spans="1:9" hidden="1">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -14099,7 +14100,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="225" spans="1:9">
+    <row r="225" spans="1:9" hidden="1">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -14129,7 +14130,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="226" spans="1:9">
+    <row r="226" spans="1:9" hidden="1">
       <c r="A226" t="s">
         <v>241</v>
       </c>
@@ -14159,7 +14160,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="227" spans="1:9">
+    <row r="227" spans="1:9" hidden="1">
       <c r="A227" t="s">
         <v>241</v>
       </c>
@@ -14189,7 +14190,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="228" spans="1:9">
+    <row r="228" spans="1:9" hidden="1">
       <c r="A228" t="s">
         <v>241</v>
       </c>
@@ -14219,7 +14220,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="229" spans="1:9">
+    <row r="229" spans="1:9" hidden="1">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -14240,7 +14241,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="230" spans="1:9">
+    <row r="230" spans="1:9" hidden="1">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -14261,7 +14262,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="231" spans="1:9">
+    <row r="231" spans="1:9" hidden="1">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -14282,7 +14283,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="232" spans="1:9">
+    <row r="232" spans="1:9" hidden="1">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -14303,7 +14304,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="233" spans="1:9">
+    <row r="233" spans="1:9" hidden="1">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -14324,7 +14325,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="234" spans="1:9">
+    <row r="234" spans="1:9" hidden="1">
       <c r="A234" t="s">
         <v>10</v>
       </c>
@@ -14354,7 +14355,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="235" spans="1:9">
+    <row r="235" spans="1:9" hidden="1">
       <c r="A235" t="s">
         <v>10</v>
       </c>
@@ -14384,7 +14385,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="236" spans="1:9">
+    <row r="236" spans="1:9" hidden="1">
       <c r="A236" t="s">
         <v>10</v>
       </c>
@@ -14414,7 +14415,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="237" spans="1:9">
+    <row r="237" spans="1:9" hidden="1">
       <c r="A237" t="s">
         <v>10</v>
       </c>
@@ -14444,7 +14445,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="238" spans="1:9">
+    <row r="238" spans="1:9" hidden="1">
       <c r="A238" t="s">
         <v>10</v>
       </c>
@@ -14474,7 +14475,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="239" spans="1:9">
+    <row r="239" spans="1:9" hidden="1">
       <c r="A239" t="s">
         <v>10</v>
       </c>
@@ -14504,7 +14505,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="240" spans="1:9">
+    <row r="240" spans="1:9" hidden="1">
       <c r="A240" t="s">
         <v>10</v>
       </c>
@@ -14534,7 +14535,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="241" spans="1:9">
+    <row r="241" spans="1:9" hidden="1">
       <c r="A241" t="s">
         <v>10</v>
       </c>
@@ -14564,7 +14565,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="242" spans="1:9">
+    <row r="242" spans="1:9" hidden="1">
       <c r="A242" t="s">
         <v>10</v>
       </c>
@@ -14594,7 +14595,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="243" spans="1:9">
+    <row r="243" spans="1:9" hidden="1">
       <c r="A243" t="s">
         <v>10</v>
       </c>
@@ -14624,7 +14625,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="244" spans="1:9">
+    <row r="244" spans="1:9" hidden="1">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -14654,7 +14655,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="245" spans="1:9">
+    <row r="245" spans="1:9" hidden="1">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -14684,7 +14685,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="246" spans="1:9">
+    <row r="246" spans="1:9" hidden="1">
       <c r="A246" t="s">
         <v>9</v>
       </c>
@@ -14714,7 +14715,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="247" spans="1:9">
+    <row r="247" spans="1:9" hidden="1">
       <c r="A247" t="s">
         <v>258</v>
       </c>
@@ -14744,7 +14745,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="248" spans="1:9">
+    <row r="248" spans="1:9" hidden="1">
       <c r="A248" t="s">
         <v>258</v>
       </c>
@@ -14774,7 +14775,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="249" spans="1:9">
+    <row r="249" spans="1:9" hidden="1">
       <c r="A249" t="s">
         <v>258</v>
       </c>
@@ -14804,7 +14805,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="250" spans="1:9">
+    <row r="250" spans="1:9" hidden="1">
       <c r="A250" t="s">
         <v>258</v>
       </c>
@@ -14835,7 +14836,18 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I250" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}"/>
+  <autoFilter ref="A1:I250" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}">
+    <filterColumn colId="0">
+      <filters>
+        <filter val="ElectricitySubthemeValue"/>
+        <filter val="OilGasChemicalsSubthemeValue"/>
+        <filter val="SewerSubthemeValue"/>
+        <filter val="TelecommunicationsSubthemeValue"/>
+        <filter val="ThermalSubthemeValue"/>
+        <filter val="WaterSubthemeValue"/>
+      </filters>
+    </filterColumn>
+  </autoFilter>
   <hyperlinks>
     <hyperlink ref="H180" r:id="rId1" xr:uid="{937649D5-206B-4F0F-AC39-B248CB8B3379}"/>
     <hyperlink ref="H215" r:id="rId2" xr:uid="{58EA29A0-45FB-4990-9EF7-62E6622DF2D7}"/>
@@ -14895,15 +14907,6 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -15163,15 +15166,16 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC2C1C4-4794-4CDA-B113-FDC4260BCF94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
 </file>
 
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{791B434E-C5B6-43DF-B218-859297235BBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15189,4 +15193,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC2C1C4-4794-4CDA-B113-FDC4260BCF94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/implementation/Documentation/IMKL3_Codelists.xlsx
+++ b/implementation/Documentation/IMKL3_Codelists.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Work\Projects\Athumi\ICEGthema-imkl\implementation\Documentation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BEA09841-84DA-42F7-BF42-CD23ED9BC078}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA144781-5675-49CA-8E45-7D224E651487}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="17268" yWindow="3096" windowWidth="26196" windowHeight="25128" activeTab="2" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
+    <workbookView xWindow="23040" yWindow="0" windowWidth="23040" windowHeight="30264" activeTab="2" xr2:uid="{7D7764BC-E929-422B-98A1-10C145692BFB}"/>
   </bookViews>
   <sheets>
     <sheet name="Overview" sheetId="4" r:id="rId1"/>
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="1165">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2664" uniqueCount="1167">
   <si>
     <t>nilReason</t>
   </si>
@@ -3550,6 +3550,12 @@
   </si>
   <si>
     <t>http://inspire.ec.europa.eu/codelist/VerticalPositionValue</t>
+  </si>
+  <si>
+    <t>Huisaansluiting</t>
+  </si>
+  <si>
+    <t>Coaxkabel</t>
   </si>
 </sst>
 </file>
@@ -7364,19 +7370,18 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}">
-  <sheetPr filterMode="1"/>
   <dimension ref="A1:I250"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C263" sqref="C263"/>
+    <sheetView tabSelected="1" topLeftCell="G1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A122" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="K176" sqref="K176"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
   <cols>
     <col min="1" max="1" width="45.109375" customWidth="1"/>
     <col min="2" max="2" width="21.109375" hidden="1" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="73.6640625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="53" customWidth="1"/>
     <col min="5" max="5" width="33.88671875" customWidth="1"/>
     <col min="6" max="6" width="56.5546875" customWidth="1"/>
@@ -8223,7 +8228,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="29" spans="1:9" hidden="1">
+    <row r="29" spans="1:9">
       <c r="A29" t="s">
         <v>54</v>
       </c>
@@ -8253,7 +8258,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="30" spans="1:9" hidden="1">
+    <row r="30" spans="1:9">
       <c r="A30" t="s">
         <v>54</v>
       </c>
@@ -8283,7 +8288,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="31" spans="1:9" hidden="1">
+    <row r="31" spans="1:9">
       <c r="A31" t="s">
         <v>54</v>
       </c>
@@ -8313,7 +8318,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="32" spans="1:9" hidden="1">
+    <row r="32" spans="1:9">
       <c r="A32" t="s">
         <v>54</v>
       </c>
@@ -8343,7 +8348,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="33" spans="1:9" hidden="1">
+    <row r="33" spans="1:9">
       <c r="A33" t="s">
         <v>54</v>
       </c>
@@ -8373,7 +8378,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="34" spans="1:9" hidden="1">
+    <row r="34" spans="1:9">
       <c r="A34" t="s">
         <v>72</v>
       </c>
@@ -8403,7 +8408,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="35" spans="1:9" hidden="1">
+    <row r="35" spans="1:9">
       <c r="A35" t="s">
         <v>72</v>
       </c>
@@ -8433,7 +8438,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="36" spans="1:9" hidden="1">
+    <row r="36" spans="1:9">
       <c r="A36" t="s">
         <v>72</v>
       </c>
@@ -8463,7 +8468,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="37" spans="1:9" hidden="1">
+    <row r="37" spans="1:9">
       <c r="A37" t="s">
         <v>72</v>
       </c>
@@ -8493,7 +8498,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="38" spans="1:9" hidden="1">
+    <row r="38" spans="1:9">
       <c r="A38" t="s">
         <v>72</v>
       </c>
@@ -8523,7 +8528,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="39" spans="1:9" hidden="1">
+    <row r="39" spans="1:9">
       <c r="A39" t="s">
         <v>72</v>
       </c>
@@ -8553,7 +8558,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="40" spans="1:9" hidden="1">
+    <row r="40" spans="1:9">
       <c r="A40" t="s">
         <v>79</v>
       </c>
@@ -8583,7 +8588,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="41" spans="1:9" hidden="1">
+    <row r="41" spans="1:9">
       <c r="A41" t="s">
         <v>79</v>
       </c>
@@ -8613,7 +8618,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="42" spans="1:9" hidden="1">
+    <row r="42" spans="1:9">
       <c r="A42" t="s">
         <v>79</v>
       </c>
@@ -8643,7 +8648,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="43" spans="1:9" hidden="1">
+    <row r="43" spans="1:9">
       <c r="A43" t="s">
         <v>79</v>
       </c>
@@ -8673,7 +8678,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="44" spans="1:9" hidden="1">
+    <row r="44" spans="1:9">
       <c r="A44" t="s">
         <v>79</v>
       </c>
@@ -8703,7 +8708,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="45" spans="1:9" hidden="1">
+    <row r="45" spans="1:9">
       <c r="A45" t="s">
         <v>79</v>
       </c>
@@ -8730,7 +8735,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="46" spans="1:9" hidden="1">
+    <row r="46" spans="1:9">
       <c r="A46" t="s">
         <v>81</v>
       </c>
@@ -8760,7 +8765,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="47" spans="1:9" hidden="1">
+    <row r="47" spans="1:9">
       <c r="A47" t="s">
         <v>81</v>
       </c>
@@ -8790,7 +8795,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="48" spans="1:9" hidden="1">
+    <row r="48" spans="1:9">
       <c r="A48" t="s">
         <v>81</v>
       </c>
@@ -8820,7 +8825,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="49" spans="1:9" hidden="1">
+    <row r="49" spans="1:9">
       <c r="A49" t="s">
         <v>81</v>
       </c>
@@ -8850,7 +8855,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="50" spans="1:9" hidden="1">
+    <row r="50" spans="1:9">
       <c r="A50" t="s">
         <v>91</v>
       </c>
@@ -8880,7 +8885,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="51" spans="1:9" hidden="1">
+    <row r="51" spans="1:9">
       <c r="A51" t="s">
         <v>91</v>
       </c>
@@ -8910,7 +8915,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="52" spans="1:9" hidden="1">
+    <row r="52" spans="1:9">
       <c r="A52" t="s">
         <v>7</v>
       </c>
@@ -8940,7 +8945,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="53" spans="1:9" hidden="1">
+    <row r="53" spans="1:9">
       <c r="A53" t="s">
         <v>7</v>
       </c>
@@ -8970,7 +8975,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="54" spans="1:9" hidden="1">
+    <row r="54" spans="1:9">
       <c r="A54" t="s">
         <v>7</v>
       </c>
@@ -9000,7 +9005,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="55" spans="1:9" hidden="1">
+    <row r="55" spans="1:9">
       <c r="A55" t="s">
         <v>7</v>
       </c>
@@ -9030,7 +9035,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="56" spans="1:9" hidden="1">
+    <row r="56" spans="1:9">
       <c r="A56" t="s">
         <v>7</v>
       </c>
@@ -9060,7 +9065,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="57" spans="1:9" hidden="1">
+    <row r="57" spans="1:9">
       <c r="A57" t="s">
         <v>7</v>
       </c>
@@ -9090,7 +9095,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="58" spans="1:9" hidden="1">
+    <row r="58" spans="1:9">
       <c r="A58" t="s">
         <v>7</v>
       </c>
@@ -9120,7 +9125,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="59" spans="1:9" hidden="1">
+    <row r="59" spans="1:9">
       <c r="A59" t="s">
         <v>7</v>
       </c>
@@ -9150,7 +9155,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="60" spans="1:9" hidden="1">
+    <row r="60" spans="1:9">
       <c r="A60" t="s">
         <v>7</v>
       </c>
@@ -9180,7 +9185,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="61" spans="1:9" hidden="1">
+    <row r="61" spans="1:9">
       <c r="A61" t="s">
         <v>7</v>
       </c>
@@ -9210,7 +9215,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="62" spans="1:9" hidden="1">
+    <row r="62" spans="1:9">
       <c r="A62" t="s">
         <v>7</v>
       </c>
@@ -9240,7 +9245,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="63" spans="1:9" hidden="1">
+    <row r="63" spans="1:9">
       <c r="A63" t="s">
         <v>7</v>
       </c>
@@ -9270,7 +9275,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="64" spans="1:9" hidden="1">
+    <row r="64" spans="1:9">
       <c r="A64" t="s">
         <v>7</v>
       </c>
@@ -9300,7 +9305,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="65" spans="1:9" hidden="1">
+    <row r="65" spans="1:9">
       <c r="A65" t="s">
         <v>7</v>
       </c>
@@ -9330,7 +9335,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="66" spans="1:9" hidden="1">
+    <row r="66" spans="1:9">
       <c r="A66" t="s">
         <v>7</v>
       </c>
@@ -9360,7 +9365,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="67" spans="1:9" hidden="1">
+    <row r="67" spans="1:9">
       <c r="A67" t="s">
         <v>7</v>
       </c>
@@ -9390,7 +9395,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="68" spans="1:9" hidden="1">
+    <row r="68" spans="1:9">
       <c r="A68" t="s">
         <v>7</v>
       </c>
@@ -9420,7 +9425,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="69" spans="1:9" hidden="1">
+    <row r="69" spans="1:9">
       <c r="A69" t="s">
         <v>7</v>
       </c>
@@ -9450,7 +9455,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="70" spans="1:9" hidden="1">
+    <row r="70" spans="1:9">
       <c r="A70" t="s">
         <v>7</v>
       </c>
@@ -9480,7 +9485,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="71" spans="1:9" hidden="1">
+    <row r="71" spans="1:9">
       <c r="A71" t="s">
         <v>7</v>
       </c>
@@ -9510,7 +9515,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="72" spans="1:9" hidden="1">
+    <row r="72" spans="1:9">
       <c r="A72" t="s">
         <v>7</v>
       </c>
@@ -9540,7 +9545,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="73" spans="1:9" hidden="1">
+    <row r="73" spans="1:9">
       <c r="A73" t="s">
         <v>7</v>
       </c>
@@ -9570,7 +9575,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="74" spans="1:9" hidden="1">
+    <row r="74" spans="1:9">
       <c r="A74" t="s">
         <v>7</v>
       </c>
@@ -9600,7 +9605,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="75" spans="1:9" hidden="1">
+    <row r="75" spans="1:9">
       <c r="A75" t="s">
         <v>7</v>
       </c>
@@ -9630,7 +9635,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="76" spans="1:9" hidden="1">
+    <row r="76" spans="1:9">
       <c r="A76" t="s">
         <v>7</v>
       </c>
@@ -9660,7 +9665,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="77" spans="1:9" hidden="1">
+    <row r="77" spans="1:9">
       <c r="A77" t="s">
         <v>7</v>
       </c>
@@ -9690,7 +9695,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="78" spans="1:9" hidden="1">
+    <row r="78" spans="1:9">
       <c r="A78" t="s">
         <v>7</v>
       </c>
@@ -9720,7 +9725,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="79" spans="1:9" hidden="1">
+    <row r="79" spans="1:9">
       <c r="A79" t="s">
         <v>7</v>
       </c>
@@ -9750,7 +9755,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="80" spans="1:9" hidden="1">
+    <row r="80" spans="1:9">
       <c r="A80" t="s">
         <v>7</v>
       </c>
@@ -9780,7 +9785,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="81" spans="1:9" hidden="1">
+    <row r="81" spans="1:9">
       <c r="A81" t="s">
         <v>7</v>
       </c>
@@ -9810,7 +9815,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="82" spans="1:9" hidden="1">
+    <row r="82" spans="1:9">
       <c r="A82" t="s">
         <v>7</v>
       </c>
@@ -9840,7 +9845,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="83" spans="1:9" hidden="1">
+    <row r="83" spans="1:9">
       <c r="A83" t="s">
         <v>7</v>
       </c>
@@ -9870,7 +9875,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="84" spans="1:9" hidden="1">
+    <row r="84" spans="1:9">
       <c r="A84" t="s">
         <v>7</v>
       </c>
@@ -9900,7 +9905,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="85" spans="1:9" hidden="1">
+    <row r="85" spans="1:9">
       <c r="A85" t="s">
         <v>7</v>
       </c>
@@ -9930,7 +9935,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="86" spans="1:9" hidden="1">
+    <row r="86" spans="1:9">
       <c r="A86" t="s">
         <v>7</v>
       </c>
@@ -9960,7 +9965,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="87" spans="1:9" hidden="1">
+    <row r="87" spans="1:9">
       <c r="A87" t="s">
         <v>7</v>
       </c>
@@ -9990,7 +9995,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="88" spans="1:9" hidden="1">
+    <row r="88" spans="1:9">
       <c r="A88" t="s">
         <v>7</v>
       </c>
@@ -10020,7 +10025,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="89" spans="1:9" hidden="1">
+    <row r="89" spans="1:9">
       <c r="A89" t="s">
         <v>7</v>
       </c>
@@ -10050,7 +10055,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="90" spans="1:9" hidden="1">
+    <row r="90" spans="1:9">
       <c r="A90" t="s">
         <v>7</v>
       </c>
@@ -10080,7 +10085,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="91" spans="1:9" hidden="1">
+    <row r="91" spans="1:9">
       <c r="A91" t="s">
         <v>135</v>
       </c>
@@ -10110,7 +10115,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="92" spans="1:9" hidden="1">
+    <row r="92" spans="1:9">
       <c r="A92" t="s">
         <v>135</v>
       </c>
@@ -10140,7 +10145,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="93" spans="1:9" hidden="1">
+    <row r="93" spans="1:9">
       <c r="A93" t="s">
         <v>135</v>
       </c>
@@ -10170,7 +10175,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="94" spans="1:9" hidden="1">
+    <row r="94" spans="1:9">
       <c r="A94" t="s">
         <v>139</v>
       </c>
@@ -10200,7 +10205,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="95" spans="1:9" hidden="1">
+    <row r="95" spans="1:9">
       <c r="A95" t="s">
         <v>139</v>
       </c>
@@ -10230,7 +10235,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="96" spans="1:9" hidden="1">
+    <row r="96" spans="1:9">
       <c r="A96" t="s">
         <v>139</v>
       </c>
@@ -10260,7 +10265,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="97" spans="1:9" hidden="1">
+    <row r="97" spans="1:9">
       <c r="A97" t="s">
         <v>139</v>
       </c>
@@ -10290,7 +10295,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="98" spans="1:9" hidden="1">
+    <row r="98" spans="1:9">
       <c r="A98" t="s">
         <v>139</v>
       </c>
@@ -10320,7 +10325,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="99" spans="1:9" hidden="1">
+    <row r="99" spans="1:9">
       <c r="A99" t="s">
         <v>139</v>
       </c>
@@ -10350,7 +10355,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="100" spans="1:9" hidden="1">
+    <row r="100" spans="1:9">
       <c r="A100" t="s">
         <v>139</v>
       </c>
@@ -10380,7 +10385,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="101" spans="1:9" hidden="1">
+    <row r="101" spans="1:9">
       <c r="A101" t="s">
         <v>139</v>
       </c>
@@ -10410,7 +10415,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="102" spans="1:9" hidden="1">
+    <row r="102" spans="1:9">
       <c r="A102" t="s">
         <v>139</v>
       </c>
@@ -10440,7 +10445,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="103" spans="1:9" hidden="1">
+    <row r="103" spans="1:9">
       <c r="A103" t="s">
         <v>139</v>
       </c>
@@ -10470,7 +10475,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="104" spans="1:9" hidden="1">
+    <row r="104" spans="1:9">
       <c r="A104" t="s">
         <v>139</v>
       </c>
@@ -10500,7 +10505,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="105" spans="1:9" hidden="1">
+    <row r="105" spans="1:9">
       <c r="A105" t="s">
         <v>139</v>
       </c>
@@ -10530,7 +10535,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="106" spans="1:9" hidden="1">
+    <row r="106" spans="1:9">
       <c r="A106" t="s">
         <v>139</v>
       </c>
@@ -10560,7 +10565,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="107" spans="1:9" hidden="1">
+    <row r="107" spans="1:9">
       <c r="A107" t="s">
         <v>152</v>
       </c>
@@ -10590,7 +10595,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="108" spans="1:9" hidden="1">
+    <row r="108" spans="1:9">
       <c r="A108" t="s">
         <v>152</v>
       </c>
@@ -10620,7 +10625,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="109" spans="1:9" hidden="1">
+    <row r="109" spans="1:9">
       <c r="A109" t="s">
         <v>152</v>
       </c>
@@ -10650,7 +10655,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="110" spans="1:9" hidden="1">
+    <row r="110" spans="1:9">
       <c r="A110" t="s">
         <v>152</v>
       </c>
@@ -10680,7 +10685,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="111" spans="1:9" hidden="1">
+    <row r="111" spans="1:9">
       <c r="A111" t="s">
         <v>152</v>
       </c>
@@ -10710,7 +10715,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="112" spans="1:9" hidden="1">
+    <row r="112" spans="1:9">
       <c r="A112" t="s">
         <v>152</v>
       </c>
@@ -10740,7 +10745,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="113" spans="1:9" hidden="1">
+    <row r="113" spans="1:9">
       <c r="A113" t="s">
         <v>152</v>
       </c>
@@ -10770,7 +10775,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="114" spans="1:9" hidden="1">
+    <row r="114" spans="1:9">
       <c r="A114" t="s">
         <v>152</v>
       </c>
@@ -10800,7 +10805,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="115" spans="1:9" hidden="1">
+    <row r="115" spans="1:9">
       <c r="A115" t="s">
         <v>152</v>
       </c>
@@ -10830,7 +10835,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="116" spans="1:9" hidden="1">
+    <row r="116" spans="1:9">
       <c r="A116" t="s">
         <v>155</v>
       </c>
@@ -10860,7 +10865,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="117" spans="1:9" hidden="1">
+    <row r="117" spans="1:9">
       <c r="A117" t="s">
         <v>155</v>
       </c>
@@ -10890,7 +10895,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="118" spans="1:9" hidden="1">
+    <row r="118" spans="1:9">
       <c r="A118" t="s">
         <v>155</v>
       </c>
@@ -10920,7 +10925,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="119" spans="1:9" hidden="1">
+    <row r="119" spans="1:9">
       <c r="A119" t="s">
         <v>155</v>
       </c>
@@ -10950,7 +10955,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="120" spans="1:9" hidden="1">
+    <row r="120" spans="1:9">
       <c r="A120" t="s">
         <v>155</v>
       </c>
@@ -10980,7 +10985,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="121" spans="1:9" hidden="1">
+    <row r="121" spans="1:9">
       <c r="A121" t="s">
         <v>155</v>
       </c>
@@ -11010,7 +11015,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="122" spans="1:9" hidden="1">
+    <row r="122" spans="1:9">
       <c r="A122" t="s">
         <v>323</v>
       </c>
@@ -11040,7 +11045,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="123" spans="1:9" hidden="1">
+    <row r="123" spans="1:9">
       <c r="A123" t="s">
         <v>158</v>
       </c>
@@ -11070,7 +11075,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="124" spans="1:9" hidden="1">
+    <row r="124" spans="1:9">
       <c r="A124" t="s">
         <v>160</v>
       </c>
@@ -11100,7 +11105,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="125" spans="1:9" hidden="1">
+    <row r="125" spans="1:9">
       <c r="A125" t="s">
         <v>160</v>
       </c>
@@ -11130,7 +11135,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="126" spans="1:9" hidden="1">
+    <row r="126" spans="1:9">
       <c r="A126" t="s">
         <v>160</v>
       </c>
@@ -11160,7 +11165,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="127" spans="1:9" hidden="1">
+    <row r="127" spans="1:9">
       <c r="A127" t="s">
         <v>160</v>
       </c>
@@ -11190,7 +11195,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="128" spans="1:9" hidden="1">
+    <row r="128" spans="1:9">
       <c r="A128" t="s">
         <v>160</v>
       </c>
@@ -11220,7 +11225,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="129" spans="1:9" hidden="1">
+    <row r="129" spans="1:9">
       <c r="A129" t="s">
         <v>160</v>
       </c>
@@ -11250,7 +11255,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="130" spans="1:9" hidden="1">
+    <row r="130" spans="1:9">
       <c r="A130" t="s">
         <v>160</v>
       </c>
@@ -11280,7 +11285,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="131" spans="1:9" hidden="1">
+    <row r="131" spans="1:9">
       <c r="A131" t="s">
         <v>160</v>
       </c>
@@ -11310,7 +11315,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="132" spans="1:9" hidden="1">
+    <row r="132" spans="1:9">
       <c r="A132" t="s">
         <v>160</v>
       </c>
@@ -11340,7 +11345,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="133" spans="1:9" hidden="1">
+    <row r="133" spans="1:9">
       <c r="A133" t="s">
         <v>160</v>
       </c>
@@ -11370,7 +11375,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="134" spans="1:9" hidden="1">
+    <row r="134" spans="1:9">
       <c r="A134" t="s">
         <v>160</v>
       </c>
@@ -11400,7 +11405,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="135" spans="1:9" hidden="1">
+    <row r="135" spans="1:9">
       <c r="A135" t="s">
         <v>160</v>
       </c>
@@ -11430,7 +11435,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="136" spans="1:9" hidden="1">
+    <row r="136" spans="1:9">
       <c r="A136" t="s">
         <v>160</v>
       </c>
@@ -11460,7 +11465,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="137" spans="1:9" hidden="1">
+    <row r="137" spans="1:9">
       <c r="A137" t="s">
         <v>160</v>
       </c>
@@ -11490,7 +11495,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="138" spans="1:9" hidden="1">
+    <row r="138" spans="1:9">
       <c r="A138" t="s">
         <v>160</v>
       </c>
@@ -11520,7 +11525,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="139" spans="1:9" hidden="1">
+    <row r="139" spans="1:9">
       <c r="A139" t="s">
         <v>160</v>
       </c>
@@ -11550,7 +11555,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="140" spans="1:9" hidden="1">
+    <row r="140" spans="1:9">
       <c r="A140" t="s">
         <v>161</v>
       </c>
@@ -11580,7 +11585,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="141" spans="1:9" hidden="1">
+    <row r="141" spans="1:9">
       <c r="A141" t="s">
         <v>161</v>
       </c>
@@ -11610,7 +11615,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="142" spans="1:9" hidden="1">
+    <row r="142" spans="1:9">
       <c r="A142" t="s">
         <v>161</v>
       </c>
@@ -11640,7 +11645,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="143" spans="1:9" hidden="1">
+    <row r="143" spans="1:9">
       <c r="A143" t="s">
         <v>161</v>
       </c>
@@ -11670,7 +11675,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="144" spans="1:9" hidden="1">
+    <row r="144" spans="1:9">
       <c r="A144" t="s">
         <v>161</v>
       </c>
@@ -11700,7 +11705,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="145" spans="1:9" hidden="1">
+    <row r="145" spans="1:9">
       <c r="A145" t="s">
         <v>161</v>
       </c>
@@ -11730,7 +11735,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="146" spans="1:9" hidden="1">
+    <row r="146" spans="1:9">
       <c r="A146" t="s">
         <v>161</v>
       </c>
@@ -11760,7 +11765,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="147" spans="1:9" hidden="1">
+    <row r="147" spans="1:9">
       <c r="A147" t="s">
         <v>161</v>
       </c>
@@ -11790,7 +11795,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="148" spans="1:9" hidden="1">
+    <row r="148" spans="1:9">
       <c r="A148" t="s">
         <v>161</v>
       </c>
@@ -11820,7 +11825,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="149" spans="1:9" hidden="1">
+    <row r="149" spans="1:9">
       <c r="A149" t="s">
         <v>161</v>
       </c>
@@ -11850,7 +11855,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="150" spans="1:9" hidden="1">
+    <row r="150" spans="1:9">
       <c r="A150" t="s">
         <v>161</v>
       </c>
@@ -11880,7 +11885,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="151" spans="1:9" hidden="1">
+    <row r="151" spans="1:9">
       <c r="A151" t="s">
         <v>161</v>
       </c>
@@ -11910,7 +11915,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="152" spans="1:9" hidden="1">
+    <row r="152" spans="1:9">
       <c r="A152" t="s">
         <v>161</v>
       </c>
@@ -11940,7 +11945,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="153" spans="1:9" hidden="1">
+    <row r="153" spans="1:9">
       <c r="A153" t="s">
         <v>161</v>
       </c>
@@ -11970,7 +11975,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="154" spans="1:9" hidden="1">
+    <row r="154" spans="1:9">
       <c r="A154" t="s">
         <v>161</v>
       </c>
@@ -12000,7 +12005,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="155" spans="1:9" hidden="1">
+    <row r="155" spans="1:9">
       <c r="A155" t="s">
         <v>161</v>
       </c>
@@ -12030,7 +12035,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="156" spans="1:9" hidden="1">
+    <row r="156" spans="1:9">
       <c r="A156" t="s">
         <v>161</v>
       </c>
@@ -12060,7 +12065,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="157" spans="1:9" hidden="1">
+    <row r="157" spans="1:9">
       <c r="A157" t="s">
         <v>161</v>
       </c>
@@ -12090,7 +12095,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="158" spans="1:9" hidden="1">
+    <row r="158" spans="1:9">
       <c r="A158" t="s">
         <v>161</v>
       </c>
@@ -12120,7 +12125,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="159" spans="1:9" hidden="1">
+    <row r="159" spans="1:9">
       <c r="A159" t="s">
         <v>161</v>
       </c>
@@ -12150,7 +12155,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="160" spans="1:9" hidden="1">
+    <row r="160" spans="1:9">
       <c r="A160" t="s">
         <v>161</v>
       </c>
@@ -12180,7 +12185,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="161" spans="1:9" hidden="1">
+    <row r="161" spans="1:9">
       <c r="A161" t="s">
         <v>161</v>
       </c>
@@ -12210,7 +12215,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="162" spans="1:9" hidden="1">
+    <row r="162" spans="1:9">
       <c r="A162" t="s">
         <v>161</v>
       </c>
@@ -12240,7 +12245,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="163" spans="1:9" hidden="1">
+    <row r="163" spans="1:9">
       <c r="A163" t="s">
         <v>161</v>
       </c>
@@ -12270,7 +12275,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="164" spans="1:9" hidden="1">
+    <row r="164" spans="1:9">
       <c r="A164" t="s">
         <v>161</v>
       </c>
@@ -12300,7 +12305,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="165" spans="1:9" hidden="1">
+    <row r="165" spans="1:9">
       <c r="A165" t="s">
         <v>170</v>
       </c>
@@ -12330,7 +12335,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="166" spans="1:9" hidden="1">
+    <row r="166" spans="1:9">
       <c r="A166" t="s">
         <v>170</v>
       </c>
@@ -12339,7 +12344,7 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C166" t="s">
-        <v>954</v>
+        <v>137</v>
       </c>
       <c r="D166" t="s">
         <v>220</v>
@@ -12360,7 +12365,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="167" spans="1:9" hidden="1">
+    <row r="167" spans="1:9">
       <c r="A167" t="s">
         <v>173</v>
       </c>
@@ -12390,7 +12395,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="168" spans="1:9" hidden="1">
+    <row r="168" spans="1:9">
       <c r="A168" t="s">
         <v>338</v>
       </c>
@@ -12399,7 +12404,7 @@
         <v>TelecommunicationsCableMaterialTypeIMKLValue</v>
       </c>
       <c r="C168" t="s">
-        <v>958</v>
+        <v>1166</v>
       </c>
       <c r="D168" t="s">
         <v>176</v>
@@ -12420,7 +12425,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="169" spans="1:9" hidden="1">
+    <row r="169" spans="1:9">
       <c r="A169" t="s">
         <v>338</v>
       </c>
@@ -12450,7 +12455,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="170" spans="1:9" hidden="1">
+    <row r="170" spans="1:9">
       <c r="A170" t="s">
         <v>338</v>
       </c>
@@ -12480,7 +12485,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="171" spans="1:9" hidden="1">
+    <row r="171" spans="1:9">
       <c r="A171" t="s">
         <v>338</v>
       </c>
@@ -12510,7 +12515,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="172" spans="1:9" hidden="1">
+    <row r="172" spans="1:9">
       <c r="A172" t="s">
         <v>327</v>
       </c>
@@ -12540,7 +12545,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="173" spans="1:9" hidden="1">
+    <row r="173" spans="1:9">
       <c r="A173" t="s">
         <v>327</v>
       </c>
@@ -12570,7 +12575,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="174" spans="1:9" hidden="1">
+    <row r="174" spans="1:9">
       <c r="A174" t="s">
         <v>327</v>
       </c>
@@ -12600,7 +12605,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="175" spans="1:9" hidden="1">
+    <row r="175" spans="1:9">
       <c r="A175" t="s">
         <v>327</v>
       </c>
@@ -12630,7 +12635,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="176" spans="1:9" hidden="1">
+    <row r="176" spans="1:9">
       <c r="A176" t="s">
         <v>325</v>
       </c>
@@ -12660,7 +12665,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="177" spans="1:9" hidden="1">
+    <row r="177" spans="1:9">
       <c r="A177" t="s">
         <v>325</v>
       </c>
@@ -12690,7 +12695,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="178" spans="1:9" hidden="1">
+    <row r="178" spans="1:9">
       <c r="A178" t="s">
         <v>325</v>
       </c>
@@ -12720,7 +12725,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="179" spans="1:9" hidden="1">
+    <row r="179" spans="1:9">
       <c r="A179" t="s">
         <v>325</v>
       </c>
@@ -12750,7 +12755,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="180" spans="1:9" hidden="1">
+    <row r="180" spans="1:9">
       <c r="A180" t="s">
         <v>320</v>
       </c>
@@ -12780,7 +12785,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="181" spans="1:9" hidden="1">
+    <row r="181" spans="1:9">
       <c r="A181" t="s">
         <v>320</v>
       </c>
@@ -12810,7 +12815,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="182" spans="1:9" hidden="1">
+    <row r="182" spans="1:9">
       <c r="A182" t="s">
         <v>320</v>
       </c>
@@ -12840,7 +12845,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="183" spans="1:9" hidden="1">
+    <row r="183" spans="1:9">
       <c r="A183" t="s">
         <v>320</v>
       </c>
@@ -12870,7 +12875,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="184" spans="1:9" hidden="1">
+    <row r="184" spans="1:9">
       <c r="A184" t="s">
         <v>341</v>
       </c>
@@ -12900,7 +12905,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="185" spans="1:9" ht="28.8" hidden="1">
+    <row r="185" spans="1:9" ht="28.8">
       <c r="A185" t="s">
         <v>323</v>
       </c>
@@ -12930,7 +12935,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="186" spans="1:9" hidden="1">
+    <row r="186" spans="1:9">
       <c r="A186" t="s">
         <v>158</v>
       </c>
@@ -12960,7 +12965,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="187" spans="1:9" ht="57.6" hidden="1">
+    <row r="187" spans="1:9" ht="57.6">
       <c r="A187" t="s">
         <v>323</v>
       </c>
@@ -12990,7 +12995,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="188" spans="1:9" hidden="1">
+    <row r="188" spans="1:9">
       <c r="A188" t="s">
         <v>315</v>
       </c>
@@ -13020,7 +13025,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="189" spans="1:9" hidden="1">
+    <row r="189" spans="1:9">
       <c r="A189" t="s">
         <v>315</v>
       </c>
@@ -13050,7 +13055,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="190" spans="1:9" hidden="1">
+    <row r="190" spans="1:9">
       <c r="A190" t="s">
         <v>316</v>
       </c>
@@ -13080,7 +13085,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="191" spans="1:9" hidden="1">
+    <row r="191" spans="1:9">
       <c r="A191" t="s">
         <v>316</v>
       </c>
@@ -13110,7 +13115,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="192" spans="1:9" hidden="1">
+    <row r="192" spans="1:9">
       <c r="A192" t="s">
         <v>316</v>
       </c>
@@ -13140,7 +13145,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="193" spans="1:9" hidden="1">
+    <row r="193" spans="1:9">
       <c r="A193" t="s">
         <v>317</v>
       </c>
@@ -13170,7 +13175,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="194" spans="1:9" hidden="1">
+    <row r="194" spans="1:9">
       <c r="A194" t="s">
         <v>317</v>
       </c>
@@ -13200,7 +13205,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="195" spans="1:9" hidden="1">
+    <row r="195" spans="1:9">
       <c r="A195" t="s">
         <v>152</v>
       </c>
@@ -13230,7 +13235,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="196" spans="1:9" hidden="1">
+    <row r="196" spans="1:9">
       <c r="A196" t="s">
         <v>317</v>
       </c>
@@ -13260,7 +13265,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="197" spans="1:9" hidden="1">
+    <row r="197" spans="1:9">
       <c r="A197" t="s">
         <v>317</v>
       </c>
@@ -13290,7 +13295,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="198" spans="1:9" hidden="1">
+    <row r="198" spans="1:9">
       <c r="A198" t="s">
         <v>317</v>
       </c>
@@ -13320,7 +13325,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="199" spans="1:9" hidden="1">
+    <row r="199" spans="1:9">
       <c r="A199" t="s">
         <v>318</v>
       </c>
@@ -13350,7 +13355,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="200" spans="1:9" hidden="1">
+    <row r="200" spans="1:9">
       <c r="A200" t="s">
         <v>318</v>
       </c>
@@ -13380,7 +13385,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="201" spans="1:9" hidden="1">
+    <row r="201" spans="1:9">
       <c r="A201" t="s">
         <v>318</v>
       </c>
@@ -13410,7 +13415,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="202" spans="1:9" hidden="1">
+    <row r="202" spans="1:9">
       <c r="A202" t="s">
         <v>318</v>
       </c>
@@ -13440,7 +13445,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="203" spans="1:9" hidden="1">
+    <row r="203" spans="1:9">
       <c r="A203" t="s">
         <v>318</v>
       </c>
@@ -13470,7 +13475,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="204" spans="1:9" hidden="1">
+    <row r="204" spans="1:9">
       <c r="A204" t="s">
         <v>318</v>
       </c>
@@ -13500,7 +13505,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="205" spans="1:9" hidden="1">
+    <row r="205" spans="1:9">
       <c r="A205" t="s">
         <v>318</v>
       </c>
@@ -13530,7 +13535,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="206" spans="1:9" hidden="1">
+    <row r="206" spans="1:9">
       <c r="A206" t="s">
         <v>318</v>
       </c>
@@ -13560,7 +13565,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="207" spans="1:9" hidden="1">
+    <row r="207" spans="1:9">
       <c r="A207" t="s">
         <v>318</v>
       </c>
@@ -13590,7 +13595,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="208" spans="1:9" hidden="1">
+    <row r="208" spans="1:9">
       <c r="A208" t="s">
         <v>318</v>
       </c>
@@ -13620,7 +13625,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="209" spans="1:9" hidden="1">
+    <row r="209" spans="1:9">
       <c r="A209" t="s">
         <v>318</v>
       </c>
@@ -13650,7 +13655,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="210" spans="1:9" hidden="1">
+    <row r="210" spans="1:9">
       <c r="A210" t="s">
         <v>170</v>
       </c>
@@ -13680,7 +13685,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="211" spans="1:9" hidden="1">
+    <row r="211" spans="1:9">
       <c r="A211" t="s">
         <v>170</v>
       </c>
@@ -13689,7 +13694,7 @@
         <v>TelecommunicationsAppurtenanceTypeIMKLValue</v>
       </c>
       <c r="C211" t="s">
-        <v>956</v>
+        <v>1165</v>
       </c>
       <c r="D211" t="s">
         <v>221</v>
@@ -13710,7 +13715,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="212" spans="1:9" hidden="1">
+    <row r="212" spans="1:9">
       <c r="A212" t="s">
         <v>322</v>
       </c>
@@ -13740,7 +13745,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="213" spans="1:9" hidden="1">
+    <row r="213" spans="1:9">
       <c r="A213" t="s">
         <v>322</v>
       </c>
@@ -13770,7 +13775,7 @@
         <v>529</v>
       </c>
     </row>
-    <row r="214" spans="1:9" hidden="1">
+    <row r="214" spans="1:9">
       <c r="A214" t="s">
         <v>322</v>
       </c>
@@ -13800,7 +13805,7 @@
         <v>226</v>
       </c>
     </row>
-    <row r="215" spans="1:9" hidden="1">
+    <row r="215" spans="1:9">
       <c r="A215" t="s">
         <v>322</v>
       </c>
@@ -13830,7 +13835,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="216" spans="1:9" hidden="1">
+    <row r="216" spans="1:9">
       <c r="A216" t="s">
         <v>322</v>
       </c>
@@ -13860,7 +13865,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="217" spans="1:9" hidden="1">
+    <row r="217" spans="1:9">
       <c r="A217" t="s">
         <v>322</v>
       </c>
@@ -13890,7 +13895,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="218" spans="1:9" hidden="1">
+    <row r="218" spans="1:9">
       <c r="A218" t="s">
         <v>340</v>
       </c>
@@ -13920,7 +13925,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="219" spans="1:9" hidden="1">
+    <row r="219" spans="1:9">
       <c r="A219" t="s">
         <v>173</v>
       </c>
@@ -13950,7 +13955,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="220" spans="1:9" hidden="1">
+    <row r="220" spans="1:9">
       <c r="A220" t="s">
         <v>173</v>
       </c>
@@ -13980,7 +13985,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="221" spans="1:9" hidden="1">
+    <row r="221" spans="1:9">
       <c r="A221" t="s">
         <v>173</v>
       </c>
@@ -14010,7 +14015,7 @@
         <v>229</v>
       </c>
     </row>
-    <row r="222" spans="1:9" hidden="1">
+    <row r="222" spans="1:9">
       <c r="A222" t="s">
         <v>6</v>
       </c>
@@ -14040,7 +14045,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="223" spans="1:9" hidden="1">
+    <row r="223" spans="1:9">
       <c r="A223" t="s">
         <v>6</v>
       </c>
@@ -14070,7 +14075,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="224" spans="1:9" hidden="1">
+    <row r="224" spans="1:9">
       <c r="A224" t="s">
         <v>6</v>
       </c>
@@ -14100,7 +14105,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="225" spans="1:9" hidden="1">
+    <row r="225" spans="1:9">
       <c r="A225" t="s">
         <v>6</v>
       </c>
@@ -14130,7 +14135,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="226" spans="1:9" hidden="1">
+    <row r="226" spans="1:9">
       <c r="A226" t="s">
         <v>241</v>
       </c>
@@ -14160,7 +14165,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="227" spans="1:9" hidden="1">
+    <row r="227" spans="1:9">
       <c r="A227" t="s">
         <v>241</v>
       </c>
@@ -14190,7 +14195,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="228" spans="1:9" hidden="1">
+    <row r="228" spans="1:9">
       <c r="A228" t="s">
         <v>241</v>
       </c>
@@ -14220,7 +14225,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="229" spans="1:9" hidden="1">
+    <row r="229" spans="1:9">
       <c r="A229" t="s">
         <v>0</v>
       </c>
@@ -14241,7 +14246,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="230" spans="1:9" hidden="1">
+    <row r="230" spans="1:9">
       <c r="A230" t="s">
         <v>0</v>
       </c>
@@ -14262,7 +14267,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="231" spans="1:9" hidden="1">
+    <row r="231" spans="1:9">
       <c r="A231" t="s">
         <v>0</v>
       </c>
@@ -14283,7 +14288,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="232" spans="1:9" hidden="1">
+    <row r="232" spans="1:9">
       <c r="A232" t="s">
         <v>0</v>
       </c>
@@ -14304,7 +14309,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="233" spans="1:9" hidden="1">
+    <row r="233" spans="1:9">
       <c r="A233" t="s">
         <v>0</v>
       </c>
@@ -14325,7 +14330,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="234" spans="1:9" hidden="1">
+    <row r="234" spans="1:9">
       <c r="A234" t="s">
         <v>10</v>
       </c>
@@ -14355,7 +14360,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="235" spans="1:9" hidden="1">
+    <row r="235" spans="1:9">
       <c r="A235" t="s">
         <v>10</v>
       </c>
@@ -14385,7 +14390,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="236" spans="1:9" hidden="1">
+    <row r="236" spans="1:9">
       <c r="A236" t="s">
         <v>10</v>
       </c>
@@ -14415,7 +14420,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="237" spans="1:9" hidden="1">
+    <row r="237" spans="1:9">
       <c r="A237" t="s">
         <v>10</v>
       </c>
@@ -14445,7 +14450,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="238" spans="1:9" hidden="1">
+    <row r="238" spans="1:9">
       <c r="A238" t="s">
         <v>10</v>
       </c>
@@ -14475,7 +14480,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="239" spans="1:9" hidden="1">
+    <row r="239" spans="1:9">
       <c r="A239" t="s">
         <v>10</v>
       </c>
@@ -14505,7 +14510,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="240" spans="1:9" hidden="1">
+    <row r="240" spans="1:9">
       <c r="A240" t="s">
         <v>10</v>
       </c>
@@ -14535,7 +14540,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="241" spans="1:9" hidden="1">
+    <row r="241" spans="1:9">
       <c r="A241" t="s">
         <v>10</v>
       </c>
@@ -14565,7 +14570,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="242" spans="1:9" hidden="1">
+    <row r="242" spans="1:9">
       <c r="A242" t="s">
         <v>10</v>
       </c>
@@ -14595,7 +14600,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="243" spans="1:9" hidden="1">
+    <row r="243" spans="1:9">
       <c r="A243" t="s">
         <v>10</v>
       </c>
@@ -14625,7 +14630,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="244" spans="1:9" hidden="1">
+    <row r="244" spans="1:9">
       <c r="A244" t="s">
         <v>8</v>
       </c>
@@ -14655,7 +14660,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="245" spans="1:9" hidden="1">
+    <row r="245" spans="1:9">
       <c r="A245" t="s">
         <v>8</v>
       </c>
@@ -14685,7 +14690,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="246" spans="1:9" hidden="1">
+    <row r="246" spans="1:9">
       <c r="A246" t="s">
         <v>9</v>
       </c>
@@ -14715,7 +14720,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="247" spans="1:9" hidden="1">
+    <row r="247" spans="1:9">
       <c r="A247" t="s">
         <v>258</v>
       </c>
@@ -14745,7 +14750,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="248" spans="1:9" hidden="1">
+    <row r="248" spans="1:9">
       <c r="A248" t="s">
         <v>258</v>
       </c>
@@ -14775,7 +14780,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="249" spans="1:9" hidden="1">
+    <row r="249" spans="1:9">
       <c r="A249" t="s">
         <v>258</v>
       </c>
@@ -14805,7 +14810,7 @@
         <v>530</v>
       </c>
     </row>
-    <row r="250" spans="1:9" hidden="1">
+    <row r="250" spans="1:9">
       <c r="A250" t="s">
         <v>258</v>
       </c>
@@ -14836,18 +14841,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="A1:I250" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}">
-    <filterColumn colId="0">
-      <filters>
-        <filter val="ElectricitySubthemeValue"/>
-        <filter val="OilGasChemicalsSubthemeValue"/>
-        <filter val="SewerSubthemeValue"/>
-        <filter val="TelecommunicationsSubthemeValue"/>
-        <filter val="ThermalSubthemeValue"/>
-        <filter val="WaterSubthemeValue"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="A1:I250" xr:uid="{75ABF075-1189-4C98-A20B-91C63C9C478D}"/>
   <hyperlinks>
     <hyperlink ref="H180" r:id="rId1" xr:uid="{937649D5-206B-4F0F-AC39-B248CB8B3379}"/>
     <hyperlink ref="H215" r:id="rId2" xr:uid="{58EA29A0-45FB-4990-9EF7-62E6622DF2D7}"/>
@@ -14907,6 +14901,15 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010088F26AC8FFACDA459ED97BA33A2EDD09" ma:contentTypeVersion="" ma:contentTypeDescription="Een nieuw document maken." ma:contentTypeScope="" ma:versionID="d100541493c99754ab38f69507ec9314">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="6dbdd298-def3-48d5-b10a-519f5ec7909f" xmlns:ns3="b7ca5a17-62b2-45ee-a209-788463db48b0" xmlns:ns4="9a9ec0f0-7796-43d0-ac1f-4c8c46ee0bd1" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="3f133327a4eb5a6191fb38303f059c04" ns2:_="" ns3:_="" ns4:_="">
     <xsd:import namespace="6dbdd298-def3-48d5-b10a-519f5ec7909f"/>
@@ -15166,16 +15169,15 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC2C1C4-4794-4CDA-B113-FDC4260BCF94}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{791B434E-C5B6-43DF-B218-859297235BBC}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -15193,12 +15195,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{9DC2C1C4-4794-4CDA-B113-FDC4260BCF94}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>